--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D60F5-0AFA-4633-96B2-931994820106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13CA3D-142A-41B4-AFBB-EC484FCFF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="247">
   <si>
     <t>Ano</t>
   </si>
@@ -541,12 +541,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>+Receita liquida operac</t>
-  </si>
-  <si>
-    <t>-Custo Produtos Vendidos</t>
-  </si>
-  <si>
     <t>=Lucro Bruto</t>
   </si>
   <si>
@@ -622,9 +616,6 @@
     <t xml:space="preserve"> Deprec, amortiz e exaust</t>
   </si>
   <si>
-    <t>+Caixa gerado por operac</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Caixa gerado nas operac</t>
   </si>
   <si>
@@ -782,6 +773,15 @@
   </si>
   <si>
     <t>Retornos mensais</t>
+  </si>
+  <si>
+    <t>Receita liquida operacional</t>
+  </si>
+  <si>
+    <t>CMV</t>
+  </si>
+  <si>
+    <t>Caixa gerado por operac</t>
   </si>
 </sst>
 </file>
@@ -2740,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C9A29-F125-44E8-9E76-9BF068E61073}">
-  <dimension ref="A1:FV11"/>
+  <dimension ref="A1:FV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3461,22 +3461,22 @@
     </row>
     <row r="2" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="7">
-        <v>8873550</v>
+        <v>10141293</v>
       </c>
       <c r="C2" s="8">
-        <v>5710017</v>
+        <v>6851787</v>
       </c>
       <c r="D2" s="9">
-        <v>2302256</v>
+        <v>3373799</v>
       </c>
       <c r="E2" s="9">
-        <v>261244</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
-        <v>261244</v>
+        <v>0</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>165</v>
@@ -3497,31 +3497,31 @@
         <v>0</v>
       </c>
       <c r="M2" s="9">
-        <v>1472839</v>
+        <v>1658806</v>
       </c>
       <c r="N2" s="8">
-        <v>1472839</v>
+        <v>1658806</v>
       </c>
       <c r="O2" s="8">
         <v>0</v>
       </c>
       <c r="P2" s="9">
-        <v>1306273</v>
+        <v>1445927</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>183627</v>
+        <v>166384</v>
       </c>
       <c r="S2" s="8">
-        <v>183627</v>
+        <v>166384</v>
       </c>
       <c r="T2" s="9">
         <v>0</v>
       </c>
       <c r="U2" s="9">
-        <v>183778</v>
+        <v>206871</v>
       </c>
       <c r="V2" s="8">
         <v>0</v>
@@ -3530,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="X2" s="8">
-        <v>183778</v>
+        <v>206871</v>
       </c>
       <c r="Y2" s="8">
-        <v>3163533</v>
+        <v>3289506</v>
       </c>
       <c r="Z2" s="9">
-        <v>88833</v>
+        <v>123866</v>
       </c>
       <c r="AA2" s="8">
-        <v>2032</v>
+        <v>2230</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>165</v>
@@ -3572,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="AL2" s="8">
-        <v>36891</v>
+        <v>60376</v>
       </c>
       <c r="AM2" s="7">
-        <v>36891</v>
+        <v>60376</v>
       </c>
       <c r="AN2" s="7">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="8">
-        <v>49910</v>
+        <v>61260</v>
       </c>
       <c r="AV2" s="7">
         <v>0</v>
@@ -3608,34 +3608,34 @@
         <v>0</v>
       </c>
       <c r="AX2" s="7">
-        <v>49910</v>
+        <v>61260</v>
       </c>
       <c r="AY2" s="9">
-        <v>7622</v>
+        <v>7264</v>
       </c>
       <c r="AZ2" s="8">
-        <v>349</v>
-      </c>
-      <c r="BA2" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="7">
-        <v>349</v>
+        <v>44</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD2" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="BE2" s="8">
-        <v>7273</v>
+        <v>7220</v>
       </c>
       <c r="BF2" s="9">
-        <v>2537094</v>
+        <v>2614556</v>
       </c>
       <c r="BG2" s="8">
-        <v>2537094</v>
+        <v>2614556</v>
       </c>
       <c r="BH2" s="8">
         <v>0</v>
@@ -3644,37 +3644,37 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="9">
-        <v>529984</v>
+        <v>543820</v>
       </c>
       <c r="BK2" s="8">
-        <v>31215</v>
+        <v>40772</v>
       </c>
       <c r="BL2" s="7">
         <v>0</v>
       </c>
       <c r="BM2" s="7">
-        <v>31215</v>
+        <v>40772</v>
       </c>
       <c r="BN2" s="8">
-        <v>498769</v>
+        <v>503048</v>
       </c>
       <c r="BO2" s="7">
-        <v>8873550</v>
+        <v>10141293</v>
       </c>
       <c r="BP2" s="8">
-        <v>3012824</v>
+        <v>2578048</v>
       </c>
       <c r="BQ2" s="9">
-        <v>168831</v>
+        <v>216553</v>
       </c>
       <c r="BR2" s="8">
-        <v>168831</v>
+        <v>216553</v>
       </c>
       <c r="BS2" s="8">
         <v>0</v>
       </c>
       <c r="BT2" s="9">
-        <v>331037</v>
+        <v>420250</v>
       </c>
       <c r="BU2" s="11" t="s">
         <v>165</v>
@@ -3683,16 +3683,16 @@
         <v>165</v>
       </c>
       <c r="BW2" s="9">
-        <v>126655</v>
+        <v>139570</v>
       </c>
       <c r="BX2" s="8">
-        <v>126655</v>
+        <v>139570</v>
       </c>
       <c r="BY2" s="7">
-        <v>72927</v>
+        <v>83771</v>
       </c>
       <c r="BZ2" s="7">
-        <v>53728</v>
+        <v>55799</v>
       </c>
       <c r="CA2" s="8">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="CC2" s="9">
-        <v>1645772</v>
+        <v>912796</v>
       </c>
       <c r="CD2" s="8">
-        <v>1645772</v>
+        <v>912796</v>
       </c>
       <c r="CE2" s="10" t="s">
         <v>165</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="CI2" s="9">
-        <v>740529</v>
+        <v>888879</v>
       </c>
       <c r="CJ2" s="8">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="CO2" s="8">
-        <v>740529</v>
+        <v>888879</v>
       </c>
       <c r="CP2" s="7">
-        <v>79381</v>
+        <v>87723</v>
       </c>
       <c r="CQ2" s="7">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="CS2" s="7">
-        <v>661148</v>
+        <v>801156</v>
       </c>
       <c r="CT2" s="9">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="DI2" s="8">
-        <v>1709100</v>
+        <v>2920978</v>
       </c>
       <c r="DJ2" s="9">
-        <v>1044068</v>
+        <v>2296208</v>
       </c>
       <c r="DK2" s="8">
-        <v>1044068</v>
+        <v>2296208</v>
       </c>
       <c r="DL2" s="10" t="s">
         <v>165</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="DP2" s="9">
-        <v>137916</v>
+        <v>95031</v>
       </c>
       <c r="DQ2" s="8">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="DV2" s="8">
-        <v>137916</v>
+        <v>95031</v>
       </c>
       <c r="DW2" s="7">
         <v>0</v>
@@ -3845,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="DY2" s="7">
-        <v>137916</v>
+        <v>95031</v>
       </c>
       <c r="DZ2" s="9">
-        <v>320503</v>
+        <v>294405</v>
       </c>
       <c r="EA2" s="8">
-        <v>320503</v>
+        <v>294405</v>
       </c>
       <c r="EB2" s="9">
-        <v>206613</v>
+        <v>235334</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>165</v>
@@ -3911,19 +3911,19 @@
         <v>0</v>
       </c>
       <c r="EU2" s="8">
-        <v>4151626</v>
+        <v>4642267</v>
       </c>
       <c r="EV2" s="9">
-        <v>91277</v>
+        <v>84495</v>
       </c>
       <c r="EW2" s="9">
-        <v>4060349</v>
+        <v>4557772</v>
       </c>
       <c r="EX2" s="8">
         <v>2718440</v>
       </c>
       <c r="EY2" s="8">
-        <v>-53319</v>
+        <v>-57724</v>
       </c>
       <c r="EZ2" s="7">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="FC2" s="7">
-        <v>758</v>
+        <v>1325</v>
       </c>
       <c r="FD2" s="7">
         <v>0</v>
@@ -3944,19 +3944,19 @@
         <v>0</v>
       </c>
       <c r="FF2" s="7">
-        <v>-54077</v>
+        <v>-59049</v>
       </c>
       <c r="FG2" s="8">
-        <v>3784</v>
+        <v>3712</v>
       </c>
       <c r="FH2" s="8">
-        <v>687792</v>
+        <v>1169077</v>
       </c>
       <c r="FI2" s="7">
-        <v>32799</v>
+        <v>74972</v>
       </c>
       <c r="FJ2" s="7">
-        <v>537245</v>
+        <v>940453</v>
       </c>
       <c r="FK2" s="7">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="FP2" s="7">
-        <v>127803</v>
+        <v>163174</v>
       </c>
       <c r="FQ2" s="7">
-        <v>-10055</v>
+        <v>-9522</v>
       </c>
       <c r="FR2" s="7">
         <v>0</v>
@@ -3986,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="FT2" s="8">
-        <v>656646</v>
+        <v>593500</v>
       </c>
       <c r="FU2" s="8">
-        <v>47006</v>
+        <v>130767</v>
       </c>
       <c r="FV2" s="8">
         <v>0</v>
@@ -3997,22 +3997,22 @@
     </row>
     <row r="3" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="7">
-        <v>10141293</v>
+        <v>11782630</v>
       </c>
       <c r="C3" s="8">
-        <v>6851787</v>
+        <v>8098187</v>
       </c>
       <c r="D3" s="9">
-        <v>3373799</v>
+        <v>3328015</v>
       </c>
       <c r="E3" s="9">
-        <v>0</v>
+        <v>865162</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>865162</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>165</v>
@@ -4033,31 +4033,31 @@
         <v>0</v>
       </c>
       <c r="M3" s="9">
-        <v>1658806</v>
+        <v>1867864</v>
       </c>
       <c r="N3" s="8">
-        <v>1658806</v>
+        <v>1867864</v>
       </c>
       <c r="O3" s="8">
         <v>0</v>
       </c>
       <c r="P3" s="9">
-        <v>1445927</v>
+        <v>1704919</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>166384</v>
+        <v>159446</v>
       </c>
       <c r="S3" s="8">
-        <v>166384</v>
+        <v>159446</v>
       </c>
       <c r="T3" s="9">
         <v>0</v>
       </c>
       <c r="U3" s="9">
-        <v>206871</v>
+        <v>172781</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <v>206871</v>
+        <v>172781</v>
       </c>
       <c r="Y3" s="8">
-        <v>3289506</v>
+        <v>3684443</v>
       </c>
       <c r="Z3" s="9">
-        <v>123866</v>
+        <v>126670</v>
       </c>
       <c r="AA3" s="8">
-        <v>2230</v>
+        <v>1047</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>165</v>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="AL3" s="8">
-        <v>60376</v>
+        <v>55864</v>
       </c>
       <c r="AM3" s="7">
-        <v>60376</v>
+        <v>55864</v>
       </c>
       <c r="AN3" s="7">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="8">
-        <v>61260</v>
+        <v>69759</v>
       </c>
       <c r="AV3" s="7">
         <v>0</v>
@@ -4144,34 +4144,34 @@
         <v>0</v>
       </c>
       <c r="AX3" s="7">
-        <v>61260</v>
+        <v>69759</v>
       </c>
       <c r="AY3" s="9">
-        <v>7264</v>
+        <v>8224</v>
       </c>
       <c r="AZ3" s="8">
-        <v>44</v>
-      </c>
-      <c r="BA3" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB3" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC3" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD3" s="10" t="s">
-        <v>165</v>
+        <v>1004</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>1004</v>
       </c>
       <c r="BE3" s="8">
         <v>7220</v>
       </c>
       <c r="BF3" s="9">
-        <v>2614556</v>
+        <v>2877942</v>
       </c>
       <c r="BG3" s="8">
-        <v>2614556</v>
+        <v>2877942</v>
       </c>
       <c r="BH3" s="8">
         <v>0</v>
@@ -4180,37 +4180,37 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="9">
-        <v>543820</v>
+        <v>671607</v>
       </c>
       <c r="BK3" s="8">
-        <v>40772</v>
+        <v>81317</v>
       </c>
       <c r="BL3" s="7">
         <v>0</v>
       </c>
       <c r="BM3" s="7">
-        <v>40772</v>
+        <v>81317</v>
       </c>
       <c r="BN3" s="8">
-        <v>503048</v>
+        <v>590290</v>
       </c>
       <c r="BO3" s="7">
-        <v>10141293</v>
+        <v>11782630</v>
       </c>
       <c r="BP3" s="8">
-        <v>2578048</v>
+        <v>3380815</v>
       </c>
       <c r="BQ3" s="9">
-        <v>216553</v>
+        <v>173382</v>
       </c>
       <c r="BR3" s="8">
-        <v>216553</v>
+        <v>173382</v>
       </c>
       <c r="BS3" s="8">
         <v>0</v>
       </c>
       <c r="BT3" s="9">
-        <v>420250</v>
+        <v>445577</v>
       </c>
       <c r="BU3" s="11" t="s">
         <v>165</v>
@@ -4219,16 +4219,16 @@
         <v>165</v>
       </c>
       <c r="BW3" s="9">
-        <v>139570</v>
+        <v>148335</v>
       </c>
       <c r="BX3" s="8">
-        <v>139570</v>
+        <v>148335</v>
       </c>
       <c r="BY3" s="7">
-        <v>83771</v>
+        <v>84714</v>
       </c>
       <c r="BZ3" s="7">
-        <v>55799</v>
+        <v>63621</v>
       </c>
       <c r="CA3" s="8">
         <v>0</v>
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="CC3" s="9">
-        <v>912796</v>
+        <v>1466752</v>
       </c>
       <c r="CD3" s="8">
-        <v>912796</v>
+        <v>1466752</v>
       </c>
       <c r="CE3" s="10" t="s">
         <v>165</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="CI3" s="9">
-        <v>888879</v>
+        <v>1146769</v>
       </c>
       <c r="CJ3" s="8">
         <v>0</v>
@@ -4273,10 +4273,10 @@
         <v>0</v>
       </c>
       <c r="CO3" s="8">
-        <v>888879</v>
+        <v>1146769</v>
       </c>
       <c r="CP3" s="7">
-        <v>87723</v>
+        <v>111707</v>
       </c>
       <c r="CQ3" s="7">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="CS3" s="7">
-        <v>801156</v>
+        <v>1035062</v>
       </c>
       <c r="CT3" s="9">
         <v>0</v>
@@ -4333,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="DI3" s="8">
-        <v>2920978</v>
+        <v>3262552</v>
       </c>
       <c r="DJ3" s="9">
-        <v>2296208</v>
+        <v>2625398</v>
       </c>
       <c r="DK3" s="8">
-        <v>2296208</v>
+        <v>2625398</v>
       </c>
       <c r="DL3" s="10" t="s">
         <v>165</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="DP3" s="9">
-        <v>95031</v>
+        <v>95316</v>
       </c>
       <c r="DQ3" s="8">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="DV3" s="8">
-        <v>95031</v>
+        <v>95316</v>
       </c>
       <c r="DW3" s="7">
         <v>0</v>
@@ -4381,16 +4381,16 @@
         <v>0</v>
       </c>
       <c r="DY3" s="7">
-        <v>95031</v>
+        <v>95316</v>
       </c>
       <c r="DZ3" s="9">
-        <v>294405</v>
+        <v>282989</v>
       </c>
       <c r="EA3" s="8">
-        <v>294405</v>
+        <v>282989</v>
       </c>
       <c r="EB3" s="9">
-        <v>235334</v>
+        <v>258849</v>
       </c>
       <c r="EC3" s="11" t="s">
         <v>165</v>
@@ -4447,19 +4447,19 @@
         <v>0</v>
       </c>
       <c r="EU3" s="8">
-        <v>4642267</v>
+        <v>5139263</v>
       </c>
       <c r="EV3" s="9">
-        <v>84495</v>
+        <v>82878</v>
       </c>
       <c r="EW3" s="9">
-        <v>4557772</v>
+        <v>5056385</v>
       </c>
       <c r="EX3" s="8">
-        <v>2718440</v>
+        <v>3533973</v>
       </c>
       <c r="EY3" s="8">
-        <v>-57724</v>
+        <v>-59139</v>
       </c>
       <c r="EZ3" s="7">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="FC3" s="7">
-        <v>1325</v>
+        <v>1817</v>
       </c>
       <c r="FD3" s="7">
         <v>0</v>
@@ -4480,19 +4480,19 @@
         <v>0</v>
       </c>
       <c r="FF3" s="7">
-        <v>-59049</v>
+        <v>-60956</v>
       </c>
       <c r="FG3" s="8">
-        <v>3712</v>
+        <v>3658</v>
       </c>
       <c r="FH3" s="8">
-        <v>1169077</v>
+        <v>837741</v>
       </c>
       <c r="FI3" s="7">
-        <v>74972</v>
+        <v>47736</v>
       </c>
       <c r="FJ3" s="7">
-        <v>940453</v>
+        <v>630929</v>
       </c>
       <c r="FK3" s="7">
         <v>0</v>
@@ -4510,10 +4510,10 @@
         <v>0</v>
       </c>
       <c r="FP3" s="7">
-        <v>163174</v>
+        <v>167494</v>
       </c>
       <c r="FQ3" s="7">
-        <v>-9522</v>
+        <v>-8418</v>
       </c>
       <c r="FR3" s="7">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="FT3" s="8">
-        <v>593500</v>
+        <v>548750</v>
       </c>
       <c r="FU3" s="8">
-        <v>130767</v>
+        <v>191402</v>
       </c>
       <c r="FV3" s="8">
         <v>0</v>
@@ -4533,22 +4533,22 @@
     </row>
     <row r="4" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="7">
-        <v>11782630</v>
+        <v>14261541</v>
       </c>
       <c r="C4" s="8">
-        <v>8098187</v>
+        <v>9589344</v>
       </c>
       <c r="D4" s="9">
-        <v>3328015</v>
+        <v>3277115</v>
       </c>
       <c r="E4" s="9">
-        <v>865162</v>
-      </c>
-      <c r="F4" s="8">
-        <v>865162</v>
+        <v>1157644</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>165</v>
@@ -4565,35 +4565,35 @@
       <c r="K4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="8">
-        <v>0</v>
+      <c r="L4" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="M4" s="9">
-        <v>1867864</v>
+        <v>2545927</v>
       </c>
       <c r="N4" s="8">
-        <v>1867864</v>
+        <v>2545927</v>
       </c>
       <c r="O4" s="8">
         <v>0</v>
       </c>
       <c r="P4" s="9">
-        <v>1704919</v>
+        <v>2009254</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>159446</v>
+        <v>266944</v>
       </c>
       <c r="S4" s="8">
-        <v>159446</v>
+        <v>266944</v>
       </c>
       <c r="T4" s="9">
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <v>172781</v>
+        <v>332460</v>
       </c>
       <c r="V4" s="8">
         <v>0</v>
@@ -4602,16 +4602,16 @@
         <v>0</v>
       </c>
       <c r="X4" s="8">
-        <v>172781</v>
+        <v>332460</v>
       </c>
       <c r="Y4" s="8">
-        <v>3684443</v>
+        <v>4672197</v>
       </c>
       <c r="Z4" s="9">
-        <v>126670</v>
+        <v>619206</v>
       </c>
       <c r="AA4" s="8">
-        <v>1047</v>
+        <v>214</v>
       </c>
       <c r="AB4" s="10" t="s">
         <v>165</v>
@@ -4644,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="AL4" s="8">
-        <v>55864</v>
+        <v>131327</v>
       </c>
       <c r="AM4" s="7">
-        <v>55864</v>
+        <v>131327</v>
       </c>
       <c r="AN4" s="7">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="8">
-        <v>69759</v>
+        <v>487665</v>
       </c>
       <c r="AV4" s="7">
         <v>0</v>
@@ -4680,13 +4680,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="7">
-        <v>69759</v>
+        <v>487665</v>
       </c>
       <c r="AY4" s="9">
-        <v>8224</v>
+        <v>1379</v>
       </c>
       <c r="AZ4" s="8">
-        <v>1004</v>
+        <v>1379</v>
       </c>
       <c r="BA4" s="7">
         <v>0</v>
@@ -4698,16 +4698,16 @@
         <v>0</v>
       </c>
       <c r="BD4" s="7">
-        <v>1004</v>
+        <v>1379</v>
       </c>
       <c r="BE4" s="8">
-        <v>7220</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="9">
-        <v>2877942</v>
+        <v>3264898</v>
       </c>
       <c r="BG4" s="8">
-        <v>2877942</v>
+        <v>3264898</v>
       </c>
       <c r="BH4" s="8">
         <v>0</v>
@@ -4716,37 +4716,37 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="9">
-        <v>671607</v>
+        <v>786714</v>
       </c>
       <c r="BK4" s="8">
-        <v>81317</v>
+        <v>117394</v>
       </c>
       <c r="BL4" s="7">
         <v>0</v>
       </c>
       <c r="BM4" s="7">
-        <v>81317</v>
+        <v>117394</v>
       </c>
       <c r="BN4" s="8">
-        <v>590290</v>
+        <v>669320</v>
       </c>
       <c r="BO4" s="7">
-        <v>11782630</v>
+        <v>14261541</v>
       </c>
       <c r="BP4" s="8">
-        <v>3380815</v>
+        <v>3494850</v>
       </c>
       <c r="BQ4" s="9">
-        <v>173382</v>
+        <v>191077</v>
       </c>
       <c r="BR4" s="8">
-        <v>173382</v>
+        <v>191077</v>
       </c>
       <c r="BS4" s="8">
         <v>0</v>
       </c>
       <c r="BT4" s="9">
-        <v>445577</v>
+        <v>566769</v>
       </c>
       <c r="BU4" s="11" t="s">
         <v>165</v>
@@ -4755,16 +4755,16 @@
         <v>165</v>
       </c>
       <c r="BW4" s="9">
-        <v>148335</v>
+        <v>121461</v>
       </c>
       <c r="BX4" s="8">
-        <v>148335</v>
+        <v>121461</v>
       </c>
       <c r="BY4" s="7">
-        <v>84714</v>
+        <v>28160</v>
       </c>
       <c r="BZ4" s="7">
-        <v>63621</v>
+        <v>93301</v>
       </c>
       <c r="CA4" s="8">
         <v>0</v>
@@ -4773,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="CC4" s="9">
-        <v>1466752</v>
+        <v>1284633</v>
       </c>
       <c r="CD4" s="8">
-        <v>1466752</v>
+        <v>1284633</v>
       </c>
       <c r="CE4" s="10" t="s">
         <v>165</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="CI4" s="9">
-        <v>1146769</v>
+        <v>1330910</v>
       </c>
       <c r="CJ4" s="8">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="CO4" s="8">
-        <v>1146769</v>
+        <v>1330910</v>
       </c>
       <c r="CP4" s="7">
-        <v>111707</v>
+        <v>172484</v>
       </c>
       <c r="CQ4" s="7">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="CS4" s="7">
-        <v>1035062</v>
+        <v>1158426</v>
       </c>
       <c r="CT4" s="9">
         <v>0</v>
@@ -4869,13 +4869,13 @@
         <v>0</v>
       </c>
       <c r="DI4" s="8">
-        <v>3262552</v>
+        <v>4610631</v>
       </c>
       <c r="DJ4" s="9">
-        <v>2625398</v>
+        <v>3868335</v>
       </c>
       <c r="DK4" s="8">
-        <v>2625398</v>
+        <v>3868335</v>
       </c>
       <c r="DL4" s="10" t="s">
         <v>165</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="DP4" s="9">
-        <v>95316</v>
+        <v>159632</v>
       </c>
       <c r="DQ4" s="8">
         <v>0</v>
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="DV4" s="8">
-        <v>95316</v>
+        <v>159632</v>
       </c>
       <c r="DW4" s="7">
         <v>0</v>
@@ -4917,16 +4917,16 @@
         <v>0</v>
       </c>
       <c r="DY4" s="7">
-        <v>95316</v>
+        <v>159632</v>
       </c>
       <c r="DZ4" s="9">
-        <v>282989</v>
+        <v>242696</v>
       </c>
       <c r="EA4" s="8">
-        <v>282989</v>
+        <v>242696</v>
       </c>
       <c r="EB4" s="9">
-        <v>258849</v>
+        <v>339968</v>
       </c>
       <c r="EC4" s="11" t="s">
         <v>165</v>
@@ -4983,19 +4983,19 @@
         <v>0</v>
       </c>
       <c r="EU4" s="8">
-        <v>5139263</v>
+        <v>6156060</v>
       </c>
       <c r="EV4" s="9">
-        <v>82878</v>
+        <v>126680</v>
       </c>
       <c r="EW4" s="9">
-        <v>5056385</v>
+        <v>6029380</v>
       </c>
       <c r="EX4" s="8">
         <v>3533973</v>
       </c>
       <c r="EY4" s="8">
-        <v>-59139</v>
+        <v>-57044</v>
       </c>
       <c r="EZ4" s="7">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="FC4" s="7">
-        <v>1817</v>
+        <v>2474</v>
       </c>
       <c r="FD4" s="7">
         <v>0</v>
@@ -5016,19 +5016,19 @@
         <v>0</v>
       </c>
       <c r="FF4" s="7">
-        <v>-60956</v>
+        <v>-59518</v>
       </c>
       <c r="FG4" s="8">
-        <v>3658</v>
+        <v>3630</v>
       </c>
       <c r="FH4" s="8">
-        <v>837741</v>
+        <v>1413353</v>
       </c>
       <c r="FI4" s="7">
-        <v>47736</v>
+        <v>105539</v>
       </c>
       <c r="FJ4" s="7">
-        <v>630929</v>
+        <v>1194329</v>
       </c>
       <c r="FK4" s="7">
         <v>0</v>
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="FP4" s="7">
-        <v>167494</v>
+        <v>130554</v>
       </c>
       <c r="FQ4" s="7">
-        <v>-8418</v>
+        <v>-17069</v>
       </c>
       <c r="FR4" s="7">
         <v>0</v>
@@ -5058,30 +5058,30 @@
         <v>0</v>
       </c>
       <c r="FT4" s="8">
-        <v>548750</v>
+        <v>493106</v>
       </c>
       <c r="FU4" s="8">
-        <v>191402</v>
+        <v>0</v>
       </c>
       <c r="FV4" s="8">
-        <v>0</v>
+        <v>642362</v>
       </c>
     </row>
     <row r="5" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="7">
-        <v>14261541</v>
+        <v>13509331</v>
       </c>
       <c r="C5" s="8">
-        <v>9589344</v>
+        <v>9127483</v>
       </c>
       <c r="D5" s="9">
-        <v>3277115</v>
+        <v>3390662</v>
       </c>
       <c r="E5" s="9">
-        <v>1157644</v>
+        <v>1373287</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>165</v>
@@ -5105,31 +5105,31 @@
         <v>165</v>
       </c>
       <c r="M5" s="9">
-        <v>2545927</v>
+        <v>2251922</v>
       </c>
       <c r="N5" s="8">
-        <v>2545927</v>
+        <v>2251922</v>
       </c>
       <c r="O5" s="8">
         <v>0</v>
       </c>
       <c r="P5" s="9">
-        <v>2009254</v>
+        <v>1575055</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>266944</v>
+        <v>269626</v>
       </c>
       <c r="S5" s="8">
-        <v>266944</v>
+        <v>269626</v>
       </c>
       <c r="T5" s="9">
         <v>0</v>
       </c>
       <c r="U5" s="9">
-        <v>332460</v>
+        <v>266931</v>
       </c>
       <c r="V5" s="8">
         <v>0</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <v>332460</v>
+        <v>266931</v>
       </c>
       <c r="Y5" s="8">
-        <v>4672197</v>
+        <v>4381848</v>
       </c>
       <c r="Z5" s="9">
-        <v>619206</v>
+        <v>397383</v>
       </c>
       <c r="AA5" s="8">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="10" t="s">
         <v>165</v>
@@ -5180,10 +5180,10 @@
         <v>0</v>
       </c>
       <c r="AL5" s="8">
-        <v>131327</v>
+        <v>130291</v>
       </c>
       <c r="AM5" s="7">
-        <v>131327</v>
+        <v>130291</v>
       </c>
       <c r="AN5" s="7">
         <v>0</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="8">
-        <v>487665</v>
+        <v>267092</v>
       </c>
       <c r="AV5" s="7">
         <v>0</v>
@@ -5216,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="AX5" s="7">
-        <v>487665</v>
+        <v>267092</v>
       </c>
       <c r="AY5" s="9">
-        <v>1379</v>
+        <v>223</v>
       </c>
       <c r="AZ5" s="8">
-        <v>1379</v>
+        <v>223</v>
       </c>
       <c r="BA5" s="7">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>0</v>
       </c>
       <c r="BD5" s="7">
-        <v>1379</v>
+        <v>223</v>
       </c>
       <c r="BE5" s="8">
         <v>0</v>
       </c>
       <c r="BF5" s="9">
-        <v>3264898</v>
+        <v>3032716</v>
       </c>
       <c r="BG5" s="8">
-        <v>3264898</v>
+        <v>3032716</v>
       </c>
       <c r="BH5" s="8">
         <v>0</v>
@@ -5252,37 +5252,37 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="9">
-        <v>786714</v>
+        <v>951526</v>
       </c>
       <c r="BK5" s="8">
-        <v>117394</v>
+        <v>161200</v>
       </c>
       <c r="BL5" s="7">
         <v>0</v>
       </c>
       <c r="BM5" s="7">
-        <v>117394</v>
+        <v>161200</v>
       </c>
       <c r="BN5" s="8">
-        <v>669320</v>
+        <v>790326</v>
       </c>
       <c r="BO5" s="7">
-        <v>14261541</v>
+        <v>13509331</v>
       </c>
       <c r="BP5" s="8">
-        <v>3494850</v>
+        <v>3278855</v>
       </c>
       <c r="BQ5" s="9">
-        <v>191077</v>
+        <v>199543</v>
       </c>
       <c r="BR5" s="8">
-        <v>191077</v>
+        <v>199543</v>
       </c>
       <c r="BS5" s="8">
         <v>0</v>
       </c>
       <c r="BT5" s="9">
-        <v>566769</v>
+        <v>562851</v>
       </c>
       <c r="BU5" s="11" t="s">
         <v>165</v>
@@ -5291,16 +5291,16 @@
         <v>165</v>
       </c>
       <c r="BW5" s="9">
-        <v>121461</v>
+        <v>125062</v>
       </c>
       <c r="BX5" s="8">
-        <v>121461</v>
+        <v>125062</v>
       </c>
       <c r="BY5" s="7">
-        <v>28160</v>
+        <v>29241</v>
       </c>
       <c r="BZ5" s="7">
-        <v>93301</v>
+        <v>95821</v>
       </c>
       <c r="CA5" s="8">
         <v>0</v>
@@ -5309,16 +5309,16 @@
         <v>0</v>
       </c>
       <c r="CC5" s="9">
-        <v>1284633</v>
+        <v>991433</v>
       </c>
       <c r="CD5" s="8">
-        <v>1284633</v>
-      </c>
-      <c r="CE5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="CF5" s="10" t="s">
-        <v>165</v>
+        <v>991433</v>
+      </c>
+      <c r="CE5" s="7">
+        <v>642413</v>
+      </c>
+      <c r="CF5" s="7">
+        <v>349020</v>
       </c>
       <c r="CG5" s="8">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="CI5" s="9">
-        <v>1330910</v>
+        <v>1399966</v>
       </c>
       <c r="CJ5" s="8">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>0</v>
       </c>
       <c r="CO5" s="8">
-        <v>1330910</v>
+        <v>1399966</v>
       </c>
       <c r="CP5" s="7">
-        <v>172484</v>
+        <v>191365</v>
       </c>
       <c r="CQ5" s="7">
         <v>0</v>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="CS5" s="7">
-        <v>1158426</v>
+        <v>1208601</v>
       </c>
       <c r="CT5" s="9">
         <v>0</v>
@@ -5405,19 +5405,19 @@
         <v>0</v>
       </c>
       <c r="DI5" s="8">
-        <v>4610631</v>
+        <v>4159644</v>
       </c>
       <c r="DJ5" s="9">
-        <v>3868335</v>
+        <v>3408892</v>
       </c>
       <c r="DK5" s="8">
-        <v>3868335</v>
-      </c>
-      <c r="DL5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM5" s="10" t="s">
-        <v>165</v>
+        <v>3408892</v>
+      </c>
+      <c r="DL5" s="7">
+        <v>1887571</v>
+      </c>
+      <c r="DM5" s="7">
+        <v>1521321</v>
       </c>
       <c r="DN5" s="8">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="DP5" s="9">
-        <v>159632</v>
+        <v>157147</v>
       </c>
       <c r="DQ5" s="8">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="DV5" s="8">
-        <v>159632</v>
+        <v>157147</v>
       </c>
       <c r="DW5" s="7">
         <v>0</v>
@@ -5453,16 +5453,16 @@
         <v>0</v>
       </c>
       <c r="DY5" s="7">
-        <v>159632</v>
+        <v>157147</v>
       </c>
       <c r="DZ5" s="9">
-        <v>242696</v>
+        <v>159203</v>
       </c>
       <c r="EA5" s="8">
-        <v>242696</v>
+        <v>159203</v>
       </c>
       <c r="EB5" s="9">
-        <v>339968</v>
+        <v>434402</v>
       </c>
       <c r="EC5" s="11" t="s">
         <v>165</v>
@@ -5519,19 +5519,19 @@
         <v>0</v>
       </c>
       <c r="EU5" s="8">
-        <v>6156060</v>
+        <v>6070832</v>
       </c>
       <c r="EV5" s="9">
-        <v>126680</v>
+        <v>107958</v>
       </c>
       <c r="EW5" s="9">
-        <v>6029380</v>
+        <v>5962874</v>
       </c>
       <c r="EX5" s="8">
         <v>3533973</v>
       </c>
       <c r="EY5" s="8">
-        <v>-57044</v>
+        <v>-68092</v>
       </c>
       <c r="EZ5" s="7">
         <v>0</v>
@@ -5543,28 +5543,28 @@
         <v>0</v>
       </c>
       <c r="FC5" s="7">
-        <v>2474</v>
+        <v>1971</v>
       </c>
       <c r="FD5" s="7">
-        <v>0</v>
+        <v>-11924</v>
       </c>
       <c r="FE5" s="7">
         <v>0</v>
       </c>
       <c r="FF5" s="7">
-        <v>-59518</v>
+        <v>-58139</v>
       </c>
       <c r="FG5" s="8">
         <v>3630</v>
       </c>
       <c r="FH5" s="8">
-        <v>1413353</v>
+        <v>1993631</v>
       </c>
       <c r="FI5" s="7">
-        <v>105539</v>
+        <v>161420</v>
       </c>
       <c r="FJ5" s="7">
-        <v>1194329</v>
+        <v>1729461</v>
       </c>
       <c r="FK5" s="7">
         <v>0</v>
@@ -5582,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="FP5" s="7">
-        <v>130554</v>
+        <v>102750</v>
       </c>
       <c r="FQ5" s="7">
-        <v>-17069</v>
+        <v>0</v>
       </c>
       <c r="FR5" s="7">
         <v>0</v>
@@ -5594,30 +5594,30 @@
         <v>0</v>
       </c>
       <c r="FT5" s="8">
-        <v>493106</v>
+        <v>442032</v>
       </c>
       <c r="FU5" s="8">
         <v>0</v>
       </c>
       <c r="FV5" s="8">
-        <v>642362</v>
+        <v>57700</v>
       </c>
     </row>
     <row r="6" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="7">
-        <v>13509331</v>
+        <v>13985987</v>
       </c>
       <c r="C6" s="8">
-        <v>9127483</v>
+        <v>9415667</v>
       </c>
       <c r="D6" s="9">
-        <v>3390662</v>
+        <v>3162685</v>
       </c>
       <c r="E6" s="9">
-        <v>1373287</v>
+        <v>1411046</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>165</v>
@@ -5641,31 +5641,31 @@
         <v>165</v>
       </c>
       <c r="M6" s="9">
-        <v>2251922</v>
+        <v>2242613</v>
       </c>
       <c r="N6" s="8">
-        <v>2251922</v>
+        <v>2242613</v>
       </c>
       <c r="O6" s="8">
         <v>0</v>
       </c>
       <c r="P6" s="9">
-        <v>1575055</v>
+        <v>1852266</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>269626</v>
+        <v>419845</v>
       </c>
       <c r="S6" s="8">
-        <v>269626</v>
+        <v>419845</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <v>266931</v>
+        <v>327212</v>
       </c>
       <c r="V6" s="8">
         <v>0</v>
@@ -5674,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="8">
-        <v>266931</v>
+        <v>327212</v>
       </c>
       <c r="Y6" s="8">
-        <v>4381848</v>
+        <v>4570320</v>
       </c>
       <c r="Z6" s="9">
-        <v>397383</v>
+        <v>443844</v>
       </c>
       <c r="AA6" s="8">
         <v>0</v>
@@ -5716,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="AL6" s="8">
-        <v>130291</v>
+        <v>148284</v>
       </c>
       <c r="AM6" s="7">
-        <v>130291</v>
+        <v>148284</v>
       </c>
       <c r="AN6" s="7">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="8">
-        <v>267092</v>
+        <v>295560</v>
       </c>
       <c r="AV6" s="7">
         <v>0</v>
@@ -5752,13 +5752,13 @@
         <v>0</v>
       </c>
       <c r="AX6" s="7">
-        <v>267092</v>
+        <v>295560</v>
       </c>
       <c r="AY6" s="9">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="AZ6" s="8">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="BA6" s="7">
         <v>0</v>
@@ -5770,16 +5770,16 @@
         <v>0</v>
       </c>
       <c r="BD6" s="7">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="BE6" s="8">
         <v>0</v>
       </c>
       <c r="BF6" s="9">
-        <v>3032716</v>
+        <v>3160111</v>
       </c>
       <c r="BG6" s="8">
-        <v>3032716</v>
+        <v>3160111</v>
       </c>
       <c r="BH6" s="8">
         <v>0</v>
@@ -5788,37 +5788,37 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="9">
-        <v>951526</v>
+        <v>966097</v>
       </c>
       <c r="BK6" s="8">
-        <v>161200</v>
+        <v>142682</v>
       </c>
       <c r="BL6" s="7">
         <v>0</v>
       </c>
       <c r="BM6" s="7">
-        <v>161200</v>
+        <v>142682</v>
       </c>
       <c r="BN6" s="8">
-        <v>790326</v>
+        <v>823415</v>
       </c>
       <c r="BO6" s="7">
-        <v>13509331</v>
+        <v>13985987</v>
       </c>
       <c r="BP6" s="8">
-        <v>3278855</v>
+        <v>4326788</v>
       </c>
       <c r="BQ6" s="9">
-        <v>199543</v>
+        <v>211062</v>
       </c>
       <c r="BR6" s="8">
-        <v>199543</v>
+        <v>211062</v>
       </c>
       <c r="BS6" s="8">
         <v>0</v>
       </c>
       <c r="BT6" s="9">
-        <v>562851</v>
+        <v>750533</v>
       </c>
       <c r="BU6" s="11" t="s">
         <v>165</v>
@@ -5827,16 +5827,16 @@
         <v>165</v>
       </c>
       <c r="BW6" s="9">
-        <v>125062</v>
+        <v>102944</v>
       </c>
       <c r="BX6" s="8">
-        <v>125062</v>
+        <v>102944</v>
       </c>
       <c r="BY6" s="7">
-        <v>29241</v>
+        <v>29672</v>
       </c>
       <c r="BZ6" s="7">
-        <v>95821</v>
+        <v>73272</v>
       </c>
       <c r="CA6" s="8">
         <v>0</v>
@@ -5845,16 +5845,16 @@
         <v>0</v>
       </c>
       <c r="CC6" s="9">
-        <v>991433</v>
+        <v>2014530</v>
       </c>
       <c r="CD6" s="8">
-        <v>991433</v>
+        <v>2014530</v>
       </c>
       <c r="CE6" s="7">
-        <v>642413</v>
+        <v>1300232</v>
       </c>
       <c r="CF6" s="7">
-        <v>349020</v>
+        <v>714298</v>
       </c>
       <c r="CG6" s="8">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="CI6" s="9">
-        <v>1399966</v>
+        <v>1247719</v>
       </c>
       <c r="CJ6" s="8">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="CO6" s="8">
-        <v>1399966</v>
+        <v>1247719</v>
       </c>
       <c r="CP6" s="7">
-        <v>191365</v>
+        <v>160892</v>
       </c>
       <c r="CQ6" s="7">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="CS6" s="7">
-        <v>1208601</v>
+        <v>1086827</v>
       </c>
       <c r="CT6" s="9">
         <v>0</v>
@@ -5941,19 +5941,19 @@
         <v>0</v>
       </c>
       <c r="DI6" s="8">
-        <v>4159644</v>
+        <v>2815892</v>
       </c>
       <c r="DJ6" s="9">
-        <v>3408892</v>
+        <v>2041912</v>
       </c>
       <c r="DK6" s="8">
-        <v>3408892</v>
+        <v>2041912</v>
       </c>
       <c r="DL6" s="7">
-        <v>1887571</v>
+        <v>457386</v>
       </c>
       <c r="DM6" s="7">
-        <v>1521321</v>
+        <v>1584526</v>
       </c>
       <c r="DN6" s="8">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="DP6" s="9">
-        <v>157147</v>
+        <v>150390</v>
       </c>
       <c r="DQ6" s="8">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="DV6" s="8">
-        <v>157147</v>
+        <v>150390</v>
       </c>
       <c r="DW6" s="7">
         <v>0</v>
@@ -5989,16 +5989,16 @@
         <v>0</v>
       </c>
       <c r="DY6" s="7">
-        <v>157147</v>
+        <v>150390</v>
       </c>
       <c r="DZ6" s="9">
-        <v>159203</v>
+        <v>116629</v>
       </c>
       <c r="EA6" s="8">
-        <v>159203</v>
+        <v>116629</v>
       </c>
       <c r="EB6" s="9">
-        <v>434402</v>
+        <v>506961</v>
       </c>
       <c r="EC6" s="11" t="s">
         <v>165</v>
@@ -6055,19 +6055,19 @@
         <v>0</v>
       </c>
       <c r="EU6" s="8">
-        <v>6070832</v>
+        <v>6843307</v>
       </c>
       <c r="EV6" s="9">
-        <v>107958</v>
+        <v>122381</v>
       </c>
       <c r="EW6" s="9">
-        <v>5962874</v>
+        <v>6720926</v>
       </c>
       <c r="EX6" s="8">
         <v>3533973</v>
       </c>
       <c r="EY6" s="8">
-        <v>-68092</v>
+        <v>-91997</v>
       </c>
       <c r="EZ6" s="7">
         <v>0</v>
@@ -6079,28 +6079,28 @@
         <v>0</v>
       </c>
       <c r="FC6" s="7">
-        <v>1971</v>
+        <v>4437</v>
       </c>
       <c r="FD6" s="7">
-        <v>-11924</v>
+        <v>-17392</v>
       </c>
       <c r="FE6" s="7">
         <v>0</v>
       </c>
       <c r="FF6" s="7">
-        <v>-58139</v>
+        <v>-79042</v>
       </c>
       <c r="FG6" s="8">
         <v>3630</v>
       </c>
       <c r="FH6" s="8">
-        <v>1993631</v>
+        <v>2595610</v>
       </c>
       <c r="FI6" s="7">
-        <v>161420</v>
+        <v>218528</v>
       </c>
       <c r="FJ6" s="7">
-        <v>1729461</v>
+        <v>2244627</v>
       </c>
       <c r="FK6" s="7">
         <v>0</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="FP6" s="7">
-        <v>102750</v>
+        <v>132455</v>
       </c>
       <c r="FQ6" s="7">
         <v>0</v>
@@ -6130,30 +6130,30 @@
         <v>0</v>
       </c>
       <c r="FT6" s="8">
-        <v>442032</v>
+        <v>406240</v>
       </c>
       <c r="FU6" s="8">
         <v>0</v>
       </c>
       <c r="FV6" s="8">
-        <v>57700</v>
+        <v>273470</v>
       </c>
     </row>
     <row r="7" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="7">
-        <v>13985987</v>
+        <v>15399850</v>
       </c>
       <c r="C7" s="8">
-        <v>9415667</v>
+        <v>9438581</v>
       </c>
       <c r="D7" s="9">
-        <v>3162685</v>
+        <v>2205700</v>
       </c>
       <c r="E7" s="9">
-        <v>1411046</v>
+        <v>1324188</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>165</v>
@@ -6177,31 +6177,31 @@
         <v>165</v>
       </c>
       <c r="M7" s="9">
-        <v>2242613</v>
+        <v>2440844</v>
       </c>
       <c r="N7" s="8">
-        <v>2242613</v>
+        <v>2440844</v>
       </c>
       <c r="O7" s="8">
         <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>1852266</v>
+        <v>2458410</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>419845</v>
+        <v>421938</v>
       </c>
       <c r="S7" s="8">
-        <v>419845</v>
+        <v>421938</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>327212</v>
+        <v>587501</v>
       </c>
       <c r="V7" s="8">
         <v>0</v>
@@ -6210,28 +6210,28 @@
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <v>327212</v>
+        <v>587501</v>
       </c>
       <c r="Y7" s="8">
-        <v>4570320</v>
+        <v>5961269</v>
       </c>
       <c r="Z7" s="9">
-        <v>443844</v>
+        <v>1178926</v>
       </c>
       <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD7" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE7" s="10" t="s">
-        <v>165</v>
+        <v>562782</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>562782</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>562782</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>0</v>
       </c>
       <c r="AF7" s="8">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="AL7" s="8">
-        <v>148284</v>
+        <v>142669</v>
       </c>
       <c r="AM7" s="7">
-        <v>148284</v>
+        <v>142669</v>
       </c>
       <c r="AN7" s="7">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="8">
-        <v>295560</v>
+        <v>473475</v>
       </c>
       <c r="AV7" s="7">
         <v>0</v>
@@ -6288,16 +6288,16 @@
         <v>0</v>
       </c>
       <c r="AX7" s="7">
-        <v>295560</v>
+        <v>473475</v>
       </c>
       <c r="AY7" s="9">
-        <v>268</v>
+        <v>20362</v>
       </c>
       <c r="AZ7" s="8">
-        <v>268</v>
+        <v>20362</v>
       </c>
       <c r="BA7" s="7">
-        <v>0</v>
+        <v>19981</v>
       </c>
       <c r="BB7" s="7">
         <v>0</v>
@@ -6306,16 +6306,16 @@
         <v>0</v>
       </c>
       <c r="BD7" s="7">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="BE7" s="8">
         <v>0</v>
       </c>
       <c r="BF7" s="9">
-        <v>3160111</v>
+        <v>3541954</v>
       </c>
       <c r="BG7" s="8">
-        <v>3160111</v>
+        <v>3541954</v>
       </c>
       <c r="BH7" s="8">
         <v>0</v>
@@ -6324,37 +6324,37 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="9">
-        <v>966097</v>
+        <v>1220027</v>
       </c>
       <c r="BK7" s="8">
-        <v>142682</v>
+        <v>225160</v>
       </c>
       <c r="BL7" s="7">
         <v>0</v>
       </c>
       <c r="BM7" s="7">
-        <v>142682</v>
+        <v>225160</v>
       </c>
       <c r="BN7" s="8">
-        <v>823415</v>
+        <v>994867</v>
       </c>
       <c r="BO7" s="7">
-        <v>13985987</v>
+        <v>15399850</v>
       </c>
       <c r="BP7" s="8">
-        <v>4326788</v>
+        <v>5034004</v>
       </c>
       <c r="BQ7" s="9">
-        <v>211062</v>
+        <v>240346</v>
       </c>
       <c r="BR7" s="8">
-        <v>211062</v>
+        <v>240346</v>
       </c>
       <c r="BS7" s="8">
         <v>0</v>
       </c>
       <c r="BT7" s="9">
-        <v>750533</v>
+        <v>842957</v>
       </c>
       <c r="BU7" s="11" t="s">
         <v>165</v>
@@ -6363,16 +6363,16 @@
         <v>165</v>
       </c>
       <c r="BW7" s="9">
-        <v>102944</v>
+        <v>88183</v>
       </c>
       <c r="BX7" s="8">
-        <v>102944</v>
+        <v>88183</v>
       </c>
       <c r="BY7" s="7">
-        <v>29672</v>
+        <v>24968</v>
       </c>
       <c r="BZ7" s="7">
-        <v>73272</v>
+        <v>63215</v>
       </c>
       <c r="CA7" s="8">
         <v>0</v>
@@ -6381,16 +6381,16 @@
         <v>0</v>
       </c>
       <c r="CC7" s="9">
-        <v>2014530</v>
+        <v>2049093</v>
       </c>
       <c r="CD7" s="8">
-        <v>2014530</v>
+        <v>2049093</v>
       </c>
       <c r="CE7" s="7">
-        <v>1300232</v>
+        <v>175475</v>
       </c>
       <c r="CF7" s="7">
-        <v>714298</v>
+        <v>1873618</v>
       </c>
       <c r="CG7" s="8">
         <v>0</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="9">
-        <v>1247719</v>
+        <v>1813425</v>
       </c>
       <c r="CJ7" s="8">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="CO7" s="8">
-        <v>1247719</v>
+        <v>1813425</v>
       </c>
       <c r="CP7" s="7">
-        <v>160892</v>
+        <v>165441</v>
       </c>
       <c r="CQ7" s="7">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="CS7" s="7">
-        <v>1086827</v>
+        <v>1647984</v>
       </c>
       <c r="CT7" s="9">
         <v>0</v>
@@ -6477,19 +6477,19 @@
         <v>0</v>
       </c>
       <c r="DI7" s="8">
-        <v>2815892</v>
+        <v>2512589</v>
       </c>
       <c r="DJ7" s="9">
-        <v>2041912</v>
+        <v>1723021</v>
       </c>
       <c r="DK7" s="8">
-        <v>2041912</v>
+        <v>1723021</v>
       </c>
       <c r="DL7" s="7">
-        <v>457386</v>
+        <v>315291</v>
       </c>
       <c r="DM7" s="7">
-        <v>1584526</v>
+        <v>1407730</v>
       </c>
       <c r="DN7" s="8">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="DP7" s="9">
-        <v>150390</v>
+        <v>155394</v>
       </c>
       <c r="DQ7" s="8">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="DV7" s="8">
-        <v>150390</v>
+        <v>155394</v>
       </c>
       <c r="DW7" s="7">
         <v>0</v>
@@ -6525,16 +6525,16 @@
         <v>0</v>
       </c>
       <c r="DY7" s="7">
-        <v>150390</v>
+        <v>155394</v>
       </c>
       <c r="DZ7" s="9">
-        <v>116629</v>
+        <v>86537</v>
       </c>
       <c r="EA7" s="8">
-        <v>116629</v>
+        <v>86537</v>
       </c>
       <c r="EB7" s="9">
-        <v>506961</v>
+        <v>547637</v>
       </c>
       <c r="EC7" s="11" t="s">
         <v>165</v>
@@ -6591,19 +6591,19 @@
         <v>0</v>
       </c>
       <c r="EU7" s="8">
-        <v>6843307</v>
+        <v>7853257</v>
       </c>
       <c r="EV7" s="9">
-        <v>122381</v>
+        <v>138983</v>
       </c>
       <c r="EW7" s="9">
-        <v>6720926</v>
+        <v>7714274</v>
       </c>
       <c r="EX7" s="8">
-        <v>3533973</v>
+        <v>5504517</v>
       </c>
       <c r="EY7" s="8">
-        <v>-91997</v>
+        <v>-87102</v>
       </c>
       <c r="EZ7" s="7">
         <v>0</v>
@@ -6615,28 +6615,28 @@
         <v>0</v>
       </c>
       <c r="FC7" s="7">
-        <v>4437</v>
+        <v>9615</v>
       </c>
       <c r="FD7" s="7">
-        <v>-17392</v>
+        <v>-15261</v>
       </c>
       <c r="FE7" s="7">
         <v>0</v>
       </c>
       <c r="FF7" s="7">
-        <v>-79042</v>
+        <v>-81456</v>
       </c>
       <c r="FG7" s="8">
         <v>3630</v>
       </c>
       <c r="FH7" s="8">
-        <v>2595610</v>
+        <v>1133122</v>
       </c>
       <c r="FI7" s="7">
-        <v>218528</v>
+        <v>66916</v>
       </c>
       <c r="FJ7" s="7">
-        <v>2244627</v>
+        <v>892339</v>
       </c>
       <c r="FK7" s="7">
         <v>0</v>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="FP7" s="7">
-        <v>132455</v>
+        <v>173867</v>
       </c>
       <c r="FQ7" s="7">
         <v>0</v>
@@ -6666,30 +6666,30 @@
         <v>0</v>
       </c>
       <c r="FT7" s="8">
-        <v>406240</v>
+        <v>380781</v>
       </c>
       <c r="FU7" s="8">
         <v>0</v>
       </c>
       <c r="FV7" s="8">
-        <v>273470</v>
+        <v>779326</v>
       </c>
     </row>
     <row r="8" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B8" s="7">
-        <v>15399850</v>
+        <v>15687641</v>
       </c>
       <c r="C8" s="8">
-        <v>9438581</v>
+        <v>9760902</v>
       </c>
       <c r="D8" s="9">
-        <v>2205700</v>
+        <v>1946044</v>
       </c>
       <c r="E8" s="9">
-        <v>1324188</v>
+        <v>1444227</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>165</v>
@@ -6713,31 +6713,31 @@
         <v>165</v>
       </c>
       <c r="M8" s="9">
-        <v>2440844</v>
+        <v>2747084</v>
       </c>
       <c r="N8" s="8">
-        <v>2440844</v>
+        <v>2747084</v>
       </c>
       <c r="O8" s="8">
         <v>0</v>
       </c>
       <c r="P8" s="9">
-        <v>2458410</v>
+        <v>2817129</v>
       </c>
       <c r="Q8" s="9">
         <v>0</v>
       </c>
       <c r="R8" s="9">
-        <v>421938</v>
+        <v>394839</v>
       </c>
       <c r="S8" s="8">
-        <v>421938</v>
+        <v>394839</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
       </c>
       <c r="U8" s="9">
-        <v>587501</v>
+        <v>411579</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
@@ -6746,22 +6746,22 @@
         <v>0</v>
       </c>
       <c r="X8" s="8">
-        <v>587501</v>
+        <v>411579</v>
       </c>
       <c r="Y8" s="8">
-        <v>5961269</v>
+        <v>5926739</v>
       </c>
       <c r="Z8" s="9">
-        <v>1178926</v>
+        <v>597797</v>
       </c>
       <c r="AA8" s="8">
-        <v>562782</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="7">
-        <v>562782</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="8">
-        <v>562782</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="8">
         <v>0</v>
@@ -6788,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="AL8" s="8">
-        <v>142669</v>
+        <v>182042</v>
       </c>
       <c r="AM8" s="7">
-        <v>142669</v>
+        <v>182042</v>
       </c>
       <c r="AN8" s="7">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="8">
-        <v>473475</v>
+        <v>415755</v>
       </c>
       <c r="AV8" s="7">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>0</v>
       </c>
       <c r="AX8" s="7">
-        <v>473475</v>
+        <v>415755</v>
       </c>
       <c r="AY8" s="9">
-        <v>20362</v>
+        <v>28012</v>
       </c>
       <c r="AZ8" s="8">
-        <v>20362</v>
+        <v>28012</v>
       </c>
       <c r="BA8" s="7">
-        <v>19981</v>
+        <v>28007</v>
       </c>
       <c r="BB8" s="7">
         <v>0</v>
@@ -6842,55 +6842,55 @@
         <v>0</v>
       </c>
       <c r="BD8" s="7">
-        <v>381</v>
+        <v>5</v>
       </c>
       <c r="BE8" s="8">
         <v>0</v>
       </c>
       <c r="BF8" s="9">
-        <v>3541954</v>
+        <v>3981184</v>
       </c>
       <c r="BG8" s="8">
-        <v>3541954</v>
+        <v>3776561</v>
       </c>
       <c r="BH8" s="8">
-        <v>0</v>
+        <v>204623</v>
       </c>
       <c r="BI8" s="8">
         <v>0</v>
       </c>
       <c r="BJ8" s="9">
-        <v>1220027</v>
+        <v>1319746</v>
       </c>
       <c r="BK8" s="8">
-        <v>225160</v>
+        <v>201431</v>
       </c>
       <c r="BL8" s="7">
         <v>0</v>
       </c>
       <c r="BM8" s="7">
-        <v>225160</v>
+        <v>201431</v>
       </c>
       <c r="BN8" s="8">
-        <v>994867</v>
+        <v>1118315</v>
       </c>
       <c r="BO8" s="7">
-        <v>15399850</v>
+        <v>15687641</v>
       </c>
       <c r="BP8" s="8">
-        <v>5034004</v>
+        <v>4491021</v>
       </c>
       <c r="BQ8" s="9">
-        <v>240346</v>
+        <v>287187</v>
       </c>
       <c r="BR8" s="8">
-        <v>240346</v>
+        <v>287187</v>
       </c>
       <c r="BS8" s="8">
         <v>0</v>
       </c>
       <c r="BT8" s="9">
-        <v>842957</v>
+        <v>839879</v>
       </c>
       <c r="BU8" s="11" t="s">
         <v>165</v>
@@ -6899,16 +6899,16 @@
         <v>165</v>
       </c>
       <c r="BW8" s="9">
-        <v>88183</v>
+        <v>134510</v>
       </c>
       <c r="BX8" s="8">
-        <v>88183</v>
+        <v>134510</v>
       </c>
       <c r="BY8" s="7">
-        <v>24968</v>
+        <v>31578</v>
       </c>
       <c r="BZ8" s="7">
-        <v>63215</v>
+        <v>102932</v>
       </c>
       <c r="CA8" s="8">
         <v>0</v>
@@ -6917,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="CC8" s="9">
-        <v>2049093</v>
+        <v>936370</v>
       </c>
       <c r="CD8" s="8">
-        <v>2049093</v>
+        <v>936370</v>
       </c>
       <c r="CE8" s="7">
-        <v>175475</v>
+        <v>87566</v>
       </c>
       <c r="CF8" s="7">
-        <v>1873618</v>
+        <v>848804</v>
       </c>
       <c r="CG8" s="8">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="CI8" s="9">
-        <v>1813425</v>
+        <v>2293075</v>
       </c>
       <c r="CJ8" s="8">
         <v>0</v>
@@ -6953,10 +6953,10 @@
         <v>0</v>
       </c>
       <c r="CO8" s="8">
-        <v>1813425</v>
+        <v>2293075</v>
       </c>
       <c r="CP8" s="7">
-        <v>165441</v>
+        <v>145376</v>
       </c>
       <c r="CQ8" s="7">
         <v>0</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="CS8" s="7">
-        <v>1647984</v>
+        <v>2147699</v>
       </c>
       <c r="CT8" s="9">
         <v>0</v>
@@ -7013,19 +7013,19 @@
         <v>0</v>
       </c>
       <c r="DI8" s="8">
-        <v>2512589</v>
+        <v>2266630</v>
       </c>
       <c r="DJ8" s="9">
-        <v>1723021</v>
+        <v>1348599</v>
       </c>
       <c r="DK8" s="8">
-        <v>1723021</v>
+        <v>1348599</v>
       </c>
       <c r="DL8" s="7">
-        <v>315291</v>
+        <v>107930</v>
       </c>
       <c r="DM8" s="7">
-        <v>1407730</v>
+        <v>1240669</v>
       </c>
       <c r="DN8" s="8">
         <v>0</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="DP8" s="9">
-        <v>155394</v>
+        <v>291310</v>
       </c>
       <c r="DQ8" s="8">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="DV8" s="8">
-        <v>155394</v>
+        <v>291310</v>
       </c>
       <c r="DW8" s="7">
         <v>0</v>
@@ -7061,16 +7061,16 @@
         <v>0</v>
       </c>
       <c r="DY8" s="7">
-        <v>155394</v>
+        <v>291310</v>
       </c>
       <c r="DZ8" s="9">
-        <v>86537</v>
+        <v>75143</v>
       </c>
       <c r="EA8" s="8">
-        <v>86537</v>
+        <v>75143</v>
       </c>
       <c r="EB8" s="9">
-        <v>547637</v>
+        <v>551578</v>
       </c>
       <c r="EC8" s="11" t="s">
         <v>165</v>
@@ -7127,19 +7127,19 @@
         <v>0</v>
       </c>
       <c r="EU8" s="8">
-        <v>7853257</v>
+        <v>8929990</v>
       </c>
       <c r="EV8" s="9">
-        <v>138983</v>
+        <v>212743</v>
       </c>
       <c r="EW8" s="9">
-        <v>7714274</v>
+        <v>8717247</v>
       </c>
       <c r="EX8" s="8">
         <v>5504517</v>
       </c>
       <c r="EY8" s="8">
-        <v>-87102</v>
+        <v>-103868</v>
       </c>
       <c r="EZ8" s="7">
         <v>0</v>
@@ -7151,28 +7151,28 @@
         <v>0</v>
       </c>
       <c r="FC8" s="7">
-        <v>9615</v>
+        <v>12857</v>
       </c>
       <c r="FD8" s="7">
-        <v>-15261</v>
+        <v>-11419</v>
       </c>
       <c r="FE8" s="7">
         <v>0</v>
       </c>
       <c r="FF8" s="7">
-        <v>-81456</v>
+        <v>-105306</v>
       </c>
       <c r="FG8" s="8">
         <v>3630</v>
       </c>
       <c r="FH8" s="8">
-        <v>1133122</v>
+        <v>2059144</v>
       </c>
       <c r="FI8" s="7">
-        <v>66916</v>
+        <v>147645</v>
       </c>
       <c r="FJ8" s="7">
-        <v>892339</v>
+        <v>1559607</v>
       </c>
       <c r="FK8" s="7">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="FP8" s="7">
-        <v>173867</v>
+        <v>351892</v>
       </c>
       <c r="FQ8" s="7">
         <v>0</v>
@@ -7202,30 +7202,30 @@
         <v>0</v>
       </c>
       <c r="FT8" s="8">
-        <v>380781</v>
+        <v>359298</v>
       </c>
       <c r="FU8" s="8">
         <v>0</v>
       </c>
       <c r="FV8" s="8">
-        <v>779326</v>
+        <v>894526</v>
       </c>
     </row>
     <row r="9" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="7">
-        <v>15687641</v>
+        <v>19927896</v>
       </c>
       <c r="C9" s="8">
-        <v>9760902</v>
+        <v>12556143</v>
       </c>
       <c r="D9" s="9">
-        <v>1946044</v>
+        <v>3892140</v>
       </c>
       <c r="E9" s="9">
-        <v>1444227</v>
+        <v>592794</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>165</v>
@@ -7249,31 +7249,31 @@
         <v>165</v>
       </c>
       <c r="M9" s="9">
-        <v>2747084</v>
+        <v>3417251</v>
       </c>
       <c r="N9" s="8">
-        <v>2747084</v>
+        <v>3417251</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
       </c>
       <c r="P9" s="9">
-        <v>2817129</v>
+        <v>3737529</v>
       </c>
       <c r="Q9" s="9">
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>394839</v>
+        <v>339283</v>
       </c>
       <c r="S9" s="8">
-        <v>394839</v>
+        <v>339283</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
       </c>
       <c r="U9" s="9">
-        <v>411579</v>
+        <v>577146</v>
       </c>
       <c r="V9" s="8">
         <v>0</v>
@@ -7282,13 +7282,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <v>411579</v>
+        <v>577146</v>
       </c>
       <c r="Y9" s="8">
-        <v>5926739</v>
+        <v>7371753</v>
       </c>
       <c r="Z9" s="9">
-        <v>597797</v>
+        <v>898045</v>
       </c>
       <c r="AA9" s="8">
         <v>0</v>
@@ -7324,10 +7324,10 @@
         <v>0</v>
       </c>
       <c r="AL9" s="8">
-        <v>182042</v>
+        <v>360390</v>
       </c>
       <c r="AM9" s="7">
-        <v>182042</v>
+        <v>360390</v>
       </c>
       <c r="AN9" s="7">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="8">
-        <v>415755</v>
+        <v>537655</v>
       </c>
       <c r="AV9" s="7">
         <v>0</v>
@@ -7360,16 +7360,16 @@
         <v>0</v>
       </c>
       <c r="AX9" s="7">
-        <v>415755</v>
+        <v>537655</v>
       </c>
       <c r="AY9" s="9">
-        <v>28012</v>
+        <v>1023</v>
       </c>
       <c r="AZ9" s="8">
-        <v>28012</v>
+        <v>1023</v>
       </c>
       <c r="BA9" s="7">
-        <v>28007</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="7">
         <v>0</v>
@@ -7378,55 +7378,55 @@
         <v>0</v>
       </c>
       <c r="BD9" s="7">
-        <v>5</v>
+        <v>1023</v>
       </c>
       <c r="BE9" s="8">
         <v>0</v>
       </c>
       <c r="BF9" s="9">
-        <v>3981184</v>
+        <v>4877210</v>
       </c>
       <c r="BG9" s="8">
-        <v>3776561</v>
+        <v>4598730</v>
       </c>
       <c r="BH9" s="8">
-        <v>204623</v>
+        <v>278480</v>
       </c>
       <c r="BI9" s="8">
         <v>0</v>
       </c>
       <c r="BJ9" s="9">
-        <v>1319746</v>
+        <v>1595475</v>
       </c>
       <c r="BK9" s="8">
-        <v>201431</v>
+        <v>276765</v>
       </c>
       <c r="BL9" s="7">
         <v>0</v>
       </c>
       <c r="BM9" s="7">
-        <v>201431</v>
+        <v>276765</v>
       </c>
       <c r="BN9" s="8">
-        <v>1118315</v>
+        <v>1318710</v>
       </c>
       <c r="BO9" s="7">
-        <v>15687641</v>
+        <v>19927896</v>
       </c>
       <c r="BP9" s="8">
-        <v>4491021</v>
+        <v>5882044</v>
       </c>
       <c r="BQ9" s="9">
-        <v>287187</v>
+        <v>366790</v>
       </c>
       <c r="BR9" s="8">
-        <v>287187</v>
+        <v>366790</v>
       </c>
       <c r="BS9" s="8">
         <v>0</v>
       </c>
       <c r="BT9" s="9">
-        <v>839879</v>
+        <v>1249368</v>
       </c>
       <c r="BU9" s="11" t="s">
         <v>165</v>
@@ -7435,16 +7435,16 @@
         <v>165</v>
       </c>
       <c r="BW9" s="9">
-        <v>134510</v>
+        <v>240467</v>
       </c>
       <c r="BX9" s="8">
-        <v>134510</v>
+        <v>240467</v>
       </c>
       <c r="BY9" s="7">
-        <v>31578</v>
+        <v>111072</v>
       </c>
       <c r="BZ9" s="7">
-        <v>102932</v>
+        <v>129395</v>
       </c>
       <c r="CA9" s="8">
         <v>0</v>
@@ -7453,16 +7453,16 @@
         <v>0</v>
       </c>
       <c r="CC9" s="9">
-        <v>936370</v>
+        <v>642284</v>
       </c>
       <c r="CD9" s="8">
-        <v>936370</v>
+        <v>642284</v>
       </c>
       <c r="CE9" s="7">
-        <v>87566</v>
+        <v>12289</v>
       </c>
       <c r="CF9" s="7">
-        <v>848804</v>
+        <v>629995</v>
       </c>
       <c r="CG9" s="8">
         <v>0</v>
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="CI9" s="9">
-        <v>2293075</v>
+        <v>3383135</v>
       </c>
       <c r="CJ9" s="8">
         <v>0</v>
@@ -7489,10 +7489,10 @@
         <v>0</v>
       </c>
       <c r="CO9" s="8">
-        <v>2293075</v>
+        <v>3383135</v>
       </c>
       <c r="CP9" s="7">
-        <v>145376</v>
+        <v>136007</v>
       </c>
       <c r="CQ9" s="7">
         <v>0</v>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="CS9" s="7">
-        <v>2147699</v>
+        <v>3247128</v>
       </c>
       <c r="CT9" s="9">
         <v>0</v>
@@ -7549,19 +7549,19 @@
         <v>0</v>
       </c>
       <c r="DI9" s="8">
-        <v>2266630</v>
+        <v>2115554</v>
       </c>
       <c r="DJ9" s="9">
-        <v>1348599</v>
+        <v>1044296</v>
       </c>
       <c r="DK9" s="8">
-        <v>1348599</v>
+        <v>1044296</v>
       </c>
       <c r="DL9" s="7">
-        <v>107930</v>
+        <v>48193</v>
       </c>
       <c r="DM9" s="7">
-        <v>1240669</v>
+        <v>996103</v>
       </c>
       <c r="DN9" s="8">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="DP9" s="9">
-        <v>291310</v>
+        <v>388928</v>
       </c>
       <c r="DQ9" s="8">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="DV9" s="8">
-        <v>291310</v>
+        <v>388928</v>
       </c>
       <c r="DW9" s="7">
         <v>0</v>
@@ -7597,16 +7597,16 @@
         <v>0</v>
       </c>
       <c r="DY9" s="7">
-        <v>291310</v>
+        <v>388928</v>
       </c>
       <c r="DZ9" s="9">
-        <v>75143</v>
+        <v>69625</v>
       </c>
       <c r="EA9" s="8">
-        <v>75143</v>
+        <v>69625</v>
       </c>
       <c r="EB9" s="9">
-        <v>551578</v>
+        <v>612705</v>
       </c>
       <c r="EC9" s="11" t="s">
         <v>165</v>
@@ -7663,19 +7663,19 @@
         <v>0</v>
       </c>
       <c r="EU9" s="8">
-        <v>8929990</v>
+        <v>11930298</v>
       </c>
       <c r="EV9" s="9">
-        <v>212743</v>
+        <v>367133</v>
       </c>
       <c r="EW9" s="9">
-        <v>8717247</v>
+        <v>11563165</v>
       </c>
       <c r="EX9" s="8">
         <v>5504517</v>
       </c>
       <c r="EY9" s="8">
-        <v>-103868</v>
+        <v>-132242</v>
       </c>
       <c r="EZ9" s="7">
         <v>0</v>
@@ -7687,28 +7687,28 @@
         <v>0</v>
       </c>
       <c r="FC9" s="7">
-        <v>12857</v>
+        <v>11512</v>
       </c>
       <c r="FD9" s="7">
-        <v>-11419</v>
+        <v>-15779</v>
       </c>
       <c r="FE9" s="7">
         <v>0</v>
       </c>
       <c r="FF9" s="7">
-        <v>-105306</v>
+        <v>-127975</v>
       </c>
       <c r="FG9" s="8">
         <v>3630</v>
       </c>
       <c r="FH9" s="8">
-        <v>2059144</v>
+        <v>3512410</v>
       </c>
       <c r="FI9" s="7">
-        <v>147645</v>
+        <v>264689</v>
       </c>
       <c r="FJ9" s="7">
-        <v>1559607</v>
+        <v>2518254</v>
       </c>
       <c r="FK9" s="7">
         <v>0</v>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="FP9" s="7">
-        <v>351892</v>
+        <v>729467</v>
       </c>
       <c r="FQ9" s="7">
         <v>0</v>
@@ -7738,30 +7738,30 @@
         <v>0</v>
       </c>
       <c r="FT9" s="8">
-        <v>359298</v>
+        <v>343843</v>
       </c>
       <c r="FU9" s="8">
         <v>0</v>
       </c>
       <c r="FV9" s="8">
-        <v>894526</v>
+        <v>2331007</v>
       </c>
     </row>
     <row r="10" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="7">
-        <v>19927896</v>
+        <v>23932787</v>
       </c>
       <c r="C10" s="8">
-        <v>12556143</v>
+        <v>15945946</v>
       </c>
       <c r="D10" s="9">
-        <v>3892140</v>
+        <v>2714427</v>
       </c>
       <c r="E10" s="9">
-        <v>592794</v>
+        <v>502708</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>165</v>
@@ -7785,31 +7785,31 @@
         <v>165</v>
       </c>
       <c r="M10" s="9">
-        <v>3417251</v>
+        <v>4317393</v>
       </c>
       <c r="N10" s="8">
-        <v>3417251</v>
+        <v>4317393</v>
       </c>
       <c r="O10" s="8">
         <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>3737529</v>
+        <v>6497048</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>339283</v>
+        <v>890290</v>
       </c>
       <c r="S10" s="8">
-        <v>339283</v>
+        <v>890290</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
       </c>
       <c r="U10" s="9">
-        <v>577146</v>
+        <v>1024080</v>
       </c>
       <c r="V10" s="8">
         <v>0</v>
@@ -7818,13 +7818,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="8">
-        <v>577146</v>
+        <v>1024080</v>
       </c>
       <c r="Y10" s="8">
-        <v>7371753</v>
+        <v>7986841</v>
       </c>
       <c r="Z10" s="9">
-        <v>898045</v>
+        <v>930416</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -7860,10 +7860,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="8">
-        <v>360390</v>
+        <v>421900</v>
       </c>
       <c r="AM10" s="7">
-        <v>360390</v>
+        <v>421900</v>
       </c>
       <c r="AN10" s="7">
         <v>0</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="8">
-        <v>537655</v>
+        <v>508516</v>
       </c>
       <c r="AV10" s="7">
         <v>0</v>
@@ -7896,13 +7896,13 @@
         <v>0</v>
       </c>
       <c r="AX10" s="7">
-        <v>537655</v>
+        <v>508516</v>
       </c>
       <c r="AY10" s="9">
-        <v>1023</v>
+        <v>1265</v>
       </c>
       <c r="AZ10" s="8">
-        <v>1023</v>
+        <v>1265</v>
       </c>
       <c r="BA10" s="7">
         <v>0</v>
@@ -7914,55 +7914,55 @@
         <v>0</v>
       </c>
       <c r="BD10" s="7">
-        <v>1023</v>
+        <v>1265</v>
       </c>
       <c r="BE10" s="8">
         <v>0</v>
       </c>
       <c r="BF10" s="9">
-        <v>4877210</v>
+        <v>5504772</v>
       </c>
       <c r="BG10" s="8">
-        <v>4598730</v>
+        <v>5101051</v>
       </c>
       <c r="BH10" s="8">
-        <v>278480</v>
+        <v>403721</v>
       </c>
       <c r="BI10" s="8">
         <v>0</v>
       </c>
       <c r="BJ10" s="9">
-        <v>1595475</v>
+        <v>1550388</v>
       </c>
       <c r="BK10" s="8">
-        <v>276765</v>
+        <v>188080</v>
       </c>
       <c r="BL10" s="7">
         <v>0</v>
       </c>
       <c r="BM10" s="7">
-        <v>276765</v>
+        <v>188080</v>
       </c>
       <c r="BN10" s="8">
-        <v>1318710</v>
+        <v>1362308</v>
       </c>
       <c r="BO10" s="7">
-        <v>19927896</v>
+        <v>23932787</v>
       </c>
       <c r="BP10" s="8">
-        <v>5882044</v>
+        <v>7927884</v>
       </c>
       <c r="BQ10" s="9">
-        <v>366790</v>
+        <v>388190</v>
       </c>
       <c r="BR10" s="8">
-        <v>366790</v>
+        <v>388190</v>
       </c>
       <c r="BS10" s="8">
         <v>0</v>
       </c>
       <c r="BT10" s="9">
-        <v>1249368</v>
+        <v>2120338</v>
       </c>
       <c r="BU10" s="11" t="s">
         <v>165</v>
@@ -7971,16 +7971,16 @@
         <v>165</v>
       </c>
       <c r="BW10" s="9">
-        <v>240467</v>
+        <v>279271</v>
       </c>
       <c r="BX10" s="8">
-        <v>240467</v>
+        <v>279271</v>
       </c>
       <c r="BY10" s="7">
-        <v>111072</v>
+        <v>129609</v>
       </c>
       <c r="BZ10" s="7">
-        <v>129395</v>
+        <v>149662</v>
       </c>
       <c r="CA10" s="8">
         <v>0</v>
@@ -7989,16 +7989,16 @@
         <v>0</v>
       </c>
       <c r="CC10" s="9">
-        <v>642284</v>
+        <v>1052044</v>
       </c>
       <c r="CD10" s="8">
-        <v>642284</v>
+        <v>1052044</v>
       </c>
       <c r="CE10" s="7">
-        <v>12289</v>
+        <v>7769</v>
       </c>
       <c r="CF10" s="7">
-        <v>629995</v>
+        <v>1044275</v>
       </c>
       <c r="CG10" s="8">
         <v>0</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="CI10" s="9">
-        <v>3383135</v>
+        <v>4088041</v>
       </c>
       <c r="CJ10" s="8">
         <v>0</v>
@@ -8025,10 +8025,10 @@
         <v>0</v>
       </c>
       <c r="CO10" s="8">
-        <v>3383135</v>
+        <v>4088041</v>
       </c>
       <c r="CP10" s="7">
-        <v>136007</v>
+        <v>195272</v>
       </c>
       <c r="CQ10" s="7">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="CS10" s="7">
-        <v>3247128</v>
+        <v>3892769</v>
       </c>
       <c r="CT10" s="9">
         <v>0</v>
@@ -8085,19 +8085,19 @@
         <v>0</v>
       </c>
       <c r="DI10" s="8">
-        <v>2115554</v>
+        <v>1994231</v>
       </c>
       <c r="DJ10" s="9">
-        <v>1044296</v>
+        <v>737071</v>
       </c>
       <c r="DK10" s="8">
-        <v>1044296</v>
+        <v>737071</v>
       </c>
       <c r="DL10" s="7">
-        <v>48193</v>
+        <v>35818</v>
       </c>
       <c r="DM10" s="7">
-        <v>996103</v>
+        <v>701253</v>
       </c>
       <c r="DN10" s="8">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="DP10" s="9">
-        <v>388928</v>
+        <v>542097</v>
       </c>
       <c r="DQ10" s="8">
         <v>0</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="DV10" s="8">
-        <v>388928</v>
+        <v>542097</v>
       </c>
       <c r="DW10" s="7">
         <v>0</v>
@@ -8133,16 +8133,16 @@
         <v>0</v>
       </c>
       <c r="DY10" s="7">
-        <v>388928</v>
+        <v>542097</v>
       </c>
       <c r="DZ10" s="9">
-        <v>69625</v>
+        <v>71892</v>
       </c>
       <c r="EA10" s="8">
-        <v>69625</v>
+        <v>71892</v>
       </c>
       <c r="EB10" s="9">
-        <v>612705</v>
+        <v>643171</v>
       </c>
       <c r="EC10" s="11" t="s">
         <v>165</v>
@@ -8199,19 +8199,19 @@
         <v>0</v>
       </c>
       <c r="EU10" s="8">
-        <v>11930298</v>
+        <v>14010672</v>
       </c>
       <c r="EV10" s="9">
-        <v>367133</v>
+        <v>405701</v>
       </c>
       <c r="EW10" s="9">
-        <v>11563165</v>
+        <v>13604971</v>
       </c>
       <c r="EX10" s="8">
         <v>5504517</v>
       </c>
       <c r="EY10" s="8">
-        <v>-132242</v>
+        <v>-120840</v>
       </c>
       <c r="EZ10" s="7">
         <v>0</v>
@@ -8223,28 +8223,28 @@
         <v>0</v>
       </c>
       <c r="FC10" s="7">
-        <v>11512</v>
+        <v>13567</v>
       </c>
       <c r="FD10" s="7">
-        <v>-15779</v>
+        <v>-11216</v>
       </c>
       <c r="FE10" s="7">
         <v>0</v>
       </c>
       <c r="FF10" s="7">
-        <v>-127975</v>
+        <v>-123191</v>
       </c>
       <c r="FG10" s="8">
-        <v>3630</v>
+        <v>3631</v>
       </c>
       <c r="FH10" s="8">
-        <v>3512410</v>
+        <v>5346602</v>
       </c>
       <c r="FI10" s="7">
-        <v>264689</v>
+        <v>443986</v>
       </c>
       <c r="FJ10" s="7">
-        <v>2518254</v>
+        <v>4041579</v>
       </c>
       <c r="FK10" s="7">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="FP10" s="7">
-        <v>729467</v>
+        <v>861037</v>
       </c>
       <c r="FQ10" s="7">
         <v>0</v>
@@ -8274,548 +8274,12 @@
         <v>0</v>
       </c>
       <c r="FT10" s="8">
-        <v>343843</v>
+        <v>322893</v>
       </c>
       <c r="FU10" s="8">
         <v>0</v>
       </c>
       <c r="FV10" s="8">
-        <v>2331007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:178" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="7">
-        <v>23932787</v>
-      </c>
-      <c r="C11" s="8">
-        <v>15945946</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2714427</v>
-      </c>
-      <c r="E11" s="9">
-        <v>502708</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="9">
-        <v>4317393</v>
-      </c>
-      <c r="N11" s="8">
-        <v>4317393</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <v>6497048</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>890290</v>
-      </c>
-      <c r="S11" s="8">
-        <v>890290</v>
-      </c>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
-        <v>1024080</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>1024080</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>7986841</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>930416</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="8">
-        <v>421900</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>421900</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="8">
-        <v>508516</v>
-      </c>
-      <c r="AV11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="7">
-        <v>508516</v>
-      </c>
-      <c r="AY11" s="9">
-        <v>1265</v>
-      </c>
-      <c r="AZ11" s="8">
-        <v>1265</v>
-      </c>
-      <c r="BA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="7">
-        <v>1265</v>
-      </c>
-      <c r="BE11" s="8">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="9">
-        <v>5504772</v>
-      </c>
-      <c r="BG11" s="8">
-        <v>5101051</v>
-      </c>
-      <c r="BH11" s="8">
-        <v>403721</v>
-      </c>
-      <c r="BI11" s="8">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="9">
-        <v>1550388</v>
-      </c>
-      <c r="BK11" s="8">
-        <v>188080</v>
-      </c>
-      <c r="BL11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="7">
-        <v>188080</v>
-      </c>
-      <c r="BN11" s="8">
-        <v>1362308</v>
-      </c>
-      <c r="BO11" s="7">
-        <v>23932787</v>
-      </c>
-      <c r="BP11" s="8">
-        <v>7927884</v>
-      </c>
-      <c r="BQ11" s="9">
-        <v>388190</v>
-      </c>
-      <c r="BR11" s="8">
-        <v>388190</v>
-      </c>
-      <c r="BS11" s="8">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="9">
-        <v>2120338</v>
-      </c>
-      <c r="BU11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="BW11" s="9">
-        <v>279271</v>
-      </c>
-      <c r="BX11" s="8">
-        <v>279271</v>
-      </c>
-      <c r="BY11" s="7">
-        <v>129609</v>
-      </c>
-      <c r="BZ11" s="7">
-        <v>149662</v>
-      </c>
-      <c r="CA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="9">
-        <v>1052044</v>
-      </c>
-      <c r="CD11" s="8">
-        <v>1052044</v>
-      </c>
-      <c r="CE11" s="7">
-        <v>7769</v>
-      </c>
-      <c r="CF11" s="7">
-        <v>1044275</v>
-      </c>
-      <c r="CG11" s="8">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="8">
-        <v>0</v>
-      </c>
-      <c r="CI11" s="9">
-        <v>4088041</v>
-      </c>
-      <c r="CJ11" s="8">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="8">
-        <v>4088041</v>
-      </c>
-      <c r="CP11" s="7">
-        <v>195272</v>
-      </c>
-      <c r="CQ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CR11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CS11" s="7">
-        <v>3892769</v>
-      </c>
-      <c r="CT11" s="9">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="8">
-        <v>0</v>
-      </c>
-      <c r="CV11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CW11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CX11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CY11" s="7">
-        <v>0</v>
-      </c>
-      <c r="CZ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="9">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="8">
-        <v>0</v>
-      </c>
-      <c r="DH11" s="8">
-        <v>0</v>
-      </c>
-      <c r="DI11" s="8">
-        <v>1994231</v>
-      </c>
-      <c r="DJ11" s="9">
-        <v>737071</v>
-      </c>
-      <c r="DK11" s="8">
-        <v>737071</v>
-      </c>
-      <c r="DL11" s="7">
-        <v>35818</v>
-      </c>
-      <c r="DM11" s="7">
-        <v>701253</v>
-      </c>
-      <c r="DN11" s="8">
-        <v>0</v>
-      </c>
-      <c r="DO11" s="8">
-        <v>0</v>
-      </c>
-      <c r="DP11" s="9">
-        <v>542097</v>
-      </c>
-      <c r="DQ11" s="8">
-        <v>0</v>
-      </c>
-      <c r="DR11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DS11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DT11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DU11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DV11" s="8">
-        <v>542097</v>
-      </c>
-      <c r="DW11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DX11" s="7">
-        <v>0</v>
-      </c>
-      <c r="DY11" s="7">
-        <v>542097</v>
-      </c>
-      <c r="DZ11" s="9">
-        <v>71892</v>
-      </c>
-      <c r="EA11" s="8">
-        <v>71892</v>
-      </c>
-      <c r="EB11" s="9">
-        <v>643171</v>
-      </c>
-      <c r="EC11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="ED11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EE11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EF11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EG11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EH11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EI11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="EJ11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EK11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EL11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EM11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="EN11" s="9">
-        <v>0</v>
-      </c>
-      <c r="EO11" s="8">
-        <v>0</v>
-      </c>
-      <c r="EP11" s="8">
-        <v>0</v>
-      </c>
-      <c r="EQ11" s="9">
-        <v>0</v>
-      </c>
-      <c r="ER11" s="8">
-        <v>0</v>
-      </c>
-      <c r="ES11" s="8">
-        <v>0</v>
-      </c>
-      <c r="ET11" s="8">
-        <v>0</v>
-      </c>
-      <c r="EU11" s="8">
-        <v>14010672</v>
-      </c>
-      <c r="EV11" s="9">
-        <v>405701</v>
-      </c>
-      <c r="EW11" s="9">
-        <v>13604971</v>
-      </c>
-      <c r="EX11" s="8">
-        <v>5504517</v>
-      </c>
-      <c r="EY11" s="8">
-        <v>-120840</v>
-      </c>
-      <c r="EZ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FC11" s="7">
-        <v>13567</v>
-      </c>
-      <c r="FD11" s="7">
-        <v>-11216</v>
-      </c>
-      <c r="FE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FF11" s="7">
-        <v>-123191</v>
-      </c>
-      <c r="FG11" s="8">
-        <v>3631</v>
-      </c>
-      <c r="FH11" s="8">
-        <v>5346602</v>
-      </c>
-      <c r="FI11" s="7">
-        <v>443986</v>
-      </c>
-      <c r="FJ11" s="7">
-        <v>4041579</v>
-      </c>
-      <c r="FK11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FL11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FM11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FO11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FP11" s="7">
-        <v>861037</v>
-      </c>
-      <c r="FQ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FR11" s="7">
-        <v>0</v>
-      </c>
-      <c r="FS11" s="8">
-        <v>0</v>
-      </c>
-      <c r="FT11" s="8">
-        <v>322893</v>
-      </c>
-      <c r="FU11" s="8">
-        <v>0</v>
-      </c>
-      <c r="FV11" s="8">
         <v>2548168</v>
       </c>
     </row>
@@ -8826,10 +8290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E89F8-68A7-48B2-83BC-963650875B5E}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8866,153 +8330,153 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="7">
-        <v>6173878</v>
+        <v>6828896</v>
       </c>
       <c r="C2" s="7">
-        <v>4293022</v>
+        <v>4592130</v>
       </c>
       <c r="D2" s="7">
-        <v>1880856</v>
+        <v>2236766</v>
       </c>
       <c r="E2" s="7">
-        <v>1072445</v>
+        <v>1225013</v>
       </c>
       <c r="F2" s="8">
-        <v>619980</v>
+        <v>716358</v>
       </c>
       <c r="G2" s="8">
-        <v>307202</v>
+        <v>328863</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>18593</v>
+        <v>16431</v>
       </c>
       <c r="J2" s="8">
-        <v>163856</v>
+        <v>196223</v>
       </c>
       <c r="K2" s="8">
         <v>0</v>
       </c>
       <c r="L2" s="15">
-        <v>1016748</v>
+        <v>1230032</v>
       </c>
       <c r="M2" s="9">
-        <v>208337</v>
+        <v>218279</v>
       </c>
       <c r="N2" s="7">
-        <v>808411</v>
+        <v>1011753</v>
       </c>
       <c r="O2" s="7">
-        <v>55691</v>
+        <v>73126</v>
       </c>
       <c r="P2" s="8">
-        <v>460420</v>
+        <v>599974</v>
       </c>
       <c r="Q2" s="8">
-        <v>404729</v>
+        <v>526848</v>
       </c>
       <c r="R2" s="7">
-        <v>864102</v>
+        <v>1084879</v>
       </c>
       <c r="S2" s="7">
-        <v>199238</v>
+        <v>239575</v>
       </c>
       <c r="T2" s="8">
-        <v>228859</v>
+        <v>274859</v>
       </c>
       <c r="U2" s="8">
-        <v>-29621</v>
+        <v>-35284</v>
       </c>
       <c r="V2" s="7">
-        <v>664864</v>
+        <v>845304</v>
       </c>
       <c r="W2" s="7">
         <v>0</v>
@@ -9024,81 +8488,81 @@
         <v>0</v>
       </c>
       <c r="Z2" s="7">
-        <v>664864</v>
+        <v>845304</v>
       </c>
       <c r="AA2" s="7">
-        <v>8885</v>
+        <v>1837</v>
       </c>
       <c r="AB2" s="7">
-        <v>655979</v>
+        <v>843467</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="7">
-        <v>6828896</v>
+        <v>7840757</v>
       </c>
       <c r="C3" s="7">
-        <v>4592130</v>
+        <v>5356260</v>
       </c>
       <c r="D3" s="7">
-        <v>2236766</v>
+        <v>2484497</v>
       </c>
       <c r="E3" s="7">
-        <v>1225013</v>
+        <v>1390145</v>
       </c>
       <c r="F3" s="8">
-        <v>716358</v>
+        <v>820471</v>
       </c>
       <c r="G3" s="8">
-        <v>328863</v>
+        <v>386112</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>16431</v>
+        <v>15902</v>
       </c>
       <c r="J3" s="8">
-        <v>196223</v>
+        <v>199464</v>
       </c>
       <c r="K3" s="8">
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <v>1230032</v>
+        <v>1344829</v>
       </c>
       <c r="M3" s="9">
-        <v>218279</v>
+        <v>250477</v>
       </c>
       <c r="N3" s="7">
-        <v>1011753</v>
+        <v>1094352</v>
       </c>
       <c r="O3" s="7">
-        <v>73126</v>
+        <v>133577</v>
       </c>
       <c r="P3" s="8">
-        <v>599974</v>
+        <v>785503</v>
       </c>
       <c r="Q3" s="8">
-        <v>526848</v>
+        <v>651926</v>
       </c>
       <c r="R3" s="7">
-        <v>1084879</v>
+        <v>1227929</v>
       </c>
       <c r="S3" s="7">
-        <v>239575</v>
+        <v>265613</v>
       </c>
       <c r="T3" s="8">
-        <v>274859</v>
+        <v>271583</v>
       </c>
       <c r="U3" s="8">
-        <v>-35284</v>
+        <v>-5970</v>
       </c>
       <c r="V3" s="7">
-        <v>845304</v>
+        <v>962316</v>
       </c>
       <c r="W3" s="7">
         <v>0</v>
@@ -9110,81 +8574,81 @@
         <v>0</v>
       </c>
       <c r="Z3" s="7">
-        <v>845304</v>
+        <v>962316</v>
       </c>
       <c r="AA3" s="7">
-        <v>1837</v>
+        <v>7590</v>
       </c>
       <c r="AB3" s="7">
-        <v>843467</v>
+        <v>954726</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="7">
-        <v>7840757</v>
+        <v>9760323</v>
       </c>
       <c r="C4" s="7">
-        <v>5356260</v>
+        <v>6994735</v>
       </c>
       <c r="D4" s="7">
-        <v>2484497</v>
+        <v>2765588</v>
       </c>
       <c r="E4" s="7">
-        <v>1390145</v>
+        <v>1607343</v>
       </c>
       <c r="F4" s="8">
-        <v>820471</v>
+        <v>950252</v>
       </c>
       <c r="G4" s="8">
-        <v>386112</v>
+        <v>458953</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>15902</v>
+        <v>28351</v>
       </c>
       <c r="J4" s="8">
-        <v>199464</v>
+        <v>226489</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
       <c r="L4" s="15">
-        <v>1344829</v>
+        <v>1477603</v>
       </c>
       <c r="M4" s="9">
-        <v>250477</v>
+        <v>319358</v>
       </c>
       <c r="N4" s="7">
-        <v>1094352</v>
+        <v>1158245</v>
       </c>
       <c r="O4" s="7">
-        <v>133577</v>
+        <v>145483</v>
       </c>
       <c r="P4" s="8">
-        <v>785503</v>
+        <v>1345633</v>
       </c>
       <c r="Q4" s="8">
-        <v>651926</v>
+        <v>1200150</v>
       </c>
       <c r="R4" s="7">
-        <v>1227929</v>
+        <v>1303728</v>
       </c>
       <c r="S4" s="7">
-        <v>265613</v>
+        <v>137918</v>
       </c>
       <c r="T4" s="8">
-        <v>271583</v>
+        <v>234116</v>
       </c>
       <c r="U4" s="8">
-        <v>-5970</v>
+        <v>-96198</v>
       </c>
       <c r="V4" s="7">
-        <v>962316</v>
+        <v>1165810</v>
       </c>
       <c r="W4" s="7">
         <v>0</v>
@@ -9196,81 +8660,81 @@
         <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>962316</v>
+        <v>1165810</v>
       </c>
       <c r="AA4" s="7">
-        <v>7590</v>
+        <v>9745</v>
       </c>
       <c r="AB4" s="7">
-        <v>954726</v>
+        <v>1156065</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="7">
-        <v>9760323</v>
+        <v>9367008</v>
       </c>
       <c r="C5" s="7">
-        <v>6994735</v>
+        <v>6731229</v>
       </c>
       <c r="D5" s="7">
-        <v>2765588</v>
+        <v>2635779</v>
       </c>
       <c r="E5" s="7">
-        <v>1607343</v>
+        <v>1572105</v>
       </c>
       <c r="F5" s="8">
-        <v>950252</v>
+        <v>924999</v>
       </c>
       <c r="G5" s="8">
-        <v>458953</v>
+        <v>465383</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>28351</v>
+        <v>15526</v>
       </c>
       <c r="J5" s="8">
-        <v>226489</v>
+        <v>197249</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
       </c>
       <c r="L5" s="15">
-        <v>1477603</v>
+        <v>1406931</v>
       </c>
       <c r="M5" s="9">
-        <v>319358</v>
+        <v>343257</v>
       </c>
       <c r="N5" s="7">
-        <v>1158245</v>
+        <v>1063674</v>
       </c>
       <c r="O5" s="7">
-        <v>145483</v>
+        <v>215840</v>
       </c>
       <c r="P5" s="8">
-        <v>1345633</v>
+        <v>816087</v>
       </c>
       <c r="Q5" s="8">
-        <v>1200150</v>
+        <v>600247</v>
       </c>
       <c r="R5" s="7">
-        <v>1303728</v>
+        <v>1279514</v>
       </c>
       <c r="S5" s="7">
-        <v>137918</v>
+        <v>151682</v>
       </c>
       <c r="T5" s="8">
-        <v>234116</v>
+        <v>245415</v>
       </c>
       <c r="U5" s="8">
-        <v>-96198</v>
+        <v>-93733</v>
       </c>
       <c r="V5" s="7">
-        <v>1165810</v>
+        <v>1127832</v>
       </c>
       <c r="W5" s="7">
         <v>0</v>
@@ -9282,81 +8746,81 @@
         <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <v>1165810</v>
+        <v>1127832</v>
       </c>
       <c r="AA5" s="7">
-        <v>9745</v>
+        <v>10208</v>
       </c>
       <c r="AB5" s="7">
-        <v>1156065</v>
+        <v>1117624</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="7">
-        <v>9367008</v>
+        <v>9523830</v>
       </c>
       <c r="C6" s="7">
-        <v>6731229</v>
+        <v>6765383</v>
       </c>
       <c r="D6" s="7">
-        <v>2635779</v>
+        <v>2758447</v>
       </c>
       <c r="E6" s="7">
-        <v>1572105</v>
+        <v>1576035</v>
       </c>
       <c r="F6" s="8">
-        <v>924999</v>
+        <v>894353</v>
       </c>
       <c r="G6" s="8">
-        <v>465383</v>
+        <v>488681</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>15526</v>
+        <v>23205</v>
       </c>
       <c r="J6" s="8">
-        <v>197249</v>
+        <v>216206</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6" s="15">
-        <v>1406931</v>
+        <v>1466287</v>
       </c>
       <c r="M6" s="9">
-        <v>343257</v>
+        <v>283875</v>
       </c>
       <c r="N6" s="7">
-        <v>1063674</v>
+        <v>1182412</v>
       </c>
       <c r="O6" s="7">
-        <v>215840</v>
+        <v>58036</v>
       </c>
       <c r="P6" s="8">
-        <v>816087</v>
+        <v>851852</v>
       </c>
       <c r="Q6" s="8">
-        <v>600247</v>
+        <v>793816</v>
       </c>
       <c r="R6" s="7">
-        <v>1279514</v>
+        <v>1240448</v>
       </c>
       <c r="S6" s="7">
-        <v>151682</v>
+        <v>99506</v>
       </c>
       <c r="T6" s="8">
-        <v>245415</v>
+        <v>167681</v>
       </c>
       <c r="U6" s="8">
-        <v>-93733</v>
+        <v>-68175</v>
       </c>
       <c r="V6" s="7">
-        <v>1127832</v>
+        <v>1140942</v>
       </c>
       <c r="W6" s="7">
         <v>0</v>
@@ -9368,81 +8832,81 @@
         <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>1127832</v>
+        <v>1140942</v>
       </c>
       <c r="AA6" s="7">
-        <v>10208</v>
+        <v>-1207</v>
       </c>
       <c r="AB6" s="7">
-        <v>1117624</v>
+        <v>1142149</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="7">
-        <v>9523830</v>
+        <v>11970090</v>
       </c>
       <c r="C7" s="7">
-        <v>6765383</v>
+        <v>8500816</v>
       </c>
       <c r="D7" s="7">
-        <v>2758447</v>
+        <v>3469274</v>
       </c>
       <c r="E7" s="7">
-        <v>1576035</v>
+        <v>1962243</v>
       </c>
       <c r="F7" s="8">
-        <v>894353</v>
+        <v>1139413</v>
       </c>
       <c r="G7" s="8">
-        <v>488681</v>
+        <v>566631</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>23205</v>
+        <v>22656</v>
       </c>
       <c r="J7" s="8">
-        <v>216206</v>
+        <v>282284</v>
       </c>
       <c r="K7" s="8">
-        <v>0</v>
+        <v>3429</v>
       </c>
       <c r="L7" s="15">
-        <v>1466287</v>
+        <v>1824054</v>
       </c>
       <c r="M7" s="9">
-        <v>283875</v>
+        <v>317023</v>
       </c>
       <c r="N7" s="7">
-        <v>1182412</v>
+        <v>1507031</v>
       </c>
       <c r="O7" s="7">
-        <v>58036</v>
+        <v>-9489</v>
       </c>
       <c r="P7" s="8">
-        <v>851852</v>
+        <v>877674</v>
       </c>
       <c r="Q7" s="8">
-        <v>793816</v>
+        <v>887163</v>
       </c>
       <c r="R7" s="7">
-        <v>1240448</v>
+        <v>1497542</v>
       </c>
       <c r="S7" s="7">
-        <v>99506</v>
+        <v>153394</v>
       </c>
       <c r="T7" s="8">
-        <v>167681</v>
+        <v>188185</v>
       </c>
       <c r="U7" s="8">
-        <v>-68175</v>
+        <v>-34791</v>
       </c>
       <c r="V7" s="7">
-        <v>1140942</v>
+        <v>1344148</v>
       </c>
       <c r="W7" s="7">
         <v>0</v>
@@ -9454,81 +8918,81 @@
         <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>1140942</v>
+        <v>1344148</v>
       </c>
       <c r="AA7" s="7">
-        <v>-1207</v>
+        <v>5829</v>
       </c>
       <c r="AB7" s="7">
-        <v>1142149</v>
+        <v>1338319</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B8" s="7">
-        <v>11970090</v>
+        <v>13347434</v>
       </c>
       <c r="C8" s="7">
-        <v>8500816</v>
+        <v>9394166</v>
       </c>
       <c r="D8" s="7">
-        <v>3469274</v>
+        <v>3953268</v>
       </c>
       <c r="E8" s="7">
-        <v>1962243</v>
+        <v>2105534</v>
       </c>
       <c r="F8" s="8">
-        <v>1139413</v>
+        <v>1253165</v>
       </c>
       <c r="G8" s="8">
-        <v>566631</v>
+        <v>548407</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>22656</v>
+        <v>30278</v>
       </c>
       <c r="J8" s="8">
-        <v>282284</v>
+        <v>344675</v>
       </c>
       <c r="K8" s="8">
-        <v>3429</v>
+        <v>10435</v>
       </c>
       <c r="L8" s="15">
-        <v>1824054</v>
+        <v>2244517</v>
       </c>
       <c r="M8" s="9">
-        <v>317023</v>
+        <v>396783</v>
       </c>
       <c r="N8" s="7">
-        <v>1507031</v>
+        <v>1847734</v>
       </c>
       <c r="O8" s="7">
-        <v>-9489</v>
+        <v>-43283</v>
       </c>
       <c r="P8" s="8">
-        <v>877674</v>
+        <v>917382</v>
       </c>
       <c r="Q8" s="8">
-        <v>887163</v>
+        <v>960665</v>
       </c>
       <c r="R8" s="7">
-        <v>1497542</v>
+        <v>1804451</v>
       </c>
       <c r="S8" s="7">
-        <v>153394</v>
+        <v>171996</v>
       </c>
       <c r="T8" s="8">
-        <v>188185</v>
+        <v>217098</v>
       </c>
       <c r="U8" s="8">
-        <v>-34791</v>
+        <v>-45102</v>
       </c>
       <c r="V8" s="7">
-        <v>1344148</v>
+        <v>1632455</v>
       </c>
       <c r="W8" s="7">
         <v>0</v>
@@ -9540,81 +9004,81 @@
         <v>0</v>
       </c>
       <c r="Z8" s="7">
-        <v>1344148</v>
+        <v>1632455</v>
       </c>
       <c r="AA8" s="7">
-        <v>5829</v>
+        <v>17874</v>
       </c>
       <c r="AB8" s="7">
-        <v>1338319</v>
+        <v>1614581</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="7">
-        <v>13347434</v>
+        <v>17469557</v>
       </c>
       <c r="C9" s="7">
-        <v>9394166</v>
+        <v>12032050</v>
       </c>
       <c r="D9" s="7">
-        <v>3953268</v>
+        <v>5437507</v>
       </c>
       <c r="E9" s="7">
-        <v>2105534</v>
+        <v>2621183</v>
       </c>
       <c r="F9" s="8">
-        <v>1253165</v>
+        <v>1506817</v>
       </c>
       <c r="G9" s="8">
-        <v>548407</v>
+        <v>654469</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>30278</v>
+        <v>46369</v>
       </c>
       <c r="J9" s="8">
-        <v>344675</v>
+        <v>510136</v>
       </c>
       <c r="K9" s="8">
-        <v>10435</v>
+        <v>3870</v>
       </c>
       <c r="L9" s="15">
-        <v>2244517</v>
+        <v>3267683</v>
       </c>
       <c r="M9" s="9">
-        <v>396783</v>
+        <v>451359</v>
       </c>
       <c r="N9" s="7">
-        <v>1847734</v>
+        <v>2816324</v>
       </c>
       <c r="O9" s="7">
-        <v>-43283</v>
+        <v>-69675</v>
       </c>
       <c r="P9" s="8">
-        <v>917382</v>
+        <v>1020426</v>
       </c>
       <c r="Q9" s="8">
-        <v>960665</v>
+        <v>1090101</v>
       </c>
       <c r="R9" s="7">
-        <v>1804451</v>
+        <v>2746649</v>
       </c>
       <c r="S9" s="7">
-        <v>171996</v>
+        <v>350692</v>
       </c>
       <c r="T9" s="8">
-        <v>217098</v>
+        <v>500450</v>
       </c>
       <c r="U9" s="8">
-        <v>-45102</v>
+        <v>-149758</v>
       </c>
       <c r="V9" s="7">
-        <v>1632455</v>
+        <v>2395957</v>
       </c>
       <c r="W9" s="7">
         <v>0</v>
@@ -9626,81 +9090,81 @@
         <v>0</v>
       </c>
       <c r="Z9" s="7">
-        <v>1632455</v>
+        <v>2395957</v>
       </c>
       <c r="AA9" s="7">
-        <v>17874</v>
+        <v>55084</v>
       </c>
       <c r="AB9" s="7">
-        <v>1614581</v>
+        <v>2340873</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="7">
-        <v>17469557</v>
+        <v>23563338</v>
       </c>
       <c r="C10" s="7">
-        <v>12032050</v>
+        <v>16602381</v>
       </c>
       <c r="D10" s="7">
-        <v>5437507</v>
+        <v>6960957</v>
       </c>
       <c r="E10" s="7">
-        <v>2621183</v>
+        <v>2802614</v>
       </c>
       <c r="F10" s="8">
-        <v>1506817</v>
+        <v>1833204</v>
       </c>
       <c r="G10" s="8">
-        <v>654469</v>
+        <v>776007</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>46369</v>
+        <v>422154</v>
       </c>
       <c r="J10" s="8">
-        <v>510136</v>
+        <v>615557</v>
       </c>
       <c r="K10" s="8">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="L10" s="15">
-        <v>3267683</v>
+        <v>4678521</v>
       </c>
       <c r="M10" s="9">
-        <v>451359</v>
+        <v>520178</v>
       </c>
       <c r="N10" s="7">
-        <v>2816324</v>
+        <v>4158343</v>
       </c>
       <c r="O10" s="7">
-        <v>-69675</v>
+        <v>171693</v>
       </c>
       <c r="P10" s="8">
-        <v>1020426</v>
+        <v>992739</v>
       </c>
       <c r="Q10" s="8">
-        <v>1090101</v>
+        <v>821046</v>
       </c>
       <c r="R10" s="7">
-        <v>2746649</v>
+        <v>4330036</v>
       </c>
       <c r="S10" s="7">
-        <v>350692</v>
+        <v>672556</v>
       </c>
       <c r="T10" s="8">
-        <v>500450</v>
+        <v>693854</v>
       </c>
       <c r="U10" s="8">
-        <v>-149758</v>
+        <v>-21298</v>
       </c>
       <c r="V10" s="7">
-        <v>2395957</v>
+        <v>3657480</v>
       </c>
       <c r="W10" s="7">
         <v>0</v>
@@ -9712,100 +9176,18 @@
         <v>0</v>
       </c>
       <c r="Z10" s="7">
-        <v>2395957</v>
+        <v>3657480</v>
       </c>
       <c r="AA10" s="7">
-        <v>55084</v>
+        <v>71533</v>
       </c>
       <c r="AB10" s="7">
-        <v>2340873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="7">
-        <v>23563338</v>
-      </c>
-      <c r="C11" s="7">
-        <v>16602381</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6960957</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2802614</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1833204</v>
-      </c>
-      <c r="G11" s="8">
-        <v>776007</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>422154</v>
-      </c>
-      <c r="J11" s="8">
-        <v>615557</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <v>4678521</v>
-      </c>
-      <c r="M11" s="9">
-        <v>520178</v>
-      </c>
-      <c r="N11" s="7">
-        <v>4158343</v>
-      </c>
-      <c r="O11" s="7">
-        <v>171693</v>
-      </c>
-      <c r="P11" s="8">
-        <v>992739</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>821046</v>
-      </c>
-      <c r="R11" s="7">
-        <v>4330036</v>
-      </c>
-      <c r="S11" s="7">
-        <v>672556</v>
-      </c>
-      <c r="T11" s="8">
-        <v>693854</v>
-      </c>
-      <c r="U11" s="8">
-        <v>-21298</v>
-      </c>
-      <c r="V11" s="7">
-        <v>3657480</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>3657480</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>71533</v>
-      </c>
-      <c r="AB11" s="7">
         <v>3585947</v>
       </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G13" s="13"/>
@@ -9842,10 +9224,6 @@
     <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9854,10 +9232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2B5FB-D3F3-422F-B461-99BDDE1AF3E1}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,147 +9286,147 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B2" s="7">
-        <v>893566</v>
+        <v>1027434</v>
       </c>
       <c r="C2" s="8">
-        <v>1181424</v>
+        <v>1656597</v>
       </c>
       <c r="D2" s="9">
-        <v>864102</v>
+        <v>1084879</v>
       </c>
       <c r="E2" s="9">
-        <v>208337</v>
+        <v>218279</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>138564</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>0</v>
+        <v>15052</v>
       </c>
       <c r="I2" s="9">
         <v>0</v>
@@ -10060,16 +9438,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="9">
-        <v>108985</v>
+        <v>199823</v>
       </c>
       <c r="M2" s="8">
-        <v>-354559</v>
+        <v>-655083</v>
       </c>
       <c r="N2" s="9">
-        <v>-324344</v>
+        <v>-299506</v>
       </c>
       <c r="O2" s="9">
-        <v>92326</v>
+        <v>-146049</v>
       </c>
       <c r="P2" s="9">
         <v>0</v>
@@ -10078,64 +9456,64 @@
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>-310086</v>
+        <v>-396937</v>
       </c>
       <c r="S2" s="9">
-        <v>187545</v>
+        <v>187409</v>
       </c>
       <c r="T2" s="8">
-        <v>66701</v>
+        <v>25920</v>
       </c>
       <c r="U2" s="7">
-        <v>-381567</v>
+        <v>54758</v>
       </c>
       <c r="V2" s="8">
-        <v>-477447</v>
+        <v>-290049</v>
       </c>
       <c r="W2" s="9">
-        <v>-244453</v>
+        <v>-11437</v>
       </c>
       <c r="X2" s="9">
-        <v>-255821</v>
+        <v>-280642</v>
       </c>
       <c r="Y2" s="9">
-        <v>22827</v>
+        <v>2030</v>
       </c>
       <c r="Z2" s="8">
         <v>0</v>
       </c>
       <c r="AA2" s="8">
-        <v>17359</v>
+        <v>261046</v>
       </c>
       <c r="AB2" s="8">
-        <v>78521</v>
+        <v>83761</v>
       </c>
       <c r="AC2" s="7">
-        <v>-1141358</v>
+        <v>-10649</v>
       </c>
       <c r="AD2" s="8">
-        <v>-770846</v>
+        <v>380600</v>
       </c>
       <c r="AE2" s="9">
-        <v>982720</v>
+        <v>1890267</v>
       </c>
       <c r="AF2" s="9">
-        <v>-1753566</v>
+        <v>-1509667</v>
       </c>
       <c r="AG2" s="8">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="AH2" s="9">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="AI2" s="9">
         <v>0</v>
       </c>
       <c r="AJ2" s="8">
-        <v>-318422</v>
+        <v>-391987</v>
       </c>
       <c r="AK2" s="8">
-        <v>-52090</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="7">
         <v>0</v>
@@ -10144,33 +9522,33 @@
         <v>0</v>
       </c>
       <c r="AN2" s="7">
-        <v>-629359</v>
+        <v>1071543</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="7">
-        <v>1027434</v>
+        <v>1147520</v>
       </c>
       <c r="C3" s="8">
-        <v>1656597</v>
+        <v>1860652</v>
       </c>
       <c r="D3" s="9">
-        <v>1084879</v>
+        <v>1227929</v>
       </c>
       <c r="E3" s="9">
-        <v>218279</v>
+        <v>250477</v>
       </c>
       <c r="F3" s="9">
-        <v>138564</v>
+        <v>146296</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <v>15052</v>
+        <v>2541</v>
       </c>
       <c r="I3" s="9">
         <v>0</v>
@@ -10182,16 +9560,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="9">
-        <v>199823</v>
+        <v>233409</v>
       </c>
       <c r="M3" s="8">
-        <v>-655083</v>
+        <v>-726524</v>
       </c>
       <c r="N3" s="9">
-        <v>-299506</v>
+        <v>-199394</v>
       </c>
       <c r="O3" s="9">
-        <v>-146049</v>
+        <v>-237825</v>
       </c>
       <c r="P3" s="9">
         <v>0</v>
@@ -10200,61 +9578,61 @@
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>-396937</v>
+        <v>-445390</v>
       </c>
       <c r="S3" s="9">
-        <v>187409</v>
+        <v>156085</v>
       </c>
       <c r="T3" s="8">
-        <v>25920</v>
+        <v>13392</v>
       </c>
       <c r="U3" s="7">
-        <v>54758</v>
+        <v>-1389830</v>
       </c>
       <c r="V3" s="8">
-        <v>-290049</v>
+        <v>-601409</v>
       </c>
       <c r="W3" s="9">
-        <v>-11437</v>
+        <v>-145169</v>
       </c>
       <c r="X3" s="9">
-        <v>-280642</v>
+        <v>-468595</v>
       </c>
       <c r="Y3" s="9">
-        <v>2030</v>
+        <v>12355</v>
       </c>
       <c r="Z3" s="8">
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <v>261046</v>
+        <v>-849057</v>
       </c>
       <c r="AB3" s="8">
-        <v>83761</v>
+        <v>60636</v>
       </c>
       <c r="AC3" s="7">
-        <v>-10649</v>
+        <v>196526</v>
       </c>
       <c r="AD3" s="8">
-        <v>380600</v>
+        <v>654938</v>
       </c>
       <c r="AE3" s="9">
-        <v>1890267</v>
+        <v>1517761</v>
       </c>
       <c r="AF3" s="9">
-        <v>-1509667</v>
+        <v>-862823</v>
       </c>
       <c r="AG3" s="8">
-        <v>738</v>
+        <v>1104</v>
       </c>
       <c r="AH3" s="9">
-        <v>738</v>
+        <v>1104</v>
       </c>
       <c r="AI3" s="9">
         <v>0</v>
       </c>
       <c r="AJ3" s="8">
-        <v>-391987</v>
+        <v>-459516</v>
       </c>
       <c r="AK3" s="8">
         <v>0</v>
@@ -10266,33 +9644,33 @@
         <v>0</v>
       </c>
       <c r="AN3" s="7">
-        <v>1071543</v>
+        <v>-45784</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="7">
-        <v>1147520</v>
+        <v>982442</v>
       </c>
       <c r="C4" s="8">
-        <v>1860652</v>
+        <v>2140082</v>
       </c>
       <c r="D4" s="9">
-        <v>1227929</v>
+        <v>1303728</v>
       </c>
       <c r="E4" s="9">
-        <v>250477</v>
+        <v>319358</v>
       </c>
       <c r="F4" s="9">
-        <v>146296</v>
+        <v>149774</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>2541</v>
+        <v>5655</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
@@ -10304,16 +9682,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="9">
-        <v>233409</v>
+        <v>361567</v>
       </c>
       <c r="M4" s="8">
-        <v>-726524</v>
+        <v>-1202117</v>
       </c>
       <c r="N4" s="9">
-        <v>-199394</v>
+        <v>-651516</v>
       </c>
       <c r="O4" s="9">
-        <v>-237825</v>
+        <v>-67035</v>
       </c>
       <c r="P4" s="9">
         <v>0</v>
@@ -10322,99 +9700,99 @@
         <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>-445390</v>
+        <v>-459869</v>
       </c>
       <c r="S4" s="9">
-        <v>156085</v>
+        <v>-23697</v>
       </c>
       <c r="T4" s="8">
-        <v>13392</v>
+        <v>44477</v>
       </c>
       <c r="U4" s="7">
-        <v>-1389830</v>
+        <v>-903966</v>
       </c>
       <c r="V4" s="8">
-        <v>-601409</v>
+        <v>-618576</v>
       </c>
       <c r="W4" s="9">
-        <v>-145169</v>
+        <v>-129678</v>
       </c>
       <c r="X4" s="9">
-        <v>-468595</v>
+        <v>-507068</v>
       </c>
       <c r="Y4" s="9">
-        <v>12355</v>
+        <v>18170</v>
       </c>
       <c r="Z4" s="8">
         <v>0</v>
       </c>
       <c r="AA4" s="8">
-        <v>-849057</v>
+        <v>-285390</v>
       </c>
       <c r="AB4" s="8">
-        <v>60636</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="7">
-        <v>196526</v>
+        <v>-157581</v>
       </c>
       <c r="AD4" s="8">
-        <v>654938</v>
+        <v>370965</v>
       </c>
       <c r="AE4" s="9">
-        <v>1517761</v>
+        <v>2598115</v>
       </c>
       <c r="AF4" s="9">
-        <v>-862823</v>
+        <v>-2227150</v>
       </c>
       <c r="AG4" s="8">
-        <v>1104</v>
+        <v>-8651</v>
       </c>
       <c r="AH4" s="9">
-        <v>1104</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="9">
-        <v>0</v>
+        <v>-8651</v>
       </c>
       <c r="AJ4" s="8">
-        <v>-459516</v>
+        <v>-519895</v>
       </c>
       <c r="AK4" s="8">
         <v>0</v>
       </c>
       <c r="AL4" s="7">
-        <v>0</v>
+        <v>71945</v>
       </c>
       <c r="AM4" s="7">
         <v>0</v>
       </c>
       <c r="AN4" s="7">
-        <v>-45784</v>
+        <v>-7160</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="7">
-        <v>982442</v>
+        <v>2130912</v>
       </c>
       <c r="C5" s="8">
-        <v>2140082</v>
+        <v>2089478</v>
       </c>
       <c r="D5" s="9">
-        <v>1303728</v>
+        <v>1279514</v>
       </c>
       <c r="E5" s="9">
-        <v>319358</v>
+        <v>343257</v>
       </c>
       <c r="F5" s="9">
-        <v>149774</v>
+        <v>191238</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>5655</v>
+        <v>3962</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
@@ -10426,16 +9804,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>361567</v>
+        <v>271507</v>
       </c>
       <c r="M5" s="8">
-        <v>-1202117</v>
+        <v>151470</v>
       </c>
       <c r="N5" s="9">
-        <v>-651516</v>
+        <v>89449</v>
       </c>
       <c r="O5" s="9">
-        <v>-67035</v>
+        <v>276537</v>
       </c>
       <c r="P5" s="9">
         <v>0</v>
@@ -10444,99 +9822,99 @@
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>-459869</v>
+        <v>-434226</v>
       </c>
       <c r="S5" s="9">
-        <v>-23697</v>
+        <v>219710</v>
       </c>
       <c r="T5" s="8">
-        <v>44477</v>
+        <v>-110036</v>
       </c>
       <c r="U5" s="7">
-        <v>-903966</v>
+        <v>-852730</v>
       </c>
       <c r="V5" s="8">
-        <v>-618576</v>
+        <v>-641315</v>
       </c>
       <c r="W5" s="9">
-        <v>-129678</v>
+        <v>-292301</v>
       </c>
       <c r="X5" s="9">
-        <v>-507068</v>
+        <v>-362625</v>
       </c>
       <c r="Y5" s="9">
-        <v>18170</v>
+        <v>13611</v>
       </c>
       <c r="Z5" s="8">
         <v>0</v>
       </c>
       <c r="AA5" s="8">
-        <v>-285390</v>
+        <v>-215429</v>
       </c>
       <c r="AB5" s="8">
-        <v>0</v>
+        <v>4014</v>
       </c>
       <c r="AC5" s="7">
-        <v>-157581</v>
+        <v>-1063919</v>
       </c>
       <c r="AD5" s="8">
-        <v>370965</v>
+        <v>-542334</v>
       </c>
       <c r="AE5" s="9">
-        <v>2598115</v>
+        <v>1142860</v>
       </c>
       <c r="AF5" s="9">
-        <v>-2227150</v>
+        <v>-1685194</v>
       </c>
       <c r="AG5" s="8">
-        <v>-8651</v>
+        <v>5145</v>
       </c>
       <c r="AH5" s="9">
-        <v>0</v>
+        <v>5145</v>
       </c>
       <c r="AI5" s="9">
-        <v>-8651</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="8">
-        <v>-519895</v>
+        <v>-526730</v>
       </c>
       <c r="AK5" s="8">
         <v>0</v>
       </c>
       <c r="AL5" s="7">
-        <v>71945</v>
+        <v>-100716</v>
       </c>
       <c r="AM5" s="7">
         <v>0</v>
       </c>
       <c r="AN5" s="7">
-        <v>-7160</v>
+        <v>113547</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="7">
-        <v>2130912</v>
+        <v>1290136</v>
       </c>
       <c r="C6" s="8">
-        <v>2089478</v>
+        <v>2029497</v>
       </c>
       <c r="D6" s="9">
-        <v>1279514</v>
+        <v>1240448</v>
       </c>
       <c r="E6" s="9">
-        <v>343257</v>
+        <v>283875</v>
       </c>
       <c r="F6" s="9">
-        <v>191238</v>
+        <v>199767</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>3962</v>
+        <v>11954</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -10548,16 +9926,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>271507</v>
+        <v>293453</v>
       </c>
       <c r="M6" s="8">
-        <v>151470</v>
+        <v>-739361</v>
       </c>
       <c r="N6" s="9">
-        <v>89449</v>
+        <v>-104890</v>
       </c>
       <c r="O6" s="9">
-        <v>276537</v>
+        <v>-172271</v>
       </c>
       <c r="P6" s="9">
         <v>0</v>
@@ -10566,102 +9944,102 @@
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>-434226</v>
+        <v>-354430</v>
       </c>
       <c r="S6" s="9">
-        <v>219710</v>
+        <v>-107770</v>
       </c>
       <c r="T6" s="8">
-        <v>-110036</v>
+        <v>0</v>
       </c>
       <c r="U6" s="7">
-        <v>-852730</v>
+        <v>-382756</v>
       </c>
       <c r="V6" s="8">
-        <v>-641315</v>
+        <v>-346151</v>
       </c>
       <c r="W6" s="9">
-        <v>-292301</v>
+        <v>-95828</v>
       </c>
       <c r="X6" s="9">
-        <v>-362625</v>
+        <v>-265777</v>
       </c>
       <c r="Y6" s="9">
-        <v>13611</v>
+        <v>15454</v>
       </c>
       <c r="Z6" s="8">
         <v>0</v>
       </c>
       <c r="AA6" s="8">
-        <v>-215429</v>
+        <v>-37759</v>
       </c>
       <c r="AB6" s="8">
-        <v>4014</v>
+        <v>1154</v>
       </c>
       <c r="AC6" s="7">
-        <v>-1063919</v>
+        <v>-1153007</v>
       </c>
       <c r="AD6" s="8">
-        <v>-542334</v>
+        <v>-599037</v>
       </c>
       <c r="AE6" s="9">
-        <v>1142860</v>
+        <v>1161890</v>
       </c>
       <c r="AF6" s="9">
-        <v>-1685194</v>
+        <v>-1760927</v>
       </c>
       <c r="AG6" s="8">
-        <v>5145</v>
+        <v>-5468</v>
       </c>
       <c r="AH6" s="9">
-        <v>5145</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="9">
-        <v>0</v>
+        <v>-5468</v>
       </c>
       <c r="AJ6" s="8">
-        <v>-526730</v>
+        <v>-548502</v>
       </c>
       <c r="AK6" s="8">
         <v>0</v>
       </c>
       <c r="AL6" s="7">
-        <v>-100716</v>
+        <v>17650</v>
       </c>
       <c r="AM6" s="7">
         <v>0</v>
       </c>
       <c r="AN6" s="7">
-        <v>113547</v>
+        <v>-227977</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="7">
-        <v>1290136</v>
+        <v>1299655</v>
       </c>
       <c r="C7" s="8">
-        <v>2029497</v>
+        <v>2058264</v>
       </c>
       <c r="D7" s="9">
-        <v>1240448</v>
+        <v>1497542</v>
       </c>
       <c r="E7" s="9">
-        <v>283875</v>
+        <v>317023</v>
       </c>
       <c r="F7" s="9">
-        <v>199767</v>
+        <v>-94404</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>9881</v>
       </c>
       <c r="H7" s="9">
-        <v>11954</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>-3429</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -10670,16 +10048,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="9">
-        <v>293453</v>
+        <v>331651</v>
       </c>
       <c r="M7" s="8">
-        <v>-739361</v>
+        <v>-758609</v>
       </c>
       <c r="N7" s="9">
-        <v>-104890</v>
+        <v>-188969</v>
       </c>
       <c r="O7" s="9">
-        <v>-172271</v>
+        <v>-441614</v>
       </c>
       <c r="P7" s="9">
         <v>0</v>
@@ -10688,102 +10066,102 @@
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>-354430</v>
+        <v>-392051</v>
       </c>
       <c r="S7" s="9">
-        <v>-107770</v>
+        <v>264025</v>
       </c>
       <c r="T7" s="8">
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>-382756</v>
+        <v>-833290</v>
       </c>
       <c r="V7" s="8">
-        <v>-346151</v>
+        <v>-418050</v>
       </c>
       <c r="W7" s="9">
-        <v>-95828</v>
+        <v>0</v>
       </c>
       <c r="X7" s="9">
-        <v>-265777</v>
+        <v>-429403</v>
       </c>
       <c r="Y7" s="9">
-        <v>15454</v>
+        <v>11353</v>
       </c>
       <c r="Z7" s="8">
         <v>0</v>
       </c>
       <c r="AA7" s="8">
-        <v>-37759</v>
+        <v>-296983</v>
       </c>
       <c r="AB7" s="8">
-        <v>1154</v>
+        <v>-118257</v>
       </c>
       <c r="AC7" s="7">
-        <v>-1153007</v>
+        <v>-1446435</v>
       </c>
       <c r="AD7" s="8">
-        <v>-599037</v>
+        <v>-844609</v>
       </c>
       <c r="AE7" s="9">
-        <v>1161890</v>
+        <v>1005626</v>
       </c>
       <c r="AF7" s="9">
-        <v>-1760927</v>
+        <v>-1850235</v>
       </c>
       <c r="AG7" s="8">
-        <v>-5468</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="9">
         <v>0</v>
       </c>
       <c r="AI7" s="9">
-        <v>-5468</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="8">
-        <v>-548502</v>
+        <v>-603957</v>
       </c>
       <c r="AK7" s="8">
-        <v>0</v>
+        <v>2131</v>
       </c>
       <c r="AL7" s="7">
-        <v>17650</v>
+        <v>23085</v>
       </c>
       <c r="AM7" s="7">
         <v>0</v>
       </c>
       <c r="AN7" s="7">
-        <v>-227977</v>
+        <v>-956985</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B8" s="7">
-        <v>1299655</v>
+        <v>1907853</v>
       </c>
       <c r="C8" s="8">
-        <v>2058264</v>
+        <v>2495657</v>
       </c>
       <c r="D8" s="9">
-        <v>1497542</v>
+        <v>1804451</v>
       </c>
       <c r="E8" s="9">
-        <v>317023</v>
+        <v>396783</v>
       </c>
       <c r="F8" s="9">
-        <v>-94404</v>
+        <v>-21583</v>
       </c>
       <c r="G8" s="9">
-        <v>9881</v>
+        <v>13998</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>-3429</v>
+        <v>-10435</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
@@ -10792,16 +10170,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="9">
-        <v>331651</v>
+        <v>312443</v>
       </c>
       <c r="M8" s="8">
-        <v>-758609</v>
+        <v>-587804</v>
       </c>
       <c r="N8" s="9">
-        <v>-188969</v>
+        <v>-150828</v>
       </c>
       <c r="O8" s="9">
-        <v>-441614</v>
+        <v>-311532</v>
       </c>
       <c r="P8" s="9">
         <v>0</v>
@@ -10810,49 +10188,49 @@
         <v>0</v>
       </c>
       <c r="R8" s="9">
-        <v>-392051</v>
+        <v>-446634</v>
       </c>
       <c r="S8" s="9">
-        <v>264025</v>
+        <v>321190</v>
       </c>
       <c r="T8" s="8">
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <v>-833290</v>
+        <v>-59748</v>
       </c>
       <c r="V8" s="8">
-        <v>-418050</v>
+        <v>-480627</v>
       </c>
       <c r="W8" s="9">
         <v>0</v>
       </c>
       <c r="X8" s="9">
-        <v>-429403</v>
+        <v>-524482</v>
       </c>
       <c r="Y8" s="9">
-        <v>11353</v>
+        <v>43855</v>
       </c>
       <c r="Z8" s="8">
         <v>0</v>
       </c>
       <c r="AA8" s="8">
-        <v>-296983</v>
+        <v>542709</v>
       </c>
       <c r="AB8" s="8">
-        <v>-118257</v>
+        <v>-121830</v>
       </c>
       <c r="AC8" s="7">
-        <v>-1446435</v>
+        <v>-2115441</v>
       </c>
       <c r="AD8" s="8">
-        <v>-844609</v>
+        <v>-1438359</v>
       </c>
       <c r="AE8" s="9">
-        <v>1005626</v>
+        <v>1407993</v>
       </c>
       <c r="AF8" s="9">
-        <v>-1850235</v>
+        <v>-2846352</v>
       </c>
       <c r="AG8" s="8">
         <v>0</v>
@@ -10864,48 +10242,48 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="8">
-        <v>-603957</v>
+        <v>-680924</v>
       </c>
       <c r="AK8" s="8">
-        <v>2131</v>
+        <v>3842</v>
       </c>
       <c r="AL8" s="7">
-        <v>23085</v>
+        <v>7680</v>
       </c>
       <c r="AM8" s="7">
         <v>0</v>
       </c>
       <c r="AN8" s="7">
-        <v>-956985</v>
+        <v>-259656</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="7">
-        <v>1907853</v>
+        <v>3930032</v>
       </c>
       <c r="C9" s="8">
-        <v>2495657</v>
+        <v>3800156</v>
       </c>
       <c r="D9" s="9">
-        <v>1804451</v>
+        <v>2746649</v>
       </c>
       <c r="E9" s="9">
-        <v>396783</v>
+        <v>451359</v>
       </c>
       <c r="F9" s="9">
-        <v>-21583</v>
+        <v>-27154</v>
       </c>
       <c r="G9" s="9">
-        <v>13998</v>
+        <v>7869</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>-10435</v>
+        <v>-3870</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -10914,16 +10292,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>312443</v>
+        <v>625303</v>
       </c>
       <c r="M9" s="8">
-        <v>-587804</v>
+        <v>129876</v>
       </c>
       <c r="N9" s="9">
-        <v>-150828</v>
+        <v>487751</v>
       </c>
       <c r="O9" s="9">
-        <v>-311532</v>
+        <v>-439340</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
@@ -10932,49 +10310,49 @@
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>-446634</v>
+        <v>-704073</v>
       </c>
       <c r="S9" s="9">
-        <v>321190</v>
+        <v>785538</v>
       </c>
       <c r="T9" s="8">
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <v>-59748</v>
+        <v>207375</v>
       </c>
       <c r="V9" s="8">
-        <v>-480627</v>
+        <v>-535146</v>
       </c>
       <c r="W9" s="9">
         <v>0</v>
       </c>
       <c r="X9" s="9">
-        <v>-524482</v>
+        <v>-558546</v>
       </c>
       <c r="Y9" s="9">
-        <v>43855</v>
+        <v>23400</v>
       </c>
       <c r="Z9" s="8">
         <v>0</v>
       </c>
       <c r="AA9" s="8">
-        <v>542709</v>
+        <v>886856</v>
       </c>
       <c r="AB9" s="8">
-        <v>-121830</v>
+        <v>-144335</v>
       </c>
       <c r="AC9" s="7">
-        <v>-2115441</v>
+        <v>-2360601</v>
       </c>
       <c r="AD9" s="8">
-        <v>-1438359</v>
+        <v>-1474909</v>
       </c>
       <c r="AE9" s="9">
-        <v>1407993</v>
+        <v>211487</v>
       </c>
       <c r="AF9" s="9">
-        <v>-2846352</v>
+        <v>-1686396</v>
       </c>
       <c r="AG9" s="8">
         <v>0</v>
@@ -10986,48 +10364,48 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="8">
-        <v>-680924</v>
+        <v>-881332</v>
       </c>
       <c r="AK9" s="8">
-        <v>3842</v>
+        <v>-4360</v>
       </c>
       <c r="AL9" s="7">
-        <v>7680</v>
+        <v>169290</v>
       </c>
       <c r="AM9" s="7">
         <v>0</v>
       </c>
       <c r="AN9" s="7">
-        <v>-259656</v>
+        <v>1946096</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="7">
-        <v>3930032</v>
+        <v>939385</v>
       </c>
       <c r="C10" s="8">
-        <v>3800156</v>
+        <v>4899803</v>
       </c>
       <c r="D10" s="9">
-        <v>2746649</v>
+        <v>4330036</v>
       </c>
       <c r="E10" s="9">
-        <v>451359</v>
+        <v>520178</v>
       </c>
       <c r="F10" s="9">
-        <v>-27154</v>
+        <v>-23972</v>
       </c>
       <c r="G10" s="9">
-        <v>7869</v>
+        <v>10593</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
       <c r="I10" s="9">
-        <v>-3870</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -11036,16 +10414,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="9">
-        <v>625303</v>
+        <v>62968</v>
       </c>
       <c r="M10" s="8">
-        <v>129876</v>
+        <v>-3960418</v>
       </c>
       <c r="N10" s="9">
-        <v>487751</v>
+        <v>-1357761</v>
       </c>
       <c r="O10" s="9">
-        <v>-439340</v>
+        <v>-2673253</v>
       </c>
       <c r="P10" s="9">
         <v>0</v>
@@ -11054,49 +10432,49 @@
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>-704073</v>
+        <v>-1152552</v>
       </c>
       <c r="S10" s="9">
-        <v>785538</v>
+        <v>1223148</v>
       </c>
       <c r="T10" s="8">
         <v>0</v>
       </c>
       <c r="U10" s="7">
-        <v>207375</v>
+        <v>-683870</v>
       </c>
       <c r="V10" s="8">
-        <v>-535146</v>
+        <v>-796985</v>
       </c>
       <c r="W10" s="9">
         <v>0</v>
       </c>
       <c r="X10" s="9">
-        <v>-558546</v>
+        <v>-847344</v>
       </c>
       <c r="Y10" s="9">
-        <v>23400</v>
+        <v>50359</v>
       </c>
       <c r="Z10" s="8">
         <v>0</v>
       </c>
       <c r="AA10" s="8">
-        <v>886856</v>
+        <v>113115</v>
       </c>
       <c r="AB10" s="8">
-        <v>-144335</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
-        <v>-2360601</v>
+        <v>-1443405</v>
       </c>
       <c r="AD10" s="8">
-        <v>-1474909</v>
+        <v>209377</v>
       </c>
       <c r="AE10" s="9">
-        <v>211487</v>
+        <v>503206</v>
       </c>
       <c r="AF10" s="9">
-        <v>-1686396</v>
+        <v>-293829</v>
       </c>
       <c r="AG10" s="8">
         <v>0</v>
@@ -11108,140 +10486,18 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="8">
-        <v>-881332</v>
+        <v>-1657345</v>
       </c>
       <c r="AK10" s="8">
-        <v>-4360</v>
+        <v>4563</v>
       </c>
       <c r="AL10" s="7">
-        <v>169290</v>
+        <v>10177</v>
       </c>
       <c r="AM10" s="7">
         <v>0</v>
       </c>
       <c r="AN10" s="7">
-        <v>1946096</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="7">
-        <v>939385</v>
-      </c>
-      <c r="C11" s="8">
-        <v>4899803</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4330036</v>
-      </c>
-      <c r="E11" s="9">
-        <v>520178</v>
-      </c>
-      <c r="F11" s="9">
-        <v>-23972</v>
-      </c>
-      <c r="G11" s="9">
-        <v>10593</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>62968</v>
-      </c>
-      <c r="M11" s="8">
-        <v>-3960418</v>
-      </c>
-      <c r="N11" s="9">
-        <v>-1357761</v>
-      </c>
-      <c r="O11" s="9">
-        <v>-2673253</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>-1152552</v>
-      </c>
-      <c r="S11" s="9">
-        <v>1223148</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>-683870</v>
-      </c>
-      <c r="V11" s="8">
-        <v>-796985</v>
-      </c>
-      <c r="W11" s="9">
-        <v>0</v>
-      </c>
-      <c r="X11" s="9">
-        <v>-847344</v>
-      </c>
-      <c r="Y11" s="9">
-        <v>50359</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>113115</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>-1443405</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>209377</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>503206</v>
-      </c>
-      <c r="AF11" s="9">
-        <v>-293829</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="8">
-        <v>-1657345</v>
-      </c>
-      <c r="AK11" s="8">
-        <v>4563</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>10177</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="7">
         <v>-1177713</v>
       </c>
     </row>
@@ -11252,81 +10508,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B2C8B8-A7E4-48D4-930A-5F99670624C0}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B1" s="14">
-        <v>41274</v>
+        <v>41639</v>
       </c>
       <c r="C1" s="14">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="D1" s="14">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="E1" s="14">
-        <v>42369</v>
+        <v>42735</v>
       </c>
       <c r="F1" s="14">
-        <v>42735</v>
+        <v>43100</v>
       </c>
       <c r="G1" s="14">
-        <v>43100</v>
+        <v>43465</v>
       </c>
       <c r="H1" s="14">
-        <v>43465</v>
+        <v>43830</v>
       </c>
       <c r="I1" s="14">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="J1" s="14">
-        <v>44196</v>
-      </c>
-      <c r="K1" s="14">
         <v>44561</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B2" s="7">
-        <v>619905.02899999998</v>
+        <v>620431.51399999997</v>
       </c>
       <c r="C2" s="7">
-        <v>620431.51399999997</v>
+        <v>806632.33799999999</v>
       </c>
       <c r="D2" s="7">
-        <v>806632.33799999999</v>
+        <v>1612847.696</v>
       </c>
       <c r="E2" s="7">
-        <v>1612847.696</v>
+        <v>1613301.405</v>
       </c>
       <c r="F2" s="7">
-        <v>1613301.405</v>
+        <v>1613043.0549999999</v>
       </c>
       <c r="G2" s="7">
-        <v>1613043.0549999999</v>
+        <v>2097164.716</v>
       </c>
       <c r="H2" s="7">
-        <v>2097164.716</v>
+        <v>2097540.8309999998</v>
       </c>
       <c r="I2" s="7">
-        <v>2097540.8309999998</v>
+        <v>2097740.051</v>
       </c>
       <c r="J2" s="7">
-        <v>2097740.051</v>
-      </c>
-      <c r="K2" s="7">
         <v>4196011.6500000004</v>
       </c>
     </row>
@@ -11339,7 +10589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708DBFC9-FCC9-4341-9C9E-CD179F911560}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E6"/>
     </sheetView>
   </sheetViews>
@@ -11350,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11455,7 +10705,7 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C2" s="16">
         <v>40906</v>
@@ -11463,51 +10713,51 @@
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C3" s="16">
         <v>44560</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L3" s="29"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G5" s="31"/>
       <c r="H5" s="31"/>
@@ -11541,7 +10791,7 @@
         <v>WEGE3</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -11759,7 +11009,7 @@
       </c>
       <c r="H16" s="26"/>
       <c r="M16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -11783,13 +11033,13 @@
       </c>
       <c r="H17" s="26"/>
       <c r="M17" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -12191,10 +11441,10 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13CA3D-142A-41B4-AFBB-EC484FCFF0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FD800-927B-4CE4-99DF-E991078FA655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="FC_WEGE3" sheetId="4" r:id="rId3"/>
     <sheet name="NA_WEGE3" sheetId="3" r:id="rId4"/>
     <sheet name="Dado_Macro" sheetId="5" r:id="rId5"/>
-    <sheet name="Retornos" sheetId="6" r:id="rId6"/>
+    <sheet name="CGO_WEGE3" sheetId="7" r:id="rId6"/>
+    <sheet name="Retornos" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="247">
   <si>
     <t>Ano</t>
   </si>
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:FV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E89F8-68A7-48B2-83BC-963650875B5E}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9232,10 +9232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2B5FB-D3F3-422F-B461-99BDDE1AF3E1}">
-  <dimension ref="A1:AN10"/>
+  <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10501,6 +10501,9 @@
         <v>-1177713</v>
       </c>
     </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10687,6 +10690,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627A676-6924-4813-946F-543312816066}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1656597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1860652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2140082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2089478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2029497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2058264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2495657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3800156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4899803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1372AF-9666-48CB-B2F1-1C52DFEB6033}">
   <dimension ref="B2:O125"/>
   <sheetViews>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FD800-927B-4CE4-99DF-E991078FA655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D9FB0-9EC7-4F0A-B470-9899702C65B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
@@ -10691,10 +10691,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627A676-6924-4813-946F-543312816066}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10712,73 +10712,81 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="8">
-        <v>1656597</v>
+        <v>1181424</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B3" s="8">
-        <v>1860652</v>
+        <v>1656597</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="8">
-        <v>2140082</v>
+        <v>1860652</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="8">
-        <v>2089478</v>
+        <v>2140082</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="8">
-        <v>2029497</v>
+        <v>2089478</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="8">
-        <v>2058264</v>
+        <v>2029497</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="8">
-        <v>2495657</v>
+        <v>2058264</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="8">
-        <v>3800156</v>
+        <v>2495657</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3800156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>2021</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <v>4899803</v>
       </c>
     </row>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D9FB0-9EC7-4F0A-B470-9899702C65B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBEA33-7F49-4358-9D0A-9AB05509C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="248">
   <si>
     <t>Ano</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>Caixa gerado por operac</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
   </si>
 </sst>
 </file>
@@ -8292,8 +8295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E89F8-68A7-48B2-83BC-963650875B5E}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9232,10 +9235,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2B5FB-D3F3-422F-B461-99BDDE1AF3E1}">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C10"/>
+      <selection activeCell="Y9" sqref="Y9:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,28 +9263,29 @@
     <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -9345,65 +9349,68 @@
       <c r="U1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2013</v>
       </c>
@@ -9467,65 +9474,69 @@
       <c r="U2" s="7">
         <v>54758</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
+        <f>X2+(Y2)</f>
+        <v>-292079</v>
+      </c>
+      <c r="W2" s="8">
         <v>-290049</v>
       </c>
-      <c r="W2" s="9">
+      <c r="X2" s="9">
         <v>-11437</v>
       </c>
-      <c r="X2" s="9">
+      <c r="Y2" s="9">
         <v>-280642</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Z2" s="9">
         <v>2030</v>
       </c>
-      <c r="Z2" s="8">
-        <v>0</v>
-      </c>
       <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
         <v>261046</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AC2" s="8">
         <v>83761</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AD2" s="7">
         <v>-10649</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AE2" s="8">
         <v>380600</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AF2" s="9">
         <v>1890267</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AG2" s="9">
         <v>-1509667</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AH2" s="8">
         <v>738</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AI2" s="9">
         <v>738</v>
       </c>
-      <c r="AI2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
         <v>-391987</v>
       </c>
-      <c r="AK2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="7">
+      <c r="AL2" s="8">
         <v>0</v>
       </c>
       <c r="AM2" s="7">
         <v>0</v>
       </c>
       <c r="AN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="7">
         <v>1071543</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2014</v>
       </c>
@@ -9589,65 +9600,69 @@
       <c r="U3" s="7">
         <v>-1389830</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
+        <f t="shared" ref="V3:V10" si="0">X3+(Y3)</f>
+        <v>-613764</v>
+      </c>
+      <c r="W3" s="8">
         <v>-601409</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <v>-145169</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="9">
         <v>-468595</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="Z3" s="9">
         <v>12355</v>
       </c>
-      <c r="Z3" s="8">
-        <v>0</v>
-      </c>
       <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
         <v>-849057</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AC3" s="8">
         <v>60636</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AD3" s="7">
         <v>196526</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AE3" s="8">
         <v>654938</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AF3" s="9">
         <v>1517761</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AG3" s="9">
         <v>-862823</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AH3" s="8">
         <v>1104</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AI3" s="9">
         <v>1104</v>
       </c>
-      <c r="AI3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="8">
         <v>-459516</v>
       </c>
-      <c r="AK3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="8">
         <v>0</v>
       </c>
       <c r="AM3" s="7">
         <v>0</v>
       </c>
       <c r="AN3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="7">
         <v>-45784</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
@@ -9711,65 +9726,69 @@
       <c r="U4" s="7">
         <v>-903966</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
+        <f t="shared" si="0"/>
+        <v>-636746</v>
+      </c>
+      <c r="W4" s="8">
         <v>-618576</v>
       </c>
-      <c r="W4" s="9">
+      <c r="X4" s="9">
         <v>-129678</v>
       </c>
-      <c r="X4" s="9">
+      <c r="Y4" s="9">
         <v>-507068</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Z4" s="9">
         <v>18170</v>
       </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
       <c r="AA4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
         <v>-285390</v>
       </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
         <v>-157581</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AE4" s="8">
         <v>370965</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AF4" s="9">
         <v>2598115</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AG4" s="9">
         <v>-2227150</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AH4" s="8">
         <v>-8651</v>
       </c>
-      <c r="AH4" s="9">
-        <v>0</v>
-      </c>
       <c r="AI4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="9">
         <v>-8651</v>
       </c>
-      <c r="AJ4" s="8">
+      <c r="AK4" s="8">
         <v>-519895</v>
       </c>
-      <c r="AK4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="7">
         <v>71945</v>
       </c>
-      <c r="AM4" s="7">
-        <v>0</v>
-      </c>
       <c r="AN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="7">
         <v>-7160</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
@@ -9833,65 +9852,69 @@
       <c r="U5" s="7">
         <v>-852730</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
+        <f t="shared" si="0"/>
+        <v>-654926</v>
+      </c>
+      <c r="W5" s="8">
         <v>-641315</v>
       </c>
-      <c r="W5" s="9">
+      <c r="X5" s="9">
         <v>-292301</v>
       </c>
-      <c r="X5" s="9">
+      <c r="Y5" s="9">
         <v>-362625</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Z5" s="9">
         <v>13611</v>
       </c>
-      <c r="Z5" s="8">
-        <v>0</v>
-      </c>
       <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
         <v>-215429</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AC5" s="8">
         <v>4014</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AD5" s="7">
         <v>-1063919</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AE5" s="8">
         <v>-542334</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AF5" s="9">
         <v>1142860</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AG5" s="9">
         <v>-1685194</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AH5" s="8">
         <v>5145</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AI5" s="9">
         <v>5145</v>
       </c>
-      <c r="AI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="8">
         <v>-526730</v>
       </c>
-      <c r="AK5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="7">
         <v>-100716</v>
       </c>
-      <c r="AM5" s="7">
-        <v>0</v>
-      </c>
       <c r="AN5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="7">
         <v>113547</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
@@ -9955,65 +9978,69 @@
       <c r="U6" s="7">
         <v>-382756</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
+        <f t="shared" si="0"/>
+        <v>-361605</v>
+      </c>
+      <c r="W6" s="8">
         <v>-346151</v>
       </c>
-      <c r="W6" s="9">
+      <c r="X6" s="9">
         <v>-95828</v>
       </c>
-      <c r="X6" s="9">
+      <c r="Y6" s="9">
         <v>-265777</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Z6" s="9">
         <v>15454</v>
       </c>
-      <c r="Z6" s="8">
-        <v>0</v>
-      </c>
       <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
         <v>-37759</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AC6" s="8">
         <v>1154</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AD6" s="7">
         <v>-1153007</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AE6" s="8">
         <v>-599037</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AF6" s="9">
         <v>1161890</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AG6" s="9">
         <v>-1760927</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AH6" s="8">
         <v>-5468</v>
       </c>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
       <c r="AI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="9">
         <v>-5468</v>
       </c>
-      <c r="AJ6" s="8">
+      <c r="AK6" s="8">
         <v>-548502</v>
       </c>
-      <c r="AK6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
         <v>17650</v>
       </c>
-      <c r="AM6" s="7">
-        <v>0</v>
-      </c>
       <c r="AN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="7">
         <v>-227977</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2018</v>
       </c>
@@ -10077,65 +10104,69 @@
       <c r="U7" s="7">
         <v>-833290</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
+        <f t="shared" si="0"/>
+        <v>-429403</v>
+      </c>
+      <c r="W7" s="8">
         <v>-418050</v>
       </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
       <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
         <v>-429403</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Z7" s="9">
         <v>11353</v>
       </c>
-      <c r="Z7" s="8">
-        <v>0</v>
-      </c>
       <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
         <v>-296983</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AC7" s="8">
         <v>-118257</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AD7" s="7">
         <v>-1446435</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AE7" s="8">
         <v>-844609</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AF7" s="9">
         <v>1005626</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AG7" s="9">
         <v>-1850235</v>
       </c>
-      <c r="AG7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="8">
         <v>0</v>
       </c>
       <c r="AI7" s="9">
         <v>0</v>
       </c>
-      <c r="AJ7" s="8">
+      <c r="AJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="8">
         <v>-603957</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AL7" s="8">
         <v>2131</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AM7" s="7">
         <v>23085</v>
       </c>
-      <c r="AM7" s="7">
-        <v>0</v>
-      </c>
       <c r="AN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="7">
         <v>-956985</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2019</v>
       </c>
@@ -10199,65 +10230,69 @@
       <c r="U8" s="7">
         <v>-59748</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
+        <f t="shared" si="0"/>
+        <v>-524482</v>
+      </c>
+      <c r="W8" s="8">
         <v>-480627</v>
       </c>
-      <c r="W8" s="9">
-        <v>0</v>
-      </c>
       <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
         <v>-524482</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Z8" s="9">
         <v>43855</v>
       </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
       <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
         <v>542709</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AC8" s="8">
         <v>-121830</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AD8" s="7">
         <v>-2115441</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AE8" s="8">
         <v>-1438359</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AF8" s="9">
         <v>1407993</v>
       </c>
-      <c r="AF8" s="9">
+      <c r="AG8" s="9">
         <v>-2846352</v>
       </c>
-      <c r="AG8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="8">
         <v>0</v>
       </c>
       <c r="AI8" s="9">
         <v>0</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="8">
         <v>-680924</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AL8" s="8">
         <v>3842</v>
       </c>
-      <c r="AL8" s="7">
+      <c r="AM8" s="7">
         <v>7680</v>
       </c>
-      <c r="AM8" s="7">
-        <v>0</v>
-      </c>
       <c r="AN8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="7">
         <v>-259656</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2020</v>
       </c>
@@ -10321,65 +10356,69 @@
       <c r="U9" s="7">
         <v>207375</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
+        <f t="shared" si="0"/>
+        <v>-558546</v>
+      </c>
+      <c r="W9" s="8">
         <v>-535146</v>
       </c>
-      <c r="W9" s="9">
-        <v>0</v>
-      </c>
       <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
         <v>-558546</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Z9" s="9">
         <v>23400</v>
       </c>
-      <c r="Z9" s="8">
-        <v>0</v>
-      </c>
       <c r="AA9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8">
         <v>886856</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AC9" s="8">
         <v>-144335</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AD9" s="7">
         <v>-2360601</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AE9" s="8">
         <v>-1474909</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AF9" s="9">
         <v>211487</v>
       </c>
-      <c r="AF9" s="9">
+      <c r="AG9" s="9">
         <v>-1686396</v>
       </c>
-      <c r="AG9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="8">
         <v>0</v>
       </c>
       <c r="AI9" s="9">
         <v>0</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="8">
         <v>-881332</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AL9" s="8">
         <v>-4360</v>
       </c>
-      <c r="AL9" s="7">
+      <c r="AM9" s="7">
         <v>169290</v>
       </c>
-      <c r="AM9" s="7">
-        <v>0</v>
-      </c>
       <c r="AN9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="7">
         <v>1946096</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2021</v>
       </c>
@@ -10443,65 +10482,69 @@
       <c r="U10" s="7">
         <v>-683870</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
+        <f t="shared" si="0"/>
+        <v>-847344</v>
+      </c>
+      <c r="W10" s="8">
         <v>-796985</v>
       </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
       <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
         <v>-847344</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Z10" s="9">
         <v>50359</v>
       </c>
-      <c r="Z10" s="8">
-        <v>0</v>
-      </c>
       <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
         <v>113115</v>
       </c>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
         <v>-1443405</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AE10" s="8">
         <v>209377</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AF10" s="9">
         <v>503206</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AG10" s="9">
         <v>-293829</v>
       </c>
-      <c r="AG10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="9">
+      <c r="AH10" s="8">
         <v>0</v>
       </c>
       <c r="AI10" s="9">
         <v>0</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AJ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8">
         <v>-1657345</v>
       </c>
-      <c r="AK10" s="8">
+      <c r="AL10" s="8">
         <v>4563</v>
       </c>
-      <c r="AL10" s="7">
+      <c r="AM10" s="7">
         <v>10177</v>
       </c>
-      <c r="AM10" s="7">
-        <v>0</v>
-      </c>
       <c r="AN10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="7">
         <v>-1177713</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
     </row>
   </sheetData>
@@ -10693,8 +10736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627A676-6924-4813-946F-543312816066}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBEA33-7F49-4358-9D0A-9AB05509C78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C707E0A-3E64-4BA2-9F00-A0C22EC589AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="248">
   <si>
     <t>Ano</t>
   </si>
@@ -2743,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C9A29-F125-44E8-9E76-9BF068E61073}">
-  <dimension ref="A1:FV10"/>
+  <dimension ref="A1:FV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D2:D6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="2" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="7">
-        <v>10141293</v>
+        <v>8873550</v>
       </c>
       <c r="C2" s="8">
-        <v>6851787</v>
+        <v>5710017</v>
       </c>
       <c r="D2" s="9">
-        <v>3373799</v>
+        <v>2302256</v>
       </c>
       <c r="E2" s="9">
-        <v>0</v>
+        <v>261244</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>261244</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>165</v>
@@ -3500,31 +3500,31 @@
         <v>0</v>
       </c>
       <c r="M2" s="9">
-        <v>1658806</v>
+        <v>1472839</v>
       </c>
       <c r="N2" s="8">
-        <v>1658806</v>
+        <v>1472839</v>
       </c>
       <c r="O2" s="8">
         <v>0</v>
       </c>
       <c r="P2" s="9">
-        <v>1445927</v>
+        <v>1306273</v>
       </c>
       <c r="Q2" s="9">
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>166384</v>
+        <v>183627</v>
       </c>
       <c r="S2" s="8">
-        <v>166384</v>
+        <v>183627</v>
       </c>
       <c r="T2" s="9">
         <v>0</v>
       </c>
       <c r="U2" s="9">
-        <v>206871</v>
+        <v>183778</v>
       </c>
       <c r="V2" s="8">
         <v>0</v>
@@ -3533,16 +3533,16 @@
         <v>0</v>
       </c>
       <c r="X2" s="8">
-        <v>206871</v>
+        <v>183778</v>
       </c>
       <c r="Y2" s="8">
-        <v>3289506</v>
+        <v>3163533</v>
       </c>
       <c r="Z2" s="9">
-        <v>123866</v>
+        <v>88833</v>
       </c>
       <c r="AA2" s="8">
-        <v>2230</v>
+        <v>2032</v>
       </c>
       <c r="AB2" s="10" t="s">
         <v>165</v>
@@ -3575,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="AL2" s="8">
-        <v>60376</v>
+        <v>36891</v>
       </c>
       <c r="AM2" s="7">
-        <v>60376</v>
+        <v>36891</v>
       </c>
       <c r="AN2" s="7">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="8">
-        <v>61260</v>
+        <v>49910</v>
       </c>
       <c r="AV2" s="7">
         <v>0</v>
@@ -3611,34 +3611,34 @@
         <v>0</v>
       </c>
       <c r="AX2" s="7">
-        <v>61260</v>
+        <v>49910</v>
       </c>
       <c r="AY2" s="9">
-        <v>7264</v>
+        <v>7622</v>
       </c>
       <c r="AZ2" s="8">
-        <v>44</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>165</v>
+        <v>349</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>349</v>
       </c>
       <c r="BE2" s="8">
-        <v>7220</v>
+        <v>7273</v>
       </c>
       <c r="BF2" s="9">
-        <v>2614556</v>
+        <v>2537094</v>
       </c>
       <c r="BG2" s="8">
-        <v>2614556</v>
+        <v>2537094</v>
       </c>
       <c r="BH2" s="8">
         <v>0</v>
@@ -3647,37 +3647,37 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="9">
-        <v>543820</v>
+        <v>529984</v>
       </c>
       <c r="BK2" s="8">
-        <v>40772</v>
+        <v>31215</v>
       </c>
       <c r="BL2" s="7">
         <v>0</v>
       </c>
       <c r="BM2" s="7">
-        <v>40772</v>
+        <v>31215</v>
       </c>
       <c r="BN2" s="8">
-        <v>503048</v>
+        <v>498769</v>
       </c>
       <c r="BO2" s="7">
-        <v>10141293</v>
+        <v>8873550</v>
       </c>
       <c r="BP2" s="8">
-        <v>2578048</v>
+        <v>3012824</v>
       </c>
       <c r="BQ2" s="9">
-        <v>216553</v>
+        <v>168831</v>
       </c>
       <c r="BR2" s="8">
-        <v>216553</v>
+        <v>168831</v>
       </c>
       <c r="BS2" s="8">
         <v>0</v>
       </c>
       <c r="BT2" s="9">
-        <v>420250</v>
+        <v>331037</v>
       </c>
       <c r="BU2" s="11" t="s">
         <v>165</v>
@@ -3686,16 +3686,16 @@
         <v>165</v>
       </c>
       <c r="BW2" s="9">
-        <v>139570</v>
+        <v>126655</v>
       </c>
       <c r="BX2" s="8">
-        <v>139570</v>
+        <v>126655</v>
       </c>
       <c r="BY2" s="7">
-        <v>83771</v>
+        <v>72927</v>
       </c>
       <c r="BZ2" s="7">
-        <v>55799</v>
+        <v>53728</v>
       </c>
       <c r="CA2" s="8">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="CC2" s="9">
-        <v>912796</v>
+        <v>1645772</v>
       </c>
       <c r="CD2" s="8">
-        <v>912796</v>
+        <v>1645772</v>
       </c>
       <c r="CE2" s="10" t="s">
         <v>165</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="CI2" s="9">
-        <v>888879</v>
+        <v>740529</v>
       </c>
       <c r="CJ2" s="8">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="CO2" s="8">
-        <v>888879</v>
+        <v>740529</v>
       </c>
       <c r="CP2" s="7">
-        <v>87723</v>
+        <v>79381</v>
       </c>
       <c r="CQ2" s="7">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="CS2" s="7">
-        <v>801156</v>
+        <v>661148</v>
       </c>
       <c r="CT2" s="9">
         <v>0</v>
@@ -3800,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="DI2" s="8">
-        <v>2920978</v>
+        <v>1709100</v>
       </c>
       <c r="DJ2" s="9">
-        <v>2296208</v>
+        <v>1044068</v>
       </c>
       <c r="DK2" s="8">
-        <v>2296208</v>
+        <v>1044068</v>
       </c>
       <c r="DL2" s="10" t="s">
         <v>165</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="DP2" s="9">
-        <v>95031</v>
+        <v>137916</v>
       </c>
       <c r="DQ2" s="8">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="DV2" s="8">
-        <v>95031</v>
+        <v>137916</v>
       </c>
       <c r="DW2" s="7">
         <v>0</v>
@@ -3848,16 +3848,16 @@
         <v>0</v>
       </c>
       <c r="DY2" s="7">
-        <v>95031</v>
+        <v>137916</v>
       </c>
       <c r="DZ2" s="9">
-        <v>294405</v>
+        <v>320503</v>
       </c>
       <c r="EA2" s="8">
-        <v>294405</v>
+        <v>320503</v>
       </c>
       <c r="EB2" s="9">
-        <v>235334</v>
+        <v>206613</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>165</v>
@@ -3914,19 +3914,19 @@
         <v>0</v>
       </c>
       <c r="EU2" s="8">
-        <v>4642267</v>
+        <v>4151626</v>
       </c>
       <c r="EV2" s="9">
-        <v>84495</v>
+        <v>91277</v>
       </c>
       <c r="EW2" s="9">
-        <v>4557772</v>
+        <v>4060349</v>
       </c>
       <c r="EX2" s="8">
         <v>2718440</v>
       </c>
       <c r="EY2" s="8">
-        <v>-57724</v>
+        <v>-53319</v>
       </c>
       <c r="EZ2" s="7">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="FC2" s="7">
-        <v>1325</v>
+        <v>758</v>
       </c>
       <c r="FD2" s="7">
         <v>0</v>
@@ -3947,19 +3947,19 @@
         <v>0</v>
       </c>
       <c r="FF2" s="7">
-        <v>-59049</v>
+        <v>-54077</v>
       </c>
       <c r="FG2" s="8">
-        <v>3712</v>
+        <v>3784</v>
       </c>
       <c r="FH2" s="8">
-        <v>1169077</v>
+        <v>687792</v>
       </c>
       <c r="FI2" s="7">
-        <v>74972</v>
+        <v>32799</v>
       </c>
       <c r="FJ2" s="7">
-        <v>940453</v>
+        <v>537245</v>
       </c>
       <c r="FK2" s="7">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="FP2" s="7">
-        <v>163174</v>
+        <v>127803</v>
       </c>
       <c r="FQ2" s="7">
-        <v>-9522</v>
+        <v>-10055</v>
       </c>
       <c r="FR2" s="7">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="FT2" s="8">
-        <v>593500</v>
+        <v>656646</v>
       </c>
       <c r="FU2" s="8">
-        <v>130767</v>
+        <v>47006</v>
       </c>
       <c r="FV2" s="8">
         <v>0</v>
@@ -4000,22 +4000,22 @@
     </row>
     <row r="3" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B3" s="7">
-        <v>11782630</v>
+        <v>10141293</v>
       </c>
       <c r="C3" s="8">
-        <v>8098187</v>
+        <v>6851787</v>
       </c>
       <c r="D3" s="9">
-        <v>3328015</v>
+        <v>3373799</v>
       </c>
       <c r="E3" s="9">
-        <v>865162</v>
+        <v>0</v>
       </c>
       <c r="F3" s="8">
-        <v>865162</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>165</v>
@@ -4036,31 +4036,31 @@
         <v>0</v>
       </c>
       <c r="M3" s="9">
-        <v>1867864</v>
+        <v>1658806</v>
       </c>
       <c r="N3" s="8">
-        <v>1867864</v>
+        <v>1658806</v>
       </c>
       <c r="O3" s="8">
         <v>0</v>
       </c>
       <c r="P3" s="9">
-        <v>1704919</v>
+        <v>1445927</v>
       </c>
       <c r="Q3" s="9">
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>159446</v>
+        <v>166384</v>
       </c>
       <c r="S3" s="8">
-        <v>159446</v>
+        <v>166384</v>
       </c>
       <c r="T3" s="9">
         <v>0</v>
       </c>
       <c r="U3" s="9">
-        <v>172781</v>
+        <v>206871</v>
       </c>
       <c r="V3" s="8">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <v>172781</v>
+        <v>206871</v>
       </c>
       <c r="Y3" s="8">
-        <v>3684443</v>
+        <v>3289506</v>
       </c>
       <c r="Z3" s="9">
-        <v>126670</v>
+        <v>123866</v>
       </c>
       <c r="AA3" s="8">
-        <v>1047</v>
+        <v>2230</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>165</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="AL3" s="8">
-        <v>55864</v>
+        <v>60376</v>
       </c>
       <c r="AM3" s="7">
-        <v>55864</v>
+        <v>60376</v>
       </c>
       <c r="AN3" s="7">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="8">
-        <v>69759</v>
+        <v>61260</v>
       </c>
       <c r="AV3" s="7">
         <v>0</v>
@@ -4147,34 +4147,34 @@
         <v>0</v>
       </c>
       <c r="AX3" s="7">
-        <v>69759</v>
+        <v>61260</v>
       </c>
       <c r="AY3" s="9">
-        <v>8224</v>
+        <v>7264</v>
       </c>
       <c r="AZ3" s="8">
-        <v>1004</v>
-      </c>
-      <c r="BA3" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="7">
-        <v>1004</v>
+        <v>44</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="BE3" s="8">
         <v>7220</v>
       </c>
       <c r="BF3" s="9">
-        <v>2877942</v>
+        <v>2614556</v>
       </c>
       <c r="BG3" s="8">
-        <v>2877942</v>
+        <v>2614556</v>
       </c>
       <c r="BH3" s="8">
         <v>0</v>
@@ -4183,37 +4183,37 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="9">
-        <v>671607</v>
+        <v>543820</v>
       </c>
       <c r="BK3" s="8">
-        <v>81317</v>
+        <v>40772</v>
       </c>
       <c r="BL3" s="7">
         <v>0</v>
       </c>
       <c r="BM3" s="7">
-        <v>81317</v>
+        <v>40772</v>
       </c>
       <c r="BN3" s="8">
-        <v>590290</v>
+        <v>503048</v>
       </c>
       <c r="BO3" s="7">
-        <v>11782630</v>
+        <v>10141293</v>
       </c>
       <c r="BP3" s="8">
-        <v>3380815</v>
+        <v>2578048</v>
       </c>
       <c r="BQ3" s="9">
-        <v>173382</v>
+        <v>216553</v>
       </c>
       <c r="BR3" s="8">
-        <v>173382</v>
+        <v>216553</v>
       </c>
       <c r="BS3" s="8">
         <v>0</v>
       </c>
       <c r="BT3" s="9">
-        <v>445577</v>
+        <v>420250</v>
       </c>
       <c r="BU3" s="11" t="s">
         <v>165</v>
@@ -4222,16 +4222,16 @@
         <v>165</v>
       </c>
       <c r="BW3" s="9">
-        <v>148335</v>
+        <v>139570</v>
       </c>
       <c r="BX3" s="8">
-        <v>148335</v>
+        <v>139570</v>
       </c>
       <c r="BY3" s="7">
-        <v>84714</v>
+        <v>83771</v>
       </c>
       <c r="BZ3" s="7">
-        <v>63621</v>
+        <v>55799</v>
       </c>
       <c r="CA3" s="8">
         <v>0</v>
@@ -4240,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="CC3" s="9">
-        <v>1466752</v>
+        <v>912796</v>
       </c>
       <c r="CD3" s="8">
-        <v>1466752</v>
+        <v>912796</v>
       </c>
       <c r="CE3" s="10" t="s">
         <v>165</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="CI3" s="9">
-        <v>1146769</v>
+        <v>888879</v>
       </c>
       <c r="CJ3" s="8">
         <v>0</v>
@@ -4276,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="CO3" s="8">
-        <v>1146769</v>
+        <v>888879</v>
       </c>
       <c r="CP3" s="7">
-        <v>111707</v>
+        <v>87723</v>
       </c>
       <c r="CQ3" s="7">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="CS3" s="7">
-        <v>1035062</v>
+        <v>801156</v>
       </c>
       <c r="CT3" s="9">
         <v>0</v>
@@ -4336,13 +4336,13 @@
         <v>0</v>
       </c>
       <c r="DI3" s="8">
-        <v>3262552</v>
+        <v>2920978</v>
       </c>
       <c r="DJ3" s="9">
-        <v>2625398</v>
+        <v>2296208</v>
       </c>
       <c r="DK3" s="8">
-        <v>2625398</v>
+        <v>2296208</v>
       </c>
       <c r="DL3" s="10" t="s">
         <v>165</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="DP3" s="9">
-        <v>95316</v>
+        <v>95031</v>
       </c>
       <c r="DQ3" s="8">
         <v>0</v>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="DV3" s="8">
-        <v>95316</v>
+        <v>95031</v>
       </c>
       <c r="DW3" s="7">
         <v>0</v>
@@ -4384,16 +4384,16 @@
         <v>0</v>
       </c>
       <c r="DY3" s="7">
-        <v>95316</v>
+        <v>95031</v>
       </c>
       <c r="DZ3" s="9">
-        <v>282989</v>
+        <v>294405</v>
       </c>
       <c r="EA3" s="8">
-        <v>282989</v>
+        <v>294405</v>
       </c>
       <c r="EB3" s="9">
-        <v>258849</v>
+        <v>235334</v>
       </c>
       <c r="EC3" s="11" t="s">
         <v>165</v>
@@ -4450,19 +4450,19 @@
         <v>0</v>
       </c>
       <c r="EU3" s="8">
-        <v>5139263</v>
+        <v>4642267</v>
       </c>
       <c r="EV3" s="9">
-        <v>82878</v>
+        <v>84495</v>
       </c>
       <c r="EW3" s="9">
-        <v>5056385</v>
+        <v>4557772</v>
       </c>
       <c r="EX3" s="8">
-        <v>3533973</v>
+        <v>2718440</v>
       </c>
       <c r="EY3" s="8">
-        <v>-59139</v>
+        <v>-57724</v>
       </c>
       <c r="EZ3" s="7">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="FC3" s="7">
-        <v>1817</v>
+        <v>1325</v>
       </c>
       <c r="FD3" s="7">
         <v>0</v>
@@ -4483,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="FF3" s="7">
-        <v>-60956</v>
+        <v>-59049</v>
       </c>
       <c r="FG3" s="8">
-        <v>3658</v>
+        <v>3712</v>
       </c>
       <c r="FH3" s="8">
-        <v>837741</v>
+        <v>1169077</v>
       </c>
       <c r="FI3" s="7">
-        <v>47736</v>
+        <v>74972</v>
       </c>
       <c r="FJ3" s="7">
-        <v>630929</v>
+        <v>940453</v>
       </c>
       <c r="FK3" s="7">
         <v>0</v>
@@ -4513,10 +4513,10 @@
         <v>0</v>
       </c>
       <c r="FP3" s="7">
-        <v>167494</v>
+        <v>163174</v>
       </c>
       <c r="FQ3" s="7">
-        <v>-8418</v>
+        <v>-9522</v>
       </c>
       <c r="FR3" s="7">
         <v>0</v>
@@ -4525,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="FT3" s="8">
-        <v>548750</v>
+        <v>593500</v>
       </c>
       <c r="FU3" s="8">
-        <v>191402</v>
+        <v>130767</v>
       </c>
       <c r="FV3" s="8">
         <v>0</v>
@@ -4536,22 +4536,22 @@
     </row>
     <row r="4" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="7">
-        <v>14261541</v>
+        <v>11782630</v>
       </c>
       <c r="C4" s="8">
-        <v>9589344</v>
+        <v>8098187</v>
       </c>
       <c r="D4" s="9">
-        <v>3277115</v>
+        <v>3328015</v>
       </c>
       <c r="E4" s="9">
-        <v>1157644</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>165</v>
+        <v>865162</v>
+      </c>
+      <c r="F4" s="8">
+        <v>865162</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>165</v>
@@ -4568,35 +4568,35 @@
       <c r="K4" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>165</v>
+      <c r="L4" s="8">
+        <v>0</v>
       </c>
       <c r="M4" s="9">
-        <v>2545927</v>
+        <v>1867864</v>
       </c>
       <c r="N4" s="8">
-        <v>2545927</v>
+        <v>1867864</v>
       </c>
       <c r="O4" s="8">
         <v>0</v>
       </c>
       <c r="P4" s="9">
-        <v>2009254</v>
+        <v>1704919</v>
       </c>
       <c r="Q4" s="9">
         <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>266944</v>
+        <v>159446</v>
       </c>
       <c r="S4" s="8">
-        <v>266944</v>
+        <v>159446</v>
       </c>
       <c r="T4" s="9">
         <v>0</v>
       </c>
       <c r="U4" s="9">
-        <v>332460</v>
+        <v>172781</v>
       </c>
       <c r="V4" s="8">
         <v>0</v>
@@ -4605,16 +4605,16 @@
         <v>0</v>
       </c>
       <c r="X4" s="8">
-        <v>332460</v>
+        <v>172781</v>
       </c>
       <c r="Y4" s="8">
-        <v>4672197</v>
+        <v>3684443</v>
       </c>
       <c r="Z4" s="9">
-        <v>619206</v>
+        <v>126670</v>
       </c>
       <c r="AA4" s="8">
-        <v>214</v>
+        <v>1047</v>
       </c>
       <c r="AB4" s="10" t="s">
         <v>165</v>
@@ -4647,10 +4647,10 @@
         <v>0</v>
       </c>
       <c r="AL4" s="8">
-        <v>131327</v>
+        <v>55864</v>
       </c>
       <c r="AM4" s="7">
-        <v>131327</v>
+        <v>55864</v>
       </c>
       <c r="AN4" s="7">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="8">
-        <v>487665</v>
+        <v>69759</v>
       </c>
       <c r="AV4" s="7">
         <v>0</v>
@@ -4683,13 +4683,13 @@
         <v>0</v>
       </c>
       <c r="AX4" s="7">
-        <v>487665</v>
+        <v>69759</v>
       </c>
       <c r="AY4" s="9">
-        <v>1379</v>
+        <v>8224</v>
       </c>
       <c r="AZ4" s="8">
-        <v>1379</v>
+        <v>1004</v>
       </c>
       <c r="BA4" s="7">
         <v>0</v>
@@ -4701,16 +4701,16 @@
         <v>0</v>
       </c>
       <c r="BD4" s="7">
-        <v>1379</v>
+        <v>1004</v>
       </c>
       <c r="BE4" s="8">
-        <v>0</v>
+        <v>7220</v>
       </c>
       <c r="BF4" s="9">
-        <v>3264898</v>
+        <v>2877942</v>
       </c>
       <c r="BG4" s="8">
-        <v>3264898</v>
+        <v>2877942</v>
       </c>
       <c r="BH4" s="8">
         <v>0</v>
@@ -4719,37 +4719,37 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="9">
-        <v>786714</v>
+        <v>671607</v>
       </c>
       <c r="BK4" s="8">
-        <v>117394</v>
+        <v>81317</v>
       </c>
       <c r="BL4" s="7">
         <v>0</v>
       </c>
       <c r="BM4" s="7">
-        <v>117394</v>
+        <v>81317</v>
       </c>
       <c r="BN4" s="8">
-        <v>669320</v>
+        <v>590290</v>
       </c>
       <c r="BO4" s="7">
-        <v>14261541</v>
+        <v>11782630</v>
       </c>
       <c r="BP4" s="8">
-        <v>3494850</v>
+        <v>3380815</v>
       </c>
       <c r="BQ4" s="9">
-        <v>191077</v>
+        <v>173382</v>
       </c>
       <c r="BR4" s="8">
-        <v>191077</v>
+        <v>173382</v>
       </c>
       <c r="BS4" s="8">
         <v>0</v>
       </c>
       <c r="BT4" s="9">
-        <v>566769</v>
+        <v>445577</v>
       </c>
       <c r="BU4" s="11" t="s">
         <v>165</v>
@@ -4758,16 +4758,16 @@
         <v>165</v>
       </c>
       <c r="BW4" s="9">
-        <v>121461</v>
+        <v>148335</v>
       </c>
       <c r="BX4" s="8">
-        <v>121461</v>
+        <v>148335</v>
       </c>
       <c r="BY4" s="7">
-        <v>28160</v>
+        <v>84714</v>
       </c>
       <c r="BZ4" s="7">
-        <v>93301</v>
+        <v>63621</v>
       </c>
       <c r="CA4" s="8">
         <v>0</v>
@@ -4776,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="CC4" s="9">
-        <v>1284633</v>
+        <v>1466752</v>
       </c>
       <c r="CD4" s="8">
-        <v>1284633</v>
+        <v>1466752</v>
       </c>
       <c r="CE4" s="10" t="s">
         <v>165</v>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="CI4" s="9">
-        <v>1330910</v>
+        <v>1146769</v>
       </c>
       <c r="CJ4" s="8">
         <v>0</v>
@@ -4812,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="CO4" s="8">
-        <v>1330910</v>
+        <v>1146769</v>
       </c>
       <c r="CP4" s="7">
-        <v>172484</v>
+        <v>111707</v>
       </c>
       <c r="CQ4" s="7">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="CS4" s="7">
-        <v>1158426</v>
+        <v>1035062</v>
       </c>
       <c r="CT4" s="9">
         <v>0</v>
@@ -4872,13 +4872,13 @@
         <v>0</v>
       </c>
       <c r="DI4" s="8">
-        <v>4610631</v>
+        <v>3262552</v>
       </c>
       <c r="DJ4" s="9">
-        <v>3868335</v>
+        <v>2625398</v>
       </c>
       <c r="DK4" s="8">
-        <v>3868335</v>
+        <v>2625398</v>
       </c>
       <c r="DL4" s="10" t="s">
         <v>165</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="DP4" s="9">
-        <v>159632</v>
+        <v>95316</v>
       </c>
       <c r="DQ4" s="8">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="DV4" s="8">
-        <v>159632</v>
+        <v>95316</v>
       </c>
       <c r="DW4" s="7">
         <v>0</v>
@@ -4920,16 +4920,16 @@
         <v>0</v>
       </c>
       <c r="DY4" s="7">
-        <v>159632</v>
+        <v>95316</v>
       </c>
       <c r="DZ4" s="9">
-        <v>242696</v>
+        <v>282989</v>
       </c>
       <c r="EA4" s="8">
-        <v>242696</v>
+        <v>282989</v>
       </c>
       <c r="EB4" s="9">
-        <v>339968</v>
+        <v>258849</v>
       </c>
       <c r="EC4" s="11" t="s">
         <v>165</v>
@@ -4986,19 +4986,19 @@
         <v>0</v>
       </c>
       <c r="EU4" s="8">
-        <v>6156060</v>
+        <v>5139263</v>
       </c>
       <c r="EV4" s="9">
-        <v>126680</v>
+        <v>82878</v>
       </c>
       <c r="EW4" s="9">
-        <v>6029380</v>
+        <v>5056385</v>
       </c>
       <c r="EX4" s="8">
         <v>3533973</v>
       </c>
       <c r="EY4" s="8">
-        <v>-57044</v>
+        <v>-59139</v>
       </c>
       <c r="EZ4" s="7">
         <v>0</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="FC4" s="7">
-        <v>2474</v>
+        <v>1817</v>
       </c>
       <c r="FD4" s="7">
         <v>0</v>
@@ -5019,19 +5019,19 @@
         <v>0</v>
       </c>
       <c r="FF4" s="7">
-        <v>-59518</v>
+        <v>-60956</v>
       </c>
       <c r="FG4" s="8">
-        <v>3630</v>
+        <v>3658</v>
       </c>
       <c r="FH4" s="8">
-        <v>1413353</v>
+        <v>837741</v>
       </c>
       <c r="FI4" s="7">
-        <v>105539</v>
+        <v>47736</v>
       </c>
       <c r="FJ4" s="7">
-        <v>1194329</v>
+        <v>630929</v>
       </c>
       <c r="FK4" s="7">
         <v>0</v>
@@ -5049,10 +5049,10 @@
         <v>0</v>
       </c>
       <c r="FP4" s="7">
-        <v>130554</v>
+        <v>167494</v>
       </c>
       <c r="FQ4" s="7">
-        <v>-17069</v>
+        <v>-8418</v>
       </c>
       <c r="FR4" s="7">
         <v>0</v>
@@ -5061,30 +5061,30 @@
         <v>0</v>
       </c>
       <c r="FT4" s="8">
-        <v>493106</v>
+        <v>548750</v>
       </c>
       <c r="FU4" s="8">
-        <v>0</v>
+        <v>191402</v>
       </c>
       <c r="FV4" s="8">
-        <v>642362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="7">
-        <v>13509331</v>
+        <v>14261541</v>
       </c>
       <c r="C5" s="8">
-        <v>9127483</v>
+        <v>9589344</v>
       </c>
       <c r="D5" s="9">
-        <v>3390662</v>
+        <v>3277115</v>
       </c>
       <c r="E5" s="9">
-        <v>1373287</v>
+        <v>1157644</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>165</v>
@@ -5108,31 +5108,31 @@
         <v>165</v>
       </c>
       <c r="M5" s="9">
-        <v>2251922</v>
+        <v>2545927</v>
       </c>
       <c r="N5" s="8">
-        <v>2251922</v>
+        <v>2545927</v>
       </c>
       <c r="O5" s="8">
         <v>0</v>
       </c>
       <c r="P5" s="9">
-        <v>1575055</v>
+        <v>2009254</v>
       </c>
       <c r="Q5" s="9">
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>269626</v>
+        <v>266944</v>
       </c>
       <c r="S5" s="8">
-        <v>269626</v>
+        <v>266944</v>
       </c>
       <c r="T5" s="9">
         <v>0</v>
       </c>
       <c r="U5" s="9">
-        <v>266931</v>
+        <v>332460</v>
       </c>
       <c r="V5" s="8">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="X5" s="8">
-        <v>266931</v>
+        <v>332460</v>
       </c>
       <c r="Y5" s="8">
-        <v>4381848</v>
+        <v>4672197</v>
       </c>
       <c r="Z5" s="9">
-        <v>397383</v>
+        <v>619206</v>
       </c>
       <c r="AA5" s="8">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="AB5" s="10" t="s">
         <v>165</v>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="AL5" s="8">
-        <v>130291</v>
+        <v>131327</v>
       </c>
       <c r="AM5" s="7">
-        <v>130291</v>
+        <v>131327</v>
       </c>
       <c r="AN5" s="7">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="8">
-        <v>267092</v>
+        <v>487665</v>
       </c>
       <c r="AV5" s="7">
         <v>0</v>
@@ -5219,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="AX5" s="7">
-        <v>267092</v>
+        <v>487665</v>
       </c>
       <c r="AY5" s="9">
-        <v>223</v>
+        <v>1379</v>
       </c>
       <c r="AZ5" s="8">
-        <v>223</v>
+        <v>1379</v>
       </c>
       <c r="BA5" s="7">
         <v>0</v>
@@ -5237,16 +5237,16 @@
         <v>0</v>
       </c>
       <c r="BD5" s="7">
-        <v>223</v>
+        <v>1379</v>
       </c>
       <c r="BE5" s="8">
         <v>0</v>
       </c>
       <c r="BF5" s="9">
-        <v>3032716</v>
+        <v>3264898</v>
       </c>
       <c r="BG5" s="8">
-        <v>3032716</v>
+        <v>3264898</v>
       </c>
       <c r="BH5" s="8">
         <v>0</v>
@@ -5255,37 +5255,37 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="9">
-        <v>951526</v>
+        <v>786714</v>
       </c>
       <c r="BK5" s="8">
-        <v>161200</v>
+        <v>117394</v>
       </c>
       <c r="BL5" s="7">
         <v>0</v>
       </c>
       <c r="BM5" s="7">
-        <v>161200</v>
+        <v>117394</v>
       </c>
       <c r="BN5" s="8">
-        <v>790326</v>
+        <v>669320</v>
       </c>
       <c r="BO5" s="7">
-        <v>13509331</v>
+        <v>14261541</v>
       </c>
       <c r="BP5" s="8">
-        <v>3278855</v>
+        <v>3494850</v>
       </c>
       <c r="BQ5" s="9">
-        <v>199543</v>
+        <v>191077</v>
       </c>
       <c r="BR5" s="8">
-        <v>199543</v>
+        <v>191077</v>
       </c>
       <c r="BS5" s="8">
         <v>0</v>
       </c>
       <c r="BT5" s="9">
-        <v>562851</v>
+        <v>566769</v>
       </c>
       <c r="BU5" s="11" t="s">
         <v>165</v>
@@ -5294,16 +5294,16 @@
         <v>165</v>
       </c>
       <c r="BW5" s="9">
-        <v>125062</v>
+        <v>121461</v>
       </c>
       <c r="BX5" s="8">
-        <v>125062</v>
+        <v>121461</v>
       </c>
       <c r="BY5" s="7">
-        <v>29241</v>
+        <v>28160</v>
       </c>
       <c r="BZ5" s="7">
-        <v>95821</v>
+        <v>93301</v>
       </c>
       <c r="CA5" s="8">
         <v>0</v>
@@ -5312,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="CC5" s="9">
-        <v>991433</v>
+        <v>1284633</v>
       </c>
       <c r="CD5" s="8">
-        <v>991433</v>
-      </c>
-      <c r="CE5" s="7">
-        <v>642413</v>
-      </c>
-      <c r="CF5" s="7">
-        <v>349020</v>
+        <v>1284633</v>
+      </c>
+      <c r="CE5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF5" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="CG5" s="8">
         <v>0</v>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="CI5" s="9">
-        <v>1399966</v>
+        <v>1330910</v>
       </c>
       <c r="CJ5" s="8">
         <v>0</v>
@@ -5348,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="CO5" s="8">
-        <v>1399966</v>
+        <v>1330910</v>
       </c>
       <c r="CP5" s="7">
-        <v>191365</v>
+        <v>172484</v>
       </c>
       <c r="CQ5" s="7">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="CS5" s="7">
-        <v>1208601</v>
+        <v>1158426</v>
       </c>
       <c r="CT5" s="9">
         <v>0</v>
@@ -5408,19 +5408,19 @@
         <v>0</v>
       </c>
       <c r="DI5" s="8">
-        <v>4159644</v>
+        <v>4610631</v>
       </c>
       <c r="DJ5" s="9">
-        <v>3408892</v>
+        <v>3868335</v>
       </c>
       <c r="DK5" s="8">
-        <v>3408892</v>
-      </c>
-      <c r="DL5" s="7">
-        <v>1887571</v>
-      </c>
-      <c r="DM5" s="7">
-        <v>1521321</v>
+        <v>3868335</v>
+      </c>
+      <c r="DL5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DM5" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="DN5" s="8">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="DP5" s="9">
-        <v>157147</v>
+        <v>159632</v>
       </c>
       <c r="DQ5" s="8">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="DV5" s="8">
-        <v>157147</v>
+        <v>159632</v>
       </c>
       <c r="DW5" s="7">
         <v>0</v>
@@ -5456,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="DY5" s="7">
-        <v>157147</v>
+        <v>159632</v>
       </c>
       <c r="DZ5" s="9">
-        <v>159203</v>
+        <v>242696</v>
       </c>
       <c r="EA5" s="8">
-        <v>159203</v>
+        <v>242696</v>
       </c>
       <c r="EB5" s="9">
-        <v>434402</v>
+        <v>339968</v>
       </c>
       <c r="EC5" s="11" t="s">
         <v>165</v>
@@ -5522,19 +5522,19 @@
         <v>0</v>
       </c>
       <c r="EU5" s="8">
-        <v>6070832</v>
+        <v>6156060</v>
       </c>
       <c r="EV5" s="9">
-        <v>107958</v>
+        <v>126680</v>
       </c>
       <c r="EW5" s="9">
-        <v>5962874</v>
+        <v>6029380</v>
       </c>
       <c r="EX5" s="8">
         <v>3533973</v>
       </c>
       <c r="EY5" s="8">
-        <v>-68092</v>
+        <v>-57044</v>
       </c>
       <c r="EZ5" s="7">
         <v>0</v>
@@ -5546,28 +5546,28 @@
         <v>0</v>
       </c>
       <c r="FC5" s="7">
-        <v>1971</v>
+        <v>2474</v>
       </c>
       <c r="FD5" s="7">
-        <v>-11924</v>
+        <v>0</v>
       </c>
       <c r="FE5" s="7">
         <v>0</v>
       </c>
       <c r="FF5" s="7">
-        <v>-58139</v>
+        <v>-59518</v>
       </c>
       <c r="FG5" s="8">
         <v>3630</v>
       </c>
       <c r="FH5" s="8">
-        <v>1993631</v>
+        <v>1413353</v>
       </c>
       <c r="FI5" s="7">
-        <v>161420</v>
+        <v>105539</v>
       </c>
       <c r="FJ5" s="7">
-        <v>1729461</v>
+        <v>1194329</v>
       </c>
       <c r="FK5" s="7">
         <v>0</v>
@@ -5585,10 +5585,10 @@
         <v>0</v>
       </c>
       <c r="FP5" s="7">
-        <v>102750</v>
+        <v>130554</v>
       </c>
       <c r="FQ5" s="7">
-        <v>0</v>
+        <v>-17069</v>
       </c>
       <c r="FR5" s="7">
         <v>0</v>
@@ -5597,30 +5597,30 @@
         <v>0</v>
       </c>
       <c r="FT5" s="8">
-        <v>442032</v>
+        <v>493106</v>
       </c>
       <c r="FU5" s="8">
         <v>0</v>
       </c>
       <c r="FV5" s="8">
-        <v>57700</v>
+        <v>642362</v>
       </c>
     </row>
     <row r="6" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="7">
-        <v>13985987</v>
+        <v>13509331</v>
       </c>
       <c r="C6" s="8">
-        <v>9415667</v>
+        <v>9127483</v>
       </c>
       <c r="D6" s="9">
-        <v>3162685</v>
+        <v>3390662</v>
       </c>
       <c r="E6" s="9">
-        <v>1411046</v>
+        <v>1373287</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>165</v>
@@ -5644,31 +5644,31 @@
         <v>165</v>
       </c>
       <c r="M6" s="9">
-        <v>2242613</v>
+        <v>2251922</v>
       </c>
       <c r="N6" s="8">
-        <v>2242613</v>
+        <v>2251922</v>
       </c>
       <c r="O6" s="8">
         <v>0</v>
       </c>
       <c r="P6" s="9">
-        <v>1852266</v>
+        <v>1575055</v>
       </c>
       <c r="Q6" s="9">
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>419845</v>
+        <v>269626</v>
       </c>
       <c r="S6" s="8">
-        <v>419845</v>
+        <v>269626</v>
       </c>
       <c r="T6" s="9">
         <v>0</v>
       </c>
       <c r="U6" s="9">
-        <v>327212</v>
+        <v>266931</v>
       </c>
       <c r="V6" s="8">
         <v>0</v>
@@ -5677,13 +5677,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="8">
-        <v>327212</v>
+        <v>266931</v>
       </c>
       <c r="Y6" s="8">
-        <v>4570320</v>
+        <v>4381848</v>
       </c>
       <c r="Z6" s="9">
-        <v>443844</v>
+        <v>397383</v>
       </c>
       <c r="AA6" s="8">
         <v>0</v>
@@ -5719,10 +5719,10 @@
         <v>0</v>
       </c>
       <c r="AL6" s="8">
-        <v>148284</v>
+        <v>130291</v>
       </c>
       <c r="AM6" s="7">
-        <v>148284</v>
+        <v>130291</v>
       </c>
       <c r="AN6" s="7">
         <v>0</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="8">
-        <v>295560</v>
+        <v>267092</v>
       </c>
       <c r="AV6" s="7">
         <v>0</v>
@@ -5755,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="AX6" s="7">
-        <v>295560</v>
+        <v>267092</v>
       </c>
       <c r="AY6" s="9">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="AZ6" s="8">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="BA6" s="7">
         <v>0</v>
@@ -5773,16 +5773,16 @@
         <v>0</v>
       </c>
       <c r="BD6" s="7">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="BE6" s="8">
         <v>0</v>
       </c>
       <c r="BF6" s="9">
-        <v>3160111</v>
+        <v>3032716</v>
       </c>
       <c r="BG6" s="8">
-        <v>3160111</v>
+        <v>3032716</v>
       </c>
       <c r="BH6" s="8">
         <v>0</v>
@@ -5791,37 +5791,37 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="9">
-        <v>966097</v>
+        <v>951526</v>
       </c>
       <c r="BK6" s="8">
-        <v>142682</v>
+        <v>161200</v>
       </c>
       <c r="BL6" s="7">
         <v>0</v>
       </c>
       <c r="BM6" s="7">
-        <v>142682</v>
+        <v>161200</v>
       </c>
       <c r="BN6" s="8">
-        <v>823415</v>
+        <v>790326</v>
       </c>
       <c r="BO6" s="7">
-        <v>13985987</v>
+        <v>13509331</v>
       </c>
       <c r="BP6" s="8">
-        <v>4326788</v>
+        <v>3278855</v>
       </c>
       <c r="BQ6" s="9">
-        <v>211062</v>
+        <v>199543</v>
       </c>
       <c r="BR6" s="8">
-        <v>211062</v>
+        <v>199543</v>
       </c>
       <c r="BS6" s="8">
         <v>0</v>
       </c>
       <c r="BT6" s="9">
-        <v>750533</v>
+        <v>562851</v>
       </c>
       <c r="BU6" s="11" t="s">
         <v>165</v>
@@ -5830,16 +5830,16 @@
         <v>165</v>
       </c>
       <c r="BW6" s="9">
-        <v>102944</v>
+        <v>125062</v>
       </c>
       <c r="BX6" s="8">
-        <v>102944</v>
+        <v>125062</v>
       </c>
       <c r="BY6" s="7">
-        <v>29672</v>
+        <v>29241</v>
       </c>
       <c r="BZ6" s="7">
-        <v>73272</v>
+        <v>95821</v>
       </c>
       <c r="CA6" s="8">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>0</v>
       </c>
       <c r="CC6" s="9">
-        <v>2014530</v>
+        <v>991433</v>
       </c>
       <c r="CD6" s="8">
-        <v>2014530</v>
+        <v>991433</v>
       </c>
       <c r="CE6" s="7">
-        <v>1300232</v>
+        <v>642413</v>
       </c>
       <c r="CF6" s="7">
-        <v>714298</v>
+        <v>349020</v>
       </c>
       <c r="CG6" s="8">
         <v>0</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="CI6" s="9">
-        <v>1247719</v>
+        <v>1399966</v>
       </c>
       <c r="CJ6" s="8">
         <v>0</v>
@@ -5884,10 +5884,10 @@
         <v>0</v>
       </c>
       <c r="CO6" s="8">
-        <v>1247719</v>
+        <v>1399966</v>
       </c>
       <c r="CP6" s="7">
-        <v>160892</v>
+        <v>191365</v>
       </c>
       <c r="CQ6" s="7">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="CS6" s="7">
-        <v>1086827</v>
+        <v>1208601</v>
       </c>
       <c r="CT6" s="9">
         <v>0</v>
@@ -5944,19 +5944,19 @@
         <v>0</v>
       </c>
       <c r="DI6" s="8">
-        <v>2815892</v>
+        <v>4159644</v>
       </c>
       <c r="DJ6" s="9">
-        <v>2041912</v>
+        <v>3408892</v>
       </c>
       <c r="DK6" s="8">
-        <v>2041912</v>
+        <v>3408892</v>
       </c>
       <c r="DL6" s="7">
-        <v>457386</v>
+        <v>1887571</v>
       </c>
       <c r="DM6" s="7">
-        <v>1584526</v>
+        <v>1521321</v>
       </c>
       <c r="DN6" s="8">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="DP6" s="9">
-        <v>150390</v>
+        <v>157147</v>
       </c>
       <c r="DQ6" s="8">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="DV6" s="8">
-        <v>150390</v>
+        <v>157147</v>
       </c>
       <c r="DW6" s="7">
         <v>0</v>
@@ -5992,16 +5992,16 @@
         <v>0</v>
       </c>
       <c r="DY6" s="7">
-        <v>150390</v>
+        <v>157147</v>
       </c>
       <c r="DZ6" s="9">
-        <v>116629</v>
+        <v>159203</v>
       </c>
       <c r="EA6" s="8">
-        <v>116629</v>
+        <v>159203</v>
       </c>
       <c r="EB6" s="9">
-        <v>506961</v>
+        <v>434402</v>
       </c>
       <c r="EC6" s="11" t="s">
         <v>165</v>
@@ -6058,19 +6058,19 @@
         <v>0</v>
       </c>
       <c r="EU6" s="8">
-        <v>6843307</v>
+        <v>6070832</v>
       </c>
       <c r="EV6" s="9">
-        <v>122381</v>
+        <v>107958</v>
       </c>
       <c r="EW6" s="9">
-        <v>6720926</v>
+        <v>5962874</v>
       </c>
       <c r="EX6" s="8">
         <v>3533973</v>
       </c>
       <c r="EY6" s="8">
-        <v>-91997</v>
+        <v>-68092</v>
       </c>
       <c r="EZ6" s="7">
         <v>0</v>
@@ -6082,28 +6082,28 @@
         <v>0</v>
       </c>
       <c r="FC6" s="7">
-        <v>4437</v>
+        <v>1971</v>
       </c>
       <c r="FD6" s="7">
-        <v>-17392</v>
+        <v>-11924</v>
       </c>
       <c r="FE6" s="7">
         <v>0</v>
       </c>
       <c r="FF6" s="7">
-        <v>-79042</v>
+        <v>-58139</v>
       </c>
       <c r="FG6" s="8">
         <v>3630</v>
       </c>
       <c r="FH6" s="8">
-        <v>2595610</v>
+        <v>1993631</v>
       </c>
       <c r="FI6" s="7">
-        <v>218528</v>
+        <v>161420</v>
       </c>
       <c r="FJ6" s="7">
-        <v>2244627</v>
+        <v>1729461</v>
       </c>
       <c r="FK6" s="7">
         <v>0</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="FP6" s="7">
-        <v>132455</v>
+        <v>102750</v>
       </c>
       <c r="FQ6" s="7">
         <v>0</v>
@@ -6133,30 +6133,30 @@
         <v>0</v>
       </c>
       <c r="FT6" s="8">
-        <v>406240</v>
+        <v>442032</v>
       </c>
       <c r="FU6" s="8">
         <v>0</v>
       </c>
       <c r="FV6" s="8">
-        <v>273470</v>
+        <v>57700</v>
       </c>
     </row>
     <row r="7" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="7">
-        <v>15399850</v>
+        <v>13985987</v>
       </c>
       <c r="C7" s="8">
-        <v>9438581</v>
+        <v>9415667</v>
       </c>
       <c r="D7" s="9">
-        <v>2205700</v>
+        <v>3162685</v>
       </c>
       <c r="E7" s="9">
-        <v>1324188</v>
+        <v>1411046</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>165</v>
@@ -6180,31 +6180,31 @@
         <v>165</v>
       </c>
       <c r="M7" s="9">
-        <v>2440844</v>
+        <v>2242613</v>
       </c>
       <c r="N7" s="8">
-        <v>2440844</v>
+        <v>2242613</v>
       </c>
       <c r="O7" s="8">
         <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>2458410</v>
+        <v>1852266</v>
       </c>
       <c r="Q7" s="9">
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>421938</v>
+        <v>419845</v>
       </c>
       <c r="S7" s="8">
-        <v>421938</v>
+        <v>419845</v>
       </c>
       <c r="T7" s="9">
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <v>587501</v>
+        <v>327212</v>
       </c>
       <c r="V7" s="8">
         <v>0</v>
@@ -6213,28 +6213,28 @@
         <v>0</v>
       </c>
       <c r="X7" s="8">
-        <v>587501</v>
+        <v>327212</v>
       </c>
       <c r="Y7" s="8">
-        <v>5961269</v>
+        <v>4570320</v>
       </c>
       <c r="Z7" s="9">
-        <v>1178926</v>
+        <v>443844</v>
       </c>
       <c r="AA7" s="8">
-        <v>562782</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>562782</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>562782</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="AF7" s="8">
         <v>0</v>
@@ -6255,10 +6255,10 @@
         <v>0</v>
       </c>
       <c r="AL7" s="8">
-        <v>142669</v>
+        <v>148284</v>
       </c>
       <c r="AM7" s="7">
-        <v>142669</v>
+        <v>148284</v>
       </c>
       <c r="AN7" s="7">
         <v>0</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="8">
-        <v>473475</v>
+        <v>295560</v>
       </c>
       <c r="AV7" s="7">
         <v>0</v>
@@ -6291,16 +6291,16 @@
         <v>0</v>
       </c>
       <c r="AX7" s="7">
-        <v>473475</v>
+        <v>295560</v>
       </c>
       <c r="AY7" s="9">
-        <v>20362</v>
+        <v>268</v>
       </c>
       <c r="AZ7" s="8">
-        <v>20362</v>
+        <v>268</v>
       </c>
       <c r="BA7" s="7">
-        <v>19981</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="7">
         <v>0</v>
@@ -6309,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="BD7" s="7">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="BE7" s="8">
         <v>0</v>
       </c>
       <c r="BF7" s="9">
-        <v>3541954</v>
+        <v>3160111</v>
       </c>
       <c r="BG7" s="8">
-        <v>3541954</v>
+        <v>3160111</v>
       </c>
       <c r="BH7" s="8">
         <v>0</v>
@@ -6327,37 +6327,37 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="9">
-        <v>1220027</v>
+        <v>966097</v>
       </c>
       <c r="BK7" s="8">
-        <v>225160</v>
+        <v>142682</v>
       </c>
       <c r="BL7" s="7">
         <v>0</v>
       </c>
       <c r="BM7" s="7">
-        <v>225160</v>
+        <v>142682</v>
       </c>
       <c r="BN7" s="8">
-        <v>994867</v>
+        <v>823415</v>
       </c>
       <c r="BO7" s="7">
-        <v>15399850</v>
+        <v>13985987</v>
       </c>
       <c r="BP7" s="8">
-        <v>5034004</v>
+        <v>4326788</v>
       </c>
       <c r="BQ7" s="9">
-        <v>240346</v>
+        <v>211062</v>
       </c>
       <c r="BR7" s="8">
-        <v>240346</v>
+        <v>211062</v>
       </c>
       <c r="BS7" s="8">
         <v>0</v>
       </c>
       <c r="BT7" s="9">
-        <v>842957</v>
+        <v>750533</v>
       </c>
       <c r="BU7" s="11" t="s">
         <v>165</v>
@@ -6366,16 +6366,16 @@
         <v>165</v>
       </c>
       <c r="BW7" s="9">
-        <v>88183</v>
+        <v>102944</v>
       </c>
       <c r="BX7" s="8">
-        <v>88183</v>
+        <v>102944</v>
       </c>
       <c r="BY7" s="7">
-        <v>24968</v>
+        <v>29672</v>
       </c>
       <c r="BZ7" s="7">
-        <v>63215</v>
+        <v>73272</v>
       </c>
       <c r="CA7" s="8">
         <v>0</v>
@@ -6384,16 +6384,16 @@
         <v>0</v>
       </c>
       <c r="CC7" s="9">
-        <v>2049093</v>
+        <v>2014530</v>
       </c>
       <c r="CD7" s="8">
-        <v>2049093</v>
+        <v>2014530</v>
       </c>
       <c r="CE7" s="7">
-        <v>175475</v>
+        <v>1300232</v>
       </c>
       <c r="CF7" s="7">
-        <v>1873618</v>
+        <v>714298</v>
       </c>
       <c r="CG7" s="8">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="9">
-        <v>1813425</v>
+        <v>1247719</v>
       </c>
       <c r="CJ7" s="8">
         <v>0</v>
@@ -6420,10 +6420,10 @@
         <v>0</v>
       </c>
       <c r="CO7" s="8">
-        <v>1813425</v>
+        <v>1247719</v>
       </c>
       <c r="CP7" s="7">
-        <v>165441</v>
+        <v>160892</v>
       </c>
       <c r="CQ7" s="7">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="CS7" s="7">
-        <v>1647984</v>
+        <v>1086827</v>
       </c>
       <c r="CT7" s="9">
         <v>0</v>
@@ -6480,19 +6480,19 @@
         <v>0</v>
       </c>
       <c r="DI7" s="8">
-        <v>2512589</v>
+        <v>2815892</v>
       </c>
       <c r="DJ7" s="9">
-        <v>1723021</v>
+        <v>2041912</v>
       </c>
       <c r="DK7" s="8">
-        <v>1723021</v>
+        <v>2041912</v>
       </c>
       <c r="DL7" s="7">
-        <v>315291</v>
+        <v>457386</v>
       </c>
       <c r="DM7" s="7">
-        <v>1407730</v>
+        <v>1584526</v>
       </c>
       <c r="DN7" s="8">
         <v>0</v>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="DP7" s="9">
-        <v>155394</v>
+        <v>150390</v>
       </c>
       <c r="DQ7" s="8">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="DV7" s="8">
-        <v>155394</v>
+        <v>150390</v>
       </c>
       <c r="DW7" s="7">
         <v>0</v>
@@ -6528,16 +6528,16 @@
         <v>0</v>
       </c>
       <c r="DY7" s="7">
-        <v>155394</v>
+        <v>150390</v>
       </c>
       <c r="DZ7" s="9">
-        <v>86537</v>
+        <v>116629</v>
       </c>
       <c r="EA7" s="8">
-        <v>86537</v>
+        <v>116629</v>
       </c>
       <c r="EB7" s="9">
-        <v>547637</v>
+        <v>506961</v>
       </c>
       <c r="EC7" s="11" t="s">
         <v>165</v>
@@ -6594,19 +6594,19 @@
         <v>0</v>
       </c>
       <c r="EU7" s="8">
-        <v>7853257</v>
+        <v>6843307</v>
       </c>
       <c r="EV7" s="9">
-        <v>138983</v>
+        <v>122381</v>
       </c>
       <c r="EW7" s="9">
-        <v>7714274</v>
+        <v>6720926</v>
       </c>
       <c r="EX7" s="8">
-        <v>5504517</v>
+        <v>3533973</v>
       </c>
       <c r="EY7" s="8">
-        <v>-87102</v>
+        <v>-91997</v>
       </c>
       <c r="EZ7" s="7">
         <v>0</v>
@@ -6618,28 +6618,28 @@
         <v>0</v>
       </c>
       <c r="FC7" s="7">
-        <v>9615</v>
+        <v>4437</v>
       </c>
       <c r="FD7" s="7">
-        <v>-15261</v>
+        <v>-17392</v>
       </c>
       <c r="FE7" s="7">
         <v>0</v>
       </c>
       <c r="FF7" s="7">
-        <v>-81456</v>
+        <v>-79042</v>
       </c>
       <c r="FG7" s="8">
         <v>3630</v>
       </c>
       <c r="FH7" s="8">
-        <v>1133122</v>
+        <v>2595610</v>
       </c>
       <c r="FI7" s="7">
-        <v>66916</v>
+        <v>218528</v>
       </c>
       <c r="FJ7" s="7">
-        <v>892339</v>
+        <v>2244627</v>
       </c>
       <c r="FK7" s="7">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="FP7" s="7">
-        <v>173867</v>
+        <v>132455</v>
       </c>
       <c r="FQ7" s="7">
         <v>0</v>
@@ -6669,30 +6669,30 @@
         <v>0</v>
       </c>
       <c r="FT7" s="8">
-        <v>380781</v>
+        <v>406240</v>
       </c>
       <c r="FU7" s="8">
         <v>0</v>
       </c>
       <c r="FV7" s="8">
-        <v>779326</v>
+        <v>273470</v>
       </c>
     </row>
     <row r="8" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="7">
-        <v>15687641</v>
+        <v>15399850</v>
       </c>
       <c r="C8" s="8">
-        <v>9760902</v>
+        <v>9438581</v>
       </c>
       <c r="D8" s="9">
-        <v>1946044</v>
+        <v>2205700</v>
       </c>
       <c r="E8" s="9">
-        <v>1444227</v>
+        <v>1324188</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>165</v>
@@ -6716,31 +6716,31 @@
         <v>165</v>
       </c>
       <c r="M8" s="9">
-        <v>2747084</v>
+        <v>2440844</v>
       </c>
       <c r="N8" s="8">
-        <v>2747084</v>
+        <v>2440844</v>
       </c>
       <c r="O8" s="8">
         <v>0</v>
       </c>
       <c r="P8" s="9">
-        <v>2817129</v>
+        <v>2458410</v>
       </c>
       <c r="Q8" s="9">
         <v>0</v>
       </c>
       <c r="R8" s="9">
-        <v>394839</v>
+        <v>421938</v>
       </c>
       <c r="S8" s="8">
-        <v>394839</v>
+        <v>421938</v>
       </c>
       <c r="T8" s="9">
         <v>0</v>
       </c>
       <c r="U8" s="9">
-        <v>411579</v>
+        <v>587501</v>
       </c>
       <c r="V8" s="8">
         <v>0</v>
@@ -6749,22 +6749,22 @@
         <v>0</v>
       </c>
       <c r="X8" s="8">
-        <v>411579</v>
+        <v>587501</v>
       </c>
       <c r="Y8" s="8">
-        <v>5926739</v>
+        <v>5961269</v>
       </c>
       <c r="Z8" s="9">
-        <v>597797</v>
+        <v>1178926</v>
       </c>
       <c r="AA8" s="8">
-        <v>0</v>
+        <v>562782</v>
       </c>
       <c r="AB8" s="7">
-        <v>0</v>
+        <v>562782</v>
       </c>
       <c r="AC8" s="8">
-        <v>0</v>
+        <v>562782</v>
       </c>
       <c r="AD8" s="8">
         <v>0</v>
@@ -6791,10 +6791,10 @@
         <v>0</v>
       </c>
       <c r="AL8" s="8">
-        <v>182042</v>
+        <v>142669</v>
       </c>
       <c r="AM8" s="7">
-        <v>182042</v>
+        <v>142669</v>
       </c>
       <c r="AN8" s="7">
         <v>0</v>
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="8">
-        <v>415755</v>
+        <v>473475</v>
       </c>
       <c r="AV8" s="7">
         <v>0</v>
@@ -6827,16 +6827,16 @@
         <v>0</v>
       </c>
       <c r="AX8" s="7">
-        <v>415755</v>
+        <v>473475</v>
       </c>
       <c r="AY8" s="9">
-        <v>28012</v>
+        <v>20362</v>
       </c>
       <c r="AZ8" s="8">
-        <v>28012</v>
+        <v>20362</v>
       </c>
       <c r="BA8" s="7">
-        <v>28007</v>
+        <v>19981</v>
       </c>
       <c r="BB8" s="7">
         <v>0</v>
@@ -6845,55 +6845,55 @@
         <v>0</v>
       </c>
       <c r="BD8" s="7">
-        <v>5</v>
+        <v>381</v>
       </c>
       <c r="BE8" s="8">
         <v>0</v>
       </c>
       <c r="BF8" s="9">
-        <v>3981184</v>
+        <v>3541954</v>
       </c>
       <c r="BG8" s="8">
-        <v>3776561</v>
+        <v>3541954</v>
       </c>
       <c r="BH8" s="8">
-        <v>204623</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="8">
         <v>0</v>
       </c>
       <c r="BJ8" s="9">
-        <v>1319746</v>
+        <v>1220027</v>
       </c>
       <c r="BK8" s="8">
-        <v>201431</v>
+        <v>225160</v>
       </c>
       <c r="BL8" s="7">
         <v>0</v>
       </c>
       <c r="BM8" s="7">
-        <v>201431</v>
+        <v>225160</v>
       </c>
       <c r="BN8" s="8">
-        <v>1118315</v>
+        <v>994867</v>
       </c>
       <c r="BO8" s="7">
-        <v>15687641</v>
+        <v>15399850</v>
       </c>
       <c r="BP8" s="8">
-        <v>4491021</v>
+        <v>5034004</v>
       </c>
       <c r="BQ8" s="9">
-        <v>287187</v>
+        <v>240346</v>
       </c>
       <c r="BR8" s="8">
-        <v>287187</v>
+        <v>240346</v>
       </c>
       <c r="BS8" s="8">
         <v>0</v>
       </c>
       <c r="BT8" s="9">
-        <v>839879</v>
+        <v>842957</v>
       </c>
       <c r="BU8" s="11" t="s">
         <v>165</v>
@@ -6902,16 +6902,16 @@
         <v>165</v>
       </c>
       <c r="BW8" s="9">
-        <v>134510</v>
+        <v>88183</v>
       </c>
       <c r="BX8" s="8">
-        <v>134510</v>
+        <v>88183</v>
       </c>
       <c r="BY8" s="7">
-        <v>31578</v>
+        <v>24968</v>
       </c>
       <c r="BZ8" s="7">
-        <v>102932</v>
+        <v>63215</v>
       </c>
       <c r="CA8" s="8">
         <v>0</v>
@@ -6920,16 +6920,16 @@
         <v>0</v>
       </c>
       <c r="CC8" s="9">
-        <v>936370</v>
+        <v>2049093</v>
       </c>
       <c r="CD8" s="8">
-        <v>936370</v>
+        <v>2049093</v>
       </c>
       <c r="CE8" s="7">
-        <v>87566</v>
+        <v>175475</v>
       </c>
       <c r="CF8" s="7">
-        <v>848804</v>
+        <v>1873618</v>
       </c>
       <c r="CG8" s="8">
         <v>0</v>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="CI8" s="9">
-        <v>2293075</v>
+        <v>1813425</v>
       </c>
       <c r="CJ8" s="8">
         <v>0</v>
@@ -6956,10 +6956,10 @@
         <v>0</v>
       </c>
       <c r="CO8" s="8">
-        <v>2293075</v>
+        <v>1813425</v>
       </c>
       <c r="CP8" s="7">
-        <v>145376</v>
+        <v>165441</v>
       </c>
       <c r="CQ8" s="7">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="CS8" s="7">
-        <v>2147699</v>
+        <v>1647984</v>
       </c>
       <c r="CT8" s="9">
         <v>0</v>
@@ -7016,19 +7016,19 @@
         <v>0</v>
       </c>
       <c r="DI8" s="8">
-        <v>2266630</v>
+        <v>2512589</v>
       </c>
       <c r="DJ8" s="9">
-        <v>1348599</v>
+        <v>1723021</v>
       </c>
       <c r="DK8" s="8">
-        <v>1348599</v>
+        <v>1723021</v>
       </c>
       <c r="DL8" s="7">
-        <v>107930</v>
+        <v>315291</v>
       </c>
       <c r="DM8" s="7">
-        <v>1240669</v>
+        <v>1407730</v>
       </c>
       <c r="DN8" s="8">
         <v>0</v>
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="DP8" s="9">
-        <v>291310</v>
+        <v>155394</v>
       </c>
       <c r="DQ8" s="8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="DV8" s="8">
-        <v>291310</v>
+        <v>155394</v>
       </c>
       <c r="DW8" s="7">
         <v>0</v>
@@ -7064,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="DY8" s="7">
-        <v>291310</v>
+        <v>155394</v>
       </c>
       <c r="DZ8" s="9">
-        <v>75143</v>
+        <v>86537</v>
       </c>
       <c r="EA8" s="8">
-        <v>75143</v>
+        <v>86537</v>
       </c>
       <c r="EB8" s="9">
-        <v>551578</v>
+        <v>547637</v>
       </c>
       <c r="EC8" s="11" t="s">
         <v>165</v>
@@ -7130,19 +7130,19 @@
         <v>0</v>
       </c>
       <c r="EU8" s="8">
-        <v>8929990</v>
+        <v>7853257</v>
       </c>
       <c r="EV8" s="9">
-        <v>212743</v>
+        <v>138983</v>
       </c>
       <c r="EW8" s="9">
-        <v>8717247</v>
+        <v>7714274</v>
       </c>
       <c r="EX8" s="8">
         <v>5504517</v>
       </c>
       <c r="EY8" s="8">
-        <v>-103868</v>
+        <v>-87102</v>
       </c>
       <c r="EZ8" s="7">
         <v>0</v>
@@ -7154,28 +7154,28 @@
         <v>0</v>
       </c>
       <c r="FC8" s="7">
-        <v>12857</v>
+        <v>9615</v>
       </c>
       <c r="FD8" s="7">
-        <v>-11419</v>
+        <v>-15261</v>
       </c>
       <c r="FE8" s="7">
         <v>0</v>
       </c>
       <c r="FF8" s="7">
-        <v>-105306</v>
+        <v>-81456</v>
       </c>
       <c r="FG8" s="8">
         <v>3630</v>
       </c>
       <c r="FH8" s="8">
-        <v>2059144</v>
+        <v>1133122</v>
       </c>
       <c r="FI8" s="7">
-        <v>147645</v>
+        <v>66916</v>
       </c>
       <c r="FJ8" s="7">
-        <v>1559607</v>
+        <v>892339</v>
       </c>
       <c r="FK8" s="7">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="FP8" s="7">
-        <v>351892</v>
+        <v>173867</v>
       </c>
       <c r="FQ8" s="7">
         <v>0</v>
@@ -7205,30 +7205,30 @@
         <v>0</v>
       </c>
       <c r="FT8" s="8">
-        <v>359298</v>
+        <v>380781</v>
       </c>
       <c r="FU8" s="8">
         <v>0</v>
       </c>
       <c r="FV8" s="8">
-        <v>894526</v>
+        <v>779326</v>
       </c>
     </row>
     <row r="9" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="7">
-        <v>19927896</v>
+        <v>15687641</v>
       </c>
       <c r="C9" s="8">
-        <v>12556143</v>
+        <v>9760902</v>
       </c>
       <c r="D9" s="9">
-        <v>3892140</v>
+        <v>1946044</v>
       </c>
       <c r="E9" s="9">
-        <v>592794</v>
+        <v>1444227</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>165</v>
@@ -7252,31 +7252,31 @@
         <v>165</v>
       </c>
       <c r="M9" s="9">
-        <v>3417251</v>
+        <v>2747084</v>
       </c>
       <c r="N9" s="8">
-        <v>3417251</v>
+        <v>2747084</v>
       </c>
       <c r="O9" s="8">
         <v>0</v>
       </c>
       <c r="P9" s="9">
-        <v>3737529</v>
+        <v>2817129</v>
       </c>
       <c r="Q9" s="9">
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>339283</v>
+        <v>394839</v>
       </c>
       <c r="S9" s="8">
-        <v>339283</v>
+        <v>394839</v>
       </c>
       <c r="T9" s="9">
         <v>0</v>
       </c>
       <c r="U9" s="9">
-        <v>577146</v>
+        <v>411579</v>
       </c>
       <c r="V9" s="8">
         <v>0</v>
@@ -7285,13 +7285,13 @@
         <v>0</v>
       </c>
       <c r="X9" s="8">
-        <v>577146</v>
+        <v>411579</v>
       </c>
       <c r="Y9" s="8">
-        <v>7371753</v>
+        <v>5926739</v>
       </c>
       <c r="Z9" s="9">
-        <v>898045</v>
+        <v>597797</v>
       </c>
       <c r="AA9" s="8">
         <v>0</v>
@@ -7327,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="AL9" s="8">
-        <v>360390</v>
+        <v>182042</v>
       </c>
       <c r="AM9" s="7">
-        <v>360390</v>
+        <v>182042</v>
       </c>
       <c r="AN9" s="7">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="8">
-        <v>537655</v>
+        <v>415755</v>
       </c>
       <c r="AV9" s="7">
         <v>0</v>
@@ -7363,16 +7363,16 @@
         <v>0</v>
       </c>
       <c r="AX9" s="7">
-        <v>537655</v>
+        <v>415755</v>
       </c>
       <c r="AY9" s="9">
-        <v>1023</v>
+        <v>28012</v>
       </c>
       <c r="AZ9" s="8">
-        <v>1023</v>
+        <v>28012</v>
       </c>
       <c r="BA9" s="7">
-        <v>0</v>
+        <v>28007</v>
       </c>
       <c r="BB9" s="7">
         <v>0</v>
@@ -7381,55 +7381,55 @@
         <v>0</v>
       </c>
       <c r="BD9" s="7">
-        <v>1023</v>
+        <v>5</v>
       </c>
       <c r="BE9" s="8">
         <v>0</v>
       </c>
       <c r="BF9" s="9">
-        <v>4877210</v>
+        <v>3981184</v>
       </c>
       <c r="BG9" s="8">
-        <v>4598730</v>
+        <v>3776561</v>
       </c>
       <c r="BH9" s="8">
-        <v>278480</v>
+        <v>204623</v>
       </c>
       <c r="BI9" s="8">
         <v>0</v>
       </c>
       <c r="BJ9" s="9">
-        <v>1595475</v>
+        <v>1319746</v>
       </c>
       <c r="BK9" s="8">
-        <v>276765</v>
+        <v>201431</v>
       </c>
       <c r="BL9" s="7">
         <v>0</v>
       </c>
       <c r="BM9" s="7">
-        <v>276765</v>
+        <v>201431</v>
       </c>
       <c r="BN9" s="8">
-        <v>1318710</v>
+        <v>1118315</v>
       </c>
       <c r="BO9" s="7">
-        <v>19927896</v>
+        <v>15687641</v>
       </c>
       <c r="BP9" s="8">
-        <v>5882044</v>
+        <v>4491021</v>
       </c>
       <c r="BQ9" s="9">
-        <v>366790</v>
+        <v>287187</v>
       </c>
       <c r="BR9" s="8">
-        <v>366790</v>
+        <v>287187</v>
       </c>
       <c r="BS9" s="8">
         <v>0</v>
       </c>
       <c r="BT9" s="9">
-        <v>1249368</v>
+        <v>839879</v>
       </c>
       <c r="BU9" s="11" t="s">
         <v>165</v>
@@ -7438,16 +7438,16 @@
         <v>165</v>
       </c>
       <c r="BW9" s="9">
-        <v>240467</v>
+        <v>134510</v>
       </c>
       <c r="BX9" s="8">
-        <v>240467</v>
+        <v>134510</v>
       </c>
       <c r="BY9" s="7">
-        <v>111072</v>
+        <v>31578</v>
       </c>
       <c r="BZ9" s="7">
-        <v>129395</v>
+        <v>102932</v>
       </c>
       <c r="CA9" s="8">
         <v>0</v>
@@ -7456,16 +7456,16 @@
         <v>0</v>
       </c>
       <c r="CC9" s="9">
-        <v>642284</v>
+        <v>936370</v>
       </c>
       <c r="CD9" s="8">
-        <v>642284</v>
+        <v>936370</v>
       </c>
       <c r="CE9" s="7">
-        <v>12289</v>
+        <v>87566</v>
       </c>
       <c r="CF9" s="7">
-        <v>629995</v>
+        <v>848804</v>
       </c>
       <c r="CG9" s="8">
         <v>0</v>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="CI9" s="9">
-        <v>3383135</v>
+        <v>2293075</v>
       </c>
       <c r="CJ9" s="8">
         <v>0</v>
@@ -7492,10 +7492,10 @@
         <v>0</v>
       </c>
       <c r="CO9" s="8">
-        <v>3383135</v>
+        <v>2293075</v>
       </c>
       <c r="CP9" s="7">
-        <v>136007</v>
+        <v>145376</v>
       </c>
       <c r="CQ9" s="7">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="CS9" s="7">
-        <v>3247128</v>
+        <v>2147699</v>
       </c>
       <c r="CT9" s="9">
         <v>0</v>
@@ -7552,19 +7552,19 @@
         <v>0</v>
       </c>
       <c r="DI9" s="8">
-        <v>2115554</v>
+        <v>2266630</v>
       </c>
       <c r="DJ9" s="9">
-        <v>1044296</v>
+        <v>1348599</v>
       </c>
       <c r="DK9" s="8">
-        <v>1044296</v>
+        <v>1348599</v>
       </c>
       <c r="DL9" s="7">
-        <v>48193</v>
+        <v>107930</v>
       </c>
       <c r="DM9" s="7">
-        <v>996103</v>
+        <v>1240669</v>
       </c>
       <c r="DN9" s="8">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="DP9" s="9">
-        <v>388928</v>
+        <v>291310</v>
       </c>
       <c r="DQ9" s="8">
         <v>0</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="DV9" s="8">
-        <v>388928</v>
+        <v>291310</v>
       </c>
       <c r="DW9" s="7">
         <v>0</v>
@@ -7600,16 +7600,16 @@
         <v>0</v>
       </c>
       <c r="DY9" s="7">
-        <v>388928</v>
+        <v>291310</v>
       </c>
       <c r="DZ9" s="9">
-        <v>69625</v>
+        <v>75143</v>
       </c>
       <c r="EA9" s="8">
-        <v>69625</v>
+        <v>75143</v>
       </c>
       <c r="EB9" s="9">
-        <v>612705</v>
+        <v>551578</v>
       </c>
       <c r="EC9" s="11" t="s">
         <v>165</v>
@@ -7666,19 +7666,19 @@
         <v>0</v>
       </c>
       <c r="EU9" s="8">
-        <v>11930298</v>
+        <v>8929990</v>
       </c>
       <c r="EV9" s="9">
-        <v>367133</v>
+        <v>212743</v>
       </c>
       <c r="EW9" s="9">
-        <v>11563165</v>
+        <v>8717247</v>
       </c>
       <c r="EX9" s="8">
         <v>5504517</v>
       </c>
       <c r="EY9" s="8">
-        <v>-132242</v>
+        <v>-103868</v>
       </c>
       <c r="EZ9" s="7">
         <v>0</v>
@@ -7690,28 +7690,28 @@
         <v>0</v>
       </c>
       <c r="FC9" s="7">
-        <v>11512</v>
+        <v>12857</v>
       </c>
       <c r="FD9" s="7">
-        <v>-15779</v>
+        <v>-11419</v>
       </c>
       <c r="FE9" s="7">
         <v>0</v>
       </c>
       <c r="FF9" s="7">
-        <v>-127975</v>
+        <v>-105306</v>
       </c>
       <c r="FG9" s="8">
         <v>3630</v>
       </c>
       <c r="FH9" s="8">
-        <v>3512410</v>
+        <v>2059144</v>
       </c>
       <c r="FI9" s="7">
-        <v>264689</v>
+        <v>147645</v>
       </c>
       <c r="FJ9" s="7">
-        <v>2518254</v>
+        <v>1559607</v>
       </c>
       <c r="FK9" s="7">
         <v>0</v>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="FP9" s="7">
-        <v>729467</v>
+        <v>351892</v>
       </c>
       <c r="FQ9" s="7">
         <v>0</v>
@@ -7741,30 +7741,30 @@
         <v>0</v>
       </c>
       <c r="FT9" s="8">
-        <v>343843</v>
+        <v>359298</v>
       </c>
       <c r="FU9" s="8">
         <v>0</v>
       </c>
       <c r="FV9" s="8">
-        <v>2331007</v>
+        <v>894526</v>
       </c>
     </row>
     <row r="10" spans="1:178" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="7">
-        <v>23932787</v>
+        <v>19927896</v>
       </c>
       <c r="C10" s="8">
-        <v>15945946</v>
+        <v>12556143</v>
       </c>
       <c r="D10" s="9">
-        <v>2714427</v>
+        <v>3892140</v>
       </c>
       <c r="E10" s="9">
-        <v>502708</v>
+        <v>592794</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>165</v>
@@ -7788,31 +7788,31 @@
         <v>165</v>
       </c>
       <c r="M10" s="9">
-        <v>4317393</v>
+        <v>3417251</v>
       </c>
       <c r="N10" s="8">
-        <v>4317393</v>
+        <v>3417251</v>
       </c>
       <c r="O10" s="8">
         <v>0</v>
       </c>
       <c r="P10" s="9">
-        <v>6497048</v>
+        <v>3737529</v>
       </c>
       <c r="Q10" s="9">
         <v>0</v>
       </c>
       <c r="R10" s="9">
-        <v>890290</v>
+        <v>339283</v>
       </c>
       <c r="S10" s="8">
-        <v>890290</v>
+        <v>339283</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
       </c>
       <c r="U10" s="9">
-        <v>1024080</v>
+        <v>577146</v>
       </c>
       <c r="V10" s="8">
         <v>0</v>
@@ -7821,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="8">
-        <v>1024080</v>
+        <v>577146</v>
       </c>
       <c r="Y10" s="8">
-        <v>7986841</v>
+        <v>7371753</v>
       </c>
       <c r="Z10" s="9">
-        <v>930416</v>
+        <v>898045</v>
       </c>
       <c r="AA10" s="8">
         <v>0</v>
@@ -7863,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="8">
-        <v>421900</v>
+        <v>360390</v>
       </c>
       <c r="AM10" s="7">
-        <v>421900</v>
+        <v>360390</v>
       </c>
       <c r="AN10" s="7">
         <v>0</v>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="8">
-        <v>508516</v>
+        <v>537655</v>
       </c>
       <c r="AV10" s="7">
         <v>0</v>
@@ -7899,13 +7899,13 @@
         <v>0</v>
       </c>
       <c r="AX10" s="7">
-        <v>508516</v>
+        <v>537655</v>
       </c>
       <c r="AY10" s="9">
-        <v>1265</v>
+        <v>1023</v>
       </c>
       <c r="AZ10" s="8">
-        <v>1265</v>
+        <v>1023</v>
       </c>
       <c r="BA10" s="7">
         <v>0</v>
@@ -7917,55 +7917,55 @@
         <v>0</v>
       </c>
       <c r="BD10" s="7">
-        <v>1265</v>
+        <v>1023</v>
       </c>
       <c r="BE10" s="8">
         <v>0</v>
       </c>
       <c r="BF10" s="9">
-        <v>5504772</v>
+        <v>4877210</v>
       </c>
       <c r="BG10" s="8">
-        <v>5101051</v>
+        <v>4598730</v>
       </c>
       <c r="BH10" s="8">
-        <v>403721</v>
+        <v>278480</v>
       </c>
       <c r="BI10" s="8">
         <v>0</v>
       </c>
       <c r="BJ10" s="9">
-        <v>1550388</v>
+        <v>1595475</v>
       </c>
       <c r="BK10" s="8">
-        <v>188080</v>
+        <v>276765</v>
       </c>
       <c r="BL10" s="7">
         <v>0</v>
       </c>
       <c r="BM10" s="7">
-        <v>188080</v>
+        <v>276765</v>
       </c>
       <c r="BN10" s="8">
-        <v>1362308</v>
+        <v>1318710</v>
       </c>
       <c r="BO10" s="7">
-        <v>23932787</v>
+        <v>19927896</v>
       </c>
       <c r="BP10" s="8">
-        <v>7927884</v>
+        <v>5882044</v>
       </c>
       <c r="BQ10" s="9">
-        <v>388190</v>
+        <v>366790</v>
       </c>
       <c r="BR10" s="8">
-        <v>388190</v>
+        <v>366790</v>
       </c>
       <c r="BS10" s="8">
         <v>0</v>
       </c>
       <c r="BT10" s="9">
-        <v>2120338</v>
+        <v>1249368</v>
       </c>
       <c r="BU10" s="11" t="s">
         <v>165</v>
@@ -7974,16 +7974,16 @@
         <v>165</v>
       </c>
       <c r="BW10" s="9">
-        <v>279271</v>
+        <v>240467</v>
       </c>
       <c r="BX10" s="8">
-        <v>279271</v>
+        <v>240467</v>
       </c>
       <c r="BY10" s="7">
-        <v>129609</v>
+        <v>111072</v>
       </c>
       <c r="BZ10" s="7">
-        <v>149662</v>
+        <v>129395</v>
       </c>
       <c r="CA10" s="8">
         <v>0</v>
@@ -7992,16 +7992,16 @@
         <v>0</v>
       </c>
       <c r="CC10" s="9">
-        <v>1052044</v>
+        <v>642284</v>
       </c>
       <c r="CD10" s="8">
-        <v>1052044</v>
+        <v>642284</v>
       </c>
       <c r="CE10" s="7">
-        <v>7769</v>
+        <v>12289</v>
       </c>
       <c r="CF10" s="7">
-        <v>1044275</v>
+        <v>629995</v>
       </c>
       <c r="CG10" s="8">
         <v>0</v>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="CI10" s="9">
-        <v>4088041</v>
+        <v>3383135</v>
       </c>
       <c r="CJ10" s="8">
         <v>0</v>
@@ -8028,10 +8028,10 @@
         <v>0</v>
       </c>
       <c r="CO10" s="8">
-        <v>4088041</v>
+        <v>3383135</v>
       </c>
       <c r="CP10" s="7">
-        <v>195272</v>
+        <v>136007</v>
       </c>
       <c r="CQ10" s="7">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="CS10" s="7">
-        <v>3892769</v>
+        <v>3247128</v>
       </c>
       <c r="CT10" s="9">
         <v>0</v>
@@ -8088,19 +8088,19 @@
         <v>0</v>
       </c>
       <c r="DI10" s="8">
-        <v>1994231</v>
+        <v>2115554</v>
       </c>
       <c r="DJ10" s="9">
-        <v>737071</v>
+        <v>1044296</v>
       </c>
       <c r="DK10" s="8">
-        <v>737071</v>
+        <v>1044296</v>
       </c>
       <c r="DL10" s="7">
-        <v>35818</v>
+        <v>48193</v>
       </c>
       <c r="DM10" s="7">
-        <v>701253</v>
+        <v>996103</v>
       </c>
       <c r="DN10" s="8">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="DP10" s="9">
-        <v>542097</v>
+        <v>388928</v>
       </c>
       <c r="DQ10" s="8">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="DV10" s="8">
-        <v>542097</v>
+        <v>388928</v>
       </c>
       <c r="DW10" s="7">
         <v>0</v>
@@ -8136,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="DY10" s="7">
-        <v>542097</v>
+        <v>388928</v>
       </c>
       <c r="DZ10" s="9">
-        <v>71892</v>
+        <v>69625</v>
       </c>
       <c r="EA10" s="8">
-        <v>71892</v>
+        <v>69625</v>
       </c>
       <c r="EB10" s="9">
-        <v>643171</v>
+        <v>612705</v>
       </c>
       <c r="EC10" s="11" t="s">
         <v>165</v>
@@ -8202,87 +8202,623 @@
         <v>0</v>
       </c>
       <c r="EU10" s="8">
-        <v>14010672</v>
+        <v>11930298</v>
       </c>
       <c r="EV10" s="9">
-        <v>405701</v>
+        <v>367133</v>
       </c>
       <c r="EW10" s="9">
-        <v>13604971</v>
+        <v>11563165</v>
       </c>
       <c r="EX10" s="8">
         <v>5504517</v>
       </c>
       <c r="EY10" s="8">
+        <v>-132242</v>
+      </c>
+      <c r="EZ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FC10" s="7">
+        <v>11512</v>
+      </c>
+      <c r="FD10" s="7">
+        <v>-15779</v>
+      </c>
+      <c r="FE10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="7">
+        <v>-127975</v>
+      </c>
+      <c r="FG10" s="8">
+        <v>3630</v>
+      </c>
+      <c r="FH10" s="8">
+        <v>3512410</v>
+      </c>
+      <c r="FI10" s="7">
+        <v>264689</v>
+      </c>
+      <c r="FJ10" s="7">
+        <v>2518254</v>
+      </c>
+      <c r="FK10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FO10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="7">
+        <v>729467</v>
+      </c>
+      <c r="FQ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FR10" s="7">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="8">
+        <v>0</v>
+      </c>
+      <c r="FT10" s="8">
+        <v>343843</v>
+      </c>
+      <c r="FU10" s="8">
+        <v>0</v>
+      </c>
+      <c r="FV10" s="8">
+        <v>2331007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:178" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="7">
+        <v>23932787</v>
+      </c>
+      <c r="C11" s="8">
+        <v>15945946</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2714427</v>
+      </c>
+      <c r="E11" s="9">
+        <v>502708</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="9">
+        <v>4317393</v>
+      </c>
+      <c r="N11" s="8">
+        <v>4317393</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>6497048</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <v>890290</v>
+      </c>
+      <c r="S11" s="8">
+        <v>890290</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>1024080</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1024080</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>7986841</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>930416</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>421900</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>421900</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>508516</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>508516</v>
+      </c>
+      <c r="AY11" s="9">
+        <v>1265</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>1265</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="7">
+        <v>1265</v>
+      </c>
+      <c r="BE11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="9">
+        <v>5504772</v>
+      </c>
+      <c r="BG11" s="8">
+        <v>5101051</v>
+      </c>
+      <c r="BH11" s="8">
+        <v>403721</v>
+      </c>
+      <c r="BI11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="9">
+        <v>1550388</v>
+      </c>
+      <c r="BK11" s="8">
+        <v>188080</v>
+      </c>
+      <c r="BL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="7">
+        <v>188080</v>
+      </c>
+      <c r="BN11" s="8">
+        <v>1362308</v>
+      </c>
+      <c r="BO11" s="7">
+        <v>23932787</v>
+      </c>
+      <c r="BP11" s="8">
+        <v>7927884</v>
+      </c>
+      <c r="BQ11" s="9">
+        <v>388190</v>
+      </c>
+      <c r="BR11" s="8">
+        <v>388190</v>
+      </c>
+      <c r="BS11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="9">
+        <v>2120338</v>
+      </c>
+      <c r="BU11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BV11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW11" s="9">
+        <v>279271</v>
+      </c>
+      <c r="BX11" s="8">
+        <v>279271</v>
+      </c>
+      <c r="BY11" s="7">
+        <v>129609</v>
+      </c>
+      <c r="BZ11" s="7">
+        <v>149662</v>
+      </c>
+      <c r="CA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="9">
+        <v>1052044</v>
+      </c>
+      <c r="CD11" s="8">
+        <v>1052044</v>
+      </c>
+      <c r="CE11" s="7">
+        <v>7769</v>
+      </c>
+      <c r="CF11" s="7">
+        <v>1044275</v>
+      </c>
+      <c r="CG11" s="8">
+        <v>0</v>
+      </c>
+      <c r="CH11" s="8">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="9">
+        <v>4088041</v>
+      </c>
+      <c r="CJ11" s="8">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="8">
+        <v>4088041</v>
+      </c>
+      <c r="CP11" s="7">
+        <v>195272</v>
+      </c>
+      <c r="CQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CS11" s="7">
+        <v>3892769</v>
+      </c>
+      <c r="CT11" s="9">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="8">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="7">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="8">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="8">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="8">
+        <v>1994231</v>
+      </c>
+      <c r="DJ11" s="9">
+        <v>737071</v>
+      </c>
+      <c r="DK11" s="8">
+        <v>737071</v>
+      </c>
+      <c r="DL11" s="7">
+        <v>35818</v>
+      </c>
+      <c r="DM11" s="7">
+        <v>701253</v>
+      </c>
+      <c r="DN11" s="8">
+        <v>0</v>
+      </c>
+      <c r="DO11" s="8">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="9">
+        <v>542097</v>
+      </c>
+      <c r="DQ11" s="8">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DU11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DV11" s="8">
+        <v>542097</v>
+      </c>
+      <c r="DW11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DX11" s="7">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="7">
+        <v>542097</v>
+      </c>
+      <c r="DZ11" s="9">
+        <v>71892</v>
+      </c>
+      <c r="EA11" s="8">
+        <v>71892</v>
+      </c>
+      <c r="EB11" s="9">
+        <v>643171</v>
+      </c>
+      <c r="EC11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="ED11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EE11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EF11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EG11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EH11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EI11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="EJ11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EK11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EL11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EM11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="EN11" s="9">
+        <v>0</v>
+      </c>
+      <c r="EO11" s="8">
+        <v>0</v>
+      </c>
+      <c r="EP11" s="8">
+        <v>0</v>
+      </c>
+      <c r="EQ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="ER11" s="8">
+        <v>0</v>
+      </c>
+      <c r="ES11" s="8">
+        <v>0</v>
+      </c>
+      <c r="ET11" s="8">
+        <v>0</v>
+      </c>
+      <c r="EU11" s="8">
+        <v>14010672</v>
+      </c>
+      <c r="EV11" s="9">
+        <v>405701</v>
+      </c>
+      <c r="EW11" s="9">
+        <v>13604971</v>
+      </c>
+      <c r="EX11" s="8">
+        <v>5504517</v>
+      </c>
+      <c r="EY11" s="8">
         <v>-120840</v>
       </c>
-      <c r="EZ10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FA10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FB10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FC10" s="7">
+      <c r="EZ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FC11" s="7">
         <v>13567</v>
       </c>
-      <c r="FD10" s="7">
+      <c r="FD11" s="7">
         <v>-11216</v>
       </c>
-      <c r="FE10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FF10" s="7">
+      <c r="FE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FF11" s="7">
         <v>-123191</v>
       </c>
-      <c r="FG10" s="8">
+      <c r="FG11" s="8">
         <v>3631</v>
       </c>
-      <c r="FH10" s="8">
+      <c r="FH11" s="8">
         <v>5346602</v>
       </c>
-      <c r="FI10" s="7">
+      <c r="FI11" s="7">
         <v>443986</v>
       </c>
-      <c r="FJ10" s="7">
+      <c r="FJ11" s="7">
         <v>4041579</v>
       </c>
-      <c r="FK10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FL10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FM10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FN10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FO10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FP10" s="7">
+      <c r="FK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FO11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="7">
         <v>861037</v>
       </c>
-      <c r="FQ10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FR10" s="7">
-        <v>0</v>
-      </c>
-      <c r="FS10" s="8">
-        <v>0</v>
-      </c>
-      <c r="FT10" s="8">
+      <c r="FQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="8">
+        <v>0</v>
+      </c>
+      <c r="FT11" s="8">
         <v>322893</v>
       </c>
-      <c r="FU10" s="8">
-        <v>0</v>
-      </c>
-      <c r="FV10" s="8">
+      <c r="FU11" s="8">
+        <v>0</v>
+      </c>
+      <c r="FV11" s="8">
         <v>2548168</v>
       </c>
     </row>
@@ -8293,10 +8829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E89F8-68A7-48B2-83BC-963650875B5E}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8416,70 +8952,70 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="7">
-        <v>6828896</v>
+        <v>6173878</v>
       </c>
       <c r="C2" s="7">
-        <v>4592130</v>
+        <v>4293022</v>
       </c>
       <c r="D2" s="7">
-        <v>2236766</v>
+        <v>1880856</v>
       </c>
       <c r="E2" s="7">
-        <v>1225013</v>
+        <v>1072445</v>
       </c>
       <c r="F2" s="8">
-        <v>716358</v>
+        <v>619980</v>
       </c>
       <c r="G2" s="8">
-        <v>328863</v>
+        <v>307202</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <v>16431</v>
+        <v>18593</v>
       </c>
       <c r="J2" s="8">
-        <v>196223</v>
+        <v>163856</v>
       </c>
       <c r="K2" s="8">
         <v>0</v>
       </c>
       <c r="L2" s="15">
-        <v>1230032</v>
+        <v>1016748</v>
       </c>
       <c r="M2" s="9">
-        <v>218279</v>
+        <v>208337</v>
       </c>
       <c r="N2" s="7">
-        <v>1011753</v>
+        <v>808411</v>
       </c>
       <c r="O2" s="7">
-        <v>73126</v>
+        <v>55691</v>
       </c>
       <c r="P2" s="8">
-        <v>599974</v>
+        <v>460420</v>
       </c>
       <c r="Q2" s="8">
-        <v>526848</v>
+        <v>404729</v>
       </c>
       <c r="R2" s="7">
-        <v>1084879</v>
+        <v>864102</v>
       </c>
       <c r="S2" s="7">
-        <v>239575</v>
+        <v>199238</v>
       </c>
       <c r="T2" s="8">
-        <v>274859</v>
+        <v>228859</v>
       </c>
       <c r="U2" s="8">
-        <v>-35284</v>
+        <v>-29621</v>
       </c>
       <c r="V2" s="7">
-        <v>845304</v>
+        <v>664864</v>
       </c>
       <c r="W2" s="7">
         <v>0</v>
@@ -8491,81 +9027,81 @@
         <v>0</v>
       </c>
       <c r="Z2" s="7">
-        <v>845304</v>
+        <v>664864</v>
       </c>
       <c r="AA2" s="7">
-        <v>1837</v>
+        <v>8885</v>
       </c>
       <c r="AB2" s="7">
-        <v>843467</v>
+        <v>655979</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B3" s="7">
-        <v>7840757</v>
+        <v>6828896</v>
       </c>
       <c r="C3" s="7">
-        <v>5356260</v>
+        <v>4592130</v>
       </c>
       <c r="D3" s="7">
-        <v>2484497</v>
+        <v>2236766</v>
       </c>
       <c r="E3" s="7">
-        <v>1390145</v>
+        <v>1225013</v>
       </c>
       <c r="F3" s="8">
-        <v>820471</v>
+        <v>716358</v>
       </c>
       <c r="G3" s="8">
-        <v>386112</v>
+        <v>328863</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <v>15902</v>
+        <v>16431</v>
       </c>
       <c r="J3" s="8">
-        <v>199464</v>
+        <v>196223</v>
       </c>
       <c r="K3" s="8">
         <v>0</v>
       </c>
       <c r="L3" s="15">
-        <v>1344829</v>
+        <v>1230032</v>
       </c>
       <c r="M3" s="9">
-        <v>250477</v>
+        <v>218279</v>
       </c>
       <c r="N3" s="7">
-        <v>1094352</v>
+        <v>1011753</v>
       </c>
       <c r="O3" s="7">
-        <v>133577</v>
+        <v>73126</v>
       </c>
       <c r="P3" s="8">
-        <v>785503</v>
+        <v>599974</v>
       </c>
       <c r="Q3" s="8">
-        <v>651926</v>
+        <v>526848</v>
       </c>
       <c r="R3" s="7">
-        <v>1227929</v>
+        <v>1084879</v>
       </c>
       <c r="S3" s="7">
-        <v>265613</v>
+        <v>239575</v>
       </c>
       <c r="T3" s="8">
-        <v>271583</v>
+        <v>274859</v>
       </c>
       <c r="U3" s="8">
-        <v>-5970</v>
+        <v>-35284</v>
       </c>
       <c r="V3" s="7">
-        <v>962316</v>
+        <v>845304</v>
       </c>
       <c r="W3" s="7">
         <v>0</v>
@@ -8577,81 +9113,81 @@
         <v>0</v>
       </c>
       <c r="Z3" s="7">
-        <v>962316</v>
+        <v>845304</v>
       </c>
       <c r="AA3" s="7">
-        <v>7590</v>
+        <v>1837</v>
       </c>
       <c r="AB3" s="7">
-        <v>954726</v>
+        <v>843467</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="7">
-        <v>9760323</v>
+        <v>7840757</v>
       </c>
       <c r="C4" s="7">
-        <v>6994735</v>
+        <v>5356260</v>
       </c>
       <c r="D4" s="7">
-        <v>2765588</v>
+        <v>2484497</v>
       </c>
       <c r="E4" s="7">
-        <v>1607343</v>
+        <v>1390145</v>
       </c>
       <c r="F4" s="8">
-        <v>950252</v>
+        <v>820471</v>
       </c>
       <c r="G4" s="8">
-        <v>458953</v>
+        <v>386112</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>28351</v>
+        <v>15902</v>
       </c>
       <c r="J4" s="8">
-        <v>226489</v>
+        <v>199464</v>
       </c>
       <c r="K4" s="8">
         <v>0</v>
       </c>
       <c r="L4" s="15">
-        <v>1477603</v>
+        <v>1344829</v>
       </c>
       <c r="M4" s="9">
-        <v>319358</v>
+        <v>250477</v>
       </c>
       <c r="N4" s="7">
-        <v>1158245</v>
+        <v>1094352</v>
       </c>
       <c r="O4" s="7">
-        <v>145483</v>
+        <v>133577</v>
       </c>
       <c r="P4" s="8">
-        <v>1345633</v>
+        <v>785503</v>
       </c>
       <c r="Q4" s="8">
-        <v>1200150</v>
+        <v>651926</v>
       </c>
       <c r="R4" s="7">
-        <v>1303728</v>
+        <v>1227929</v>
       </c>
       <c r="S4" s="7">
-        <v>137918</v>
+        <v>265613</v>
       </c>
       <c r="T4" s="8">
-        <v>234116</v>
+        <v>271583</v>
       </c>
       <c r="U4" s="8">
-        <v>-96198</v>
+        <v>-5970</v>
       </c>
       <c r="V4" s="7">
-        <v>1165810</v>
+        <v>962316</v>
       </c>
       <c r="W4" s="7">
         <v>0</v>
@@ -8663,81 +9199,81 @@
         <v>0</v>
       </c>
       <c r="Z4" s="7">
-        <v>1165810</v>
+        <v>962316</v>
       </c>
       <c r="AA4" s="7">
-        <v>9745</v>
+        <v>7590</v>
       </c>
       <c r="AB4" s="7">
-        <v>1156065</v>
+        <v>954726</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="7">
-        <v>9367008</v>
+        <v>9760323</v>
       </c>
       <c r="C5" s="7">
-        <v>6731229</v>
+        <v>6994735</v>
       </c>
       <c r="D5" s="7">
-        <v>2635779</v>
+        <v>2765588</v>
       </c>
       <c r="E5" s="7">
-        <v>1572105</v>
+        <v>1607343</v>
       </c>
       <c r="F5" s="8">
-        <v>924999</v>
+        <v>950252</v>
       </c>
       <c r="G5" s="8">
-        <v>465383</v>
+        <v>458953</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>15526</v>
+        <v>28351</v>
       </c>
       <c r="J5" s="8">
-        <v>197249</v>
+        <v>226489</v>
       </c>
       <c r="K5" s="8">
         <v>0</v>
       </c>
       <c r="L5" s="15">
-        <v>1406931</v>
+        <v>1477603</v>
       </c>
       <c r="M5" s="9">
-        <v>343257</v>
+        <v>319358</v>
       </c>
       <c r="N5" s="7">
-        <v>1063674</v>
+        <v>1158245</v>
       </c>
       <c r="O5" s="7">
-        <v>215840</v>
+        <v>145483</v>
       </c>
       <c r="P5" s="8">
-        <v>816087</v>
+        <v>1345633</v>
       </c>
       <c r="Q5" s="8">
-        <v>600247</v>
+        <v>1200150</v>
       </c>
       <c r="R5" s="7">
-        <v>1279514</v>
+        <v>1303728</v>
       </c>
       <c r="S5" s="7">
-        <v>151682</v>
+        <v>137918</v>
       </c>
       <c r="T5" s="8">
-        <v>245415</v>
+        <v>234116</v>
       </c>
       <c r="U5" s="8">
-        <v>-93733</v>
+        <v>-96198</v>
       </c>
       <c r="V5" s="7">
-        <v>1127832</v>
+        <v>1165810</v>
       </c>
       <c r="W5" s="7">
         <v>0</v>
@@ -8749,81 +9285,81 @@
         <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <v>1127832</v>
+        <v>1165810</v>
       </c>
       <c r="AA5" s="7">
-        <v>10208</v>
+        <v>9745</v>
       </c>
       <c r="AB5" s="7">
-        <v>1117624</v>
+        <v>1156065</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="7">
-        <v>9523830</v>
+        <v>9367008</v>
       </c>
       <c r="C6" s="7">
-        <v>6765383</v>
+        <v>6731229</v>
       </c>
       <c r="D6" s="7">
-        <v>2758447</v>
+        <v>2635779</v>
       </c>
       <c r="E6" s="7">
-        <v>1576035</v>
+        <v>1572105</v>
       </c>
       <c r="F6" s="8">
-        <v>894353</v>
+        <v>924999</v>
       </c>
       <c r="G6" s="8">
-        <v>488681</v>
+        <v>465383</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>23205</v>
+        <v>15526</v>
       </c>
       <c r="J6" s="8">
-        <v>216206</v>
+        <v>197249</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6" s="15">
-        <v>1466287</v>
+        <v>1406931</v>
       </c>
       <c r="M6" s="9">
-        <v>283875</v>
+        <v>343257</v>
       </c>
       <c r="N6" s="7">
-        <v>1182412</v>
+        <v>1063674</v>
       </c>
       <c r="O6" s="7">
-        <v>58036</v>
+        <v>215840</v>
       </c>
       <c r="P6" s="8">
-        <v>851852</v>
+        <v>816087</v>
       </c>
       <c r="Q6" s="8">
-        <v>793816</v>
+        <v>600247</v>
       </c>
       <c r="R6" s="7">
-        <v>1240448</v>
+        <v>1279514</v>
       </c>
       <c r="S6" s="7">
-        <v>99506</v>
+        <v>151682</v>
       </c>
       <c r="T6" s="8">
-        <v>167681</v>
+        <v>245415</v>
       </c>
       <c r="U6" s="8">
-        <v>-68175</v>
+        <v>-93733</v>
       </c>
       <c r="V6" s="7">
-        <v>1140942</v>
+        <v>1127832</v>
       </c>
       <c r="W6" s="7">
         <v>0</v>
@@ -8835,81 +9371,81 @@
         <v>0</v>
       </c>
       <c r="Z6" s="7">
-        <v>1140942</v>
+        <v>1127832</v>
       </c>
       <c r="AA6" s="7">
-        <v>-1207</v>
+        <v>10208</v>
       </c>
       <c r="AB6" s="7">
-        <v>1142149</v>
+        <v>1117624</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="7">
-        <v>11970090</v>
+        <v>9523830</v>
       </c>
       <c r="C7" s="7">
-        <v>8500816</v>
+        <v>6765383</v>
       </c>
       <c r="D7" s="7">
-        <v>3469274</v>
+        <v>2758447</v>
       </c>
       <c r="E7" s="7">
-        <v>1962243</v>
+        <v>1576035</v>
       </c>
       <c r="F7" s="8">
-        <v>1139413</v>
+        <v>894353</v>
       </c>
       <c r="G7" s="8">
-        <v>566631</v>
+        <v>488681</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>22656</v>
+        <v>23205</v>
       </c>
       <c r="J7" s="8">
-        <v>282284</v>
+        <v>216206</v>
       </c>
       <c r="K7" s="8">
-        <v>3429</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
-        <v>1824054</v>
+        <v>1466287</v>
       </c>
       <c r="M7" s="9">
-        <v>317023</v>
+        <v>283875</v>
       </c>
       <c r="N7" s="7">
-        <v>1507031</v>
+        <v>1182412</v>
       </c>
       <c r="O7" s="7">
-        <v>-9489</v>
+        <v>58036</v>
       </c>
       <c r="P7" s="8">
-        <v>877674</v>
+        <v>851852</v>
       </c>
       <c r="Q7" s="8">
-        <v>887163</v>
+        <v>793816</v>
       </c>
       <c r="R7" s="7">
-        <v>1497542</v>
+        <v>1240448</v>
       </c>
       <c r="S7" s="7">
-        <v>153394</v>
+        <v>99506</v>
       </c>
       <c r="T7" s="8">
-        <v>188185</v>
+        <v>167681</v>
       </c>
       <c r="U7" s="8">
-        <v>-34791</v>
+        <v>-68175</v>
       </c>
       <c r="V7" s="7">
-        <v>1344148</v>
+        <v>1140942</v>
       </c>
       <c r="W7" s="7">
         <v>0</v>
@@ -8921,81 +9457,81 @@
         <v>0</v>
       </c>
       <c r="Z7" s="7">
-        <v>1344148</v>
+        <v>1140942</v>
       </c>
       <c r="AA7" s="7">
-        <v>5829</v>
+        <v>-1207</v>
       </c>
       <c r="AB7" s="7">
-        <v>1338319</v>
+        <v>1142149</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="7">
-        <v>13347434</v>
+        <v>11970090</v>
       </c>
       <c r="C8" s="7">
-        <v>9394166</v>
+        <v>8500816</v>
       </c>
       <c r="D8" s="7">
-        <v>3953268</v>
+        <v>3469274</v>
       </c>
       <c r="E8" s="7">
-        <v>2105534</v>
+        <v>1962243</v>
       </c>
       <c r="F8" s="8">
-        <v>1253165</v>
+        <v>1139413</v>
       </c>
       <c r="G8" s="8">
-        <v>548407</v>
+        <v>566631</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>30278</v>
+        <v>22656</v>
       </c>
       <c r="J8" s="8">
-        <v>344675</v>
+        <v>282284</v>
       </c>
       <c r="K8" s="8">
-        <v>10435</v>
+        <v>3429</v>
       </c>
       <c r="L8" s="15">
-        <v>2244517</v>
+        <v>1824054</v>
       </c>
       <c r="M8" s="9">
-        <v>396783</v>
+        <v>317023</v>
       </c>
       <c r="N8" s="7">
-        <v>1847734</v>
+        <v>1507031</v>
       </c>
       <c r="O8" s="7">
-        <v>-43283</v>
+        <v>-9489</v>
       </c>
       <c r="P8" s="8">
-        <v>917382</v>
+        <v>877674</v>
       </c>
       <c r="Q8" s="8">
-        <v>960665</v>
+        <v>887163</v>
       </c>
       <c r="R8" s="7">
-        <v>1804451</v>
+        <v>1497542</v>
       </c>
       <c r="S8" s="7">
-        <v>171996</v>
+        <v>153394</v>
       </c>
       <c r="T8" s="8">
-        <v>217098</v>
+        <v>188185</v>
       </c>
       <c r="U8" s="8">
-        <v>-45102</v>
+        <v>-34791</v>
       </c>
       <c r="V8" s="7">
-        <v>1632455</v>
+        <v>1344148</v>
       </c>
       <c r="W8" s="7">
         <v>0</v>
@@ -9007,81 +9543,81 @@
         <v>0</v>
       </c>
       <c r="Z8" s="7">
-        <v>1632455</v>
+        <v>1344148</v>
       </c>
       <c r="AA8" s="7">
-        <v>17874</v>
+        <v>5829</v>
       </c>
       <c r="AB8" s="7">
-        <v>1614581</v>
+        <v>1338319</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="7">
-        <v>17469557</v>
+        <v>13347434</v>
       </c>
       <c r="C9" s="7">
-        <v>12032050</v>
+        <v>9394166</v>
       </c>
       <c r="D9" s="7">
-        <v>5437507</v>
+        <v>3953268</v>
       </c>
       <c r="E9" s="7">
-        <v>2621183</v>
+        <v>2105534</v>
       </c>
       <c r="F9" s="8">
-        <v>1506817</v>
+        <v>1253165</v>
       </c>
       <c r="G9" s="8">
-        <v>654469</v>
+        <v>548407</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>46369</v>
+        <v>30278</v>
       </c>
       <c r="J9" s="8">
-        <v>510136</v>
+        <v>344675</v>
       </c>
       <c r="K9" s="8">
-        <v>3870</v>
+        <v>10435</v>
       </c>
       <c r="L9" s="15">
-        <v>3267683</v>
+        <v>2244517</v>
       </c>
       <c r="M9" s="9">
-        <v>451359</v>
+        <v>396783</v>
       </c>
       <c r="N9" s="7">
-        <v>2816324</v>
+        <v>1847734</v>
       </c>
       <c r="O9" s="7">
-        <v>-69675</v>
+        <v>-43283</v>
       </c>
       <c r="P9" s="8">
-        <v>1020426</v>
+        <v>917382</v>
       </c>
       <c r="Q9" s="8">
-        <v>1090101</v>
+        <v>960665</v>
       </c>
       <c r="R9" s="7">
-        <v>2746649</v>
+        <v>1804451</v>
       </c>
       <c r="S9" s="7">
-        <v>350692</v>
+        <v>171996</v>
       </c>
       <c r="T9" s="8">
-        <v>500450</v>
+        <v>217098</v>
       </c>
       <c r="U9" s="8">
-        <v>-149758</v>
+        <v>-45102</v>
       </c>
       <c r="V9" s="7">
-        <v>2395957</v>
+        <v>1632455</v>
       </c>
       <c r="W9" s="7">
         <v>0</v>
@@ -9093,104 +9629,186 @@
         <v>0</v>
       </c>
       <c r="Z9" s="7">
-        <v>2395957</v>
+        <v>1632455</v>
       </c>
       <c r="AA9" s="7">
-        <v>55084</v>
+        <v>17874</v>
       </c>
       <c r="AB9" s="7">
-        <v>2340873</v>
+        <v>1614581</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="7">
+        <v>17469557</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12032050</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5437507</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2621183</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1506817</v>
+      </c>
+      <c r="G10" s="8">
+        <v>654469</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>46369</v>
+      </c>
+      <c r="J10" s="8">
+        <v>510136</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3870</v>
+      </c>
+      <c r="L10" s="15">
+        <v>3267683</v>
+      </c>
+      <c r="M10" s="9">
+        <v>451359</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2816324</v>
+      </c>
+      <c r="O10" s="7">
+        <v>-69675</v>
+      </c>
+      <c r="P10" s="8">
+        <v>1020426</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>1090101</v>
+      </c>
+      <c r="R10" s="7">
+        <v>2746649</v>
+      </c>
+      <c r="S10" s="7">
+        <v>350692</v>
+      </c>
+      <c r="T10" s="8">
+        <v>500450</v>
+      </c>
+      <c r="U10" s="8">
+        <v>-149758</v>
+      </c>
+      <c r="V10" s="7">
+        <v>2395957</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>2395957</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>55084</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>2340873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>2021</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>23563338</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>16602381</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>6960957</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>2802614</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F11" s="8">
         <v>1833204</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>776007</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
         <v>422154</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <v>615557</v>
       </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15">
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <v>4678521</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="9">
         <v>520178</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="7">
         <v>4158343</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O11" s="7">
         <v>171693</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P11" s="8">
         <v>992739</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q11" s="8">
         <v>821046</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R11" s="7">
         <v>4330036</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S11" s="7">
         <v>672556</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T11" s="8">
         <v>693854</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U11" s="8">
         <v>-21298</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V11" s="7">
         <v>3657480</v>
       </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7">
         <v>3657480</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA11" s="7">
         <v>71533</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB11" s="7">
         <v>3585947</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G13" s="13"/>
@@ -9227,6 +9845,10 @@
     <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9235,10 +9857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2B5FB-D3F3-422F-B461-99BDDE1AF3E1}">
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9:Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9412,28 +10034,28 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B2" s="7">
-        <v>1027434</v>
+        <v>893566</v>
       </c>
       <c r="C2" s="8">
-        <v>1656597</v>
+        <v>1181424</v>
       </c>
       <c r="D2" s="9">
-        <v>1084879</v>
+        <v>864102</v>
       </c>
       <c r="E2" s="9">
-        <v>218279</v>
+        <v>208337</v>
       </c>
       <c r="F2" s="9">
-        <v>138564</v>
+        <v>0</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <v>15052</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9">
         <v>0</v>
@@ -9445,16 +10067,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="9">
-        <v>199823</v>
+        <v>108985</v>
       </c>
       <c r="M2" s="8">
-        <v>-655083</v>
+        <v>-354559</v>
       </c>
       <c r="N2" s="9">
-        <v>-299506</v>
+        <v>-324344</v>
       </c>
       <c r="O2" s="9">
-        <v>-146049</v>
+        <v>92326</v>
       </c>
       <c r="P2" s="9">
         <v>0</v>
@@ -9463,68 +10085,67 @@
         <v>0</v>
       </c>
       <c r="R2" s="9">
-        <v>-396937</v>
+        <v>-310086</v>
       </c>
       <c r="S2" s="9">
-        <v>187409</v>
+        <v>187545</v>
       </c>
       <c r="T2" s="8">
-        <v>25920</v>
+        <v>66701</v>
       </c>
       <c r="U2" s="7">
-        <v>54758</v>
+        <v>-381567</v>
       </c>
       <c r="V2" s="7">
-        <f>X2+(Y2)</f>
-        <v>-292079</v>
+        <v>-500274</v>
       </c>
       <c r="W2" s="8">
-        <v>-290049</v>
+        <v>-477447</v>
       </c>
       <c r="X2" s="9">
-        <v>-11437</v>
+        <v>-244453</v>
       </c>
       <c r="Y2" s="9">
-        <v>-280642</v>
+        <v>-255821</v>
       </c>
       <c r="Z2" s="9">
-        <v>2030</v>
+        <v>22827</v>
       </c>
       <c r="AA2" s="8">
         <v>0</v>
       </c>
       <c r="AB2" s="8">
-        <v>261046</v>
+        <v>17359</v>
       </c>
       <c r="AC2" s="8">
-        <v>83761</v>
+        <v>78521</v>
       </c>
       <c r="AD2" s="7">
-        <v>-10649</v>
+        <v>-1141358</v>
       </c>
       <c r="AE2" s="8">
-        <v>380600</v>
+        <v>-770846</v>
       </c>
       <c r="AF2" s="9">
-        <v>1890267</v>
+        <v>982720</v>
       </c>
       <c r="AG2" s="9">
-        <v>-1509667</v>
+        <v>-1753566</v>
       </c>
       <c r="AH2" s="8">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="9">
-        <v>738</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="9">
         <v>0</v>
       </c>
       <c r="AK2" s="8">
-        <v>-391987</v>
+        <v>-318422</v>
       </c>
       <c r="AL2" s="8">
-        <v>0</v>
+        <v>-52090</v>
       </c>
       <c r="AM2" s="7">
         <v>0</v>
@@ -9533,33 +10154,33 @@
         <v>0</v>
       </c>
       <c r="AO2" s="7">
-        <v>1071543</v>
+        <v>-629359</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B3" s="7">
-        <v>1147520</v>
+        <v>1027434</v>
       </c>
       <c r="C3" s="8">
-        <v>1860652</v>
+        <v>1656597</v>
       </c>
       <c r="D3" s="9">
-        <v>1227929</v>
+        <v>1084879</v>
       </c>
       <c r="E3" s="9">
-        <v>250477</v>
+        <v>218279</v>
       </c>
       <c r="F3" s="9">
-        <v>146296</v>
+        <v>138564</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <v>2541</v>
+        <v>15052</v>
       </c>
       <c r="I3" s="9">
         <v>0</v>
@@ -9571,16 +10192,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="9">
-        <v>233409</v>
+        <v>199823</v>
       </c>
       <c r="M3" s="8">
-        <v>-726524</v>
+        <v>-655083</v>
       </c>
       <c r="N3" s="9">
-        <v>-199394</v>
+        <v>-299506</v>
       </c>
       <c r="O3" s="9">
-        <v>-237825</v>
+        <v>-146049</v>
       </c>
       <c r="P3" s="9">
         <v>0</v>
@@ -9589,65 +10210,64 @@
         <v>0</v>
       </c>
       <c r="R3" s="9">
-        <v>-445390</v>
+        <v>-396937</v>
       </c>
       <c r="S3" s="9">
-        <v>156085</v>
+        <v>187409</v>
       </c>
       <c r="T3" s="8">
-        <v>13392</v>
+        <v>25920</v>
       </c>
       <c r="U3" s="7">
-        <v>-1389830</v>
+        <v>54758</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V10" si="0">X3+(Y3)</f>
-        <v>-613764</v>
+        <v>-292079</v>
       </c>
       <c r="W3" s="8">
-        <v>-601409</v>
+        <v>-290049</v>
       </c>
       <c r="X3" s="9">
-        <v>-145169</v>
+        <v>-11437</v>
       </c>
       <c r="Y3" s="9">
-        <v>-468595</v>
+        <v>-280642</v>
       </c>
       <c r="Z3" s="9">
-        <v>12355</v>
+        <v>2030</v>
       </c>
       <c r="AA3" s="8">
         <v>0</v>
       </c>
       <c r="AB3" s="8">
-        <v>-849057</v>
+        <v>261046</v>
       </c>
       <c r="AC3" s="8">
-        <v>60636</v>
+        <v>83761</v>
       </c>
       <c r="AD3" s="7">
-        <v>196526</v>
+        <v>-10649</v>
       </c>
       <c r="AE3" s="8">
-        <v>654938</v>
+        <v>380600</v>
       </c>
       <c r="AF3" s="9">
-        <v>1517761</v>
+        <v>1890267</v>
       </c>
       <c r="AG3" s="9">
-        <v>-862823</v>
+        <v>-1509667</v>
       </c>
       <c r="AH3" s="8">
-        <v>1104</v>
+        <v>738</v>
       </c>
       <c r="AI3" s="9">
-        <v>1104</v>
+        <v>738</v>
       </c>
       <c r="AJ3" s="9">
         <v>0</v>
       </c>
       <c r="AK3" s="8">
-        <v>-459516</v>
+        <v>-391987</v>
       </c>
       <c r="AL3" s="8">
         <v>0</v>
@@ -9659,33 +10279,33 @@
         <v>0</v>
       </c>
       <c r="AO3" s="7">
-        <v>-45784</v>
+        <v>1071543</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B4" s="7">
-        <v>982442</v>
+        <v>1147520</v>
       </c>
       <c r="C4" s="8">
-        <v>2140082</v>
+        <v>1860652</v>
       </c>
       <c r="D4" s="9">
-        <v>1303728</v>
+        <v>1227929</v>
       </c>
       <c r="E4" s="9">
-        <v>319358</v>
+        <v>250477</v>
       </c>
       <c r="F4" s="9">
-        <v>149774</v>
+        <v>146296</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>5655</v>
+        <v>2541</v>
       </c>
       <c r="I4" s="9">
         <v>0</v>
@@ -9697,16 +10317,16 @@
         <v>0</v>
       </c>
       <c r="L4" s="9">
-        <v>361567</v>
+        <v>233409</v>
       </c>
       <c r="M4" s="8">
-        <v>-1202117</v>
+        <v>-726524</v>
       </c>
       <c r="N4" s="9">
-        <v>-651516</v>
+        <v>-199394</v>
       </c>
       <c r="O4" s="9">
-        <v>-67035</v>
+        <v>-237825</v>
       </c>
       <c r="P4" s="9">
         <v>0</v>
@@ -9715,103 +10335,102 @@
         <v>0</v>
       </c>
       <c r="R4" s="9">
-        <v>-459869</v>
+        <v>-445390</v>
       </c>
       <c r="S4" s="9">
-        <v>-23697</v>
+        <v>156085</v>
       </c>
       <c r="T4" s="8">
-        <v>44477</v>
+        <v>13392</v>
       </c>
       <c r="U4" s="7">
-        <v>-903966</v>
+        <v>-1389830</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" si="0"/>
-        <v>-636746</v>
+        <v>-613764</v>
       </c>
       <c r="W4" s="8">
-        <v>-618576</v>
+        <v>-601409</v>
       </c>
       <c r="X4" s="9">
-        <v>-129678</v>
+        <v>-145169</v>
       </c>
       <c r="Y4" s="9">
-        <v>-507068</v>
+        <v>-468595</v>
       </c>
       <c r="Z4" s="9">
-        <v>18170</v>
+        <v>12355</v>
       </c>
       <c r="AA4" s="8">
         <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <v>-285390</v>
+        <v>-849057</v>
       </c>
       <c r="AC4" s="8">
-        <v>0</v>
+        <v>60636</v>
       </c>
       <c r="AD4" s="7">
-        <v>-157581</v>
+        <v>196526</v>
       </c>
       <c r="AE4" s="8">
-        <v>370965</v>
+        <v>654938</v>
       </c>
       <c r="AF4" s="9">
-        <v>2598115</v>
+        <v>1517761</v>
       </c>
       <c r="AG4" s="9">
-        <v>-2227150</v>
+        <v>-862823</v>
       </c>
       <c r="AH4" s="8">
-        <v>-8651</v>
+        <v>1104</v>
       </c>
       <c r="AI4" s="9">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="AJ4" s="9">
-        <v>-8651</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="8">
-        <v>-519895</v>
+        <v>-459516</v>
       </c>
       <c r="AL4" s="8">
         <v>0</v>
       </c>
       <c r="AM4" s="7">
-        <v>71945</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="7">
         <v>0</v>
       </c>
       <c r="AO4" s="7">
-        <v>-7160</v>
+        <v>-45784</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="7">
-        <v>2130912</v>
+        <v>982442</v>
       </c>
       <c r="C5" s="8">
-        <v>2089478</v>
+        <v>2140082</v>
       </c>
       <c r="D5" s="9">
-        <v>1279514</v>
+        <v>1303728</v>
       </c>
       <c r="E5" s="9">
-        <v>343257</v>
+        <v>319358</v>
       </c>
       <c r="F5" s="9">
-        <v>191238</v>
+        <v>149774</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>3962</v>
+        <v>5655</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
@@ -9823,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>271507</v>
+        <v>361567</v>
       </c>
       <c r="M5" s="8">
-        <v>151470</v>
+        <v>-1202117</v>
       </c>
       <c r="N5" s="9">
-        <v>89449</v>
+        <v>-651516</v>
       </c>
       <c r="O5" s="9">
-        <v>276537</v>
+        <v>-67035</v>
       </c>
       <c r="P5" s="9">
         <v>0</v>
@@ -9841,103 +10460,102 @@
         <v>0</v>
       </c>
       <c r="R5" s="9">
-        <v>-434226</v>
+        <v>-459869</v>
       </c>
       <c r="S5" s="9">
-        <v>219710</v>
+        <v>-23697</v>
       </c>
       <c r="T5" s="8">
-        <v>-110036</v>
+        <v>44477</v>
       </c>
       <c r="U5" s="7">
-        <v>-852730</v>
+        <v>-903966</v>
       </c>
       <c r="V5" s="7">
-        <f t="shared" si="0"/>
-        <v>-654926</v>
+        <v>-636746</v>
       </c>
       <c r="W5" s="8">
-        <v>-641315</v>
+        <v>-618576</v>
       </c>
       <c r="X5" s="9">
-        <v>-292301</v>
+        <v>-129678</v>
       </c>
       <c r="Y5" s="9">
-        <v>-362625</v>
+        <v>-507068</v>
       </c>
       <c r="Z5" s="9">
-        <v>13611</v>
+        <v>18170</v>
       </c>
       <c r="AA5" s="8">
         <v>0</v>
       </c>
       <c r="AB5" s="8">
-        <v>-215429</v>
+        <v>-285390</v>
       </c>
       <c r="AC5" s="8">
-        <v>4014</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7">
-        <v>-1063919</v>
+        <v>-157581</v>
       </c>
       <c r="AE5" s="8">
-        <v>-542334</v>
+        <v>370965</v>
       </c>
       <c r="AF5" s="9">
-        <v>1142860</v>
+        <v>2598115</v>
       </c>
       <c r="AG5" s="9">
-        <v>-1685194</v>
+        <v>-2227150</v>
       </c>
       <c r="AH5" s="8">
-        <v>5145</v>
+        <v>-8651</v>
       </c>
       <c r="AI5" s="9">
-        <v>5145</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="9">
-        <v>0</v>
+        <v>-8651</v>
       </c>
       <c r="AK5" s="8">
-        <v>-526730</v>
+        <v>-519895</v>
       </c>
       <c r="AL5" s="8">
         <v>0</v>
       </c>
       <c r="AM5" s="7">
-        <v>-100716</v>
+        <v>71945</v>
       </c>
       <c r="AN5" s="7">
         <v>0</v>
       </c>
       <c r="AO5" s="7">
-        <v>113547</v>
+        <v>-7160</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B6" s="7">
-        <v>1290136</v>
+        <v>2130912</v>
       </c>
       <c r="C6" s="8">
-        <v>2029497</v>
+        <v>2089478</v>
       </c>
       <c r="D6" s="9">
-        <v>1240448</v>
+        <v>1279514</v>
       </c>
       <c r="E6" s="9">
-        <v>283875</v>
+        <v>343257</v>
       </c>
       <c r="F6" s="9">
-        <v>199767</v>
+        <v>191238</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>11954</v>
+        <v>3962</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -9949,16 +10567,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>293453</v>
+        <v>271507</v>
       </c>
       <c r="M6" s="8">
-        <v>-739361</v>
+        <v>151470</v>
       </c>
       <c r="N6" s="9">
-        <v>-104890</v>
+        <v>89449</v>
       </c>
       <c r="O6" s="9">
-        <v>-172271</v>
+        <v>276537</v>
       </c>
       <c r="P6" s="9">
         <v>0</v>
@@ -9967,106 +10585,105 @@
         <v>0</v>
       </c>
       <c r="R6" s="9">
-        <v>-354430</v>
+        <v>-434226</v>
       </c>
       <c r="S6" s="9">
-        <v>-107770</v>
+        <v>219710</v>
       </c>
       <c r="T6" s="8">
-        <v>0</v>
+        <v>-110036</v>
       </c>
       <c r="U6" s="7">
-        <v>-382756</v>
+        <v>-852730</v>
       </c>
       <c r="V6" s="7">
-        <f t="shared" si="0"/>
-        <v>-361605</v>
+        <v>-654926</v>
       </c>
       <c r="W6" s="8">
-        <v>-346151</v>
+        <v>-641315</v>
       </c>
       <c r="X6" s="9">
-        <v>-95828</v>
+        <v>-292301</v>
       </c>
       <c r="Y6" s="9">
-        <v>-265777</v>
+        <v>-362625</v>
       </c>
       <c r="Z6" s="9">
-        <v>15454</v>
+        <v>13611</v>
       </c>
       <c r="AA6" s="8">
         <v>0</v>
       </c>
       <c r="AB6" s="8">
-        <v>-37759</v>
+        <v>-215429</v>
       </c>
       <c r="AC6" s="8">
-        <v>1154</v>
+        <v>4014</v>
       </c>
       <c r="AD6" s="7">
-        <v>-1153007</v>
+        <v>-1063919</v>
       </c>
       <c r="AE6" s="8">
-        <v>-599037</v>
+        <v>-542334</v>
       </c>
       <c r="AF6" s="9">
-        <v>1161890</v>
+        <v>1142860</v>
       </c>
       <c r="AG6" s="9">
-        <v>-1760927</v>
+        <v>-1685194</v>
       </c>
       <c r="AH6" s="8">
-        <v>-5468</v>
+        <v>5145</v>
       </c>
       <c r="AI6" s="9">
-        <v>0</v>
+        <v>5145</v>
       </c>
       <c r="AJ6" s="9">
-        <v>-5468</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="8">
-        <v>-548502</v>
+        <v>-526730</v>
       </c>
       <c r="AL6" s="8">
         <v>0</v>
       </c>
       <c r="AM6" s="7">
-        <v>17650</v>
+        <v>-100716</v>
       </c>
       <c r="AN6" s="7">
         <v>0</v>
       </c>
       <c r="AO6" s="7">
-        <v>-227977</v>
+        <v>113547</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" s="7">
-        <v>1299655</v>
+        <v>1290136</v>
       </c>
       <c r="C7" s="8">
-        <v>2058264</v>
+        <v>2029497</v>
       </c>
       <c r="D7" s="9">
-        <v>1497542</v>
+        <v>1240448</v>
       </c>
       <c r="E7" s="9">
-        <v>317023</v>
+        <v>283875</v>
       </c>
       <c r="F7" s="9">
-        <v>-94404</v>
+        <v>199767</v>
       </c>
       <c r="G7" s="9">
-        <v>9881</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>11954</v>
       </c>
       <c r="I7" s="9">
-        <v>-3429</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -10075,16 +10692,16 @@
         <v>0</v>
       </c>
       <c r="L7" s="9">
-        <v>331651</v>
+        <v>293453</v>
       </c>
       <c r="M7" s="8">
-        <v>-758609</v>
+        <v>-739361</v>
       </c>
       <c r="N7" s="9">
-        <v>-188969</v>
+        <v>-104890</v>
       </c>
       <c r="O7" s="9">
-        <v>-441614</v>
+        <v>-172271</v>
       </c>
       <c r="P7" s="9">
         <v>0</v>
@@ -10093,106 +10710,105 @@
         <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>-392051</v>
+        <v>-354430</v>
       </c>
       <c r="S7" s="9">
-        <v>264025</v>
+        <v>-107770</v>
       </c>
       <c r="T7" s="8">
         <v>0</v>
       </c>
       <c r="U7" s="7">
-        <v>-833290</v>
+        <v>-382756</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="0"/>
-        <v>-429403</v>
+        <v>-361605</v>
       </c>
       <c r="W7" s="8">
-        <v>-418050</v>
+        <v>-346151</v>
       </c>
       <c r="X7" s="9">
-        <v>0</v>
+        <v>-95828</v>
       </c>
       <c r="Y7" s="9">
-        <v>-429403</v>
+        <v>-265777</v>
       </c>
       <c r="Z7" s="9">
-        <v>11353</v>
+        <v>15454</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
       </c>
       <c r="AB7" s="8">
-        <v>-296983</v>
+        <v>-37759</v>
       </c>
       <c r="AC7" s="8">
-        <v>-118257</v>
+        <v>1154</v>
       </c>
       <c r="AD7" s="7">
-        <v>-1446435</v>
+        <v>-1153007</v>
       </c>
       <c r="AE7" s="8">
-        <v>-844609</v>
+        <v>-599037</v>
       </c>
       <c r="AF7" s="9">
-        <v>1005626</v>
+        <v>1161890</v>
       </c>
       <c r="AG7" s="9">
-        <v>-1850235</v>
+        <v>-1760927</v>
       </c>
       <c r="AH7" s="8">
-        <v>0</v>
+        <v>-5468</v>
       </c>
       <c r="AI7" s="9">
         <v>0</v>
       </c>
       <c r="AJ7" s="9">
-        <v>0</v>
+        <v>-5468</v>
       </c>
       <c r="AK7" s="8">
-        <v>-603957</v>
+        <v>-548502</v>
       </c>
       <c r="AL7" s="8">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="7">
-        <v>23085</v>
+        <v>17650</v>
       </c>
       <c r="AN7" s="7">
         <v>0</v>
       </c>
       <c r="AO7" s="7">
-        <v>-956985</v>
+        <v>-227977</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B8" s="7">
-        <v>1907853</v>
+        <v>1299655</v>
       </c>
       <c r="C8" s="8">
-        <v>2495657</v>
+        <v>2058264</v>
       </c>
       <c r="D8" s="9">
-        <v>1804451</v>
+        <v>1497542</v>
       </c>
       <c r="E8" s="9">
-        <v>396783</v>
+        <v>317023</v>
       </c>
       <c r="F8" s="9">
-        <v>-21583</v>
+        <v>-94404</v>
       </c>
       <c r="G8" s="9">
-        <v>13998</v>
+        <v>9881</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>-10435</v>
+        <v>-3429</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
@@ -10201,16 +10817,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="9">
-        <v>312443</v>
+        <v>331651</v>
       </c>
       <c r="M8" s="8">
-        <v>-587804</v>
+        <v>-758609</v>
       </c>
       <c r="N8" s="9">
-        <v>-150828</v>
+        <v>-188969</v>
       </c>
       <c r="O8" s="9">
-        <v>-311532</v>
+        <v>-441614</v>
       </c>
       <c r="P8" s="9">
         <v>0</v>
@@ -10219,53 +10835,52 @@
         <v>0</v>
       </c>
       <c r="R8" s="9">
-        <v>-446634</v>
+        <v>-392051</v>
       </c>
       <c r="S8" s="9">
-        <v>321190</v>
+        <v>264025</v>
       </c>
       <c r="T8" s="8">
         <v>0</v>
       </c>
       <c r="U8" s="7">
-        <v>-59748</v>
+        <v>-833290</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="0"/>
-        <v>-524482</v>
+        <v>-429403</v>
       </c>
       <c r="W8" s="8">
-        <v>-480627</v>
+        <v>-418050</v>
       </c>
       <c r="X8" s="9">
         <v>0</v>
       </c>
       <c r="Y8" s="9">
-        <v>-524482</v>
+        <v>-429403</v>
       </c>
       <c r="Z8" s="9">
-        <v>43855</v>
+        <v>11353</v>
       </c>
       <c r="AA8" s="8">
         <v>0</v>
       </c>
       <c r="AB8" s="8">
-        <v>542709</v>
+        <v>-296983</v>
       </c>
       <c r="AC8" s="8">
-        <v>-121830</v>
+        <v>-118257</v>
       </c>
       <c r="AD8" s="7">
-        <v>-2115441</v>
+        <v>-1446435</v>
       </c>
       <c r="AE8" s="8">
-        <v>-1438359</v>
+        <v>-844609</v>
       </c>
       <c r="AF8" s="9">
-        <v>1407993</v>
+        <v>1005626</v>
       </c>
       <c r="AG8" s="9">
-        <v>-2846352</v>
+        <v>-1850235</v>
       </c>
       <c r="AH8" s="8">
         <v>0</v>
@@ -10277,48 +10892,48 @@
         <v>0</v>
       </c>
       <c r="AK8" s="8">
-        <v>-680924</v>
+        <v>-603957</v>
       </c>
       <c r="AL8" s="8">
-        <v>3842</v>
+        <v>2131</v>
       </c>
       <c r="AM8" s="7">
-        <v>7680</v>
+        <v>23085</v>
       </c>
       <c r="AN8" s="7">
         <v>0</v>
       </c>
       <c r="AO8" s="7">
-        <v>-259656</v>
+        <v>-956985</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="7">
-        <v>3930032</v>
+        <v>1907853</v>
       </c>
       <c r="C9" s="8">
-        <v>3800156</v>
+        <v>2495657</v>
       </c>
       <c r="D9" s="9">
-        <v>2746649</v>
+        <v>1804451</v>
       </c>
       <c r="E9" s="9">
-        <v>451359</v>
+        <v>396783</v>
       </c>
       <c r="F9" s="9">
-        <v>-27154</v>
+        <v>-21583</v>
       </c>
       <c r="G9" s="9">
-        <v>7869</v>
+        <v>13998</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>-3870</v>
+        <v>-10435</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -10327,16 +10942,16 @@
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>625303</v>
+        <v>312443</v>
       </c>
       <c r="M9" s="8">
-        <v>129876</v>
+        <v>-587804</v>
       </c>
       <c r="N9" s="9">
-        <v>487751</v>
+        <v>-150828</v>
       </c>
       <c r="O9" s="9">
-        <v>-439340</v>
+        <v>-311532</v>
       </c>
       <c r="P9" s="9">
         <v>0</v>
@@ -10345,53 +10960,52 @@
         <v>0</v>
       </c>
       <c r="R9" s="9">
-        <v>-704073</v>
+        <v>-446634</v>
       </c>
       <c r="S9" s="9">
-        <v>785538</v>
+        <v>321190</v>
       </c>
       <c r="T9" s="8">
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <v>207375</v>
+        <v>-59748</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="0"/>
-        <v>-558546</v>
+        <v>-524482</v>
       </c>
       <c r="W9" s="8">
-        <v>-535146</v>
+        <v>-480627</v>
       </c>
       <c r="X9" s="9">
         <v>0</v>
       </c>
       <c r="Y9" s="9">
-        <v>-558546</v>
+        <v>-524482</v>
       </c>
       <c r="Z9" s="9">
-        <v>23400</v>
+        <v>43855</v>
       </c>
       <c r="AA9" s="8">
         <v>0</v>
       </c>
       <c r="AB9" s="8">
-        <v>886856</v>
+        <v>542709</v>
       </c>
       <c r="AC9" s="8">
-        <v>-144335</v>
+        <v>-121830</v>
       </c>
       <c r="AD9" s="7">
-        <v>-2360601</v>
+        <v>-2115441</v>
       </c>
       <c r="AE9" s="8">
-        <v>-1474909</v>
+        <v>-1438359</v>
       </c>
       <c r="AF9" s="9">
-        <v>211487</v>
+        <v>1407993</v>
       </c>
       <c r="AG9" s="9">
-        <v>-1686396</v>
+        <v>-2846352</v>
       </c>
       <c r="AH9" s="8">
         <v>0</v>
@@ -10403,149 +11017,273 @@
         <v>0</v>
       </c>
       <c r="AK9" s="8">
-        <v>-881332</v>
+        <v>-680924</v>
       </c>
       <c r="AL9" s="8">
-        <v>-4360</v>
+        <v>3842</v>
       </c>
       <c r="AM9" s="7">
-        <v>169290</v>
+        <v>7680</v>
       </c>
       <c r="AN9" s="7">
         <v>0</v>
       </c>
       <c r="AO9" s="7">
-        <v>1946096</v>
+        <v>-259656</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3930032</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3800156</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2746649</v>
+      </c>
+      <c r="E10" s="9">
+        <v>451359</v>
+      </c>
+      <c r="F10" s="9">
+        <v>-27154</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7869</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-3870</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>625303</v>
+      </c>
+      <c r="M10" s="8">
+        <v>129876</v>
+      </c>
+      <c r="N10" s="9">
+        <v>487751</v>
+      </c>
+      <c r="O10" s="9">
+        <v>-439340</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <v>-704073</v>
+      </c>
+      <c r="S10" s="9">
+        <v>785538</v>
+      </c>
+      <c r="T10" s="8">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>207375</v>
+      </c>
+      <c r="V10" s="7">
+        <v>-558546</v>
+      </c>
+      <c r="W10" s="8">
+        <v>-535146</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>-558546</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>23400</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>886856</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>-144335</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>-2360601</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>-1474909</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>211487</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>-1686396</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>-881332</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>-4360</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>169290</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>1946096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>2021</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B11" s="7">
         <v>939385</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>4899803</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>4330036</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>520178</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>-23972</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>10593</v>
       </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
         <v>62968</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M11" s="8">
         <v>-3960418</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>-1357761</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O11" s="9">
         <v>-2673253</v>
       </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
         <v>-1152552</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S11" s="9">
         <v>1223148</v>
       </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
         <v>-683870</v>
       </c>
-      <c r="V10" s="7">
-        <f t="shared" si="0"/>
+      <c r="V11" s="7">
         <v>-847344</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W11" s="8">
         <v>-796985</v>
       </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
         <v>-847344</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z11" s="9">
         <v>50359</v>
       </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
         <v>113115</v>
       </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
         <v>-1443405</v>
       </c>
-      <c r="AE10" s="8">
+      <c r="AE11" s="8">
         <v>209377</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF11" s="9">
         <v>503206</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG11" s="9">
         <v>-293829</v>
       </c>
-      <c r="AH10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="8">
+      <c r="AH11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="8">
         <v>-1657345</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AL11" s="8">
         <v>4563</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AM11" s="7">
         <v>10177</v>
       </c>
-      <c r="AN10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="7">
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
         <v>-1177713</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C707E0A-3E64-4BA2-9F00-A0C22EC589AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAAB33-1E70-4B21-B749-CF64B4461C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FC_WEGE3" sheetId="4" r:id="rId3"/>
     <sheet name="NA_WEGE3" sheetId="3" r:id="rId4"/>
     <sheet name="Dado_Macro" sheetId="5" r:id="rId5"/>
-    <sheet name="CGO_WEGE3" sheetId="7" r:id="rId6"/>
+    <sheet name="VAR_RLO" sheetId="7" r:id="rId6"/>
     <sheet name="Retornos" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
@@ -8832,7 +8832,7 @@
   <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AB2"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9859,7 +9859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2B5FB-D3F3-422F-B461-99BDDE1AF3E1}">
   <dimension ref="A1:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11474,8 +11474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627A676-6924-4813-946F-543312816066}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11487,88 +11487,88 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>191</v>
+      <c r="B1" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2012</v>
       </c>
-      <c r="B2" s="8">
-        <v>1181424</v>
+      <c r="B2" s="7">
+        <v>6173878</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2013</v>
       </c>
-      <c r="B3" s="8">
-        <v>1656597</v>
+      <c r="B3" s="7">
+        <v>6828896</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2014</v>
       </c>
-      <c r="B4" s="8">
-        <v>1860652</v>
+      <c r="B4" s="7">
+        <v>7840757</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2015</v>
       </c>
-      <c r="B5" s="8">
-        <v>2140082</v>
+      <c r="B5" s="7">
+        <v>9760323</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2016</v>
       </c>
-      <c r="B6" s="8">
-        <v>2089478</v>
+      <c r="B6" s="7">
+        <v>9367008</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2017</v>
       </c>
-      <c r="B7" s="8">
-        <v>2029497</v>
+      <c r="B7" s="7">
+        <v>9523830</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
-      <c r="B8" s="8">
-        <v>2058264</v>
+      <c r="B8" s="7">
+        <v>11970090</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
-      <c r="B9" s="8">
-        <v>2495657</v>
+      <c r="B9" s="7">
+        <v>13347434</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2020</v>
       </c>
-      <c r="B10" s="8">
-        <v>3800156</v>
+      <c r="B10" s="7">
+        <v>17469557</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2021</v>
       </c>
-      <c r="B11" s="8">
-        <v>4899803</v>
+      <c r="B11" s="7">
+        <v>23563338</v>
       </c>
     </row>
   </sheetData>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D28029-CA7F-424E-925A-907DFE2FB520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837E4D8-ABEB-4320-8E5C-D0997478E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
     <sheet name="DRE_WEGE3" sheetId="2" r:id="rId2"/>
     <sheet name="FC_WEGE3" sheetId="4" r:id="rId3"/>
-    <sheet name="FCO_WEGE3" sheetId="7" r:id="rId4"/>
+    <sheet name="VAR_RLO" sheetId="9" r:id="rId4"/>
     <sheet name="Projecao_FC" sheetId="8" r:id="rId5"/>
     <sheet name="NA_WEGE3" sheetId="3" r:id="rId6"/>
     <sheet name="Dado_Macro" sheetId="5" r:id="rId7"/>
     <sheet name="Retornos" sheetId="6" r:id="rId8"/>
+    <sheet name="FCO_WEGE3" sheetId="7" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>Ano</t>
   </si>
@@ -285,9 +287,6 @@
     <t>+Despesas administrativ</t>
   </si>
   <si>
-    <t>+Per p/ nao recuper de at</t>
-  </si>
-  <si>
     <t>-Outras rec operacionais</t>
   </si>
   <si>
@@ -324,15 +323,6 @@
     <t>=Lucro oper continuadas</t>
   </si>
   <si>
-    <t>+Operac descontinuadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lu ou prej liq oper desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ga ou pe liq s/atv op de</t>
-  </si>
-  <si>
     <t>=Lucro Consolidado</t>
   </si>
   <si>
@@ -366,12 +356,6 @@
     <t xml:space="preserve"> Perd(gan) na equival pat</t>
   </si>
   <si>
-    <t xml:space="preserve"> Impostos diferidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gan(perd) dos minorit</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Out perd(gan) nao caixa</t>
   </si>
   <si>
@@ -384,12 +368,6 @@
     <t xml:space="preserve"> Redu(aum) estoques</t>
   </si>
   <si>
-    <t xml:space="preserve"> Redu(aum) outros ativos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aum(redu) fornecedores</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aum(redu) imp e obr trab</t>
   </si>
   <si>
@@ -414,9 +392,6 @@
     <t xml:space="preserve"> Venda de ativo permanent</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dividendos recebidos</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Resg (aplic) financ liq</t>
   </si>
   <si>
@@ -453,9 +428,6 @@
     <t>+Efeito Cambial</t>
   </si>
   <si>
-    <t>+Outras variacoes</t>
-  </si>
-  <si>
     <t>=Variac liquida de caixa</t>
   </si>
   <si>
@@ -534,10 +506,10 @@
     <t>Taxa de Crescimento do Lucro Operacional</t>
   </si>
   <si>
-    <t>Variacao de FC</t>
-  </si>
-  <si>
-    <t>Media de Variacao</t>
+    <t>taxa de crescimento</t>
+  </si>
+  <si>
+    <t>media geometrica</t>
   </si>
 </sst>
 </file>
@@ -619,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -666,13 +638,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -753,10 +762,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -772,6 +777,9 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,6 +788,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2528,7 +2552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C9A29-F125-44E8-9E76-9BF068E61073}">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5247,10 +5271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E89F8-68A7-48B2-83BC-963650875B5E}">
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,37 +5284,34 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
@@ -5314,36 +5335,36 @@
         <v>81</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>88</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -5352,23 +5373,11 @@
       <c r="W1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2012</v>
       </c>
@@ -5391,70 +5400,58 @@
         <v>307202</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>18593</v>
       </c>
       <c r="I2" s="8">
-        <v>18593</v>
+        <v>163856</v>
       </c>
       <c r="J2" s="8">
-        <v>163856</v>
-      </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
         <v>1016748</v>
       </c>
-      <c r="M2" s="9">
+      <c r="L2" s="9">
         <v>208337</v>
       </c>
+      <c r="M2" s="7">
+        <v>808411</v>
+      </c>
       <c r="N2" s="7">
-        <v>808411</v>
-      </c>
-      <c r="O2" s="7">
         <v>55691</v>
       </c>
+      <c r="O2" s="8">
+        <v>460420</v>
+      </c>
       <c r="P2" s="8">
-        <v>460420</v>
-      </c>
-      <c r="Q2" s="8">
         <v>404729</v>
       </c>
+      <c r="Q2" s="7">
+        <v>864102</v>
+      </c>
       <c r="R2" s="7">
-        <v>864102</v>
-      </c>
-      <c r="S2" s="7">
         <v>199238</v>
       </c>
+      <c r="S2" s="8">
+        <v>228859</v>
+      </c>
       <c r="T2" s="8">
-        <v>228859</v>
-      </c>
-      <c r="U2" s="8">
         <v>-29621</v>
+      </c>
+      <c r="U2" s="7">
+        <v>664864</v>
       </c>
       <c r="V2" s="7">
         <v>664864</v>
       </c>
       <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>664864</v>
-      </c>
-      <c r="AA2" s="7">
         <v>8885</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="X2" s="7">
         <v>655979</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2013</v>
       </c>
@@ -5477,70 +5474,58 @@
         <v>328863</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>16431</v>
       </c>
       <c r="I3" s="8">
-        <v>16431</v>
+        <v>196223</v>
       </c>
       <c r="J3" s="8">
-        <v>196223</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
         <v>1230032</v>
       </c>
-      <c r="M3" s="9">
+      <c r="L3" s="9">
         <v>218279</v>
       </c>
+      <c r="M3" s="7">
+        <v>1011753</v>
+      </c>
       <c r="N3" s="7">
-        <v>1011753</v>
-      </c>
-      <c r="O3" s="7">
         <v>73126</v>
       </c>
+      <c r="O3" s="8">
+        <v>599974</v>
+      </c>
       <c r="P3" s="8">
-        <v>599974</v>
-      </c>
-      <c r="Q3" s="8">
         <v>526848</v>
       </c>
+      <c r="Q3" s="7">
+        <v>1084879</v>
+      </c>
       <c r="R3" s="7">
-        <v>1084879</v>
-      </c>
-      <c r="S3" s="7">
         <v>239575</v>
       </c>
+      <c r="S3" s="8">
+        <v>274859</v>
+      </c>
       <c r="T3" s="8">
-        <v>274859</v>
-      </c>
-      <c r="U3" s="8">
         <v>-35284</v>
+      </c>
+      <c r="U3" s="7">
+        <v>845304</v>
       </c>
       <c r="V3" s="7">
         <v>845304</v>
       </c>
       <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>845304</v>
-      </c>
-      <c r="AA3" s="7">
         <v>1837</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="X3" s="7">
         <v>843467</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2014</v>
       </c>
@@ -5563,70 +5548,58 @@
         <v>386112</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>15902</v>
       </c>
       <c r="I4" s="8">
-        <v>15902</v>
+        <v>199464</v>
       </c>
       <c r="J4" s="8">
-        <v>199464</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
         <v>1344829</v>
       </c>
-      <c r="M4" s="9">
+      <c r="L4" s="9">
         <v>250477</v>
       </c>
+      <c r="M4" s="7">
+        <v>1094352</v>
+      </c>
       <c r="N4" s="7">
-        <v>1094352</v>
-      </c>
-      <c r="O4" s="7">
         <v>133577</v>
       </c>
+      <c r="O4" s="8">
+        <v>785503</v>
+      </c>
       <c r="P4" s="8">
-        <v>785503</v>
-      </c>
-      <c r="Q4" s="8">
         <v>651926</v>
       </c>
+      <c r="Q4" s="7">
+        <v>1227929</v>
+      </c>
       <c r="R4" s="7">
-        <v>1227929</v>
-      </c>
-      <c r="S4" s="7">
         <v>265613</v>
       </c>
+      <c r="S4" s="8">
+        <v>271583</v>
+      </c>
       <c r="T4" s="8">
-        <v>271583</v>
-      </c>
-      <c r="U4" s="8">
         <v>-5970</v>
+      </c>
+      <c r="U4" s="7">
+        <v>962316</v>
       </c>
       <c r="V4" s="7">
         <v>962316</v>
       </c>
       <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>962316</v>
-      </c>
-      <c r="AA4" s="7">
         <v>7590</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="X4" s="7">
         <v>954726</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2015</v>
       </c>
@@ -5649,70 +5622,58 @@
         <v>458953</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
+        <v>28351</v>
       </c>
       <c r="I5" s="8">
-        <v>28351</v>
+        <v>226489</v>
       </c>
       <c r="J5" s="8">
-        <v>226489</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
         <v>1477603</v>
       </c>
-      <c r="M5" s="9">
+      <c r="L5" s="9">
         <v>319358</v>
       </c>
+      <c r="M5" s="7">
+        <v>1158245</v>
+      </c>
       <c r="N5" s="7">
-        <v>1158245</v>
-      </c>
-      <c r="O5" s="7">
         <v>145483</v>
       </c>
+      <c r="O5" s="8">
+        <v>1345633</v>
+      </c>
       <c r="P5" s="8">
-        <v>1345633</v>
-      </c>
-      <c r="Q5" s="8">
         <v>1200150</v>
       </c>
+      <c r="Q5" s="7">
+        <v>1303728</v>
+      </c>
       <c r="R5" s="7">
-        <v>1303728</v>
-      </c>
-      <c r="S5" s="7">
         <v>137918</v>
       </c>
+      <c r="S5" s="8">
+        <v>234116</v>
+      </c>
       <c r="T5" s="8">
-        <v>234116</v>
-      </c>
-      <c r="U5" s="8">
         <v>-96198</v>
+      </c>
+      <c r="U5" s="7">
+        <v>1165810</v>
       </c>
       <c r="V5" s="7">
         <v>1165810</v>
       </c>
       <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="7">
-        <v>1165810</v>
-      </c>
-      <c r="AA5" s="7">
         <v>9745</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="X5" s="7">
         <v>1156065</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2016</v>
       </c>
@@ -5735,70 +5696,58 @@
         <v>465383</v>
       </c>
       <c r="H6" s="8">
-        <v>0</v>
+        <v>15526</v>
       </c>
       <c r="I6" s="8">
-        <v>15526</v>
+        <v>197249</v>
       </c>
       <c r="J6" s="8">
-        <v>197249</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <v>1406931</v>
       </c>
-      <c r="M6" s="9">
+      <c r="L6" s="9">
         <v>343257</v>
       </c>
+      <c r="M6" s="7">
+        <v>1063674</v>
+      </c>
       <c r="N6" s="7">
-        <v>1063674</v>
-      </c>
-      <c r="O6" s="7">
         <v>215840</v>
       </c>
+      <c r="O6" s="8">
+        <v>816087</v>
+      </c>
       <c r="P6" s="8">
-        <v>816087</v>
-      </c>
-      <c r="Q6" s="8">
         <v>600247</v>
       </c>
+      <c r="Q6" s="7">
+        <v>1279514</v>
+      </c>
       <c r="R6" s="7">
-        <v>1279514</v>
-      </c>
-      <c r="S6" s="7">
         <v>151682</v>
       </c>
+      <c r="S6" s="8">
+        <v>245415</v>
+      </c>
       <c r="T6" s="8">
-        <v>245415</v>
-      </c>
-      <c r="U6" s="8">
         <v>-93733</v>
+      </c>
+      <c r="U6" s="7">
+        <v>1127832</v>
       </c>
       <c r="V6" s="7">
         <v>1127832</v>
       </c>
       <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <v>1127832</v>
-      </c>
-      <c r="AA6" s="7">
         <v>10208</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="X6" s="7">
         <v>1117624</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2017</v>
       </c>
@@ -5821,70 +5770,58 @@
         <v>488681</v>
       </c>
       <c r="H7" s="8">
-        <v>0</v>
+        <v>23205</v>
       </c>
       <c r="I7" s="8">
-        <v>23205</v>
+        <v>216206</v>
       </c>
       <c r="J7" s="8">
-        <v>216206</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
         <v>1466287</v>
       </c>
-      <c r="M7" s="9">
+      <c r="L7" s="9">
         <v>283875</v>
       </c>
+      <c r="M7" s="7">
+        <v>1182412</v>
+      </c>
       <c r="N7" s="7">
-        <v>1182412</v>
-      </c>
-      <c r="O7" s="7">
         <v>58036</v>
       </c>
+      <c r="O7" s="8">
+        <v>851852</v>
+      </c>
       <c r="P7" s="8">
-        <v>851852</v>
-      </c>
-      <c r="Q7" s="8">
         <v>793816</v>
       </c>
+      <c r="Q7" s="7">
+        <v>1240448</v>
+      </c>
       <c r="R7" s="7">
-        <v>1240448</v>
-      </c>
-      <c r="S7" s="7">
         <v>99506</v>
       </c>
+      <c r="S7" s="8">
+        <v>167681</v>
+      </c>
       <c r="T7" s="8">
-        <v>167681</v>
-      </c>
-      <c r="U7" s="8">
         <v>-68175</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1140942</v>
       </c>
       <c r="V7" s="7">
         <v>1140942</v>
       </c>
       <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>1140942</v>
-      </c>
-      <c r="AA7" s="7">
         <v>-1207</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="X7" s="7">
         <v>1142149</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
@@ -5907,70 +5844,58 @@
         <v>566631</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>22656</v>
       </c>
       <c r="I8" s="8">
-        <v>22656</v>
+        <v>282284</v>
       </c>
       <c r="J8" s="8">
-        <v>282284</v>
-      </c>
-      <c r="K8" s="8">
         <v>3429</v>
       </c>
-      <c r="L8" s="15">
+      <c r="K8" s="15">
         <v>1824054</v>
       </c>
-      <c r="M8" s="9">
+      <c r="L8" s="9">
         <v>317023</v>
       </c>
+      <c r="M8" s="7">
+        <v>1507031</v>
+      </c>
       <c r="N8" s="7">
-        <v>1507031</v>
-      </c>
-      <c r="O8" s="7">
         <v>-9489</v>
       </c>
+      <c r="O8" s="8">
+        <v>877674</v>
+      </c>
       <c r="P8" s="8">
-        <v>877674</v>
-      </c>
-      <c r="Q8" s="8">
         <v>887163</v>
       </c>
+      <c r="Q8" s="7">
+        <v>1497542</v>
+      </c>
       <c r="R8" s="7">
-        <v>1497542</v>
-      </c>
-      <c r="S8" s="7">
         <v>153394</v>
       </c>
+      <c r="S8" s="8">
+        <v>188185</v>
+      </c>
       <c r="T8" s="8">
-        <v>188185</v>
-      </c>
-      <c r="U8" s="8">
         <v>-34791</v>
+      </c>
+      <c r="U8" s="7">
+        <v>1344148</v>
       </c>
       <c r="V8" s="7">
         <v>1344148</v>
       </c>
       <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <v>1344148</v>
-      </c>
-      <c r="AA8" s="7">
         <v>5829</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="X8" s="7">
         <v>1338319</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
@@ -5993,70 +5918,58 @@
         <v>548407</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>30278</v>
       </c>
       <c r="I9" s="8">
-        <v>30278</v>
+        <v>344675</v>
       </c>
       <c r="J9" s="8">
-        <v>344675</v>
-      </c>
-      <c r="K9" s="8">
         <v>10435</v>
       </c>
-      <c r="L9" s="15">
+      <c r="K9" s="15">
         <v>2244517</v>
       </c>
-      <c r="M9" s="9">
+      <c r="L9" s="9">
         <v>396783</v>
       </c>
+      <c r="M9" s="7">
+        <v>1847734</v>
+      </c>
       <c r="N9" s="7">
-        <v>1847734</v>
-      </c>
-      <c r="O9" s="7">
         <v>-43283</v>
       </c>
+      <c r="O9" s="8">
+        <v>917382</v>
+      </c>
       <c r="P9" s="8">
-        <v>917382</v>
-      </c>
-      <c r="Q9" s="8">
         <v>960665</v>
       </c>
+      <c r="Q9" s="7">
+        <v>1804451</v>
+      </c>
       <c r="R9" s="7">
-        <v>1804451</v>
-      </c>
-      <c r="S9" s="7">
         <v>171996</v>
       </c>
+      <c r="S9" s="8">
+        <v>217098</v>
+      </c>
       <c r="T9" s="8">
-        <v>217098</v>
-      </c>
-      <c r="U9" s="8">
         <v>-45102</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1632455</v>
       </c>
       <c r="V9" s="7">
         <v>1632455</v>
       </c>
       <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>1632455</v>
-      </c>
-      <c r="AA9" s="7">
         <v>17874</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="X9" s="7">
         <v>1614581</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2020</v>
       </c>
@@ -6079,70 +5992,58 @@
         <v>654469</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>46369</v>
       </c>
       <c r="I10" s="8">
-        <v>46369</v>
+        <v>510136</v>
       </c>
       <c r="J10" s="8">
-        <v>510136</v>
-      </c>
-      <c r="K10" s="8">
         <v>3870</v>
       </c>
-      <c r="L10" s="15">
+      <c r="K10" s="15">
         <v>3267683</v>
       </c>
-      <c r="M10" s="9">
+      <c r="L10" s="9">
         <v>451359</v>
       </c>
+      <c r="M10" s="7">
+        <v>2816324</v>
+      </c>
       <c r="N10" s="7">
-        <v>2816324</v>
-      </c>
-      <c r="O10" s="7">
         <v>-69675</v>
       </c>
+      <c r="O10" s="8">
+        <v>1020426</v>
+      </c>
       <c r="P10" s="8">
-        <v>1020426</v>
-      </c>
-      <c r="Q10" s="8">
         <v>1090101</v>
       </c>
+      <c r="Q10" s="7">
+        <v>2746649</v>
+      </c>
       <c r="R10" s="7">
-        <v>2746649</v>
-      </c>
-      <c r="S10" s="7">
         <v>350692</v>
       </c>
+      <c r="S10" s="8">
+        <v>500450</v>
+      </c>
       <c r="T10" s="8">
-        <v>500450</v>
-      </c>
-      <c r="U10" s="8">
         <v>-149758</v>
+      </c>
+      <c r="U10" s="7">
+        <v>2395957</v>
       </c>
       <c r="V10" s="7">
         <v>2395957</v>
       </c>
       <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>2395957</v>
-      </c>
-      <c r="AA10" s="7">
         <v>55084</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="X10" s="7">
         <v>2340873</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2021</v>
       </c>
@@ -6165,108 +6066,92 @@
         <v>776007</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>422154</v>
       </c>
       <c r="I11" s="8">
-        <v>422154</v>
+        <v>615557</v>
       </c>
       <c r="J11" s="8">
-        <v>615557</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
         <v>4678521</v>
       </c>
-      <c r="M11" s="9">
+      <c r="L11" s="9">
         <v>520178</v>
       </c>
+      <c r="M11" s="7">
+        <v>4158343</v>
+      </c>
       <c r="N11" s="7">
-        <v>4158343</v>
-      </c>
-      <c r="O11" s="7">
         <v>171693</v>
       </c>
+      <c r="O11" s="8">
+        <v>992739</v>
+      </c>
       <c r="P11" s="8">
-        <v>992739</v>
-      </c>
-      <c r="Q11" s="8">
         <v>821046</v>
       </c>
+      <c r="Q11" s="7">
+        <v>4330036</v>
+      </c>
       <c r="R11" s="7">
-        <v>4330036</v>
-      </c>
-      <c r="S11" s="7">
         <v>672556</v>
       </c>
+      <c r="S11" s="8">
+        <v>693854</v>
+      </c>
       <c r="T11" s="8">
-        <v>693854</v>
-      </c>
-      <c r="U11" s="8">
         <v>-21298</v>
+      </c>
+      <c r="U11" s="7">
+        <v>3657480</v>
       </c>
       <c r="V11" s="7">
         <v>3657480</v>
       </c>
       <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>3657480</v>
-      </c>
-      <c r="AA11" s="7">
         <v>71533</v>
       </c>
-      <c r="AB11" s="7">
+      <c r="X11" s="7">
         <v>3585947</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C14" s="25"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C16" s="25"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="25"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="25"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6275,11 +6160,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B2B5FB-D3F3-422F-B461-99BDDE1AF3E1}">
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6291,166 +6174,142 @@
     <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2012</v>
       </c>
@@ -6479,103 +6338,85 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>0</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0</v>
+        <v>108985</v>
+      </c>
+      <c r="K2" s="8">
+        <v>-354559</v>
       </c>
       <c r="L2" s="9">
-        <v>108985</v>
-      </c>
-      <c r="M2" s="8">
-        <v>-354559</v>
+        <v>-324344</v>
+      </c>
+      <c r="M2" s="9">
+        <v>92326</v>
       </c>
       <c r="N2" s="9">
-        <v>-324344</v>
+        <v>-310086</v>
       </c>
       <c r="O2" s="9">
-        <v>92326</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0</v>
-      </c>
-      <c r="R2" s="9">
-        <v>-310086</v>
-      </c>
-      <c r="S2" s="9">
         <v>187545</v>
       </c>
-      <c r="T2" s="8">
+      <c r="P2" s="8">
         <v>66701</v>
       </c>
-      <c r="U2" s="7">
+      <c r="Q2" s="7">
         <v>-381567</v>
       </c>
-      <c r="V2" s="7">
+      <c r="R2" s="7">
         <v>-500274</v>
       </c>
+      <c r="S2" s="8">
+        <v>-477447</v>
+      </c>
+      <c r="T2" s="9">
+        <v>-244453</v>
+      </c>
+      <c r="U2" s="9">
+        <v>-255821</v>
+      </c>
+      <c r="V2" s="9">
+        <v>22827</v>
+      </c>
       <c r="W2" s="8">
-        <v>-477447</v>
-      </c>
-      <c r="X2" s="9">
-        <v>-244453</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>-255821</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>22827</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
         <v>17359</v>
       </c>
+      <c r="X2" s="8">
+        <v>78521</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>-1141358</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>-770846</v>
+      </c>
+      <c r="AA2" s="9">
+        <v>982720</v>
+      </c>
+      <c r="AB2" s="9">
+        <v>-1753566</v>
+      </c>
       <c r="AC2" s="8">
-        <v>78521</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>-1141358</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>-770846</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>982720</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>-1753566</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
         <v>-318422</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AG2" s="8">
         <v>-52090</v>
       </c>
-      <c r="AM2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="7">
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
         <v>-629359</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2013</v>
       </c>
@@ -6604,103 +6445,85 @@
         <v>0</v>
       </c>
       <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
+        <v>199823</v>
+      </c>
+      <c r="K3" s="8">
+        <v>-655083</v>
       </c>
       <c r="L3" s="9">
-        <v>199823</v>
-      </c>
-      <c r="M3" s="8">
-        <v>-655083</v>
+        <v>-299506</v>
+      </c>
+      <c r="M3" s="9">
+        <v>-146049</v>
       </c>
       <c r="N3" s="9">
-        <v>-299506</v>
+        <v>-396937</v>
       </c>
       <c r="O3" s="9">
-        <v>-146049</v>
-      </c>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9">
-        <v>-396937</v>
-      </c>
-      <c r="S3" s="9">
         <v>187409</v>
       </c>
-      <c r="T3" s="8">
+      <c r="P3" s="8">
         <v>25920</v>
       </c>
-      <c r="U3" s="7">
+      <c r="Q3" s="7">
         <v>54758</v>
       </c>
-      <c r="V3" s="7">
+      <c r="R3" s="7">
         <v>-292079</v>
       </c>
+      <c r="S3" s="8">
+        <v>-290049</v>
+      </c>
+      <c r="T3" s="9">
+        <v>-11437</v>
+      </c>
+      <c r="U3" s="9">
+        <v>-280642</v>
+      </c>
+      <c r="V3" s="9">
+        <v>2030</v>
+      </c>
       <c r="W3" s="8">
-        <v>-290049</v>
-      </c>
-      <c r="X3" s="9">
-        <v>-11437</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>-280642</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>2030</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
         <v>261046</v>
       </c>
+      <c r="X3" s="8">
+        <v>83761</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>-10649</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>380600</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>1890267</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>-1509667</v>
+      </c>
       <c r="AC3" s="8">
-        <v>83761</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>-10649</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>380600</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>1890267</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>-1509667</v>
-      </c>
-      <c r="AH3" s="8">
         <v>738</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AD3" s="9">
         <v>738</v>
       </c>
-      <c r="AJ3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="8">
+      <c r="AE3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="8">
         <v>-391987</v>
       </c>
-      <c r="AL3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="7">
+      <c r="AG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
         <v>1071543</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2014</v>
       </c>
@@ -6729,103 +6552,85 @@
         <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
+        <v>233409</v>
+      </c>
+      <c r="K4" s="8">
+        <v>-726524</v>
       </c>
       <c r="L4" s="9">
-        <v>233409</v>
-      </c>
-      <c r="M4" s="8">
-        <v>-726524</v>
+        <v>-199394</v>
+      </c>
+      <c r="M4" s="9">
+        <v>-237825</v>
       </c>
       <c r="N4" s="9">
-        <v>-199394</v>
+        <v>-445390</v>
       </c>
       <c r="O4" s="9">
-        <v>-237825</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>0</v>
-      </c>
-      <c r="R4" s="9">
-        <v>-445390</v>
-      </c>
-      <c r="S4" s="9">
         <v>156085</v>
       </c>
-      <c r="T4" s="8">
+      <c r="P4" s="8">
         <v>13392</v>
       </c>
-      <c r="U4" s="7">
+      <c r="Q4" s="7">
         <v>-1389830</v>
       </c>
-      <c r="V4" s="7">
+      <c r="R4" s="7">
         <v>-613764</v>
       </c>
+      <c r="S4" s="8">
+        <v>-601409</v>
+      </c>
+      <c r="T4" s="9">
+        <v>-145169</v>
+      </c>
+      <c r="U4" s="9">
+        <v>-468595</v>
+      </c>
+      <c r="V4" s="9">
+        <v>12355</v>
+      </c>
       <c r="W4" s="8">
-        <v>-601409</v>
-      </c>
-      <c r="X4" s="9">
-        <v>-145169</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>-468595</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>12355</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
         <v>-849057</v>
       </c>
+      <c r="X4" s="8">
+        <v>60636</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>196526</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>654938</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>1517761</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>-862823</v>
+      </c>
       <c r="AC4" s="8">
-        <v>60636</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>196526</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>654938</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>1517761</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>-862823</v>
-      </c>
-      <c r="AH4" s="8">
         <v>1104</v>
       </c>
-      <c r="AI4" s="9">
+      <c r="AD4" s="9">
         <v>1104</v>
       </c>
-      <c r="AJ4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="8">
+      <c r="AE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
         <v>-459516</v>
       </c>
-      <c r="AL4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="7">
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="7">
         <v>-45784</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2015</v>
       </c>
@@ -6854,103 +6659,85 @@
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
+        <v>361567</v>
+      </c>
+      <c r="K5" s="8">
+        <v>-1202117</v>
       </c>
       <c r="L5" s="9">
-        <v>361567</v>
-      </c>
-      <c r="M5" s="8">
-        <v>-1202117</v>
+        <v>-651516</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-67035</v>
       </c>
       <c r="N5" s="9">
-        <v>-651516</v>
+        <v>-459869</v>
       </c>
       <c r="O5" s="9">
-        <v>-67035</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9">
-        <v>-459869</v>
-      </c>
-      <c r="S5" s="9">
         <v>-23697</v>
       </c>
-      <c r="T5" s="8">
+      <c r="P5" s="8">
         <v>44477</v>
       </c>
-      <c r="U5" s="7">
+      <c r="Q5" s="7">
         <v>-903966</v>
       </c>
-      <c r="V5" s="7">
+      <c r="R5" s="7">
         <v>-636746</v>
       </c>
+      <c r="S5" s="8">
+        <v>-618576</v>
+      </c>
+      <c r="T5" s="9">
+        <v>-129678</v>
+      </c>
+      <c r="U5" s="9">
+        <v>-507068</v>
+      </c>
+      <c r="V5" s="9">
+        <v>18170</v>
+      </c>
       <c r="W5" s="8">
-        <v>-618576</v>
-      </c>
-      <c r="X5" s="9">
-        <v>-129678</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>-507068</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>18170</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
         <v>-285390</v>
       </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>-157581</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>370965</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>2598115</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>-2227150</v>
+      </c>
       <c r="AC5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>-157581</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>370965</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>2598115</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>-2227150</v>
-      </c>
-      <c r="AH5" s="8">
         <v>-8651</v>
       </c>
-      <c r="AI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="9">
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="9">
         <v>-8651</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AF5" s="8">
         <v>-519895</v>
       </c>
-      <c r="AL5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="7">
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7">
         <v>71945</v>
       </c>
-      <c r="AN5" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="7">
+      <c r="AI5" s="7">
         <v>-7160</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2016</v>
       </c>
@@ -6979,103 +6766,85 @@
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
+        <v>271507</v>
+      </c>
+      <c r="K6" s="8">
+        <v>151470</v>
       </c>
       <c r="L6" s="9">
-        <v>271507</v>
-      </c>
-      <c r="M6" s="8">
-        <v>151470</v>
+        <v>89449</v>
+      </c>
+      <c r="M6" s="9">
+        <v>276537</v>
       </c>
       <c r="N6" s="9">
-        <v>89449</v>
+        <v>-434226</v>
       </c>
       <c r="O6" s="9">
-        <v>276537</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>-434226</v>
-      </c>
-      <c r="S6" s="9">
         <v>219710</v>
       </c>
-      <c r="T6" s="8">
+      <c r="P6" s="8">
         <v>-110036</v>
       </c>
-      <c r="U6" s="7">
+      <c r="Q6" s="7">
         <v>-852730</v>
       </c>
-      <c r="V6" s="7">
+      <c r="R6" s="7">
         <v>-654926</v>
       </c>
+      <c r="S6" s="8">
+        <v>-641315</v>
+      </c>
+      <c r="T6" s="9">
+        <v>-292301</v>
+      </c>
+      <c r="U6" s="9">
+        <v>-362625</v>
+      </c>
+      <c r="V6" s="9">
+        <v>13611</v>
+      </c>
       <c r="W6" s="8">
-        <v>-641315</v>
-      </c>
-      <c r="X6" s="9">
-        <v>-292301</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>-362625</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>13611</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
         <v>-215429</v>
       </c>
+      <c r="X6" s="8">
+        <v>4014</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>-1063919</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>-542334</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>1142860</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>-1685194</v>
+      </c>
       <c r="AC6" s="8">
-        <v>4014</v>
-      </c>
-      <c r="AD6" s="7">
-        <v>-1063919</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>-542334</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>1142860</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>-1685194</v>
-      </c>
-      <c r="AH6" s="8">
         <v>5145</v>
       </c>
-      <c r="AI6" s="9">
+      <c r="AD6" s="9">
         <v>5145</v>
       </c>
-      <c r="AJ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="8">
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="8">
         <v>-526730</v>
       </c>
-      <c r="AL6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="7">
+      <c r="AG6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7">
         <v>-100716</v>
       </c>
-      <c r="AN6" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="7">
+      <c r="AI6" s="7">
         <v>113547</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2017</v>
       </c>
@@ -7104,103 +6873,85 @@
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
+        <v>293453</v>
+      </c>
+      <c r="K7" s="8">
+        <v>-739361</v>
       </c>
       <c r="L7" s="9">
-        <v>293453</v>
-      </c>
-      <c r="M7" s="8">
-        <v>-739361</v>
+        <v>-104890</v>
+      </c>
+      <c r="M7" s="9">
+        <v>-172271</v>
       </c>
       <c r="N7" s="9">
-        <v>-104890</v>
+        <v>-354430</v>
       </c>
       <c r="O7" s="9">
-        <v>-172271</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>-354430</v>
-      </c>
-      <c r="S7" s="9">
         <v>-107770</v>
       </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
+      <c r="P7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>-382756</v>
       </c>
-      <c r="V7" s="7">
+      <c r="R7" s="7">
         <v>-361605</v>
       </c>
+      <c r="S7" s="8">
+        <v>-346151</v>
+      </c>
+      <c r="T7" s="9">
+        <v>-95828</v>
+      </c>
+      <c r="U7" s="9">
+        <v>-265777</v>
+      </c>
+      <c r="V7" s="9">
+        <v>15454</v>
+      </c>
       <c r="W7" s="8">
-        <v>-346151</v>
-      </c>
-      <c r="X7" s="9">
-        <v>-95828</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>-265777</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>15454</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
         <v>-37759</v>
       </c>
+      <c r="X7" s="8">
+        <v>1154</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>-1153007</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>-599037</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1161890</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>-1760927</v>
+      </c>
       <c r="AC7" s="8">
-        <v>1154</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>-1153007</v>
-      </c>
-      <c r="AE7" s="8">
-        <v>-599037</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>1161890</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>-1760927</v>
-      </c>
-      <c r="AH7" s="8">
         <v>-5468</v>
       </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="9">
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
         <v>-5468</v>
       </c>
-      <c r="AK7" s="8">
+      <c r="AF7" s="8">
         <v>-548502</v>
       </c>
-      <c r="AL7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="7">
+      <c r="AG7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7">
         <v>17650</v>
       </c>
-      <c r="AN7" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="7">
+      <c r="AI7" s="7">
         <v>-227977</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
@@ -7229,103 +6980,85 @@
         <v>-3429</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
+        <v>331651</v>
+      </c>
+      <c r="K8" s="8">
+        <v>-758609</v>
       </c>
       <c r="L8" s="9">
-        <v>331651</v>
-      </c>
-      <c r="M8" s="8">
-        <v>-758609</v>
+        <v>-188969</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-441614</v>
       </c>
       <c r="N8" s="9">
-        <v>-188969</v>
+        <v>-392051</v>
       </c>
       <c r="O8" s="9">
-        <v>-441614</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>-392051</v>
-      </c>
-      <c r="S8" s="9">
         <v>264025</v>
       </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>-833290</v>
       </c>
-      <c r="V8" s="7">
+      <c r="R8" s="7">
         <v>-429403</v>
       </c>
+      <c r="S8" s="8">
+        <v>-418050</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>-429403</v>
+      </c>
+      <c r="V8" s="9">
+        <v>11353</v>
+      </c>
       <c r="W8" s="8">
-        <v>-418050</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>-429403</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>11353</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
         <v>-296983</v>
       </c>
+      <c r="X8" s="8">
+        <v>-118257</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>-1446435</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>-844609</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>1005626</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>-1850235</v>
+      </c>
       <c r="AC8" s="8">
-        <v>-118257</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>-1446435</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>-844609</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>1005626</v>
-      </c>
-      <c r="AG8" s="9">
-        <v>-1850235</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="8">
         <v>-603957</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AG8" s="8">
         <v>2131</v>
       </c>
-      <c r="AM8" s="7">
+      <c r="AH8" s="7">
         <v>23085</v>
       </c>
-      <c r="AN8" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="7">
+      <c r="AI8" s="7">
         <v>-956985</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
@@ -7354,103 +7087,85 @@
         <v>-10435</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
+        <v>312443</v>
+      </c>
+      <c r="K9" s="8">
+        <v>-587804</v>
       </c>
       <c r="L9" s="9">
-        <v>312443</v>
-      </c>
-      <c r="M9" s="8">
-        <v>-587804</v>
+        <v>-150828</v>
+      </c>
+      <c r="M9" s="9">
+        <v>-311532</v>
       </c>
       <c r="N9" s="9">
-        <v>-150828</v>
+        <v>-446634</v>
       </c>
       <c r="O9" s="9">
-        <v>-311532</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>-446634</v>
-      </c>
-      <c r="S9" s="9">
         <v>321190</v>
       </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>-59748</v>
       </c>
-      <c r="V9" s="7">
+      <c r="R9" s="7">
         <v>-524482</v>
       </c>
+      <c r="S9" s="8">
+        <v>-480627</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>-524482</v>
+      </c>
+      <c r="V9" s="9">
+        <v>43855</v>
+      </c>
       <c r="W9" s="8">
-        <v>-480627</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>-524482</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>43855</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="8">
         <v>542709</v>
       </c>
+      <c r="X9" s="8">
+        <v>-121830</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>-2115441</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>-1438359</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>1407993</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>-2846352</v>
+      </c>
       <c r="AC9" s="8">
-        <v>-121830</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>-2115441</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>-1438359</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>1407993</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>-2846352</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="8">
         <v>-680924</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AG9" s="8">
         <v>3842</v>
       </c>
-      <c r="AM9" s="7">
+      <c r="AH9" s="7">
         <v>7680</v>
       </c>
-      <c r="AN9" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="7">
+      <c r="AI9" s="7">
         <v>-259656</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2020</v>
       </c>
@@ -7479,103 +7194,85 @@
         <v>-3870</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
+        <v>625303</v>
+      </c>
+      <c r="K10" s="8">
+        <v>129876</v>
       </c>
       <c r="L10" s="9">
-        <v>625303</v>
-      </c>
-      <c r="M10" s="8">
-        <v>129876</v>
+        <v>487751</v>
+      </c>
+      <c r="M10" s="9">
+        <v>-439340</v>
       </c>
       <c r="N10" s="9">
-        <v>487751</v>
+        <v>-704073</v>
       </c>
       <c r="O10" s="9">
-        <v>-439340</v>
-      </c>
-      <c r="P10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>-704073</v>
-      </c>
-      <c r="S10" s="9">
         <v>785538</v>
       </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>207375</v>
       </c>
-      <c r="V10" s="7">
+      <c r="R10" s="7">
         <v>-558546</v>
       </c>
+      <c r="S10" s="8">
+        <v>-535146</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>-558546</v>
+      </c>
+      <c r="V10" s="9">
+        <v>23400</v>
+      </c>
       <c r="W10" s="8">
-        <v>-535146</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>-558546</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>23400</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
         <v>886856</v>
       </c>
+      <c r="X10" s="8">
+        <v>-144335</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>-2360601</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>-1474909</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>211487</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>-1686396</v>
+      </c>
       <c r="AC10" s="8">
-        <v>-144335</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>-2360601</v>
-      </c>
-      <c r="AE10" s="8">
-        <v>-1474909</v>
-      </c>
-      <c r="AF10" s="9">
-        <v>211487</v>
-      </c>
-      <c r="AG10" s="9">
-        <v>-1686396</v>
-      </c>
-      <c r="AH10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="8">
         <v>-881332</v>
       </c>
-      <c r="AL10" s="8">
+      <c r="AG10" s="8">
         <v>-4360</v>
       </c>
-      <c r="AM10" s="7">
+      <c r="AH10" s="7">
         <v>169290</v>
       </c>
-      <c r="AN10" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="7">
+      <c r="AI10" s="7">
         <v>1946096</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2021</v>
       </c>
@@ -7604,103 +7301,85 @@
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
+        <v>62968</v>
+      </c>
+      <c r="K11" s="8">
+        <v>-3960418</v>
       </c>
       <c r="L11" s="9">
-        <v>62968</v>
-      </c>
-      <c r="M11" s="8">
-        <v>-3960418</v>
+        <v>-1357761</v>
+      </c>
+      <c r="M11" s="9">
+        <v>-2673253</v>
       </c>
       <c r="N11" s="9">
-        <v>-1357761</v>
+        <v>-1152552</v>
       </c>
       <c r="O11" s="9">
-        <v>-2673253</v>
-      </c>
-      <c r="P11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>-1152552</v>
-      </c>
-      <c r="S11" s="9">
         <v>1223148</v>
       </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>-683870</v>
       </c>
-      <c r="V11" s="7">
+      <c r="R11" s="7">
         <v>-847344</v>
       </c>
+      <c r="S11" s="8">
+        <v>-796985</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>-847344</v>
+      </c>
+      <c r="V11" s="9">
+        <v>50359</v>
+      </c>
       <c r="W11" s="8">
-        <v>-796985</v>
-      </c>
-      <c r="X11" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="9">
-        <v>-847344</v>
-      </c>
-      <c r="Z11" s="9">
-        <v>50359</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
         <v>113115</v>
       </c>
+      <c r="X11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>-1443405</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>209377</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>503206</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>-293829</v>
+      </c>
       <c r="AC11" s="8">
         <v>0</v>
       </c>
-      <c r="AD11" s="7">
-        <v>-1443405</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>209377</v>
-      </c>
-      <c r="AF11" s="9">
-        <v>503206</v>
-      </c>
-      <c r="AG11" s="9">
-        <v>-293829</v>
-      </c>
-      <c r="AH11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="8">
+      <c r="AD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
         <v>-1657345</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AG11" s="8">
         <v>4563</v>
       </c>
-      <c r="AM11" s="7">
+      <c r="AH11" s="7">
         <v>10177</v>
       </c>
-      <c r="AN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="7">
+      <c r="AI11" s="7">
         <v>-1177713</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
     </row>
   </sheetData>
@@ -7709,400 +7388,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627A676-6924-4813-946F-543312816066}">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA718F-BE14-4162-8449-DCEB5FB86D1C}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2012</v>
       </c>
       <c r="B2" s="7">
-        <v>808411</v>
-      </c>
-      <c r="C2" s="7"/>
+        <v>6173878</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
       <c r="D2" s="7">
-        <v>500274</v>
-      </c>
-      <c r="E2" s="33">
-        <f t="shared" ref="E2:E11" si="0">B2/D2-1</f>
-        <v>0.61593646681618464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2013</v>
       </c>
       <c r="B3" s="7">
-        <v>1011753</v>
-      </c>
-      <c r="C3" s="34">
-        <f>B3/B2-1</f>
-        <v>0.25153294549430916</v>
+        <v>6828896</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>292079</v>
-      </c>
-      <c r="E3" s="33">
-        <f t="shared" si="0"/>
-        <v>2.463970364182293</v>
-      </c>
-      <c r="F3" s="32">
-        <f>B3/D2-1</f>
-        <v>1.0223977260461266</v>
-      </c>
-      <c r="G3">
-        <f>(D2+D3)/2</f>
-        <v>396176.5</v>
-      </c>
-      <c r="H3" s="32">
-        <f>B3/G3-1</f>
-        <v>1.5537935743286138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2014</v>
       </c>
       <c r="B4" s="7">
-        <v>1094352</v>
-      </c>
-      <c r="C4" s="34">
-        <f t="shared" ref="C4:C11" si="1">B4/B3-1</f>
-        <v>8.163949106155366E-2</v>
+        <v>7840757</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>613764</v>
-      </c>
-      <c r="E4" s="33">
-        <f t="shared" si="0"/>
-        <v>0.78301757678847239</v>
-      </c>
-      <c r="F4" s="32">
-        <f t="shared" ref="F4:F11" si="2">B4/D3-1</f>
-        <v>2.7467671417664401</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G11" si="3">(D3+D4)/2</f>
-        <v>452921.5</v>
-      </c>
-      <c r="H4" s="32">
-        <f t="shared" ref="H4:H11" si="4">B4/G4-1</f>
-        <v>1.4162067819699442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2015</v>
       </c>
       <c r="B5" s="7">
-        <v>1158245</v>
-      </c>
-      <c r="C5" s="34">
-        <f t="shared" si="1"/>
-        <v>5.8384322411801692E-2</v>
+        <v>9760323</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>636746</v>
-      </c>
-      <c r="E5" s="33">
-        <f t="shared" si="0"/>
-        <v>0.81900632277234564</v>
-      </c>
-      <c r="F5" s="32">
-        <f t="shared" si="2"/>
-        <v>0.8871178498576</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>625255</v>
-      </c>
-      <c r="H5" s="32">
-        <f t="shared" si="4"/>
-        <v>0.85243620602794068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2016</v>
       </c>
       <c r="B6" s="7">
-        <v>1063674</v>
-      </c>
-      <c r="C6" s="34">
-        <f t="shared" si="1"/>
-        <v>-8.1650255343213241E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>654926</v>
-      </c>
-      <c r="E6" s="33">
-        <f t="shared" si="0"/>
-        <v>0.6241132585971545</v>
-      </c>
-      <c r="F6" s="32">
-        <f t="shared" si="2"/>
-        <v>0.67048399204706421</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>645836</v>
-      </c>
-      <c r="H6" s="32">
-        <f t="shared" si="4"/>
-        <v>0.64697229637245379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9367008</v>
+      </c>
+      <c r="C6" s="7">
+        <f>GEOMEAN(B2:B5)</f>
+        <v>7536725.2188223433</v>
+      </c>
+      <c r="D6" s="41" t="e">
+        <f>C6/C5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2017</v>
       </c>
       <c r="B7" s="7">
-        <v>1182412</v>
-      </c>
-      <c r="C7" s="34">
-        <f t="shared" si="1"/>
-        <v>0.11163006710702716</v>
-      </c>
-      <c r="D7" s="7">
-        <v>361605</v>
-      </c>
-      <c r="E7" s="33">
-        <f t="shared" si="0"/>
-        <v>2.2698994759475117</v>
-      </c>
-      <c r="F7" s="32">
-        <f t="shared" si="2"/>
-        <v>0.80541313064376729</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>508265.5</v>
-      </c>
-      <c r="H7" s="32">
-        <f t="shared" si="4"/>
-        <v>1.3263668299343552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9523830</v>
+      </c>
+      <c r="C7" s="7">
+        <f>GEOMEAN(B2:B6)</f>
+        <v>7871659.9303255863</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7:D11" si="0">C7/C6-1</f>
+        <v>4.4440350653460303E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
       <c r="B8" s="7">
-        <v>1507031</v>
-      </c>
-      <c r="C8" s="34">
-        <f t="shared" si="1"/>
-        <v>0.27453966975977906</v>
-      </c>
-      <c r="D8" s="7">
-        <v>429403</v>
-      </c>
-      <c r="E8" s="33">
+        <v>11970090</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" ref="C8:C11" si="1">GEOMEAN(B3:B7)</f>
+        <v>8584540.2615572009</v>
+      </c>
+      <c r="D8" s="41">
         <f t="shared" si="0"/>
-        <v>2.5095958807926353</v>
-      </c>
-      <c r="F8" s="32">
-        <f t="shared" si="2"/>
-        <v>3.1676165982218167</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>395504</v>
-      </c>
-      <c r="H8" s="32">
-        <f t="shared" si="4"/>
-        <v>2.810406468708281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.0562897475441106E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
       <c r="B9" s="7">
-        <v>1847734</v>
-      </c>
-      <c r="C9" s="34">
+        <v>13347434</v>
+      </c>
+      <c r="C9" s="7">
         <f t="shared" si="1"/>
-        <v>0.22607564144334114</v>
-      </c>
-      <c r="D9" s="7">
-        <v>524482</v>
-      </c>
-      <c r="E9" s="33">
+        <v>9604315.6572004557</v>
+      </c>
+      <c r="D9" s="41">
         <f t="shared" si="0"/>
-        <v>2.5229693297386757</v>
-      </c>
-      <c r="F9" s="32">
-        <f t="shared" si="2"/>
-        <v>3.3030300207497385</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>476942.5</v>
-      </c>
-      <c r="H9" s="32">
-        <f t="shared" si="4"/>
-        <v>2.8741231909506912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.11879208024801913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2020</v>
       </c>
       <c r="B10" s="7">
-        <v>2816324</v>
-      </c>
-      <c r="C10" s="34">
+        <v>17469557</v>
+      </c>
+      <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>0.52420424151961265</v>
-      </c>
-      <c r="D10" s="7">
-        <v>558546</v>
-      </c>
-      <c r="E10" s="33">
+        <v>10682536.434956588</v>
+      </c>
+      <c r="D10" s="41">
         <f t="shared" si="0"/>
-        <v>4.0422418207273889</v>
-      </c>
-      <c r="F10" s="32">
-        <f t="shared" si="2"/>
-        <v>4.3697247951311962</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>541514</v>
-      </c>
-      <c r="H10" s="32">
-        <f t="shared" si="4"/>
-        <v>4.2008332194550837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.11226419624679651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2021</v>
       </c>
       <c r="B11" s="7">
-        <v>4158343</v>
-      </c>
-      <c r="C11" s="34">
+        <v>23563338</v>
+      </c>
+      <c r="C11" s="7">
         <f t="shared" si="1"/>
-        <v>0.47651442092600149</v>
-      </c>
-      <c r="D11" s="7">
-        <v>847344</v>
-      </c>
-      <c r="E11" s="33">
+        <v>12001566.148300141</v>
+      </c>
+      <c r="D11" s="41">
         <f t="shared" si="0"/>
-        <v>3.907502737967107</v>
-      </c>
-      <c r="F11" s="32">
-        <f t="shared" si="2"/>
-        <v>6.4449427621001671</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>702945</v>
-      </c>
-      <c r="H11" s="32">
-        <f t="shared" si="4"/>
-        <v>4.915602216389618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+        <v>0.12347533016852408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6:C11" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8111,7 +7597,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8132,19 +7618,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -8153,15 +7639,17 @@
       <c r="B2" s="30">
         <v>893566</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -8170,16 +7658,17 @@
       <c r="B3" s="30">
         <v>1027434</v>
       </c>
-      <c r="C3" s="36">
-        <f>B3/B2-1</f>
-        <v>0.14981322028814881</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -8188,16 +7677,17 @@
       <c r="B4" s="30">
         <v>1147520</v>
       </c>
-      <c r="C4" s="36">
-        <f t="shared" ref="C4:C11" si="0">B4/B3-1</f>
-        <v>0.11687952705477911</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -8206,16 +7696,17 @@
       <c r="B5" s="30">
         <v>982442</v>
       </c>
-      <c r="C5" s="36">
-        <f t="shared" si="0"/>
-        <v>-0.14385631622978245</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -8224,16 +7715,19 @@
       <c r="B6" s="30">
         <v>2130912</v>
       </c>
-      <c r="C6" s="36">
-        <f t="shared" si="0"/>
-        <v>1.168995218038317</v>
-      </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="30">
+        <f>GEOMEAN(B2:B5)</f>
+        <v>1008641.7444845194</v>
+      </c>
+      <c r="D6" s="34">
+        <f>C6/B5-1</f>
+        <v>2.6667980893039234E-2</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -8242,19 +7736,19 @@
       <c r="B7" s="30">
         <v>1290136</v>
       </c>
-      <c r="C7" s="36">
-        <f t="shared" si="0"/>
-        <v>-0.39456157739033804</v>
-      </c>
-      <c r="D7" s="36">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.32295791228786563</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="30">
+        <f>GEOMEAN(B2:B6)</f>
+        <v>1171393.0787139866</v>
+      </c>
+      <c r="D7" s="34">
+        <f>C7/B6-1</f>
+        <v>-0.45028556847303569</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -8263,22 +7757,19 @@
       <c r="B8" s="30">
         <v>1299655</v>
       </c>
-      <c r="C8" s="36">
-        <f t="shared" si="0"/>
-        <v>7.3782919010088044E-3</v>
-      </c>
-      <c r="D8" s="36">
-        <f t="shared" ref="D8:D11" si="1">AVERAGE(C3:C7)</f>
-        <v>0.17945401435222491</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38">
-        <f>B7*(1+$D$7)</f>
-        <v>1706795.6291274179</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="30">
+        <f>GEOMEAN(B3:B7)</f>
+        <v>1260678.7293157117</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" ref="D8:D11" si="0">C8/B7-1</f>
+        <v>-2.2832686386775047E-2</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -8287,22 +7778,19 @@
       <c r="B9" s="30">
         <v>1907853</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="30">
+        <f>GEOMEAN(B4:B8)</f>
+        <v>1321354.2168646439</v>
+      </c>
+      <c r="D9" s="34">
         <f t="shared" si="0"/>
-        <v>0.46796880710650135</v>
-      </c>
-      <c r="D9" s="36">
-        <f t="shared" si="1"/>
-        <v>0.15096702867479686</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38">
-        <f>F8*(1+$D$7)</f>
-        <v>2258018.7822124632</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+        <v>1.6696136178173226E-2</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -8311,22 +7799,19 @@
       <c r="B10" s="30">
         <v>3930032</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="30">
+        <f>GEOMEAN(B5:B9)</f>
+        <v>1462770.4694113766</v>
+      </c>
+      <c r="D10" s="34">
         <f t="shared" si="0"/>
-        <v>1.0599239039905064</v>
-      </c>
-      <c r="D10" s="36">
-        <f t="shared" si="1"/>
-        <v>0.22118488468514136</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38">
-        <f t="shared" ref="F10:F17" si="2">F9*(1+$D$7)</f>
-        <v>2987263.814022589</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+        <v>-0.23328974013649029</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -8335,110 +7820,92 @@
       <c r="B11" s="30">
         <v>939385</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="30">
+        <f>GEOMEAN(B6:B10)</f>
+        <v>1930163.1384817332</v>
+      </c>
+      <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>-0.76097268419188446</v>
-      </c>
-      <c r="D11" s="36">
-        <f t="shared" si="1"/>
-        <v>0.46194092872919912</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38">
-        <f t="shared" si="2"/>
-        <v>3952024.2988524111</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+        <v>-0.50886834038966267</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38">
-        <f t="shared" si="2"/>
-        <v>5228361.8157207016</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38">
-        <f t="shared" si="2"/>
-        <v>6916902.6324114539</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38">
-        <f t="shared" si="2"/>
-        <v>9150771.0660734996</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38">
-        <f t="shared" si="2"/>
-        <v>12106084.985396804</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38">
-        <f t="shared" si="2"/>
-        <v>16015840.918260032</v>
-      </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38">
-        <f t="shared" si="2"/>
-        <v>21188283.464755867</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6:C11" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8454,7 +7921,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B1" s="14">
         <v>41639</v>
@@ -8486,7 +7953,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B2" s="7">
         <v>620431.51399999997</v>
@@ -8540,16 +8007,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8631,8 +8098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1372AF-9666-48CB-B2F1-1C52DFEB6033}">
   <dimension ref="B2:O125"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="N136" sqref="N136"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8644,64 +8111,64 @@
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C2" s="16">
         <v>40906</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C3" s="16">
         <v>44560</v>
       </c>
-      <c r="K3" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="L4" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21">
         <f>_xlfn.COVARIANCE.P(F7:F125,$F$7:$F$125)/_xlfn.VAR.P($F$7:$F$125)</f>
@@ -8712,7 +8179,7 @@
         <v>0.35747930273744727</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <v>40906</v>
       </c>
@@ -8732,12 +8199,12 @@
         <v>WEGE3</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>40939</v>
       </c>
@@ -8761,7 +8228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>40968</v>
       </c>
@@ -8782,7 +8249,7 @@
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>40998</v>
       </c>
@@ -8803,7 +8270,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>41029</v>
       </c>
@@ -8824,7 +8291,7 @@
       </c>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>41060</v>
       </c>
@@ -8845,7 +8312,7 @@
       </c>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>41089</v>
       </c>
@@ -8866,7 +8333,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>41121</v>
       </c>
@@ -8887,7 +8354,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
         <v>41152</v>
       </c>
@@ -8908,7 +8375,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>41180</v>
       </c>
@@ -8929,7 +8396,7 @@
       </c>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>41213</v>
       </c>
@@ -8949,9 +8416,11 @@
         <v>-1.2277730728154437E-2</v>
       </c>
       <c r="H16" s="26"/>
-      <c r="M16" t="s">
-        <v>152</v>
-      </c>
+      <c r="M16" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
@@ -8973,14 +8442,14 @@
         <v>0.16802400341294163</v>
       </c>
       <c r="H17" s="26"/>
-      <c r="M17" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" s="12" t="s">
+      <c r="M17" s="43" t="s">
         <v>137</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -9004,15 +8473,15 @@
       </c>
       <c r="H18" s="26"/>
       <c r="J18" s="28"/>
-      <c r="M18">
+      <c r="M18" s="42">
         <f>(C18-C17)/C17</f>
         <v>6.0514319518390924E-2</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="42">
         <f>(D18-D17)/D17</f>
         <v>-6.6486612111025072E-3</v>
       </c>
-      <c r="O18" t="e">
+      <c r="O18" s="42" t="e">
         <f>(E18-E17)/E17</f>
         <v>#DIV/0!</v>
       </c>
@@ -9382,10 +8851,10 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -12063,11 +11532,413 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="M16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9627A676-6924-4813-946F-543312816066}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="7">
+        <v>808411</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7">
+        <v>500274</v>
+      </c>
+      <c r="E2" s="37">
+        <f t="shared" ref="E2:E11" si="0">B2/D2-1</f>
+        <v>0.61593646681618464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1011753</v>
+      </c>
+      <c r="C3" s="32">
+        <f>B3/B2-1</f>
+        <v>0.25153294549430916</v>
+      </c>
+      <c r="D3" s="7">
+        <v>292079</v>
+      </c>
+      <c r="E3" s="37">
+        <f t="shared" si="0"/>
+        <v>2.463970364182293</v>
+      </c>
+      <c r="F3" s="37">
+        <f>B3/D2-1</f>
+        <v>1.0223977260461266</v>
+      </c>
+      <c r="G3" s="37">
+        <f>(AVERAGE(D2:D3)-1)</f>
+        <v>396175.5</v>
+      </c>
+      <c r="H3" s="37">
+        <f>B3/G3-1</f>
+        <v>1.5538000204454843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1094352</v>
+      </c>
+      <c r="C4" s="32">
+        <f t="shared" ref="C4:C11" si="1">B4/B3-1</f>
+        <v>8.163949106155366E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>613764</v>
+      </c>
+      <c r="E4" s="37">
+        <f t="shared" si="0"/>
+        <v>0.78301757678847239</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" ref="F4:F11" si="2">B4/D3-1</f>
+        <v>2.7467671417664401</v>
+      </c>
+      <c r="G4" s="37">
+        <f>(AVERAGE(D2:D4)-1)</f>
+        <v>468704.66666666669</v>
+      </c>
+      <c r="H4" s="37">
+        <f t="shared" ref="H4:H11" si="3">B4/G4-1</f>
+        <v>1.3348434052999969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1158245</v>
+      </c>
+      <c r="C5" s="32">
+        <f t="shared" si="1"/>
+        <v>5.8384322411801692E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>636746</v>
+      </c>
+      <c r="E5" s="37">
+        <f t="shared" si="0"/>
+        <v>0.81900632277234564</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="2"/>
+        <v>0.8871178498576</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" ref="G5:G11" si="4">(D4+D5)/2</f>
+        <v>625255</v>
+      </c>
+      <c r="H5" s="37">
+        <f t="shared" si="3"/>
+        <v>0.85243620602794068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1063674</v>
+      </c>
+      <c r="C6" s="32">
+        <f t="shared" si="1"/>
+        <v>-8.1650255343213241E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>654926</v>
+      </c>
+      <c r="E6" s="37">
+        <f t="shared" si="0"/>
+        <v>0.6241132585971545</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="2"/>
+        <v>0.67048399204706421</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="4"/>
+        <v>645836</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" si="3"/>
+        <v>0.64697229637245379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1182412</v>
+      </c>
+      <c r="C7" s="32">
+        <f t="shared" si="1"/>
+        <v>0.11163006710702716</v>
+      </c>
+      <c r="D7" s="7">
+        <v>361605</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="0"/>
+        <v>2.2698994759475117</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="2"/>
+        <v>0.80541313064376729</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="4"/>
+        <v>508265.5</v>
+      </c>
+      <c r="H7" s="37">
+        <f t="shared" si="3"/>
+        <v>1.3263668299343552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1507031</v>
+      </c>
+      <c r="C8" s="32">
+        <f t="shared" si="1"/>
+        <v>0.27453966975977906</v>
+      </c>
+      <c r="D8" s="7">
+        <v>429403</v>
+      </c>
+      <c r="E8" s="37">
+        <f t="shared" si="0"/>
+        <v>2.5095958807926353</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="2"/>
+        <v>3.1676165982218167</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="4"/>
+        <v>395504</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="3"/>
+        <v>2.810406468708281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1847734</v>
+      </c>
+      <c r="C9" s="32">
+        <f t="shared" si="1"/>
+        <v>0.22607564144334114</v>
+      </c>
+      <c r="D9" s="7">
+        <v>524482</v>
+      </c>
+      <c r="E9" s="37">
+        <f t="shared" si="0"/>
+        <v>2.5229693297386757</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="2"/>
+        <v>3.3030300207497385</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="4"/>
+        <v>476942.5</v>
+      </c>
+      <c r="H9" s="37">
+        <f t="shared" si="3"/>
+        <v>2.8741231909506912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2816324</v>
+      </c>
+      <c r="C10" s="32">
+        <f t="shared" si="1"/>
+        <v>0.52420424151961265</v>
+      </c>
+      <c r="D10" s="7">
+        <v>558546</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="0"/>
+        <v>4.0422418207273889</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="2"/>
+        <v>4.3697247951311962</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="4"/>
+        <v>541514</v>
+      </c>
+      <c r="H10" s="37">
+        <f t="shared" si="3"/>
+        <v>4.2008332194550837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4158343</v>
+      </c>
+      <c r="C11" s="32">
+        <f t="shared" si="1"/>
+        <v>0.47651442092600149</v>
+      </c>
+      <c r="D11" s="7">
+        <v>847344</v>
+      </c>
+      <c r="E11" s="37">
+        <f t="shared" si="0"/>
+        <v>3.907502737967107</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="2"/>
+        <v>6.4449427621001671</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="4"/>
+        <v>702945</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="3"/>
+        <v>4.915602216389618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837E4D8-ABEB-4320-8E5C-D0997478E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7685F9-7B78-4D7E-8919-3919484708E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
     <sheet name="DRE_WEGE3" sheetId="2" r:id="rId2"/>
     <sheet name="FC_WEGE3" sheetId="4" r:id="rId3"/>
     <sheet name="VAR_RLO" sheetId="9" r:id="rId4"/>
-    <sheet name="Projecao_FC" sheetId="8" r:id="rId5"/>
+    <sheet name="Projecao_FC" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="NA_WEGE3" sheetId="3" r:id="rId6"/>
     <sheet name="Dado_Macro" sheetId="5" r:id="rId7"/>
     <sheet name="Retornos" sheetId="6" r:id="rId8"/>
-    <sheet name="FCO_WEGE3" sheetId="7" r:id="rId9"/>
+    <sheet name="FCO_WEGE3" sheetId="7" state="hidden" r:id="rId9"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="154">
   <si>
     <t>Ano</t>
   </si>
@@ -440,9 +440,6 @@
     <t>ERP</t>
   </si>
   <si>
-    <t>PIB LP</t>
-  </si>
-  <si>
     <t>Emitidas</t>
   </si>
   <si>
@@ -510,18 +507,22 @@
   </si>
   <si>
     <t>media geometrica</t>
+  </si>
+  <si>
+    <t>PIB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -681,7 +682,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -805,6 +806,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2552,7 +2554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C9A29-F125-44E8-9E76-9BF068E61073}">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BE7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5274,7 +5278,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5308,10 +5312,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>75</v>
@@ -6207,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>96</v>
@@ -6255,7 +6259,7 @@
         <v>109</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>110</v>
@@ -7391,9 +7395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA718F-BE14-4162-8449-DCEB5FB86D1C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7405,14 +7407,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>152</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -7421,12 +7419,8 @@
       <c r="B2" s="7">
         <v>6173878</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -7435,12 +7429,8 @@
       <c r="B3" s="7">
         <v>6828896</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -7449,12 +7439,8 @@
       <c r="B4" s="7">
         <v>7840757</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -7463,12 +7449,8 @@
       <c r="B5" s="7">
         <v>9760323</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -7477,14 +7459,8 @@
       <c r="B6" s="7">
         <v>9367008</v>
       </c>
-      <c r="C6" s="7">
-        <f>GEOMEAN(B2:B5)</f>
-        <v>7536725.2188223433</v>
-      </c>
-      <c r="D6" s="41" t="e">
-        <f>C6/C5-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
@@ -7493,14 +7469,8 @@
       <c r="B7" s="7">
         <v>9523830</v>
       </c>
-      <c r="C7" s="7">
-        <f>GEOMEAN(B2:B6)</f>
-        <v>7871659.9303255863</v>
-      </c>
-      <c r="D7" s="41">
-        <f t="shared" ref="D7:D11" si="0">C7/C6-1</f>
-        <v>4.4440350653460303E-2</v>
-      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -7509,14 +7479,8 @@
       <c r="B8" s="7">
         <v>11970090</v>
       </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:C11" si="1">GEOMEAN(B3:B7)</f>
-        <v>8584540.2615572009</v>
-      </c>
-      <c r="D8" s="41">
-        <f t="shared" si="0"/>
-        <v>9.0562897475441106E-2</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
@@ -7525,14 +7489,8 @@
       <c r="B9" s="7">
         <v>13347434</v>
       </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>9604315.6572004557</v>
-      </c>
-      <c r="D9" s="41">
-        <f t="shared" si="0"/>
-        <v>0.11879208024801913</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -7541,14 +7499,8 @@
       <c r="B10" s="7">
         <v>17469557</v>
       </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>10682536.434956588</v>
-      </c>
-      <c r="D10" s="41">
-        <f t="shared" si="0"/>
-        <v>0.11226419624679651</v>
-      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -7557,14 +7509,8 @@
       <c r="B11" s="7">
         <v>23563338</v>
       </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>12001566.148300141</v>
-      </c>
-      <c r="D11" s="41">
-        <f t="shared" si="0"/>
-        <v>0.12347533016852408</v>
-      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
@@ -7586,9 +7532,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="C6:C11" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7618,13 +7561,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -7914,14 +7857,14 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="14">
         <v>41639</v>
@@ -7953,7 +7896,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7">
         <v>620431.51399999997</v>
@@ -7990,10 +7933,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708DBFC9-FCC9-4341-9C9E-CD179F911560}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8016,79 +7959,94 @@
         <v>129</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2017</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="47">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C2" s="26">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="47">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D2" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="47">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2018</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="47">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="47">
         <v>3.6900000000000002E-2</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26">
-        <v>1.2999999999999999E-2</v>
+      <c r="D3" s="47">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E3" s="47">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2019</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="47">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="47">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
-        <v>1.17E-2</v>
+      <c r="D4" s="47">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E4" s="47">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2020</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="47">
         <v>1.9E-2</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="47">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="47">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="47">
+        <v>3.4500000000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2021</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="47">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="47">
         <v>0.10009999999999999</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8098,7 +8056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1372AF-9666-48CB-B2F1-1C52DFEB6033}">
   <dimension ref="B2:O125"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -8113,7 +8071,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="16">
         <v>40906</v>
@@ -8121,51 +8079,51 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="16">
         <v>44560</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>139</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>140</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -8417,7 +8375,7 @@
       </c>
       <c r="H16" s="26"/>
       <c r="M16" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="46"/>
@@ -8443,10 +8401,10 @@
       </c>
       <c r="H17" s="26"/>
       <c r="M17" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="43" t="s">
         <v>137</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>138</v>
       </c>
       <c r="O17" s="43" t="s">
         <v>127</v>
@@ -8851,10 +8809,10 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -11564,22 +11522,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="H1" s="29"/>
     </row>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7685F9-7B78-4D7E-8919-3919484708E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668545D1-DBAF-4961-B3C2-DDA3B32EB11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -2554,7 +2554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35C9A29-F125-44E8-9E76-9BF068E61073}">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BE7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -5277,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979E89F8-68A7-48B2-83BC-963650875B5E}">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668545D1-DBAF-4961-B3C2-DDA3B32EB11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96FA57-988C-489E-84B6-01E2CF6F912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3CFC146C-AAF8-4203-992D-5A2F5A886BC4}"/>
   </bookViews>
@@ -5278,7 +5278,7 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C11"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6122,6 +6122,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\TESTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC45C91-EDCA-445D-ABCE-00A1C8EA0F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3053A7D7-FFDA-4D15-98C2-DBFC0DE2FAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
   <si>
     <t>Ano</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>PIB</t>
+  </si>
+  <si>
+    <t>media geometrica</t>
+  </si>
+  <si>
+    <t>taxa de crescimento</t>
   </si>
 </sst>
 </file>
@@ -829,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFDC6F4-1CB7-4035-9B7A-98D0BEE819CC}">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5628,108 +5634,190 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F8487-9E81-4945-9766-900218F74E8C}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
       <c r="B2">
         <v>6173878</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3">
         <v>6828896</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4">
         <v>7840757</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5">
         <v>9760323</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
       <c r="B6">
         <v>9367008</v>
       </c>
+      <c r="C6">
+        <f>GEOMEAN(B2:B6)</f>
+        <v>7871659.9303255863</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
       <c r="B7">
         <v>9523830</v>
       </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C11" si="0">GEOMEAN(B3:B7)</f>
+        <v>8584540.2615572009</v>
+      </c>
+      <c r="D7">
+        <f>C7/C6-1</f>
+        <v>9.0562897475441106E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8">
         <v>11970090</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>9604315.6572004557</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D11" si="1">C8/C7-1</f>
+        <v>0.11879208024801913</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
       <c r="B9">
         <v>13347434</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>10682536.434956588</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.11226419624679651</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
       <c r="B10">
         <v>17469557</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>12001566.148300141</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.12347533016852408</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
       <c r="B11">
         <v>23563338</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>14433282.348319583</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.20261657270154365</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6:C11" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\TESTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3053A7D7-FFDA-4D15-98C2-DBFC0DE2FAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F404A-BD34-4452-87A5-8B9558380982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>Ano</t>
   </si>
@@ -265,9 +265,6 @@
     <t xml:space="preserve"> Outr result abrangentes</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Receita liquida operacional</t>
   </si>
   <si>
@@ -277,24 +274,15 @@
     <t>=Lucro Bruto</t>
   </si>
   <si>
-    <t>-Desp (receit) operac</t>
-  </si>
-  <si>
     <t>+Despesas com Vendas</t>
   </si>
   <si>
     <t>+Despesas administrativ</t>
   </si>
   <si>
-    <t>-Outras rec operacionais</t>
-  </si>
-  <si>
     <t>+Outras Despesas Operac</t>
   </si>
   <si>
-    <t>-Equivalenc patrimonial</t>
-  </si>
-  <si>
     <t>"= EBITDA"</t>
   </si>
   <si>
@@ -310,15 +298,9 @@
     <t>+Receitas Financeiras</t>
   </si>
   <si>
-    <t>-Despesas Financeiras</t>
-  </si>
-  <si>
     <t>=LAIR</t>
   </si>
   <si>
-    <t>-Imp renda e contrib soc</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Provisao impost de rend</t>
   </si>
   <si>
@@ -331,9 +313,6 @@
     <t>=Lucro Consolidado</t>
   </si>
   <si>
-    <t>-Partic acion minoritar</t>
-  </si>
-  <si>
     <t>=Lucro liquido</t>
   </si>
   <si>
@@ -458,12 +437,33 @@
   </si>
   <si>
     <t>taxa de crescimento</t>
+  </si>
+  <si>
+    <t>0Desp (receit) operac</t>
+  </si>
+  <si>
+    <t>0Outras rec operacionais</t>
+  </si>
+  <si>
+    <t>0Equivalenc patrimonial</t>
+  </si>
+  <si>
+    <t>0Despesas Financeiras</t>
+  </si>
+  <si>
+    <t>0Imp renda e contrib soc</t>
+  </si>
+  <si>
+    <t>0Partic acion minoritar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,12 +479,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -514,11 +520,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,88 +845,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFDC6F4-1CB7-4035-9B7A-98D0BEE819CC}">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="24" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" x14ac:dyDescent="0.25">
@@ -1162,238 +1172,238 @@
       <c r="A2">
         <v>2012</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>8873550</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>5710017</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>2302256</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>261244</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>261244</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1472839</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>1472839</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1306273</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>183627</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>183627</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>183778</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>183778</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>3163533</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>88833</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>2032</v>
       </c>
-      <c r="Q2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2">
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
         <v>36891</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>36891</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>49910</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>49910</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>7622</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>349</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
         <v>349</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="3">
         <v>7273</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="3">
         <v>2537094</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="3">
         <v>2537094</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
         <v>529984</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="3">
         <v>31215</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="3">
         <v>31215</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="3">
         <v>498769</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="3">
         <v>8873550</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="3">
         <v>3012824</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="3">
         <v>168831</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="3">
         <v>168831</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="3">
         <v>331037</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="3">
         <v>126655</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="3">
         <v>126655</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="3">
         <v>72927</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="3">
         <v>53728</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="3">
         <v>1645772</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="3">
         <v>1645772</v>
       </c>
-      <c r="AT2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV2">
+      <c r="AT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3">
         <v>740529</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="3">
         <v>740529</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="3">
         <v>79381</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="3">
         <v>661148</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="3">
         <v>1709100</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="3">
         <v>1044068</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="3">
         <v>1044068</v>
       </c>
-      <c r="BC2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE2">
+      <c r="BC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="3">
         <v>137916</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="3">
         <v>137916</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="3">
         <v>137916</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="3">
         <v>320503</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="3">
         <v>320503</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="3">
         <v>206613</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="3">
         <v>4151626</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="3">
         <v>91277</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="3">
         <v>4060349</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="3">
         <v>2718440</v>
       </c>
-      <c r="BO2">
-        <v>-53319</v>
-      </c>
-      <c r="BP2">
+      <c r="BO2" s="3">
+        <v>53319</v>
+      </c>
+      <c r="BP2" s="3">
         <v>758</v>
       </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>-54077</v>
-      </c>
-      <c r="BS2">
+      <c r="BQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>54077</v>
+      </c>
+      <c r="BS2" s="3">
         <v>3784</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="3">
         <v>687792</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="3">
         <v>32799</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="3">
         <v>537245</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="3">
         <v>127803</v>
       </c>
-      <c r="BX2">
-        <v>-10055</v>
-      </c>
-      <c r="BY2">
+      <c r="BX2" s="3">
+        <v>10055</v>
+      </c>
+      <c r="BY2" s="3">
         <v>656646</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="3">
         <v>47006</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1401,238 +1411,238 @@
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>10141293</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>6851787</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>3373799</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>1658806</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>1658806</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>1445927</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>166384</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>166384</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>206871</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>206871</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>3289506</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>123866</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>2230</v>
       </c>
-      <c r="Q3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
         <v>60376</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>60376</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>61260</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <v>61260</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>7264</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>44</v>
       </c>
-      <c r="Y3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3">
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
         <v>7220</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="3">
         <v>2614556</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="3">
         <v>2614556</v>
       </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
         <v>543820</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="3">
         <v>40772</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="3">
         <v>40772</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="3">
         <v>503048</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="3">
         <v>10141293</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="3">
         <v>2578048</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="3">
         <v>216553</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="3">
         <v>216553</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="3">
         <v>420250</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="3">
         <v>139570</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="3">
         <v>139570</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="3">
         <v>83771</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="3">
         <v>55799</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="3">
         <v>912796</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="3">
         <v>912796</v>
       </c>
-      <c r="AT3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV3">
+      <c r="AT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3">
         <v>888879</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="3">
         <v>888879</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="3">
         <v>87723</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="3">
         <v>801156</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="3">
         <v>2920978</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="3">
         <v>2296208</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="3">
         <v>2296208</v>
       </c>
-      <c r="BC3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE3">
+      <c r="BC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="3">
         <v>95031</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="3">
         <v>95031</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="3">
         <v>95031</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="3">
         <v>294405</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="3">
         <v>294405</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="3">
         <v>235334</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="3">
         <v>4642267</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="3">
         <v>84495</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="3">
         <v>4557772</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="3">
         <v>2718440</v>
       </c>
-      <c r="BO3">
-        <v>-57724</v>
-      </c>
-      <c r="BP3">
+      <c r="BO3" s="3">
+        <v>57724</v>
+      </c>
+      <c r="BP3" s="3">
         <v>1325</v>
       </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>-59049</v>
-      </c>
-      <c r="BS3">
+      <c r="BQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>59049</v>
+      </c>
+      <c r="BS3" s="3">
         <v>3712</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="3">
         <v>1169077</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="3">
         <v>74972</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="3">
         <v>940453</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="3">
         <v>163174</v>
       </c>
-      <c r="BX3">
-        <v>-9522</v>
-      </c>
-      <c r="BY3">
+      <c r="BX3" s="3">
+        <v>9522</v>
+      </c>
+      <c r="BY3" s="3">
         <v>593500</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" s="3">
         <v>130767</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1640,238 +1650,238 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>11782630</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>8098187</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>3328015</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>865162</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>865162</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>1867864</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1867864</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1704919</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>159446</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>159446</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>172781</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>172781</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>3684443</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>126670</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1047</v>
       </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4">
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
         <v>55864</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>55864</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>69759</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="3">
         <v>69759</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>8224</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="3">
         <v>1004</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
         <v>1004</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="3">
         <v>7220</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="3">
         <v>2877942</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="3">
         <v>2877942</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
         <v>671607</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="3">
         <v>81317</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="3">
         <v>81317</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="3">
         <v>590290</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="3">
         <v>11782630</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="3">
         <v>3380815</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="3">
         <v>173382</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="3">
         <v>173382</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="3">
         <v>445577</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="3">
         <v>148335</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="3">
         <v>148335</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="3">
         <v>84714</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="3">
         <v>63621</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="3">
         <v>1466752</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="3">
         <v>1466752</v>
       </c>
-      <c r="AT4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV4">
+      <c r="AT4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
         <v>1146769</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="3">
         <v>1146769</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="3">
         <v>111707</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="3">
         <v>1035062</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="3">
         <v>3262552</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="3">
         <v>2625398</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="3">
         <v>2625398</v>
       </c>
-      <c r="BC4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE4">
+      <c r="BC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3">
         <v>95316</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="3">
         <v>95316</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="3">
         <v>95316</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="3">
         <v>282989</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="3">
         <v>282989</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="3">
         <v>258849</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="3">
         <v>5139263</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="3">
         <v>82878</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="3">
         <v>5056385</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="3">
         <v>3533973</v>
       </c>
-      <c r="BO4">
-        <v>-59139</v>
-      </c>
-      <c r="BP4">
+      <c r="BO4" s="3">
+        <v>59139</v>
+      </c>
+      <c r="BP4" s="3">
         <v>1817</v>
       </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>-60956</v>
-      </c>
-      <c r="BS4">
+      <c r="BQ4" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>60956</v>
+      </c>
+      <c r="BS4" s="3">
         <v>3658</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="3">
         <v>837741</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="3">
         <v>47736</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="3">
         <v>630929</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="3">
         <v>167494</v>
       </c>
-      <c r="BX4">
-        <v>-8418</v>
-      </c>
-      <c r="BY4">
+      <c r="BX4" s="3">
+        <v>8418</v>
+      </c>
+      <c r="BY4" s="3">
         <v>548750</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" s="3">
         <v>191402</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1879,238 +1889,238 @@
       <c r="A5">
         <v>2015</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>14261541</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>9589344</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>3277115</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1157644</v>
       </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>2545927</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2545927</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>2009254</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>266944</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>266944</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>332460</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>332460</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>4672197</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>619206</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>214</v>
       </c>
-      <c r="Q5" t="s">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
         <v>131327</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>131327</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>487665</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="3">
         <v>487665</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <v>1379</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="3">
         <v>1379</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
         <v>1379</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
         <v>3264898</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="3">
         <v>3264898</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
         <v>786714</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="3">
         <v>117394</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="3">
         <v>117394</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="3">
         <v>669320</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="3">
         <v>14261541</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="3">
         <v>3494850</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="3">
         <v>191077</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="3">
         <v>191077</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="3">
         <v>566769</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="3">
         <v>121461</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="3">
         <v>121461</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="3">
         <v>28160</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="3">
         <v>93301</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="3">
         <v>1284633</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="3">
         <v>1284633</v>
       </c>
-      <c r="AT5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV5">
+      <c r="AT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
         <v>1330910</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="3">
         <v>1330910</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="3">
         <v>172484</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="3">
         <v>1158426</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="3">
         <v>4610631</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="3">
         <v>3868335</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="3">
         <v>3868335</v>
       </c>
-      <c r="BC5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BE5">
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
         <v>159632</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="3">
         <v>159632</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="3">
         <v>159632</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="3">
         <v>242696</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="3">
         <v>242696</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="3">
         <v>339968</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="3">
         <v>6156060</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="3">
         <v>126680</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="3">
         <v>6029380</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="3">
         <v>3533973</v>
       </c>
-      <c r="BO5">
-        <v>-57044</v>
-      </c>
-      <c r="BP5">
+      <c r="BO5" s="3">
+        <v>57044</v>
+      </c>
+      <c r="BP5" s="3">
         <v>2474</v>
       </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>-59518</v>
-      </c>
-      <c r="BS5">
+      <c r="BQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>59518</v>
+      </c>
+      <c r="BS5" s="3">
         <v>3630</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="3">
         <v>1413353</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="3">
         <v>105539</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="3">
         <v>1194329</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="3">
         <v>130554</v>
       </c>
-      <c r="BX5">
-        <v>-17069</v>
-      </c>
-      <c r="BY5">
+      <c r="BX5" s="3">
+        <v>17069</v>
+      </c>
+      <c r="BY5" s="3">
         <v>493106</v>
       </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
+      <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
         <v>642362</v>
       </c>
     </row>
@@ -2118,477 +2128,477 @@
       <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>13509331</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>9127483</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3390662</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1373287</v>
       </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>2251922</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>2251922</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1575055</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>269626</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>269626</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>266931</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>266931</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>4381848</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>397383</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" t="s">
-        <v>74</v>
-      </c>
-      <c r="S6">
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
         <v>130291</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>130291</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>267092</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <v>267092</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>223</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="3">
         <v>223</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
         <v>223</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
         <v>3032716</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="3">
         <v>3032716</v>
       </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
         <v>951526</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="3">
         <v>161200</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="3">
         <v>161200</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="3">
         <v>790326</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="3">
         <v>13509331</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="3">
         <v>3278855</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="3">
         <v>199543</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="3">
         <v>199543</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="3">
         <v>562851</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="3">
         <v>125062</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="3">
         <v>125062</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="3">
         <v>29241</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="3">
         <v>95821</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="3">
         <v>991433</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="3">
         <v>991433</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="3">
         <v>642413</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="3">
         <v>349020</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="3">
         <v>1399966</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="3">
         <v>1399966</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="3">
         <v>191365</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="3">
         <v>1208601</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="3">
         <v>4159644</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="3">
         <v>3408892</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="3">
         <v>3408892</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="3">
         <v>1887571</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="3">
         <v>1521321</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="3">
         <v>157147</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="3">
         <v>157147</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="3">
         <v>157147</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="3">
         <v>159203</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="3">
         <v>159203</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="3">
         <v>434402</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="3">
         <v>6070832</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="3">
         <v>107958</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="3">
         <v>5962874</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="3">
         <v>3533973</v>
       </c>
-      <c r="BO6">
-        <v>-68092</v>
-      </c>
-      <c r="BP6">
+      <c r="BO6" s="3">
+        <v>68092</v>
+      </c>
+      <c r="BP6" s="3">
         <v>1971</v>
       </c>
-      <c r="BQ6">
-        <v>-11924</v>
-      </c>
-      <c r="BR6">
-        <v>-58139</v>
-      </c>
-      <c r="BS6">
+      <c r="BQ6" s="3">
+        <v>11924</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>58139</v>
+      </c>
+      <c r="BS6" s="3">
         <v>3630</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="3">
         <v>1993631</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="3">
         <v>161420</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" s="3">
         <v>1729461</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="3">
         <v>102750</v>
       </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
+      <c r="BX6" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="3">
         <v>442032</v>
       </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
+      <c r="BZ6" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="3">
         <v>57700</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2017</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>13985987</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>9415667</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>3162685</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>1411046</v>
       </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>2242613</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>2242613</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>1852266</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>419845</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>419845</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>327212</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>327212</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>4570320</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>443844</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s">
-        <v>74</v>
-      </c>
-      <c r="S7">
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
         <v>148284</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>148284</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>295560</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>295560</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <v>268</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="4">
         <v>268</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
         <v>268</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
         <v>3160111</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="4">
         <v>3160111</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
         <v>966097</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="4">
         <v>142682</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="4">
         <v>142682</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="4">
         <v>823415</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="4">
         <v>13985987</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="4">
         <v>4326788</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="4">
         <v>211062</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="4">
         <v>211062</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="4">
         <v>750533</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="4">
         <v>102944</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="4">
         <v>102944</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="4">
         <v>29672</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="4">
         <v>73272</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="4">
         <v>2014530</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="4">
         <v>2014530</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="4">
         <v>1300232</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="4">
         <v>714298</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="4">
         <v>1247719</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="4">
         <v>1247719</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="4">
         <v>160892</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="4">
         <v>1086827</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="4">
         <v>2815892</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="4">
         <v>2041912</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="4">
         <v>2041912</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="4">
         <v>457386</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" s="4">
         <v>1584526</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="4">
         <v>150390</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="4">
         <v>150390</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="4">
         <v>150390</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="4">
         <v>116629</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="4">
         <v>116629</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" s="4">
         <v>506961</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" s="4">
         <v>6843307</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" s="4">
         <v>122381</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="4">
         <v>6720926</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="4">
         <v>3533973</v>
       </c>
-      <c r="BO7">
-        <v>-91997</v>
-      </c>
-      <c r="BP7">
+      <c r="BO7" s="4">
+        <v>91997</v>
+      </c>
+      <c r="BP7" s="4">
         <v>4437</v>
       </c>
-      <c r="BQ7">
-        <v>-17392</v>
-      </c>
-      <c r="BR7">
-        <v>-79042</v>
-      </c>
-      <c r="BS7">
+      <c r="BQ7" s="4">
+        <v>17392</v>
+      </c>
+      <c r="BR7" s="4">
+        <v>79042</v>
+      </c>
+      <c r="BS7" s="4">
         <v>3630</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" s="4">
         <v>2595610</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" s="4">
         <v>218528</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" s="4">
         <v>2244627</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" s="4">
         <v>132455</v>
       </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
+      <c r="BX7" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="4">
         <v>406240</v>
       </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
+      <c r="BZ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="4">
         <v>273470</v>
       </c>
     </row>
@@ -2596,238 +2606,238 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>15399850</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>9438581</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>2205700</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1324188</v>
       </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>2440844</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>2440844</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>2458410</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>421938</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>421938</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>587501</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>587501</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>5961269</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>1178926</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>562782</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>562782</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>562782</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>142669</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>142669</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="3">
         <v>473475</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
         <v>473475</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <v>20362</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="3">
         <v>20362</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="3">
         <v>19981</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="3">
         <v>381</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>3541954</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="3">
         <v>3541954</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1220027</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="3">
         <v>225160</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="3">
         <v>225160</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="3">
         <v>994867</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="3">
         <v>15399850</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="3">
         <v>5034004</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="3">
         <v>240346</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="3">
         <v>240346</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="3">
         <v>842957</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="3">
         <v>88183</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="3">
         <v>88183</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="3">
         <v>24968</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="3">
         <v>63215</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="3">
         <v>2049093</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="3">
         <v>2049093</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="3">
         <v>175475</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="3">
         <v>1873618</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="3">
         <v>1813425</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="3">
         <v>1813425</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="3">
         <v>165441</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="3">
         <v>1647984</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="3">
         <v>2512589</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" s="3">
         <v>1723021</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" s="3">
         <v>1723021</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" s="3">
         <v>315291</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" s="3">
         <v>1407730</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="3">
         <v>155394</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="3">
         <v>155394</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" s="3">
         <v>155394</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="3">
         <v>86537</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" s="3">
         <v>86537</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" s="3">
         <v>547637</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" s="3">
         <v>7853257</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" s="3">
         <v>138983</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" s="3">
         <v>7714274</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" s="3">
         <v>5504517</v>
       </c>
-      <c r="BO8">
-        <v>-87102</v>
-      </c>
-      <c r="BP8">
+      <c r="BO8" s="3">
+        <v>87102</v>
+      </c>
+      <c r="BP8" s="3">
         <v>9615</v>
       </c>
-      <c r="BQ8">
-        <v>-15261</v>
-      </c>
-      <c r="BR8">
-        <v>-81456</v>
-      </c>
-      <c r="BS8">
+      <c r="BQ8" s="3">
+        <v>15261</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>81456</v>
+      </c>
+      <c r="BS8" s="3">
         <v>3630</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" s="3">
         <v>1133122</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" s="3">
         <v>66916</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" s="3">
         <v>892339</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" s="3">
         <v>173867</v>
       </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
+      <c r="BX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="3">
         <v>380781</v>
       </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
+      <c r="BZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="3">
         <v>779326</v>
       </c>
     </row>
@@ -2835,238 +2845,238 @@
       <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>15687641</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>9760902</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1946044</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1444227</v>
       </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>2747084</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>2747084</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2817129</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>394839</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>394839</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>411579</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>411579</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>5926739</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>597797</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>182042</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>182042</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="3">
         <v>415755</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="3">
         <v>415755</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
         <v>28012</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="3">
         <v>28012</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="3">
         <v>28007</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="3">
         <v>5</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
         <v>3981184</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="3">
         <v>3776561</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="3">
         <v>204623</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="3">
         <v>1319746</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="3">
         <v>201431</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="3">
         <v>201431</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="3">
         <v>1118315</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="3">
         <v>15687641</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="3">
         <v>4491021</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="3">
         <v>287187</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="3">
         <v>287187</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="3">
         <v>839879</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="3">
         <v>134510</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="3">
         <v>134510</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="3">
         <v>31578</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="3">
         <v>102932</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="3">
         <v>936370</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="3">
         <v>936370</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="3">
         <v>87566</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="3">
         <v>848804</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="3">
         <v>2293075</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="3">
         <v>2293075</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="3">
         <v>145376</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="3">
         <v>2147699</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="3">
         <v>2266630</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" s="3">
         <v>1348599</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" s="3">
         <v>1348599</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" s="3">
         <v>107930</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="3">
         <v>1240669</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" s="3">
         <v>291310</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="3">
         <v>291310</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" s="3">
         <v>291310</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="3">
         <v>75143</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="3">
         <v>75143</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" s="3">
         <v>551578</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" s="3">
         <v>8929990</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" s="3">
         <v>212743</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" s="3">
         <v>8717247</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" s="3">
         <v>5504517</v>
       </c>
-      <c r="BO9">
-        <v>-103868</v>
-      </c>
-      <c r="BP9">
+      <c r="BO9" s="3">
+        <v>103868</v>
+      </c>
+      <c r="BP9" s="3">
         <v>12857</v>
       </c>
-      <c r="BQ9">
-        <v>-11419</v>
-      </c>
-      <c r="BR9">
-        <v>-105306</v>
-      </c>
-      <c r="BS9">
+      <c r="BQ9" s="3">
+        <v>11419</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>105306</v>
+      </c>
+      <c r="BS9" s="3">
         <v>3630</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" s="3">
         <v>2059144</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" s="3">
         <v>147645</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" s="3">
         <v>1559607</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" s="3">
         <v>351892</v>
       </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
+      <c r="BX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="3">
         <v>359298</v>
       </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
+      <c r="BZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="3">
         <v>894526</v>
       </c>
     </row>
@@ -3074,238 +3084,238 @@
       <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>19927896</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>12556143</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>3892140</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>592794</v>
       </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>3417251</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>3417251</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>3737529</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>339283</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>339283</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>577146</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>577146</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>7371753</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>898045</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>360390</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>360390</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="3">
         <v>537655</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
         <v>537655</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
         <v>1023</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="3">
         <v>1023</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1023</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>4877210</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="3">
         <v>4598730</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="3">
         <v>278480</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="3">
         <v>1595475</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="3">
         <v>276765</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="3">
         <v>276765</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="3">
         <v>1318710</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="3">
         <v>19927896</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="3">
         <v>5882044</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="3">
         <v>366790</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="3">
         <v>366790</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="3">
         <v>1249368</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="3">
         <v>240467</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="3">
         <v>240467</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="3">
         <v>111072</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="3">
         <v>129395</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="3">
         <v>642284</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="3">
         <v>642284</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="3">
         <v>12289</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="3">
         <v>629995</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="3">
         <v>3383135</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="3">
         <v>3383135</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="3">
         <v>136007</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="3">
         <v>3247128</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="3">
         <v>2115554</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" s="3">
         <v>1044296</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" s="3">
         <v>1044296</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" s="3">
         <v>48193</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="3">
         <v>996103</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" s="3">
         <v>388928</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" s="3">
         <v>388928</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" s="3">
         <v>388928</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="3">
         <v>69625</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" s="3">
         <v>69625</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" s="3">
         <v>612705</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" s="3">
         <v>11930298</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" s="3">
         <v>367133</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" s="3">
         <v>11563165</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" s="3">
         <v>5504517</v>
       </c>
-      <c r="BO10">
-        <v>-132242</v>
-      </c>
-      <c r="BP10">
+      <c r="BO10" s="3">
+        <v>132242</v>
+      </c>
+      <c r="BP10" s="3">
         <v>11512</v>
       </c>
-      <c r="BQ10">
-        <v>-15779</v>
-      </c>
-      <c r="BR10">
-        <v>-127975</v>
-      </c>
-      <c r="BS10">
+      <c r="BQ10" s="3">
+        <v>15779</v>
+      </c>
+      <c r="BR10" s="3">
+        <v>127975</v>
+      </c>
+      <c r="BS10" s="3">
         <v>3630</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" s="3">
         <v>3512410</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" s="3">
         <v>264689</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" s="3">
         <v>2518254</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" s="3">
         <v>729467</v>
       </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
+      <c r="BX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="3">
         <v>343843</v>
       </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
+      <c r="BZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="3">
         <v>2331007</v>
       </c>
     </row>
@@ -3313,238 +3323,238 @@
       <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>23932787</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>15945946</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2714427</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>502708</v>
       </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <v>4317393</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>4317393</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>6497048</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>890290</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>890290</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>1024080</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>1024080</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>7986841</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>930416</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>421900</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="3">
         <v>421900</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="3">
         <v>508516</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="3">
         <v>508516</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="3">
         <v>1265</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="3">
         <v>1265</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
         <v>1265</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
         <v>5504772</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="3">
         <v>5101051</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="3">
         <v>403721</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="3">
         <v>1550388</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="3">
         <v>188080</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="3">
         <v>188080</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="3">
         <v>1362308</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="3">
         <v>23932787</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="3">
         <v>7927884</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="3">
         <v>388190</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="3">
         <v>388190</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="3">
         <v>2120338</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="3">
         <v>279271</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="3">
         <v>279271</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="3">
         <v>129609</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="3">
         <v>149662</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="3">
         <v>1052044</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="3">
         <v>1052044</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="3">
         <v>7769</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="3">
         <v>1044275</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="3">
         <v>4088041</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="3">
         <v>4088041</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="3">
         <v>195272</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="3">
         <v>3892769</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="3">
         <v>1994231</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" s="3">
         <v>737071</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" s="3">
         <v>737071</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" s="3">
         <v>35818</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="3">
         <v>701253</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="3">
         <v>542097</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="3">
         <v>542097</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="3">
         <v>542097</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="3">
         <v>71892</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="3">
         <v>71892</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" s="3">
         <v>643171</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" s="3">
         <v>14010672</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" s="3">
         <v>405701</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" s="3">
         <v>13604971</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" s="3">
         <v>5504517</v>
       </c>
-      <c r="BO11">
-        <v>-120840</v>
-      </c>
-      <c r="BP11">
+      <c r="BO11" s="3">
+        <v>120840</v>
+      </c>
+      <c r="BP11" s="3">
         <v>13567</v>
       </c>
-      <c r="BQ11">
-        <v>-11216</v>
-      </c>
-      <c r="BR11">
-        <v>-123191</v>
-      </c>
-      <c r="BS11">
+      <c r="BQ11" s="3">
+        <v>11216</v>
+      </c>
+      <c r="BR11" s="3">
+        <v>123191</v>
+      </c>
+      <c r="BS11" s="3">
         <v>3631</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" s="3">
         <v>5346602</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" s="3">
         <v>443986</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" s="3">
         <v>4041579</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" s="3">
         <v>861037</v>
       </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
+      <c r="BX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="3">
         <v>322893</v>
       </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
+      <c r="BZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="3">
         <v>2548168</v>
       </c>
     </row>
@@ -3557,33 +3567,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15DB0A8-C4DC-4C96-ADA7-350472E93263}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -3591,146 +3603,146 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" t="s">
         <v>90</v>
-      </c>
-      <c r="R1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V1" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>6173878</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>4293022</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1880856</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1072445</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>619980</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>307202</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>18593</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>163856</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
         <v>1016748</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>208337</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>808411</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>55691</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="3">
         <v>460420</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>404729</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>864102</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>199238</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>228859</v>
       </c>
-      <c r="T2">
-        <v>-29621</v>
-      </c>
-      <c r="U2">
+      <c r="T2" s="3">
+        <v>29621</v>
+      </c>
+      <c r="U2" s="3">
         <v>664864</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="3">
         <v>664864</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>8885</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>655979</v>
       </c>
     </row>
@@ -3738,73 +3750,73 @@
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>6828896</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>4592130</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2236766</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1225013</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>716358</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>328863</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>16431</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>196223</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>1230032</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>218279</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>1011753</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>73126</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>599974</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>526848</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>1084879</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>239575</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>274859</v>
       </c>
-      <c r="T3">
-        <v>-35284</v>
-      </c>
-      <c r="U3">
+      <c r="T3" s="3">
+        <v>35284</v>
+      </c>
+      <c r="U3" s="3">
         <v>845304</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="3">
         <v>845304</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>1837</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>843467</v>
       </c>
     </row>
@@ -3812,73 +3824,73 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>7840757</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>5356260</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2484497</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1390145</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>820471</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>386112</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>15902</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>199464</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>1344829</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>250477</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>1094352</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>133577</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>785503</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>651926</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>1227929</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>265613</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>271583</v>
       </c>
-      <c r="T4">
-        <v>-5970</v>
-      </c>
-      <c r="U4">
+      <c r="T4" s="3">
+        <v>5970</v>
+      </c>
+      <c r="U4" s="3">
         <v>962316</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="3">
         <v>962316</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
         <v>7590</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="3">
         <v>954726</v>
       </c>
     </row>
@@ -3886,73 +3898,73 @@
       <c r="A5">
         <v>2015</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>9760323</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>6994735</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2765588</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1607343</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>950252</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>458953</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>28351</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>226489</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>1477603</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>319358</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>1158245</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>145483</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1345633</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>1200150</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>1303728</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>137918</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>234116</v>
       </c>
-      <c r="T5">
-        <v>-96198</v>
-      </c>
-      <c r="U5">
+      <c r="T5" s="3">
+        <v>96198</v>
+      </c>
+      <c r="U5" s="3">
         <v>1165810</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="3">
         <v>1165810</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
         <v>9745</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="3">
         <v>1156065</v>
       </c>
     </row>
@@ -3960,147 +3972,147 @@
       <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>9367008</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>6731229</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>2635779</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1572105</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>924999</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>465383</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>15526</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>197249</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>1406931</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>343257</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>1063674</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>215840</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>816087</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>600247</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>1279514</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>151682</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>245415</v>
       </c>
-      <c r="T6">
-        <v>-93733</v>
-      </c>
-      <c r="U6">
+      <c r="T6" s="3">
+        <v>93733</v>
+      </c>
+      <c r="U6" s="3">
         <v>1127832</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="3">
         <v>1127832</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
         <v>10208</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="3">
         <v>1117624</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2017</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>9523830</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>6765383</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>2758447</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>1576035</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>894353</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>488681</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>23205</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>216206</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>1466287</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>283875</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>1182412</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>58036</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>851852</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>793816</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>1240448</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>99506</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>167681</v>
       </c>
-      <c r="T7">
-        <v>-68175</v>
-      </c>
-      <c r="U7">
+      <c r="T7" s="4">
+        <v>68175</v>
+      </c>
+      <c r="U7" s="4">
         <v>1140942</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>1140942</v>
       </c>
-      <c r="W7">
-        <v>-1207</v>
-      </c>
-      <c r="X7">
+      <c r="W7" s="4">
+        <v>1207</v>
+      </c>
+      <c r="X7" s="4">
         <v>1142149</v>
       </c>
     </row>
@@ -4108,73 +4120,73 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>11970090</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>8500816</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>3469274</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1962243</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>1139413</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>566631</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>22656</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>282284</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>3429</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>1824054</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>317023</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>1507031</v>
       </c>
-      <c r="N8">
-        <v>-9489</v>
-      </c>
-      <c r="O8">
+      <c r="N8" s="3">
+        <v>9489</v>
+      </c>
+      <c r="O8" s="3">
         <v>877674</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>887163</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <v>1497542</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>153394</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="3">
         <v>188185</v>
       </c>
-      <c r="T8">
-        <v>-34791</v>
-      </c>
-      <c r="U8">
+      <c r="T8" s="3">
+        <v>34791</v>
+      </c>
+      <c r="U8" s="3">
         <v>1344148</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="3">
         <v>1344148</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
         <v>5829</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="3">
         <v>1338319</v>
       </c>
     </row>
@@ -4182,73 +4194,73 @@
       <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>13347434</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>9394166</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>3953268</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2105534</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>1253165</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>548407</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>30278</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>344675</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>10435</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>2244517</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>396783</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>1847734</v>
       </c>
-      <c r="N9">
-        <v>-43283</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="3">
+        <v>43283</v>
+      </c>
+      <c r="O9" s="3">
         <v>917382</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>960665</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="3">
         <v>1804451</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>171996</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="3">
         <v>217098</v>
       </c>
-      <c r="T9">
-        <v>-45102</v>
-      </c>
-      <c r="U9">
+      <c r="T9" s="3">
+        <v>45102</v>
+      </c>
+      <c r="U9" s="3">
         <v>1632455</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="3">
         <v>1632455</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
         <v>17874</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="3">
         <v>1614581</v>
       </c>
     </row>
@@ -4256,73 +4268,73 @@
       <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>17469557</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>12032050</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>5437507</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>2621183</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>1506817</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>654469</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>46369</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>510136</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>3870</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>3267683</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>451359</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>2816324</v>
       </c>
-      <c r="N10">
-        <v>-69675</v>
-      </c>
-      <c r="O10">
+      <c r="N10" s="3">
+        <v>69675</v>
+      </c>
+      <c r="O10" s="3">
         <v>1020426</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>1090101</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>2746649</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>350692</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="3">
         <v>500450</v>
       </c>
-      <c r="T10">
-        <v>-149758</v>
-      </c>
-      <c r="U10">
+      <c r="T10" s="3">
+        <v>149758</v>
+      </c>
+      <c r="U10" s="3">
         <v>2395957</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="3">
         <v>2395957</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
         <v>55084</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="3">
         <v>2340873</v>
       </c>
     </row>
@@ -4330,73 +4342,73 @@
       <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>23563338</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>16602381</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>6960957</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>2802614</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>1833204</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>776007</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>422154</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>615557</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <v>4678521</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>520178</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>4158343</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>171693</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>992739</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>821046</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>4330036</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>672556</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>693854</v>
       </c>
-      <c r="T11">
-        <v>-21298</v>
-      </c>
-      <c r="U11">
+      <c r="T11" s="3">
+        <v>21298</v>
+      </c>
+      <c r="U11" s="3">
         <v>3657480</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="3">
         <v>3657480</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="3">
         <v>71533</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="3">
         <v>3585947</v>
       </c>
     </row>
@@ -4409,45 +4421,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0330BE4-D36B-4358-8229-5B7B97DF4E6C}">
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -4455,319 +4469,319 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>105</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>107</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>108</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>109</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>110</v>
       </c>
-      <c r="P1" t="s">
+      <c r="W1" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>114</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>115</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>116</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>117</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>118</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AF1" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AG1" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AH1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AI1" t="s">
         <v>123</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>893566</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1181424</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>864102</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>208337</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>108985</v>
       </c>
-      <c r="K2">
-        <v>-354559</v>
-      </c>
-      <c r="L2">
-        <v>-324344</v>
-      </c>
-      <c r="M2">
+      <c r="K2" s="3">
+        <v>354559</v>
+      </c>
+      <c r="L2" s="3">
+        <v>324344</v>
+      </c>
+      <c r="M2" s="3">
         <v>92326</v>
       </c>
-      <c r="N2">
-        <v>-310086</v>
-      </c>
-      <c r="O2">
+      <c r="N2" s="3">
+        <v>310086</v>
+      </c>
+      <c r="O2" s="3">
         <v>187545</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>66701</v>
       </c>
-      <c r="Q2">
-        <v>-381567</v>
-      </c>
-      <c r="R2">
-        <v>-500274</v>
-      </c>
-      <c r="S2">
-        <v>-477447</v>
-      </c>
-      <c r="T2">
-        <v>-244453</v>
-      </c>
-      <c r="U2">
-        <v>-255821</v>
-      </c>
-      <c r="V2">
+      <c r="Q2" s="3">
+        <v>381567</v>
+      </c>
+      <c r="R2" s="3">
+        <v>500274</v>
+      </c>
+      <c r="S2" s="3">
+        <v>477447</v>
+      </c>
+      <c r="T2" s="3">
+        <v>244453</v>
+      </c>
+      <c r="U2" s="3">
+        <v>255821</v>
+      </c>
+      <c r="V2" s="3">
         <v>22827</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
         <v>17359</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="3">
         <v>78521</v>
       </c>
-      <c r="Y2">
-        <v>-1141358</v>
-      </c>
-      <c r="Z2">
-        <v>-770846</v>
-      </c>
-      <c r="AA2">
+      <c r="Y2" s="3">
+        <v>1141358</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>770846</v>
+      </c>
+      <c r="AA2" s="3">
         <v>982720</v>
       </c>
-      <c r="AB2">
-        <v>-1753566</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>-318422</v>
-      </c>
-      <c r="AG2">
-        <v>-52090</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>-629359</v>
+      <c r="AB2" s="3">
+        <v>1753566</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>318422</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>52090</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>629359</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1027434</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>1656597</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1084879</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>218279</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>138564</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>15052</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>199823</v>
       </c>
-      <c r="K3">
-        <v>-655083</v>
-      </c>
-      <c r="L3">
-        <v>-299506</v>
-      </c>
-      <c r="M3">
-        <v>-146049</v>
-      </c>
-      <c r="N3">
-        <v>-396937</v>
-      </c>
-      <c r="O3">
+      <c r="K3" s="3">
+        <v>655083</v>
+      </c>
+      <c r="L3" s="3">
+        <v>299506</v>
+      </c>
+      <c r="M3" s="3">
+        <v>146049</v>
+      </c>
+      <c r="N3" s="3">
+        <v>396937</v>
+      </c>
+      <c r="O3" s="3">
         <v>187409</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>25920</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>54758</v>
       </c>
-      <c r="R3">
-        <v>-292079</v>
-      </c>
-      <c r="S3">
-        <v>-290049</v>
-      </c>
-      <c r="T3">
-        <v>-11437</v>
-      </c>
-      <c r="U3">
-        <v>-280642</v>
-      </c>
-      <c r="V3">
+      <c r="R3" s="3">
+        <v>292079</v>
+      </c>
+      <c r="S3" s="3">
+        <v>290049</v>
+      </c>
+      <c r="T3" s="3">
+        <v>11437</v>
+      </c>
+      <c r="U3" s="3">
+        <v>280642</v>
+      </c>
+      <c r="V3" s="3">
         <v>2030</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
         <v>261046</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="3">
         <v>83761</v>
       </c>
-      <c r="Y3">
-        <v>-10649</v>
-      </c>
-      <c r="Z3">
+      <c r="Y3" s="3">
+        <v>10649</v>
+      </c>
+      <c r="Z3" s="3">
         <v>380600</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="3">
         <v>1890267</v>
       </c>
-      <c r="AB3">
-        <v>-1509667</v>
-      </c>
-      <c r="AC3">
+      <c r="AB3" s="3">
+        <v>1509667</v>
+      </c>
+      <c r="AC3" s="3">
         <v>738</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="3">
         <v>738</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>-391987</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>391987</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="3">
         <v>1071543</v>
       </c>
     </row>
@@ -4775,748 +4789,748 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1147520</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1860652</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>1227929</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>250477</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>146296</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>2541</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>233409</v>
       </c>
-      <c r="K4">
-        <v>-726524</v>
-      </c>
-      <c r="L4">
-        <v>-199394</v>
-      </c>
-      <c r="M4">
-        <v>-237825</v>
-      </c>
-      <c r="N4">
-        <v>-445390</v>
-      </c>
-      <c r="O4">
+      <c r="K4" s="3">
+        <v>726524</v>
+      </c>
+      <c r="L4" s="3">
+        <v>199394</v>
+      </c>
+      <c r="M4" s="3">
+        <v>237825</v>
+      </c>
+      <c r="N4" s="3">
+        <v>445390</v>
+      </c>
+      <c r="O4" s="3">
         <v>156085</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>13392</v>
       </c>
-      <c r="Q4">
-        <v>-1389830</v>
-      </c>
-      <c r="R4">
-        <v>-613764</v>
-      </c>
-      <c r="S4">
-        <v>-601409</v>
-      </c>
-      <c r="T4">
-        <v>-145169</v>
-      </c>
-      <c r="U4">
-        <v>-468595</v>
-      </c>
-      <c r="V4">
+      <c r="Q4" s="3">
+        <v>1389830</v>
+      </c>
+      <c r="R4" s="3">
+        <v>613764</v>
+      </c>
+      <c r="S4" s="3">
+        <v>601409</v>
+      </c>
+      <c r="T4" s="3">
+        <v>145169</v>
+      </c>
+      <c r="U4" s="3">
+        <v>468595</v>
+      </c>
+      <c r="V4" s="3">
         <v>12355</v>
       </c>
-      <c r="W4">
-        <v>-849057</v>
-      </c>
-      <c r="X4">
+      <c r="W4" s="3">
+        <v>849057</v>
+      </c>
+      <c r="X4" s="3">
         <v>60636</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="3">
         <v>196526</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="3">
         <v>654938</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="3">
         <v>1517761</v>
       </c>
-      <c r="AB4">
-        <v>-862823</v>
-      </c>
-      <c r="AC4">
+      <c r="AB4" s="3">
+        <v>862823</v>
+      </c>
+      <c r="AC4" s="3">
         <v>1104</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="3">
         <v>1104</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>-459516</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>-45784</v>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>459516</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>45784</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>982442</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2140082</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>1303728</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>319358</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>149774</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>5655</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>361567</v>
       </c>
-      <c r="K5">
-        <v>-1202117</v>
-      </c>
-      <c r="L5">
-        <v>-651516</v>
-      </c>
-      <c r="M5">
-        <v>-67035</v>
-      </c>
-      <c r="N5">
-        <v>-459869</v>
-      </c>
-      <c r="O5">
-        <v>-23697</v>
-      </c>
-      <c r="P5">
+      <c r="K5" s="3">
+        <v>1202117</v>
+      </c>
+      <c r="L5" s="3">
+        <v>651516</v>
+      </c>
+      <c r="M5" s="3">
+        <v>67035</v>
+      </c>
+      <c r="N5" s="3">
+        <v>459869</v>
+      </c>
+      <c r="O5" s="3">
+        <v>23697</v>
+      </c>
+      <c r="P5" s="3">
         <v>44477</v>
       </c>
-      <c r="Q5">
-        <v>-903966</v>
-      </c>
-      <c r="R5">
-        <v>-636746</v>
-      </c>
-      <c r="S5">
-        <v>-618576</v>
-      </c>
-      <c r="T5">
-        <v>-129678</v>
-      </c>
-      <c r="U5">
-        <v>-507068</v>
-      </c>
-      <c r="V5">
+      <c r="Q5" s="3">
+        <v>903966</v>
+      </c>
+      <c r="R5" s="3">
+        <v>636746</v>
+      </c>
+      <c r="S5" s="3">
+        <v>618576</v>
+      </c>
+      <c r="T5" s="3">
+        <v>129678</v>
+      </c>
+      <c r="U5" s="3">
+        <v>507068</v>
+      </c>
+      <c r="V5" s="3">
         <v>18170</v>
       </c>
-      <c r="W5">
-        <v>-285390</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>-157581</v>
-      </c>
-      <c r="Z5">
+      <c r="W5" s="3">
+        <v>285390</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>157581</v>
+      </c>
+      <c r="Z5" s="3">
         <v>370965</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="3">
         <v>2598115</v>
       </c>
-      <c r="AB5">
-        <v>-2227150</v>
-      </c>
-      <c r="AC5">
-        <v>-8651</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>-8651</v>
-      </c>
-      <c r="AF5">
-        <v>-519895</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
+      <c r="AB5" s="3">
+        <v>2227150</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>8651</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>8651</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>519895</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
         <v>71945</v>
       </c>
-      <c r="AI5">
-        <v>-7160</v>
+      <c r="AI5" s="3">
+        <v>7160</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2130912</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>2089478</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1279514</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>343257</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>191238</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>3962</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>271507</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>151470</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>89449</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>276537</v>
       </c>
-      <c r="N6">
-        <v>-434226</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="3">
+        <v>434226</v>
+      </c>
+      <c r="O6" s="3">
         <v>219710</v>
       </c>
-      <c r="P6">
-        <v>-110036</v>
-      </c>
-      <c r="Q6">
-        <v>-852730</v>
-      </c>
-      <c r="R6">
-        <v>-654926</v>
-      </c>
-      <c r="S6">
-        <v>-641315</v>
-      </c>
-      <c r="T6">
-        <v>-292301</v>
-      </c>
-      <c r="U6">
-        <v>-362625</v>
-      </c>
-      <c r="V6">
+      <c r="P6" s="3">
+        <v>110036</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>852730</v>
+      </c>
+      <c r="R6" s="3">
+        <v>654926</v>
+      </c>
+      <c r="S6" s="3">
+        <v>641315</v>
+      </c>
+      <c r="T6" s="3">
+        <v>292301</v>
+      </c>
+      <c r="U6" s="3">
+        <v>362625</v>
+      </c>
+      <c r="V6" s="3">
         <v>13611</v>
       </c>
-      <c r="W6">
-        <v>-215429</v>
-      </c>
-      <c r="X6">
+      <c r="W6" s="3">
+        <v>215429</v>
+      </c>
+      <c r="X6" s="3">
         <v>4014</v>
       </c>
-      <c r="Y6">
-        <v>-1063919</v>
-      </c>
-      <c r="Z6">
-        <v>-542334</v>
-      </c>
-      <c r="AA6">
+      <c r="Y6" s="3">
+        <v>1063919</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>542334</v>
+      </c>
+      <c r="AA6" s="3">
         <v>1142860</v>
       </c>
-      <c r="AB6">
-        <v>-1685194</v>
-      </c>
-      <c r="AC6">
+      <c r="AB6" s="3">
+        <v>1685194</v>
+      </c>
+      <c r="AC6" s="3">
         <v>5145</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="3">
         <v>5145</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>-526730</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>-100716</v>
-      </c>
-      <c r="AI6">
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>526730</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>100716</v>
+      </c>
+      <c r="AI6" s="3">
         <v>113547</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2017</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>1290136</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>2029497</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>1240448</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>283875</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>199767</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>11954</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>293453</v>
       </c>
-      <c r="K7">
-        <v>-739361</v>
-      </c>
-      <c r="L7">
-        <v>-104890</v>
-      </c>
-      <c r="M7">
-        <v>-172271</v>
-      </c>
-      <c r="N7">
-        <v>-354430</v>
-      </c>
-      <c r="O7">
-        <v>-107770</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>-382756</v>
-      </c>
-      <c r="R7">
-        <v>-361605</v>
-      </c>
-      <c r="S7">
-        <v>-346151</v>
-      </c>
-      <c r="T7">
-        <v>-95828</v>
-      </c>
-      <c r="U7">
-        <v>-265777</v>
-      </c>
-      <c r="V7">
+      <c r="K7" s="4">
+        <v>739361</v>
+      </c>
+      <c r="L7" s="4">
+        <v>104890</v>
+      </c>
+      <c r="M7" s="4">
+        <v>172271</v>
+      </c>
+      <c r="N7" s="4">
+        <v>354430</v>
+      </c>
+      <c r="O7" s="4">
+        <v>107770</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>382756</v>
+      </c>
+      <c r="R7" s="4">
+        <v>361605</v>
+      </c>
+      <c r="S7" s="4">
+        <v>346151</v>
+      </c>
+      <c r="T7" s="4">
+        <v>95828</v>
+      </c>
+      <c r="U7" s="4">
+        <v>265777</v>
+      </c>
+      <c r="V7" s="4">
         <v>15454</v>
       </c>
-      <c r="W7">
-        <v>-37759</v>
-      </c>
-      <c r="X7">
+      <c r="W7" s="4">
+        <v>37759</v>
+      </c>
+      <c r="X7" s="4">
         <v>1154</v>
       </c>
-      <c r="Y7">
-        <v>-1153007</v>
-      </c>
-      <c r="Z7">
-        <v>-599037</v>
-      </c>
-      <c r="AA7">
+      <c r="Y7" s="4">
+        <v>1153007</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>599037</v>
+      </c>
+      <c r="AA7" s="4">
         <v>1161890</v>
       </c>
-      <c r="AB7">
-        <v>-1760927</v>
-      </c>
-      <c r="AC7">
-        <v>-5468</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>-5468</v>
-      </c>
-      <c r="AF7">
-        <v>-548502</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
+      <c r="AB7" s="4">
+        <v>1760927</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>5468</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>5468</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>548502</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
         <v>17650</v>
       </c>
-      <c r="AI7">
-        <v>-227977</v>
+      <c r="AI7" s="4">
+        <v>227977</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1299655</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>2058264</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>1497542</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>317023</v>
       </c>
-      <c r="F8">
-        <v>-94404</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="3">
+        <v>94404</v>
+      </c>
+      <c r="G8" s="3">
         <v>9881</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>-3429</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3429</v>
+      </c>
+      <c r="J8" s="3">
         <v>331651</v>
       </c>
-      <c r="K8">
-        <v>-758609</v>
-      </c>
-      <c r="L8">
-        <v>-188969</v>
-      </c>
-      <c r="M8">
-        <v>-441614</v>
-      </c>
-      <c r="N8">
-        <v>-392051</v>
-      </c>
-      <c r="O8">
+      <c r="K8" s="3">
+        <v>758609</v>
+      </c>
+      <c r="L8" s="3">
+        <v>188969</v>
+      </c>
+      <c r="M8" s="3">
+        <v>441614</v>
+      </c>
+      <c r="N8" s="3">
+        <v>392051</v>
+      </c>
+      <c r="O8" s="3">
         <v>264025</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>-833290</v>
-      </c>
-      <c r="R8">
-        <v>-429403</v>
-      </c>
-      <c r="S8">
-        <v>-418050</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>-429403</v>
-      </c>
-      <c r="V8">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>833290</v>
+      </c>
+      <c r="R8" s="3">
+        <v>429403</v>
+      </c>
+      <c r="S8" s="3">
+        <v>418050</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>429403</v>
+      </c>
+      <c r="V8" s="3">
         <v>11353</v>
       </c>
-      <c r="W8">
-        <v>-296983</v>
-      </c>
-      <c r="X8">
-        <v>-118257</v>
-      </c>
-      <c r="Y8">
-        <v>-1446435</v>
-      </c>
-      <c r="Z8">
-        <v>-844609</v>
-      </c>
-      <c r="AA8">
+      <c r="W8" s="3">
+        <v>296983</v>
+      </c>
+      <c r="X8" s="3">
+        <v>118257</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1446435</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>844609</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1005626</v>
       </c>
-      <c r="AB8">
-        <v>-1850235</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>-603957</v>
-      </c>
-      <c r="AG8">
+      <c r="AB8" s="3">
+        <v>1850235</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>603957</v>
+      </c>
+      <c r="AG8" s="3">
         <v>2131</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="3">
         <v>23085</v>
       </c>
-      <c r="AI8">
-        <v>-956985</v>
+      <c r="AI8" s="3">
+        <v>956985</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1907853</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>2495657</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1804451</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>396783</v>
       </c>
-      <c r="F9">
-        <v>-21583</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3">
+        <v>21583</v>
+      </c>
+      <c r="G9" s="3">
         <v>13998</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-10435</v>
-      </c>
-      <c r="J9">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10435</v>
+      </c>
+      <c r="J9" s="3">
         <v>312443</v>
       </c>
-      <c r="K9">
-        <v>-587804</v>
-      </c>
-      <c r="L9">
-        <v>-150828</v>
-      </c>
-      <c r="M9">
-        <v>-311532</v>
-      </c>
-      <c r="N9">
-        <v>-446634</v>
-      </c>
-      <c r="O9">
+      <c r="K9" s="3">
+        <v>587804</v>
+      </c>
+      <c r="L9" s="3">
+        <v>150828</v>
+      </c>
+      <c r="M9" s="3">
+        <v>311532</v>
+      </c>
+      <c r="N9" s="3">
+        <v>446634</v>
+      </c>
+      <c r="O9" s="3">
         <v>321190</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>-59748</v>
-      </c>
-      <c r="R9">
-        <v>-524482</v>
-      </c>
-      <c r="S9">
-        <v>-480627</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-524482</v>
-      </c>
-      <c r="V9">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>59748</v>
+      </c>
+      <c r="R9" s="3">
+        <v>524482</v>
+      </c>
+      <c r="S9" s="3">
+        <v>480627</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>524482</v>
+      </c>
+      <c r="V9" s="3">
         <v>43855</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
         <v>542709</v>
       </c>
-      <c r="X9">
-        <v>-121830</v>
-      </c>
-      <c r="Y9">
-        <v>-2115441</v>
-      </c>
-      <c r="Z9">
-        <v>-1438359</v>
-      </c>
-      <c r="AA9">
+      <c r="X9" s="3">
+        <v>121830</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>2115441</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1438359</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1407993</v>
       </c>
-      <c r="AB9">
-        <v>-2846352</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>-680924</v>
-      </c>
-      <c r="AG9">
+      <c r="AB9" s="3">
+        <v>2846352</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>680924</v>
+      </c>
+      <c r="AG9" s="3">
         <v>3842</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="3">
         <v>7680</v>
       </c>
-      <c r="AI9">
-        <v>-259656</v>
+      <c r="AI9" s="3">
+        <v>259656</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>3930032</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>3800156</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>2746649</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>451359</v>
       </c>
-      <c r="F10">
-        <v>-27154</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="3">
+        <v>27154</v>
+      </c>
+      <c r="G10" s="3">
         <v>7869</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-3870</v>
-      </c>
-      <c r="J10">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3870</v>
+      </c>
+      <c r="J10" s="3">
         <v>625303</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>129876</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>487751</v>
       </c>
-      <c r="M10">
-        <v>-439340</v>
-      </c>
-      <c r="N10">
-        <v>-704073</v>
-      </c>
-      <c r="O10">
+      <c r="M10" s="3">
+        <v>439340</v>
+      </c>
+      <c r="N10" s="3">
+        <v>704073</v>
+      </c>
+      <c r="O10" s="3">
         <v>785538</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>207375</v>
       </c>
-      <c r="R10">
-        <v>-558546</v>
-      </c>
-      <c r="S10">
-        <v>-535146</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>-558546</v>
-      </c>
-      <c r="V10">
+      <c r="R10" s="3">
+        <v>558546</v>
+      </c>
+      <c r="S10" s="3">
+        <v>535146</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>558546</v>
+      </c>
+      <c r="V10" s="3">
         <v>23400</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
         <v>886856</v>
       </c>
-      <c r="X10">
-        <v>-144335</v>
-      </c>
-      <c r="Y10">
-        <v>-2360601</v>
-      </c>
-      <c r="Z10">
-        <v>-1474909</v>
-      </c>
-      <c r="AA10">
+      <c r="X10" s="3">
+        <v>144335</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>2360601</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1474909</v>
+      </c>
+      <c r="AA10" s="3">
         <v>211487</v>
       </c>
-      <c r="AB10">
-        <v>-1686396</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>-881332</v>
-      </c>
-      <c r="AG10">
-        <v>-4360</v>
-      </c>
-      <c r="AH10">
+      <c r="AB10" s="3">
+        <v>1686396</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>881332</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>4360</v>
+      </c>
+      <c r="AH10" s="3">
         <v>169290</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="3">
         <v>1946096</v>
       </c>
     </row>
@@ -5524,107 +5538,107 @@
       <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>939385</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>4899803</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>4330036</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>520178</v>
       </c>
-      <c r="F11">
-        <v>-23972</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="3">
+        <v>23972</v>
+      </c>
+      <c r="G11" s="3">
         <v>10593</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>62968</v>
       </c>
-      <c r="K11">
-        <v>-3960418</v>
-      </c>
-      <c r="L11">
-        <v>-1357761</v>
-      </c>
-      <c r="M11">
-        <v>-2673253</v>
-      </c>
-      <c r="N11">
-        <v>-1152552</v>
-      </c>
-      <c r="O11">
+      <c r="K11" s="3">
+        <v>3960418</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1357761</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2673253</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1152552</v>
+      </c>
+      <c r="O11" s="3">
         <v>1223148</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>-683870</v>
-      </c>
-      <c r="R11">
-        <v>-847344</v>
-      </c>
-      <c r="S11">
-        <v>-796985</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>-847344</v>
-      </c>
-      <c r="V11">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>683870</v>
+      </c>
+      <c r="R11" s="3">
+        <v>847344</v>
+      </c>
+      <c r="S11" s="3">
+        <v>796985</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>847344</v>
+      </c>
+      <c r="V11" s="3">
         <v>50359</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="3">
         <v>113115</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>-1443405</v>
-      </c>
-      <c r="Z11">
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1443405</v>
+      </c>
+      <c r="Z11" s="3">
         <v>209377</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="3">
         <v>503206</v>
       </c>
-      <c r="AB11">
-        <v>-293829</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>-1657345</v>
-      </c>
-      <c r="AG11">
+      <c r="AB11" s="3">
+        <v>293829</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>1657345</v>
+      </c>
+      <c r="AG11" s="3">
         <v>4563</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="3">
         <v>10177</v>
       </c>
-      <c r="AI11">
-        <v>-1177713</v>
+      <c r="AI11" s="3">
+        <v>1177713</v>
       </c>
     </row>
   </sheetData>
@@ -5636,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F8487-9E81-4945-9766-900218F74E8C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5653,26 +5667,26 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>6173878</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5680,13 +5694,13 @@
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>6828896</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5694,13 +5708,13 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>7840757</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5708,13 +5722,13 @@
       <c r="A5">
         <v>2015</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>9760323</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5722,14 +5736,14 @@
       <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>9367008</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f>GEOMEAN(B2:B6)</f>
         <v>7871659.9303255863</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5737,14 +5751,14 @@
       <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>9523830</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C11" si="0">GEOMEAN(B3:B7)</f>
         <v>8584540.2615572009</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f>C7/C6-1</f>
         <v>9.0562897475441106E-2</v>
       </c>
@@ -5753,14 +5767,14 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>11970090</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>9604315.6572004557</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" ref="D8:D11" si="1">C8/C7-1</f>
         <v>0.11879208024801913</v>
       </c>
@@ -5769,14 +5783,14 @@
       <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>13347434</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>10682536.434956588</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" si="1"/>
         <v>0.11226419624679651</v>
       </c>
@@ -5785,14 +5799,14 @@
       <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>17469557</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>12001566.148300141</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="1"/>
         <v>0.12347533016852408</v>
       </c>
@@ -5801,14 +5815,14 @@
       <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>23563338</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>14433282.348319583</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <f t="shared" si="1"/>
         <v>0.20261657270154365</v>
       </c>
@@ -5833,7 +5847,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1">
         <v>41639</v>
@@ -5865,7 +5879,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>620431.51399999997</v>
@@ -5915,16 +5929,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\TESTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F404A-BD34-4452-87A5-8B9558380982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22591F29-EA25-4410-9B25-88BE0AE9D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -461,9 +461,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -528,7 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFDC6F4-1CB7-4035-9B7A-98D0BEE819CC}">
   <dimension ref="A1:CA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -5650,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F8487-9E81-4945-9766-900218F74E8C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,13 +5676,13 @@
       <c r="A2">
         <v>2012</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>6173878</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
@@ -5694,13 +5690,13 @@
       <c r="A3">
         <v>2013</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>6828896</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
@@ -5708,13 +5704,13 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>7840757</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -5722,13 +5718,13 @@
       <c r="A5">
         <v>2015</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>9760323</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
@@ -5736,14 +5732,14 @@
       <c r="A6">
         <v>2016</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>9367008</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <f>GEOMEAN(B2:B6)</f>
         <v>7871659.9303255863</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -5751,14 +5747,14 @@
       <c r="A7">
         <v>2017</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>9523830</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <f t="shared" ref="C7:C11" si="0">GEOMEAN(B3:B7)</f>
         <v>8584540.2615572009</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <f>C7/C6-1</f>
         <v>9.0562897475441106E-2</v>
       </c>
@@ -5767,14 +5763,14 @@
       <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>11970090</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>9604315.6572004557</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <f t="shared" ref="D8:D11" si="1">C8/C7-1</f>
         <v>0.11879208024801913</v>
       </c>
@@ -5783,14 +5779,14 @@
       <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>13347434</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>10682536.434956588</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>0.11226419624679651</v>
       </c>
@@ -5799,14 +5795,14 @@
       <c r="A10">
         <v>2020</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>17469557</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>12001566.148300141</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>0.12347533016852408</v>
       </c>
@@ -5815,14 +5811,14 @@
       <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>23563338</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>14433282.348319583</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>0.20261657270154365</v>
       </c>

--- a/Dados_WEGE3.xlsx
+++ b/Dados_WEGE3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\TESTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22591F29-EA25-4410-9B25-88BE0AE9D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5600A1-F48F-4223-ACE8-3B905248ABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E798C272-72C9-4698-80AA-983AF1B3E4A4}"/>
   </bookViews>
   <sheets>
     <sheet name="BP_WEGE3" sheetId="1" r:id="rId1"/>
@@ -274,15 +274,24 @@
     <t>=Lucro Bruto</t>
   </si>
   <si>
+    <t>-Desp (receit) operac</t>
+  </si>
+  <si>
     <t>+Despesas com Vendas</t>
   </si>
   <si>
     <t>+Despesas administrativ</t>
   </si>
   <si>
+    <t>-Outras rec operacionais</t>
+  </si>
+  <si>
     <t>+Outras Despesas Operac</t>
   </si>
   <si>
+    <t>-Equivalenc patrimonial</t>
+  </si>
+  <si>
     <t>"= EBITDA"</t>
   </si>
   <si>
@@ -298,9 +307,15 @@
     <t>+Receitas Financeiras</t>
   </si>
   <si>
+    <t>-Despesas Financeiras</t>
+  </si>
+  <si>
     <t>=LAIR</t>
   </si>
   <si>
+    <t>-Imp renda e contrib soc</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Provisao impost de rend</t>
   </si>
   <si>
@@ -313,6 +328,9 @@
     <t>=Lucro Consolidado</t>
   </si>
   <si>
+    <t>-Partic acion minoritar</t>
+  </si>
+  <si>
     <t>=Lucro liquido</t>
   </si>
   <si>
@@ -437,24 +455,6 @@
   </si>
   <si>
     <t>taxa de crescimento</t>
-  </si>
-  <si>
-    <t>0Desp (receit) operac</t>
-  </si>
-  <si>
-    <t>0Outras rec operacionais</t>
-  </si>
-  <si>
-    <t>0Equivalenc patrimonial</t>
-  </si>
-  <si>
-    <t>0Despesas Financeiras</t>
-  </si>
-  <si>
-    <t>0Imp renda e contrib soc</t>
-  </si>
-  <si>
-    <t>0Partic acion minoritar</t>
   </si>
 </sst>
 </file>
@@ -842,7 +842,7 @@
   <dimension ref="A1:CA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3563,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15DB0A8-C4DC-4C96-ADA7-350472E93263}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,64 +3608,64 @@
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="W1" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="X1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -4418,7 +4418,7 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AI11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,106 +4465,106 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="O1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="Q1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="R1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="S1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="U1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="V1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="W1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="X1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Z1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AA1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AB1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AC1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AD1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AE1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AF1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AG1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AH1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AI1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -5646,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604F8487-9E81-4945-9766-900218F74E8C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
@@ -5666,10 +5666,10 @@
         <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,7 +5843,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1">
         <v>41639</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>620431.51399999997</v>
@@ -5925,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
